--- a/AAII_Financials/Quarterly/CAE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAE_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>CAE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>695200</v>
+        <v>710200</v>
       </c>
       <c r="E8" s="3">
-        <v>675100</v>
+        <v>671100</v>
       </c>
       <c r="F8" s="3">
-        <v>621500</v>
+        <v>651700</v>
       </c>
       <c r="G8" s="3">
-        <v>769400</v>
+        <v>600000</v>
       </c>
       <c r="H8" s="3">
-        <v>614500</v>
+        <v>742700</v>
       </c>
       <c r="I8" s="3">
-        <v>559900</v>
+        <v>593200</v>
       </c>
       <c r="J8" s="3">
+        <v>540500</v>
+      </c>
+      <c r="K8" s="3">
         <v>543500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>581000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>616400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>460100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>488400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>564400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>524500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>488200</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>475800</v>
+        <v>483700</v>
       </c>
       <c r="E9" s="3">
-        <v>496900</v>
+        <v>459300</v>
       </c>
       <c r="F9" s="3">
-        <v>438000</v>
+        <v>479700</v>
       </c>
       <c r="G9" s="3">
-        <v>552500</v>
+        <v>422900</v>
       </c>
       <c r="H9" s="3">
-        <v>438900</v>
+        <v>533400</v>
       </c>
       <c r="I9" s="3">
-        <v>408200</v>
+        <v>423700</v>
       </c>
       <c r="J9" s="3">
+        <v>394100</v>
+      </c>
+      <c r="K9" s="3">
         <v>378900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>387100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>426100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>325000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>336800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>383900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>371400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>344600</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>219400</v>
+        <v>226500</v>
       </c>
       <c r="E10" s="3">
-        <v>178200</v>
+        <v>211800</v>
       </c>
       <c r="F10" s="3">
-        <v>183500</v>
+        <v>172000</v>
       </c>
       <c r="G10" s="3">
-        <v>216800</v>
+        <v>177100</v>
       </c>
       <c r="H10" s="3">
-        <v>175600</v>
+        <v>209300</v>
       </c>
       <c r="I10" s="3">
-        <v>151700</v>
+        <v>169500</v>
       </c>
       <c r="J10" s="3">
+        <v>146400</v>
+      </c>
+      <c r="K10" s="3">
         <v>164600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>193900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>190300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>135100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>151600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>180500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>153100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>143600</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,55 +907,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>25300</v>
+        <v>26300</v>
       </c>
       <c r="E12" s="3">
-        <v>26900</v>
+        <v>24400</v>
       </c>
       <c r="F12" s="3">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="G12" s="3">
-        <v>7500</v>
+        <v>23200</v>
       </c>
       <c r="H12" s="3">
-        <v>23400</v>
+        <v>7200</v>
       </c>
       <c r="I12" s="3">
-        <v>21900</v>
+        <v>22600</v>
       </c>
       <c r="J12" s="3">
+        <v>21100</v>
+      </c>
+      <c r="K12" s="3">
         <v>23600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>17000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>22200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>22300</v>
-      </c>
-      <c r="N12" s="3">
-        <v>24000</v>
       </c>
       <c r="O12" s="3">
         <v>24000</v>
       </c>
       <c r="P12" s="3">
+        <v>24000</v>
+      </c>
+      <c r="Q12" s="3">
         <v>22100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -988,13 +1005,16 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>27300</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
@@ -1002,8 +1022,8 @@
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1011,32 +1031,35 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-10600</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>16200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>578600</v>
+        <v>603700</v>
       </c>
       <c r="E17" s="3">
-        <v>581200</v>
+        <v>558500</v>
       </c>
       <c r="F17" s="3">
-        <v>538000</v>
+        <v>561000</v>
       </c>
       <c r="G17" s="3">
-        <v>641100</v>
+        <v>519400</v>
       </c>
       <c r="H17" s="3">
-        <v>529400</v>
+        <v>618800</v>
       </c>
       <c r="I17" s="3">
-        <v>485600</v>
+        <v>511100</v>
       </c>
       <c r="J17" s="3">
+        <v>468800</v>
+      </c>
+      <c r="K17" s="3">
         <v>469400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>476000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>503800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>383600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>420400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>486900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>448700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>429700</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>116600</v>
+        <v>106500</v>
       </c>
       <c r="E18" s="3">
-        <v>93900</v>
+        <v>112600</v>
       </c>
       <c r="F18" s="3">
-        <v>83500</v>
+        <v>90700</v>
       </c>
       <c r="G18" s="3">
-        <v>128300</v>
+        <v>80600</v>
       </c>
       <c r="H18" s="3">
-        <v>85100</v>
+        <v>123800</v>
       </c>
       <c r="I18" s="3">
-        <v>74300</v>
+        <v>82100</v>
       </c>
       <c r="J18" s="3">
+        <v>71700</v>
+      </c>
+      <c r="K18" s="3">
         <v>74100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>105000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>112500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>76500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>67900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>77500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>75700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>58500</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,128 +1244,135 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3800</v>
+        <v>-3100</v>
       </c>
       <c r="E20" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="F20" s="3">
-        <v>-4200</v>
+        <v>-3500</v>
       </c>
       <c r="G20" s="3">
-        <v>-4700</v>
+        <v>-4100</v>
       </c>
       <c r="H20" s="3">
-        <v>-2900</v>
+        <v>-4500</v>
       </c>
       <c r="I20" s="3">
         <v>-2800</v>
       </c>
       <c r="J20" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>171300</v>
+        <v>156700</v>
       </c>
       <c r="E21" s="3">
-        <v>147100</v>
+        <v>165300</v>
       </c>
       <c r="F21" s="3">
-        <v>134800</v>
+        <v>142000</v>
       </c>
       <c r="G21" s="3">
-        <v>171400</v>
+        <v>130200</v>
       </c>
       <c r="H21" s="3">
-        <v>122000</v>
+        <v>165500</v>
       </c>
       <c r="I21" s="3">
-        <v>110700</v>
+        <v>117800</v>
       </c>
       <c r="J21" s="3">
+        <v>106800</v>
+      </c>
+      <c r="K21" s="3">
         <v>110600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>136800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>150600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>113900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>108400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>118800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>118000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>95700</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>23800</v>
+        <v>24900</v>
       </c>
       <c r="E22" s="3">
-        <v>22200</v>
+        <v>23000</v>
       </c>
       <c r="F22" s="3">
-        <v>22100</v>
+        <v>21400</v>
       </c>
       <c r="G22" s="3">
-        <v>14700</v>
+        <v>21300</v>
       </c>
       <c r="H22" s="3">
+        <v>14200</v>
+      </c>
+      <c r="I22" s="3">
+        <v>11300</v>
+      </c>
+      <c r="J22" s="3">
+        <v>11800</v>
+      </c>
+      <c r="K22" s="3">
         <v>11700</v>
-      </c>
-      <c r="I22" s="3">
-        <v>12200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>11700</v>
-      </c>
-      <c r="K22" s="3">
-        <v>14100</v>
       </c>
       <c r="L22" s="3">
         <v>14100</v>
@@ -1344,110 +1384,119 @@
         <v>14100</v>
       </c>
       <c r="O22" s="3">
+        <v>14100</v>
+      </c>
+      <c r="P22" s="3">
         <v>14400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>14000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>89000</v>
+        <v>78500</v>
       </c>
       <c r="E23" s="3">
+        <v>85900</v>
+      </c>
+      <c r="F23" s="3">
+        <v>65800</v>
+      </c>
+      <c r="G23" s="3">
+        <v>55200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>105200</v>
+      </c>
+      <c r="I23" s="3">
         <v>68100</v>
       </c>
-      <c r="F23" s="3">
-        <v>57200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>108900</v>
-      </c>
-      <c r="H23" s="3">
-        <v>70500</v>
-      </c>
-      <c r="I23" s="3">
-        <v>59300</v>
-      </c>
       <c r="J23" s="3">
+        <v>57300</v>
+      </c>
+      <c r="K23" s="3">
         <v>62100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>87100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>99700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>63400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>54400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>65000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>61500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>13900</v>
+        <v>19500</v>
       </c>
       <c r="E24" s="3">
-        <v>11700</v>
+        <v>13400</v>
       </c>
       <c r="F24" s="3">
-        <v>9800</v>
+        <v>11300</v>
       </c>
       <c r="G24" s="3">
-        <v>14500</v>
+        <v>9400</v>
       </c>
       <c r="H24" s="3">
-        <v>10700</v>
+        <v>14000</v>
       </c>
       <c r="I24" s="3">
+        <v>10300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K24" s="3">
+        <v>8200</v>
+      </c>
+      <c r="L24" s="3">
+        <v>10200</v>
+      </c>
+      <c r="M24" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="N24" s="3">
+        <v>17200</v>
+      </c>
+      <c r="O24" s="3">
+        <v>8900</v>
+      </c>
+      <c r="P24" s="3">
         <v>11400</v>
       </c>
-      <c r="J24" s="3">
-        <v>8200</v>
-      </c>
-      <c r="K24" s="3">
-        <v>10200</v>
-      </c>
-      <c r="L24" s="3">
-        <v>-8800</v>
-      </c>
-      <c r="M24" s="3">
-        <v>17200</v>
-      </c>
-      <c r="N24" s="3">
-        <v>8900</v>
-      </c>
-      <c r="O24" s="3">
-        <v>11400</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>75100</v>
+        <v>58900</v>
       </c>
       <c r="E26" s="3">
-        <v>56500</v>
+        <v>72500</v>
       </c>
       <c r="F26" s="3">
-        <v>47400</v>
+        <v>54500</v>
       </c>
       <c r="G26" s="3">
-        <v>94400</v>
+        <v>45800</v>
       </c>
       <c r="H26" s="3">
-        <v>59800</v>
+        <v>91100</v>
       </c>
       <c r="I26" s="3">
-        <v>47900</v>
+        <v>57800</v>
       </c>
       <c r="J26" s="3">
+        <v>46200</v>
+      </c>
+      <c r="K26" s="3">
         <v>53900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>77000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>108500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>46200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>45500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>53600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>53100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>73500</v>
+        <v>57000</v>
       </c>
       <c r="E27" s="3">
-        <v>55600</v>
+        <v>71000</v>
       </c>
       <c r="F27" s="3">
-        <v>46300</v>
+        <v>53600</v>
       </c>
       <c r="G27" s="3">
-        <v>92100</v>
+        <v>44700</v>
       </c>
       <c r="H27" s="3">
-        <v>58400</v>
+        <v>88900</v>
       </c>
       <c r="I27" s="3">
-        <v>45700</v>
+        <v>56400</v>
       </c>
       <c r="J27" s="3">
+        <v>44100</v>
+      </c>
+      <c r="K27" s="3">
         <v>52200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>74500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>107000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>44900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>44400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>51800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>51900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1660,8 +1721,8 @@
       <c r="J29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1673,16 +1734,19 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-500</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>200</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3800</v>
+        <v>3100</v>
       </c>
       <c r="E32" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="F32" s="3">
-        <v>4200</v>
+        <v>3500</v>
       </c>
       <c r="G32" s="3">
-        <v>4700</v>
+        <v>4100</v>
       </c>
       <c r="H32" s="3">
-        <v>2900</v>
+        <v>4500</v>
       </c>
       <c r="I32" s="3">
         <v>2800</v>
       </c>
       <c r="J32" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>73500</v>
+        <v>57000</v>
       </c>
       <c r="E33" s="3">
-        <v>55600</v>
+        <v>71000</v>
       </c>
       <c r="F33" s="3">
-        <v>46300</v>
+        <v>53600</v>
       </c>
       <c r="G33" s="3">
-        <v>92100</v>
+        <v>44700</v>
       </c>
       <c r="H33" s="3">
-        <v>58400</v>
+        <v>88900</v>
       </c>
       <c r="I33" s="3">
-        <v>45700</v>
+        <v>56400</v>
       </c>
       <c r="J33" s="3">
+        <v>44100</v>
+      </c>
+      <c r="K33" s="3">
         <v>52200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>74500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>107000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>44900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>44400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>51200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>52100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>73500</v>
+        <v>57000</v>
       </c>
       <c r="E35" s="3">
-        <v>55600</v>
+        <v>71000</v>
       </c>
       <c r="F35" s="3">
-        <v>46300</v>
+        <v>53600</v>
       </c>
       <c r="G35" s="3">
-        <v>92100</v>
+        <v>44700</v>
       </c>
       <c r="H35" s="3">
-        <v>58400</v>
+        <v>88900</v>
       </c>
       <c r="I35" s="3">
-        <v>45700</v>
+        <v>56400</v>
       </c>
       <c r="J35" s="3">
+        <v>44100</v>
+      </c>
+      <c r="K35" s="3">
         <v>52200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>74500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>107000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>44900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>44400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>51200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>52100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>209700</v>
+        <v>687800</v>
       </c>
       <c r="E41" s="3">
-        <v>167500</v>
+        <v>202400</v>
       </c>
       <c r="F41" s="3">
-        <v>242400</v>
+        <v>161700</v>
       </c>
       <c r="G41" s="3">
-        <v>335800</v>
+        <v>234000</v>
       </c>
       <c r="H41" s="3">
-        <v>272300</v>
+        <v>324200</v>
       </c>
       <c r="I41" s="3">
-        <v>379600</v>
+        <v>262800</v>
       </c>
       <c r="J41" s="3">
+        <v>366500</v>
+      </c>
+      <c r="K41" s="3">
         <v>376500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>455100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>395000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>402600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>321400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>387700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>320200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>263700</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,337 +2237,361 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>797000</v>
+        <v>847200</v>
       </c>
       <c r="E43" s="3">
-        <v>857600</v>
+        <v>769300</v>
       </c>
       <c r="F43" s="3">
-        <v>844700</v>
+        <v>827800</v>
       </c>
       <c r="G43" s="3">
-        <v>792800</v>
+        <v>815400</v>
       </c>
       <c r="H43" s="3">
-        <v>857100</v>
+        <v>765300</v>
       </c>
       <c r="I43" s="3">
-        <v>754200</v>
+        <v>827300</v>
       </c>
       <c r="J43" s="3">
+        <v>728100</v>
+      </c>
+      <c r="K43" s="3">
         <v>748300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1116900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>438900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>408600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>410000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>441000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>415400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>443000</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>457200</v>
+        <v>447800</v>
       </c>
       <c r="E44" s="3">
-        <v>434700</v>
+        <v>441400</v>
       </c>
       <c r="F44" s="3">
-        <v>444300</v>
+        <v>419700</v>
       </c>
       <c r="G44" s="3">
-        <v>404200</v>
+        <v>428900</v>
       </c>
       <c r="H44" s="3">
-        <v>454800</v>
+        <v>390200</v>
       </c>
       <c r="I44" s="3">
-        <v>432500</v>
+        <v>439100</v>
       </c>
       <c r="J44" s="3">
+        <v>417500</v>
+      </c>
+      <c r="K44" s="3">
         <v>410800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>384100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>275400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>287900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>299000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>319800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>322700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>307600</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>59800</v>
+        <v>58200</v>
       </c>
       <c r="E45" s="3">
-        <v>55900</v>
+        <v>57700</v>
       </c>
       <c r="F45" s="3">
-        <v>66500</v>
+        <v>54000</v>
       </c>
       <c r="G45" s="3">
-        <v>57700</v>
+        <v>64200</v>
       </c>
       <c r="H45" s="3">
-        <v>53700</v>
+        <v>55700</v>
       </c>
       <c r="I45" s="3">
-        <v>51800</v>
+        <v>51900</v>
       </c>
       <c r="J45" s="3">
+        <v>50000</v>
+      </c>
+      <c r="K45" s="3">
         <v>51300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>346000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>338700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>322500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>359500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>326300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>307300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>307500</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1523600</v>
+        <v>2041000</v>
       </c>
       <c r="E46" s="3">
-        <v>1515700</v>
+        <v>1470800</v>
       </c>
       <c r="F46" s="3">
-        <v>1597900</v>
+        <v>1463200</v>
       </c>
       <c r="G46" s="3">
-        <v>1590600</v>
+        <v>1542500</v>
       </c>
       <c r="H46" s="3">
-        <v>1637900</v>
+        <v>1535400</v>
       </c>
       <c r="I46" s="3">
-        <v>1618100</v>
+        <v>1581100</v>
       </c>
       <c r="J46" s="3">
+        <v>1562000</v>
+      </c>
+      <c r="K46" s="3">
         <v>1586900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1580200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1448100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1421600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1390000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1474800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1365600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1321900</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>324800</v>
+        <v>334700</v>
       </c>
       <c r="E47" s="3">
-        <v>234900</v>
+        <v>313500</v>
       </c>
       <c r="F47" s="3">
-        <v>233300</v>
+        <v>226800</v>
       </c>
       <c r="G47" s="3">
-        <v>234900</v>
+        <v>225200</v>
       </c>
       <c r="H47" s="3">
-        <v>224200</v>
+        <v>226800</v>
       </c>
       <c r="I47" s="3">
-        <v>190200</v>
+        <v>216400</v>
       </c>
       <c r="J47" s="3">
+        <v>183600</v>
+      </c>
+      <c r="K47" s="3">
         <v>189900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>180600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>175500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>195000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>277500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>290700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>284600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>283200</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1791600</v>
+        <v>1853000</v>
       </c>
       <c r="E48" s="3">
-        <v>1794700</v>
+        <v>1729400</v>
       </c>
       <c r="F48" s="3">
-        <v>1785200</v>
+        <v>1732400</v>
       </c>
       <c r="G48" s="3">
-        <v>1618000</v>
+        <v>1723300</v>
       </c>
       <c r="H48" s="3">
-        <v>1466100</v>
+        <v>1561900</v>
       </c>
       <c r="I48" s="3">
-        <v>1342100</v>
+        <v>1415300</v>
       </c>
       <c r="J48" s="3">
+        <v>1295500</v>
+      </c>
+      <c r="K48" s="3">
         <v>1369200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1342500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1285000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1176900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1190700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1215800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1194800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1191200</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1516400</v>
+        <v>1494400</v>
       </c>
       <c r="E49" s="3">
-        <v>1526900</v>
+        <v>1463800</v>
       </c>
       <c r="F49" s="3">
-        <v>1527000</v>
+        <v>1473900</v>
       </c>
       <c r="G49" s="3">
-        <v>1526600</v>
+        <v>1474100</v>
       </c>
       <c r="H49" s="3">
-        <v>992200</v>
+        <v>1473700</v>
       </c>
       <c r="I49" s="3">
-        <v>831300</v>
+        <v>957800</v>
       </c>
       <c r="J49" s="3">
+        <v>802500</v>
+      </c>
+      <c r="K49" s="3">
         <v>791000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>785600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>769100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>681600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>698900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>725200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>719900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>722900</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>447800</v>
+        <v>441800</v>
       </c>
       <c r="E52" s="3">
-        <v>438600</v>
+        <v>432300</v>
       </c>
       <c r="F52" s="3">
-        <v>436500</v>
+        <v>423400</v>
       </c>
       <c r="G52" s="3">
-        <v>424000</v>
+        <v>421400</v>
       </c>
       <c r="H52" s="3">
-        <v>418000</v>
+        <v>409300</v>
       </c>
       <c r="I52" s="3">
-        <v>406800</v>
+        <v>403500</v>
       </c>
       <c r="J52" s="3">
+        <v>392700</v>
+      </c>
+      <c r="K52" s="3">
         <v>422300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>412800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>398800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>389300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>389500</v>
-      </c>
-      <c r="O52" s="3">
-        <v>407200</v>
       </c>
       <c r="P52" s="3">
         <v>407200</v>
       </c>
       <c r="Q52" s="3">
+        <v>407200</v>
+      </c>
+      <c r="R52" s="3">
         <v>408200</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5604200</v>
+        <v>6164900</v>
       </c>
       <c r="E54" s="3">
-        <v>5510800</v>
+        <v>5409900</v>
       </c>
       <c r="F54" s="3">
-        <v>5579900</v>
+        <v>5319700</v>
       </c>
       <c r="G54" s="3">
-        <v>5394100</v>
+        <v>5386400</v>
       </c>
       <c r="H54" s="3">
-        <v>4738400</v>
+        <v>5207100</v>
       </c>
       <c r="I54" s="3">
-        <v>4388500</v>
+        <v>4574200</v>
       </c>
       <c r="J54" s="3">
+        <v>4236400</v>
+      </c>
+      <c r="K54" s="3">
         <v>4359300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4301700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4076500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3864400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3946500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4113700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3972100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3927300</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,290 +2879,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>632000</v>
+        <v>679000</v>
       </c>
       <c r="E57" s="3">
-        <v>558200</v>
+        <v>610100</v>
       </c>
       <c r="F57" s="3">
-        <v>600500</v>
+        <v>538800</v>
       </c>
       <c r="G57" s="3">
-        <v>656600</v>
+        <v>579700</v>
       </c>
       <c r="H57" s="3">
-        <v>672600</v>
+        <v>633800</v>
       </c>
       <c r="I57" s="3">
-        <v>551300</v>
+        <v>649300</v>
       </c>
       <c r="J57" s="3">
+        <v>532200</v>
+      </c>
+      <c r="K57" s="3">
         <v>492900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>496300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>452300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>418000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>454100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>534100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>615400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>581600</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>92700</v>
+        <v>149800</v>
       </c>
       <c r="E58" s="3">
-        <v>174100</v>
+        <v>89500</v>
       </c>
       <c r="F58" s="3">
-        <v>149900</v>
+        <v>168100</v>
       </c>
       <c r="G58" s="3">
-        <v>198800</v>
+        <v>144700</v>
       </c>
       <c r="H58" s="3">
-        <v>173600</v>
+        <v>191900</v>
       </c>
       <c r="I58" s="3">
-        <v>97700</v>
+        <v>167600</v>
       </c>
       <c r="J58" s="3">
+        <v>94300</v>
+      </c>
+      <c r="K58" s="3">
         <v>89700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>38800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>41000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>35000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>37200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>39900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>39700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>581100</v>
+        <v>669800</v>
       </c>
       <c r="E59" s="3">
-        <v>550500</v>
+        <v>560900</v>
       </c>
       <c r="F59" s="3">
-        <v>581900</v>
+        <v>531400</v>
       </c>
       <c r="G59" s="3">
-        <v>567000</v>
+        <v>561700</v>
       </c>
       <c r="H59" s="3">
-        <v>646000</v>
+        <v>547300</v>
       </c>
       <c r="I59" s="3">
-        <v>549800</v>
+        <v>623600</v>
       </c>
       <c r="J59" s="3">
+        <v>530700</v>
+      </c>
+      <c r="K59" s="3">
         <v>538100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>561900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>457900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>390600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>390800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>404700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>221300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>225100</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1305700</v>
+        <v>1498700</v>
       </c>
       <c r="E60" s="3">
-        <v>1282800</v>
+        <v>1260400</v>
       </c>
       <c r="F60" s="3">
-        <v>1332300</v>
+        <v>1238400</v>
       </c>
       <c r="G60" s="3">
-        <v>1422400</v>
+        <v>1286100</v>
       </c>
       <c r="H60" s="3">
-        <v>1492300</v>
+        <v>1373100</v>
       </c>
       <c r="I60" s="3">
-        <v>1198700</v>
+        <v>1440500</v>
       </c>
       <c r="J60" s="3">
+        <v>1157200</v>
+      </c>
+      <c r="K60" s="3">
         <v>1120800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1097000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>951200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>843600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>882100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>978600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>876500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>842800</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1853400</v>
+        <v>2257100</v>
       </c>
       <c r="E61" s="3">
-        <v>1832300</v>
+        <v>1789100</v>
       </c>
       <c r="F61" s="3">
-        <v>1833500</v>
+        <v>1768800</v>
       </c>
       <c r="G61" s="3">
-        <v>1553900</v>
+        <v>1769900</v>
       </c>
       <c r="H61" s="3">
-        <v>840700</v>
+        <v>1500000</v>
       </c>
       <c r="I61" s="3">
-        <v>880500</v>
+        <v>811600</v>
       </c>
       <c r="J61" s="3">
+        <v>849900</v>
+      </c>
+      <c r="K61" s="3">
         <v>897600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>899500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>883600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>866100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>882800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>924600</v>
-      </c>
-      <c r="P61" s="3">
-        <v>936400</v>
       </c>
       <c r="Q61" s="3">
         <v>936400</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>936400</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>603900</v>
+        <v>535600</v>
       </c>
       <c r="E62" s="3">
-        <v>625600</v>
+        <v>583000</v>
       </c>
       <c r="F62" s="3">
-        <v>632900</v>
+        <v>604000</v>
       </c>
       <c r="G62" s="3">
-        <v>603600</v>
+        <v>611000</v>
       </c>
       <c r="H62" s="3">
-        <v>622300</v>
+        <v>582700</v>
       </c>
       <c r="I62" s="3">
-        <v>591000</v>
+        <v>600700</v>
       </c>
       <c r="J62" s="3">
+        <v>570500</v>
+      </c>
+      <c r="K62" s="3">
         <v>597800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>595300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>615100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>583200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>600000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>611800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>603200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>648900</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3825800</v>
+        <v>4355700</v>
       </c>
       <c r="E66" s="3">
-        <v>3802100</v>
+        <v>3693200</v>
       </c>
       <c r="F66" s="3">
-        <v>3858100</v>
+        <v>3670300</v>
       </c>
       <c r="G66" s="3">
-        <v>3639100</v>
+        <v>3724400</v>
       </c>
       <c r="H66" s="3">
-        <v>3015100</v>
+        <v>3513000</v>
       </c>
       <c r="I66" s="3">
-        <v>2726500</v>
+        <v>2910600</v>
       </c>
       <c r="J66" s="3">
+        <v>2631900</v>
+      </c>
+      <c r="K66" s="3">
         <v>2671100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2642800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2497600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2338500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2410000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2561300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2460700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2471400</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1147900</v>
+        <v>1155500</v>
       </c>
       <c r="E72" s="3">
-        <v>1089100</v>
+        <v>1108100</v>
       </c>
       <c r="F72" s="3">
-        <v>1077500</v>
+        <v>1051300</v>
       </c>
       <c r="G72" s="3">
-        <v>1097500</v>
+        <v>1040100</v>
       </c>
       <c r="H72" s="3">
-        <v>1034500</v>
+        <v>1059400</v>
       </c>
       <c r="I72" s="3">
-        <v>1037500</v>
+        <v>998600</v>
       </c>
       <c r="J72" s="3">
+        <v>1001500</v>
+      </c>
+      <c r="K72" s="3">
         <v>1021400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>978100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>965700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>934500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>902100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>916000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>877400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>806200</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1778400</v>
+        <v>1809200</v>
       </c>
       <c r="E76" s="3">
-        <v>1708700</v>
+        <v>1716700</v>
       </c>
       <c r="F76" s="3">
-        <v>1721800</v>
+        <v>1649400</v>
       </c>
       <c r="G76" s="3">
-        <v>1755000</v>
+        <v>1662100</v>
       </c>
       <c r="H76" s="3">
-        <v>1723300</v>
+        <v>1694100</v>
       </c>
       <c r="I76" s="3">
-        <v>1662100</v>
+        <v>1663500</v>
       </c>
       <c r="J76" s="3">
+        <v>1604500</v>
+      </c>
+      <c r="K76" s="3">
         <v>1688200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1658900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1578800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1525900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1536500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1552400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1511400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1455900</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>73500</v>
+        <v>57000</v>
       </c>
       <c r="E81" s="3">
-        <v>55600</v>
+        <v>71000</v>
       </c>
       <c r="F81" s="3">
-        <v>46300</v>
+        <v>53600</v>
       </c>
       <c r="G81" s="3">
-        <v>92100</v>
+        <v>44700</v>
       </c>
       <c r="H81" s="3">
-        <v>58400</v>
+        <v>88900</v>
       </c>
       <c r="I81" s="3">
-        <v>45700</v>
+        <v>56400</v>
       </c>
       <c r="J81" s="3">
+        <v>44100</v>
+      </c>
+      <c r="K81" s="3">
         <v>52200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>74500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>107000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>44900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>44400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>51200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>52100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>58500</v>
+        <v>53400</v>
       </c>
       <c r="E83" s="3">
-        <v>56800</v>
+        <v>56500</v>
       </c>
       <c r="F83" s="3">
-        <v>55600</v>
+        <v>54800</v>
       </c>
       <c r="G83" s="3">
-        <v>47800</v>
+        <v>53600</v>
       </c>
       <c r="H83" s="3">
-        <v>39800</v>
+        <v>46100</v>
       </c>
       <c r="I83" s="3">
-        <v>39100</v>
+        <v>38400</v>
       </c>
       <c r="J83" s="3">
+        <v>37800</v>
+      </c>
+      <c r="K83" s="3">
         <v>36700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>35500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>36800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>36400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>39900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>39500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>42500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>242500</v>
+        <v>179000</v>
       </c>
       <c r="E89" s="3">
-        <v>27600</v>
+        <v>234100</v>
       </c>
       <c r="F89" s="3">
-        <v>-45200</v>
+        <v>26700</v>
       </c>
       <c r="G89" s="3">
-        <v>125200</v>
+        <v>-43600</v>
       </c>
       <c r="H89" s="3">
-        <v>163800</v>
+        <v>120800</v>
       </c>
       <c r="I89" s="3">
-        <v>133300</v>
+        <v>158100</v>
       </c>
       <c r="J89" s="3">
+        <v>128700</v>
+      </c>
+      <c r="K89" s="3">
         <v>-23000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>102600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>139600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>72300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-14300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>151700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>119900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-38800</v>
+        <v>-61000</v>
       </c>
       <c r="E91" s="3">
-        <v>-44300</v>
+        <v>-37500</v>
       </c>
       <c r="F91" s="3">
-        <v>-67000</v>
+        <v>-42700</v>
       </c>
       <c r="G91" s="3">
-        <v>-118000</v>
+        <v>-64700</v>
       </c>
       <c r="H91" s="3">
-        <v>36100</v>
+        <v>-113900</v>
       </c>
       <c r="I91" s="3">
-        <v>-30800</v>
+        <v>34900</v>
       </c>
       <c r="J91" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-40000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-42700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-32000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-18200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-36500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-56500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-27500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-45200</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-138700</v>
+        <v>-84800</v>
       </c>
       <c r="E94" s="3">
-        <v>-57800</v>
+        <v>-133900</v>
       </c>
       <c r="F94" s="3">
-        <v>-88900</v>
+        <v>-55800</v>
       </c>
       <c r="G94" s="3">
-        <v>-685600</v>
+        <v>-85800</v>
       </c>
       <c r="H94" s="3">
-        <v>-231100</v>
+        <v>-661900</v>
       </c>
       <c r="I94" s="3">
-        <v>-65100</v>
+        <v>-223100</v>
       </c>
       <c r="J94" s="3">
+        <v>-62900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-56400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-32000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-111900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>46400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-28300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-61200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-27700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-49400</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,55 +4614,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-21300</v>
+        <v>-20900</v>
       </c>
       <c r="E96" s="3">
-        <v>-21400</v>
+        <v>-20600</v>
       </c>
       <c r="F96" s="3">
-        <v>-19200</v>
+        <v>-20600</v>
       </c>
       <c r="G96" s="3">
-        <v>-19300</v>
+        <v>-18500</v>
       </c>
       <c r="H96" s="3">
-        <v>-19200</v>
+        <v>-18600</v>
       </c>
       <c r="I96" s="3">
-        <v>-19300</v>
+        <v>-18500</v>
       </c>
       <c r="J96" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-17400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-16700</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-17300</v>
       </c>
       <c r="M96" s="3">
         <v>-17300</v>
       </c>
       <c r="N96" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="O96" s="3">
         <v>-15600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-15700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-15600</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +4812,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-62400</v>
+        <v>377100</v>
       </c>
       <c r="E100" s="3">
-        <v>-40600</v>
+        <v>-60200</v>
       </c>
       <c r="F100" s="3">
-        <v>46100</v>
+        <v>-39200</v>
       </c>
       <c r="G100" s="3">
-        <v>629600</v>
+        <v>44500</v>
       </c>
       <c r="H100" s="3">
-        <v>-51600</v>
+        <v>607800</v>
       </c>
       <c r="I100" s="3">
-        <v>-58500</v>
+        <v>-49900</v>
       </c>
       <c r="J100" s="3">
+        <v>-56500</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-22000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-38300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-33100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-12700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-22900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-33200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E101" s="3">
         <v>800</v>
       </c>
-      <c r="E101" s="3">
-        <v>-4100</v>
-      </c>
       <c r="F101" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="H101" s="3">
         <v>-5500</v>
       </c>
-      <c r="G101" s="3">
-        <v>-5600</v>
-      </c>
-      <c r="H101" s="3">
-        <v>11600</v>
-      </c>
       <c r="I101" s="3">
-        <v>-6500</v>
+        <v>11200</v>
       </c>
       <c r="J101" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-4600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>11500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>42200</v>
+        <v>485400</v>
       </c>
       <c r="E102" s="3">
-        <v>-74900</v>
+        <v>40700</v>
       </c>
       <c r="F102" s="3">
-        <v>-93400</v>
+        <v>-72300</v>
       </c>
       <c r="G102" s="3">
-        <v>63500</v>
+        <v>-90200</v>
       </c>
       <c r="H102" s="3">
-        <v>-107300</v>
+        <v>61300</v>
       </c>
       <c r="I102" s="3">
-        <v>3200</v>
+        <v>-103600</v>
       </c>
       <c r="J102" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-83900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>60100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-7600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>81200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-54200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>67500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>56500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CAE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>CAE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>710200</v>
+        <v>419000</v>
       </c>
       <c r="E8" s="3">
-        <v>671100</v>
+        <v>743800</v>
       </c>
       <c r="F8" s="3">
-        <v>651700</v>
+        <v>702900</v>
       </c>
       <c r="G8" s="3">
-        <v>600000</v>
+        <v>682500</v>
       </c>
       <c r="H8" s="3">
-        <v>742700</v>
+        <v>628400</v>
       </c>
       <c r="I8" s="3">
-        <v>593200</v>
+        <v>777800</v>
       </c>
       <c r="J8" s="3">
+        <v>621300</v>
+      </c>
+      <c r="K8" s="3">
         <v>540500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>543500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>581000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>616400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>460100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>488400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>564400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>524500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>488200</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>483700</v>
+        <v>336800</v>
       </c>
       <c r="E9" s="3">
-        <v>459300</v>
+        <v>506600</v>
       </c>
       <c r="F9" s="3">
-        <v>479700</v>
+        <v>481000</v>
       </c>
       <c r="G9" s="3">
-        <v>422900</v>
+        <v>502400</v>
       </c>
       <c r="H9" s="3">
-        <v>533400</v>
+        <v>442900</v>
       </c>
       <c r="I9" s="3">
-        <v>423700</v>
+        <v>558600</v>
       </c>
       <c r="J9" s="3">
+        <v>443700</v>
+      </c>
+      <c r="K9" s="3">
         <v>394100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>378900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>387100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>426100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>325000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>336800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>383900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>371400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>344600</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>226500</v>
+        <v>82200</v>
       </c>
       <c r="E10" s="3">
-        <v>211800</v>
+        <v>237200</v>
       </c>
       <c r="F10" s="3">
-        <v>172000</v>
+        <v>221900</v>
       </c>
       <c r="G10" s="3">
-        <v>177100</v>
+        <v>180200</v>
       </c>
       <c r="H10" s="3">
-        <v>209300</v>
+        <v>185500</v>
       </c>
       <c r="I10" s="3">
-        <v>169500</v>
+        <v>219200</v>
       </c>
       <c r="J10" s="3">
+        <v>177600</v>
+      </c>
+      <c r="K10" s="3">
         <v>146400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>164600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>193900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>190300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>135100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>151600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>180500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>153100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>143600</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>26300</v>
+        <v>15300</v>
       </c>
       <c r="E12" s="3">
-        <v>24400</v>
+        <v>27600</v>
       </c>
       <c r="F12" s="3">
-        <v>26000</v>
+        <v>25600</v>
       </c>
       <c r="G12" s="3">
-        <v>23200</v>
+        <v>27200</v>
       </c>
       <c r="H12" s="3">
-        <v>7200</v>
+        <v>24300</v>
       </c>
       <c r="I12" s="3">
-        <v>22600</v>
+        <v>7500</v>
       </c>
       <c r="J12" s="3">
+        <v>23700</v>
+      </c>
+      <c r="K12" s="3">
         <v>21100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>23600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>17000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>22200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>22300</v>
-      </c>
-      <c r="O12" s="3">
-        <v>24000</v>
       </c>
       <c r="P12" s="3">
         <v>24000</v>
       </c>
       <c r="Q12" s="3">
+        <v>24000</v>
+      </c>
+      <c r="R12" s="3">
         <v>22100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,16 +1025,19 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>27300</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
+        <v>75900</v>
+      </c>
+      <c r="E14" s="3">
+        <v>28500</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
@@ -1025,8 +1045,8 @@
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1034,32 +1054,35 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-10600</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>16200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>603700</v>
+        <v>502900</v>
       </c>
       <c r="E17" s="3">
-        <v>558500</v>
+        <v>632300</v>
       </c>
       <c r="F17" s="3">
-        <v>561000</v>
+        <v>585000</v>
       </c>
       <c r="G17" s="3">
-        <v>519400</v>
+        <v>587600</v>
       </c>
       <c r="H17" s="3">
-        <v>618800</v>
+        <v>544000</v>
       </c>
       <c r="I17" s="3">
-        <v>511100</v>
+        <v>648100</v>
       </c>
       <c r="J17" s="3">
+        <v>535300</v>
+      </c>
+      <c r="K17" s="3">
         <v>468800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>469400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>476000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>503800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>383600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>420400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>486900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>448700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>429700</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>106500</v>
+        <v>-83900</v>
       </c>
       <c r="E18" s="3">
-        <v>112600</v>
+        <v>111500</v>
       </c>
       <c r="F18" s="3">
-        <v>90700</v>
+        <v>117900</v>
       </c>
       <c r="G18" s="3">
-        <v>80600</v>
+        <v>95000</v>
       </c>
       <c r="H18" s="3">
-        <v>123800</v>
+        <v>84400</v>
       </c>
       <c r="I18" s="3">
-        <v>82100</v>
+        <v>129700</v>
       </c>
       <c r="J18" s="3">
+        <v>86000</v>
+      </c>
+      <c r="K18" s="3">
         <v>71700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>74100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>105000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>112500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>76500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>67900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>77500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>75700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>58500</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,137 +1278,144 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3100</v>
+        <v>-2500</v>
       </c>
       <c r="E20" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="G20" s="3">
         <v>-3700</v>
       </c>
-      <c r="F20" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-4100</v>
-      </c>
       <c r="H20" s="3">
-        <v>-4500</v>
+        <v>-4300</v>
       </c>
       <c r="I20" s="3">
-        <v>-2800</v>
+        <v>-4700</v>
       </c>
       <c r="J20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>156700</v>
+        <v>-21300</v>
       </c>
       <c r="E21" s="3">
-        <v>165300</v>
+        <v>164200</v>
       </c>
       <c r="F21" s="3">
-        <v>142000</v>
+        <v>173100</v>
       </c>
       <c r="G21" s="3">
-        <v>130200</v>
+        <v>148700</v>
       </c>
       <c r="H21" s="3">
-        <v>165500</v>
+        <v>136300</v>
       </c>
       <c r="I21" s="3">
-        <v>117800</v>
+        <v>173300</v>
       </c>
       <c r="J21" s="3">
+        <v>123400</v>
+      </c>
+      <c r="K21" s="3">
         <v>106800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>110600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>136800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>150600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>113900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>108400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>118800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>118000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>95700</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>24900</v>
+        <v>24200</v>
       </c>
       <c r="E22" s="3">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="F22" s="3">
-        <v>21400</v>
+        <v>24100</v>
       </c>
       <c r="G22" s="3">
-        <v>21300</v>
+        <v>22500</v>
       </c>
       <c r="H22" s="3">
-        <v>14200</v>
+        <v>22300</v>
       </c>
       <c r="I22" s="3">
-        <v>11300</v>
+        <v>14800</v>
       </c>
       <c r="J22" s="3">
         <v>11800</v>
       </c>
       <c r="K22" s="3">
+        <v>11800</v>
+      </c>
+      <c r="L22" s="3">
         <v>11700</v>
-      </c>
-      <c r="L22" s="3">
-        <v>14100</v>
       </c>
       <c r="M22" s="3">
         <v>14100</v>
@@ -1387,116 +1427,125 @@
         <v>14100</v>
       </c>
       <c r="P22" s="3">
+        <v>14100</v>
+      </c>
+      <c r="Q22" s="3">
         <v>14400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>14000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>78500</v>
+        <v>-110700</v>
       </c>
       <c r="E23" s="3">
-        <v>85900</v>
+        <v>82200</v>
       </c>
       <c r="F23" s="3">
-        <v>65800</v>
+        <v>90000</v>
       </c>
       <c r="G23" s="3">
-        <v>55200</v>
+        <v>68900</v>
       </c>
       <c r="H23" s="3">
-        <v>105200</v>
+        <v>57800</v>
       </c>
       <c r="I23" s="3">
-        <v>68100</v>
+        <v>110100</v>
       </c>
       <c r="J23" s="3">
+        <v>71300</v>
+      </c>
+      <c r="K23" s="3">
         <v>57300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>62100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>87100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>99700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>63400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>54400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>65000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>61500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>19500</v>
+        <v>-26900</v>
       </c>
       <c r="E24" s="3">
-        <v>13400</v>
+        <v>20500</v>
       </c>
       <c r="F24" s="3">
-        <v>11300</v>
+        <v>14000</v>
       </c>
       <c r="G24" s="3">
-        <v>9400</v>
+        <v>11800</v>
       </c>
       <c r="H24" s="3">
-        <v>14000</v>
+        <v>9900</v>
       </c>
       <c r="I24" s="3">
-        <v>10300</v>
+        <v>14700</v>
       </c>
       <c r="J24" s="3">
+        <v>10800</v>
+      </c>
+      <c r="K24" s="3">
         <v>11000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>10200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-8800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>17200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>11400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>8500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>58900</v>
+        <v>-83700</v>
       </c>
       <c r="E26" s="3">
-        <v>72500</v>
+        <v>61700</v>
       </c>
       <c r="F26" s="3">
-        <v>54500</v>
+        <v>76000</v>
       </c>
       <c r="G26" s="3">
-        <v>45800</v>
+        <v>57100</v>
       </c>
       <c r="H26" s="3">
-        <v>91100</v>
+        <v>47900</v>
       </c>
       <c r="I26" s="3">
-        <v>57800</v>
+        <v>95400</v>
       </c>
       <c r="J26" s="3">
+        <v>60500</v>
+      </c>
+      <c r="K26" s="3">
         <v>46200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>53900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>77000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>108500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>46200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>45500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>53600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>53100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>57000</v>
+        <v>-84200</v>
       </c>
       <c r="E27" s="3">
-        <v>71000</v>
+        <v>59700</v>
       </c>
       <c r="F27" s="3">
-        <v>53600</v>
+        <v>74400</v>
       </c>
       <c r="G27" s="3">
-        <v>44700</v>
+        <v>56200</v>
       </c>
       <c r="H27" s="3">
-        <v>88900</v>
+        <v>46800</v>
       </c>
       <c r="I27" s="3">
-        <v>56400</v>
+        <v>93100</v>
       </c>
       <c r="J27" s="3">
+        <v>59100</v>
+      </c>
+      <c r="K27" s="3">
         <v>44100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>52200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>74500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>107000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>44900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>44400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>51800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>51900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,37 +1753,40 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>10</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -1737,16 +1798,19 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-500</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>200</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3100</v>
+        <v>2500</v>
       </c>
       <c r="E32" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G32" s="3">
         <v>3700</v>
       </c>
-      <c r="F32" s="3">
-        <v>3500</v>
-      </c>
-      <c r="G32" s="3">
-        <v>4100</v>
-      </c>
       <c r="H32" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="I32" s="3">
-        <v>2800</v>
+        <v>4700</v>
       </c>
       <c r="J32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K32" s="3">
         <v>2700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>57000</v>
+        <v>-84200</v>
       </c>
       <c r="E33" s="3">
-        <v>71000</v>
+        <v>59700</v>
       </c>
       <c r="F33" s="3">
-        <v>53600</v>
+        <v>74400</v>
       </c>
       <c r="G33" s="3">
-        <v>44700</v>
+        <v>56200</v>
       </c>
       <c r="H33" s="3">
-        <v>88900</v>
+        <v>46800</v>
       </c>
       <c r="I33" s="3">
-        <v>56400</v>
+        <v>93100</v>
       </c>
       <c r="J33" s="3">
+        <v>59100</v>
+      </c>
+      <c r="K33" s="3">
         <v>44100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>52200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>74500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>107000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>44900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>44400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>51200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>52100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>57000</v>
+        <v>-84200</v>
       </c>
       <c r="E35" s="3">
-        <v>71000</v>
+        <v>59700</v>
       </c>
       <c r="F35" s="3">
-        <v>53600</v>
+        <v>74400</v>
       </c>
       <c r="G35" s="3">
-        <v>44700</v>
+        <v>56200</v>
       </c>
       <c r="H35" s="3">
-        <v>88900</v>
+        <v>46800</v>
       </c>
       <c r="I35" s="3">
-        <v>56400</v>
+        <v>93100</v>
       </c>
       <c r="J35" s="3">
+        <v>59100</v>
+      </c>
+      <c r="K35" s="3">
         <v>44100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>52200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>74500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>107000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>44900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>44400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>51200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>52100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>687800</v>
+        <v>276500</v>
       </c>
       <c r="E41" s="3">
-        <v>202400</v>
+        <v>720400</v>
       </c>
       <c r="F41" s="3">
-        <v>161700</v>
+        <v>212000</v>
       </c>
       <c r="G41" s="3">
-        <v>234000</v>
+        <v>169300</v>
       </c>
       <c r="H41" s="3">
-        <v>324200</v>
+        <v>245100</v>
       </c>
       <c r="I41" s="3">
-        <v>262800</v>
+        <v>339500</v>
       </c>
       <c r="J41" s="3">
+        <v>275300</v>
+      </c>
+      <c r="K41" s="3">
         <v>366500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>376500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>455100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>395000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>402600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>321400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>387700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>320200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>263700</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,358 +2330,382 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>847200</v>
+        <v>826500</v>
       </c>
       <c r="E43" s="3">
-        <v>769300</v>
+        <v>887300</v>
       </c>
       <c r="F43" s="3">
-        <v>827800</v>
+        <v>805800</v>
       </c>
       <c r="G43" s="3">
-        <v>815400</v>
+        <v>867000</v>
       </c>
       <c r="H43" s="3">
-        <v>765300</v>
+        <v>854000</v>
       </c>
       <c r="I43" s="3">
-        <v>827300</v>
+        <v>801500</v>
       </c>
       <c r="J43" s="3">
+        <v>866500</v>
+      </c>
+      <c r="K43" s="3">
         <v>728100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>748300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1116900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>438900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>408600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>410000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>441000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>415400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>443000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>447800</v>
+        <v>510500</v>
       </c>
       <c r="E44" s="3">
-        <v>441400</v>
+        <v>469000</v>
       </c>
       <c r="F44" s="3">
-        <v>419700</v>
+        <v>462300</v>
       </c>
       <c r="G44" s="3">
-        <v>428900</v>
+        <v>439500</v>
       </c>
       <c r="H44" s="3">
-        <v>390200</v>
+        <v>449200</v>
       </c>
       <c r="I44" s="3">
-        <v>439100</v>
+        <v>408700</v>
       </c>
       <c r="J44" s="3">
+        <v>459900</v>
+      </c>
+      <c r="K44" s="3">
         <v>417500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>410800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>384100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>275400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>287900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>299000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>319800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>322700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>307600</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>58200</v>
+        <v>64100</v>
       </c>
       <c r="E45" s="3">
-        <v>57700</v>
+        <v>61000</v>
       </c>
       <c r="F45" s="3">
-        <v>54000</v>
+        <v>60400</v>
       </c>
       <c r="G45" s="3">
-        <v>64200</v>
+        <v>56500</v>
       </c>
       <c r="H45" s="3">
-        <v>55700</v>
+        <v>67200</v>
       </c>
       <c r="I45" s="3">
-        <v>51900</v>
+        <v>58400</v>
       </c>
       <c r="J45" s="3">
+        <v>54300</v>
+      </c>
+      <c r="K45" s="3">
         <v>50000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>51300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>346000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>338700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>322500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>359500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>326300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>307300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>307500</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2041000</v>
+        <v>1677500</v>
       </c>
       <c r="E46" s="3">
-        <v>1470800</v>
+        <v>2137600</v>
       </c>
       <c r="F46" s="3">
-        <v>1463200</v>
+        <v>1540400</v>
       </c>
       <c r="G46" s="3">
-        <v>1542500</v>
+        <v>1532500</v>
       </c>
       <c r="H46" s="3">
-        <v>1535400</v>
+        <v>1615500</v>
       </c>
       <c r="I46" s="3">
-        <v>1581100</v>
+        <v>1608100</v>
       </c>
       <c r="J46" s="3">
+        <v>1656000</v>
+      </c>
+      <c r="K46" s="3">
         <v>1562000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1586900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1580200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1448100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1421600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1390000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1474800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1365600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1321900</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>334700</v>
+        <v>325700</v>
       </c>
       <c r="E47" s="3">
-        <v>313500</v>
+        <v>350600</v>
       </c>
       <c r="F47" s="3">
-        <v>226800</v>
+        <v>328300</v>
       </c>
       <c r="G47" s="3">
-        <v>225200</v>
+        <v>237500</v>
       </c>
       <c r="H47" s="3">
-        <v>226800</v>
+        <v>235900</v>
       </c>
       <c r="I47" s="3">
-        <v>216400</v>
+        <v>237500</v>
       </c>
       <c r="J47" s="3">
+        <v>226700</v>
+      </c>
+      <c r="K47" s="3">
         <v>183600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>189900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>180600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>175500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>195000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>277500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>290700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>284600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>283200</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1853000</v>
+        <v>1809900</v>
       </c>
       <c r="E48" s="3">
-        <v>1729400</v>
+        <v>1940700</v>
       </c>
       <c r="F48" s="3">
-        <v>1732400</v>
+        <v>1811300</v>
       </c>
       <c r="G48" s="3">
-        <v>1723300</v>
+        <v>1814400</v>
       </c>
       <c r="H48" s="3">
-        <v>1561900</v>
+        <v>1804800</v>
       </c>
       <c r="I48" s="3">
-        <v>1415300</v>
+        <v>1635800</v>
       </c>
       <c r="J48" s="3">
+        <v>1482300</v>
+      </c>
+      <c r="K48" s="3">
         <v>1295500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1369200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1342500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1285000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1176900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1190700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1215800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1194800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1191200</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1494400</v>
+        <v>1503100</v>
       </c>
       <c r="E49" s="3">
-        <v>1463800</v>
+        <v>1565200</v>
       </c>
       <c r="F49" s="3">
-        <v>1473900</v>
+        <v>1533100</v>
       </c>
       <c r="G49" s="3">
-        <v>1474100</v>
+        <v>1543700</v>
       </c>
       <c r="H49" s="3">
-        <v>1473700</v>
+        <v>1543900</v>
       </c>
       <c r="I49" s="3">
-        <v>957800</v>
+        <v>1543400</v>
       </c>
       <c r="J49" s="3">
+        <v>1003100</v>
+      </c>
+      <c r="K49" s="3">
         <v>802500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>791000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>785600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>769100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>681600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>698900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>725200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>719900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>722900</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>441800</v>
+        <v>475200</v>
       </c>
       <c r="E52" s="3">
-        <v>432300</v>
+        <v>462700</v>
       </c>
       <c r="F52" s="3">
-        <v>423400</v>
+        <v>452800</v>
       </c>
       <c r="G52" s="3">
-        <v>421400</v>
+        <v>443400</v>
       </c>
       <c r="H52" s="3">
-        <v>409300</v>
+        <v>441400</v>
       </c>
       <c r="I52" s="3">
-        <v>403500</v>
+        <v>428700</v>
       </c>
       <c r="J52" s="3">
+        <v>422600</v>
+      </c>
+      <c r="K52" s="3">
         <v>392700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>422300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>412800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>398800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>389300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>389500</v>
-      </c>
-      <c r="P52" s="3">
-        <v>407200</v>
       </c>
       <c r="Q52" s="3">
         <v>407200</v>
       </c>
       <c r="R52" s="3">
+        <v>407200</v>
+      </c>
+      <c r="S52" s="3">
         <v>408200</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6164900</v>
+        <v>5791500</v>
       </c>
       <c r="E54" s="3">
-        <v>5409900</v>
+        <v>6456800</v>
       </c>
       <c r="F54" s="3">
-        <v>5319700</v>
+        <v>5666000</v>
       </c>
       <c r="G54" s="3">
-        <v>5386400</v>
+        <v>5571600</v>
       </c>
       <c r="H54" s="3">
-        <v>5207100</v>
+        <v>5641400</v>
       </c>
       <c r="I54" s="3">
-        <v>4574200</v>
+        <v>5453600</v>
       </c>
       <c r="J54" s="3">
+        <v>4790700</v>
+      </c>
+      <c r="K54" s="3">
         <v>4236400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4359300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4301700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4076500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3864400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3946500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4113700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3972100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3927300</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>679000</v>
+        <v>628300</v>
       </c>
       <c r="E57" s="3">
-        <v>610100</v>
+        <v>711200</v>
       </c>
       <c r="F57" s="3">
-        <v>538800</v>
+        <v>638900</v>
       </c>
       <c r="G57" s="3">
-        <v>579700</v>
+        <v>564300</v>
       </c>
       <c r="H57" s="3">
-        <v>633800</v>
+        <v>607100</v>
       </c>
       <c r="I57" s="3">
-        <v>649300</v>
+        <v>663800</v>
       </c>
       <c r="J57" s="3">
+        <v>680000</v>
+      </c>
+      <c r="K57" s="3">
         <v>532200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>492900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>496300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>452300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>418000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>454100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>534100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>615400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>581600</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>149800</v>
+        <v>166700</v>
       </c>
       <c r="E58" s="3">
-        <v>89500</v>
+        <v>156900</v>
       </c>
       <c r="F58" s="3">
-        <v>168100</v>
+        <v>93700</v>
       </c>
       <c r="G58" s="3">
-        <v>144700</v>
+        <v>176000</v>
       </c>
       <c r="H58" s="3">
-        <v>191900</v>
+        <v>151500</v>
       </c>
       <c r="I58" s="3">
-        <v>167600</v>
+        <v>201000</v>
       </c>
       <c r="J58" s="3">
+        <v>175500</v>
+      </c>
+      <c r="K58" s="3">
         <v>94300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>89700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>38800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>41000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>35000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>37200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>39900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>39700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>669800</v>
+        <v>643700</v>
       </c>
       <c r="E59" s="3">
-        <v>560900</v>
+        <v>701500</v>
       </c>
       <c r="F59" s="3">
-        <v>531400</v>
+        <v>587500</v>
       </c>
       <c r="G59" s="3">
-        <v>561700</v>
+        <v>556600</v>
       </c>
       <c r="H59" s="3">
-        <v>547300</v>
+        <v>588300</v>
       </c>
       <c r="I59" s="3">
-        <v>623600</v>
+        <v>573300</v>
       </c>
       <c r="J59" s="3">
+        <v>653200</v>
+      </c>
+      <c r="K59" s="3">
         <v>530700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>538100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>561900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>457900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>390600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>390800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>404700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>221300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>225100</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1498700</v>
+        <v>1438600</v>
       </c>
       <c r="E60" s="3">
-        <v>1260400</v>
+        <v>1569600</v>
       </c>
       <c r="F60" s="3">
-        <v>1238400</v>
+        <v>1320100</v>
       </c>
       <c r="G60" s="3">
-        <v>1286100</v>
+        <v>1297000</v>
       </c>
       <c r="H60" s="3">
-        <v>1373100</v>
+        <v>1347000</v>
       </c>
       <c r="I60" s="3">
-        <v>1440500</v>
+        <v>1438100</v>
       </c>
       <c r="J60" s="3">
+        <v>1508700</v>
+      </c>
+      <c r="K60" s="3">
         <v>1157200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1120800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1097000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>951200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>843600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>882100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>978600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>876500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>842800</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2257100</v>
+        <v>1942100</v>
       </c>
       <c r="E61" s="3">
-        <v>1789100</v>
+        <v>2363900</v>
       </c>
       <c r="F61" s="3">
-        <v>1768800</v>
+        <v>1873800</v>
       </c>
       <c r="G61" s="3">
-        <v>1769900</v>
+        <v>1852500</v>
       </c>
       <c r="H61" s="3">
-        <v>1500000</v>
+        <v>1853700</v>
       </c>
       <c r="I61" s="3">
-        <v>811600</v>
+        <v>1571000</v>
       </c>
       <c r="J61" s="3">
+        <v>850000</v>
+      </c>
+      <c r="K61" s="3">
         <v>849900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>897600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>899500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>883600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>866100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>882800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>924600</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>936400</v>
       </c>
       <c r="R61" s="3">
         <v>936400</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>936400</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>535600</v>
+        <v>630300</v>
       </c>
       <c r="E62" s="3">
-        <v>583000</v>
+        <v>560900</v>
       </c>
       <c r="F62" s="3">
-        <v>604000</v>
+        <v>610500</v>
       </c>
       <c r="G62" s="3">
-        <v>611000</v>
+        <v>632500</v>
       </c>
       <c r="H62" s="3">
-        <v>582700</v>
+        <v>639900</v>
       </c>
       <c r="I62" s="3">
-        <v>600700</v>
+        <v>610200</v>
       </c>
       <c r="J62" s="3">
+        <v>629100</v>
+      </c>
+      <c r="K62" s="3">
         <v>570500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>597800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>595300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>615100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>583200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>600000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>611800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>603200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>648900</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4355700</v>
+        <v>4077200</v>
       </c>
       <c r="E66" s="3">
-        <v>3693200</v>
+        <v>4561900</v>
       </c>
       <c r="F66" s="3">
-        <v>3670300</v>
+        <v>3868000</v>
       </c>
       <c r="G66" s="3">
-        <v>3724400</v>
+        <v>3844000</v>
       </c>
       <c r="H66" s="3">
-        <v>3513000</v>
+        <v>3900700</v>
       </c>
       <c r="I66" s="3">
-        <v>2910600</v>
+        <v>3679300</v>
       </c>
       <c r="J66" s="3">
+        <v>3048400</v>
+      </c>
+      <c r="K66" s="3">
         <v>2631900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2671100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2642800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2497600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2338500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2410000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2561300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2460700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2471400</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1155500</v>
+        <v>1057000</v>
       </c>
       <c r="E72" s="3">
-        <v>1108100</v>
+        <v>1210200</v>
       </c>
       <c r="F72" s="3">
-        <v>1051300</v>
+        <v>1160500</v>
       </c>
       <c r="G72" s="3">
-        <v>1040100</v>
+        <v>1101100</v>
       </c>
       <c r="H72" s="3">
-        <v>1059400</v>
+        <v>1089300</v>
       </c>
       <c r="I72" s="3">
-        <v>998600</v>
+        <v>1109600</v>
       </c>
       <c r="J72" s="3">
+        <v>1045900</v>
+      </c>
+      <c r="K72" s="3">
         <v>1001500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1021400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>978100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>965700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>934500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>902100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>916000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>877400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>806200</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1809200</v>
+        <v>1714400</v>
       </c>
       <c r="E76" s="3">
-        <v>1716700</v>
+        <v>1894900</v>
       </c>
       <c r="F76" s="3">
-        <v>1649400</v>
+        <v>1798000</v>
       </c>
       <c r="G76" s="3">
-        <v>1662100</v>
+        <v>1727500</v>
       </c>
       <c r="H76" s="3">
-        <v>1694100</v>
+        <v>1740800</v>
       </c>
       <c r="I76" s="3">
-        <v>1663500</v>
+        <v>1774300</v>
       </c>
       <c r="J76" s="3">
+        <v>1742300</v>
+      </c>
+      <c r="K76" s="3">
         <v>1604500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1688200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1658900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1578800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1525900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1536500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1552400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1511400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1455900</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>57000</v>
+        <v>-84200</v>
       </c>
       <c r="E81" s="3">
-        <v>71000</v>
+        <v>59700</v>
       </c>
       <c r="F81" s="3">
-        <v>53600</v>
+        <v>74400</v>
       </c>
       <c r="G81" s="3">
-        <v>44700</v>
+        <v>56200</v>
       </c>
       <c r="H81" s="3">
-        <v>88900</v>
+        <v>46800</v>
       </c>
       <c r="I81" s="3">
-        <v>56400</v>
+        <v>93100</v>
       </c>
       <c r="J81" s="3">
+        <v>59100</v>
+      </c>
+      <c r="K81" s="3">
         <v>44100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>52200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>74500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>107000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>44900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>44400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>51200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>52100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>53400</v>
+        <v>65100</v>
       </c>
       <c r="E83" s="3">
-        <v>56500</v>
+        <v>55900</v>
       </c>
       <c r="F83" s="3">
-        <v>54800</v>
+        <v>59100</v>
       </c>
       <c r="G83" s="3">
-        <v>53600</v>
+        <v>57400</v>
       </c>
       <c r="H83" s="3">
-        <v>46100</v>
+        <v>56200</v>
       </c>
       <c r="I83" s="3">
-        <v>38400</v>
+        <v>48300</v>
       </c>
       <c r="J83" s="3">
+        <v>40300</v>
+      </c>
+      <c r="K83" s="3">
         <v>37800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>36700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>35500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>36800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>36400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>39900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>39500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>42500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>179000</v>
+        <v>-67300</v>
       </c>
       <c r="E89" s="3">
-        <v>234100</v>
+        <v>187500</v>
       </c>
       <c r="F89" s="3">
-        <v>26700</v>
+        <v>245100</v>
       </c>
       <c r="G89" s="3">
-        <v>-43600</v>
+        <v>27900</v>
       </c>
       <c r="H89" s="3">
-        <v>120800</v>
+        <v>-45700</v>
       </c>
       <c r="I89" s="3">
-        <v>158100</v>
+        <v>126600</v>
       </c>
       <c r="J89" s="3">
+        <v>165600</v>
+      </c>
+      <c r="K89" s="3">
         <v>128700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-23000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>102600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>139600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>72300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-14300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>151700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>119900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-61000</v>
+        <v>-13700</v>
       </c>
       <c r="E91" s="3">
-        <v>-37500</v>
+        <v>-63900</v>
       </c>
       <c r="F91" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-44800</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-67700</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-119300</v>
+      </c>
+      <c r="J91" s="3">
+        <v>36500</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="M91" s="3">
         <v>-42700</v>
       </c>
-      <c r="G91" s="3">
-        <v>-64700</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-113900</v>
-      </c>
-      <c r="I91" s="3">
-        <v>34900</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-29700</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-40000</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-42700</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-32000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-18200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-36500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-56500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-27500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-45200</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-84800</v>
+        <v>-22300</v>
       </c>
       <c r="E94" s="3">
-        <v>-133900</v>
+        <v>-88800</v>
       </c>
       <c r="F94" s="3">
-        <v>-55800</v>
+        <v>-140300</v>
       </c>
       <c r="G94" s="3">
-        <v>-85800</v>
+        <v>-58500</v>
       </c>
       <c r="H94" s="3">
-        <v>-661900</v>
+        <v>-89900</v>
       </c>
       <c r="I94" s="3">
-        <v>-223100</v>
+        <v>-693200</v>
       </c>
       <c r="J94" s="3">
+        <v>-233700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-62900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-56400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-32000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-111900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>46400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-28300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-61200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-27700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-49400</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,58 +4848,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-20900</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-20600</v>
+        <v>-21800</v>
       </c>
       <c r="F96" s="3">
-        <v>-20600</v>
+        <v>-21500</v>
       </c>
       <c r="G96" s="3">
-        <v>-18500</v>
+        <v>-21600</v>
       </c>
       <c r="H96" s="3">
-        <v>-18600</v>
+        <v>-19400</v>
       </c>
       <c r="I96" s="3">
-        <v>-18500</v>
+        <v>-19500</v>
       </c>
       <c r="J96" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-18700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-17400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-16700</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-17300</v>
       </c>
       <c r="N96" s="3">
         <v>-17300</v>
       </c>
       <c r="O96" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="P96" s="3">
         <v>-15600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-15700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-16000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-15600</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>377100</v>
+        <v>-347100</v>
       </c>
       <c r="E100" s="3">
-        <v>-60200</v>
+        <v>394900</v>
       </c>
       <c r="F100" s="3">
-        <v>-39200</v>
+        <v>-63100</v>
       </c>
       <c r="G100" s="3">
-        <v>44500</v>
+        <v>-41000</v>
       </c>
       <c r="H100" s="3">
-        <v>607800</v>
+        <v>46700</v>
       </c>
       <c r="I100" s="3">
-        <v>-49900</v>
+        <v>636600</v>
       </c>
       <c r="J100" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-56500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-22000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-38300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-33100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-12700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-22900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-33200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>14200</v>
+        <v>-7200</v>
       </c>
       <c r="E101" s="3">
+        <v>14800</v>
+      </c>
+      <c r="F101" s="3">
         <v>800</v>
       </c>
-      <c r="F101" s="3">
-        <v>-4000</v>
-      </c>
       <c r="G101" s="3">
-        <v>-5300</v>
+        <v>-4200</v>
       </c>
       <c r="H101" s="3">
-        <v>-5500</v>
+        <v>-5600</v>
       </c>
       <c r="I101" s="3">
-        <v>11200</v>
+        <v>-5700</v>
       </c>
       <c r="J101" s="3">
+        <v>11700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-6300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>11500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-4300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>485400</v>
+        <v>-443900</v>
       </c>
       <c r="E102" s="3">
-        <v>40700</v>
+        <v>508400</v>
       </c>
       <c r="F102" s="3">
-        <v>-72300</v>
+        <v>42600</v>
       </c>
       <c r="G102" s="3">
-        <v>-90200</v>
+        <v>-75700</v>
       </c>
       <c r="H102" s="3">
-        <v>61300</v>
+        <v>-94500</v>
       </c>
       <c r="I102" s="3">
-        <v>-103600</v>
+        <v>64200</v>
       </c>
       <c r="J102" s="3">
+        <v>-108500</v>
+      </c>
+      <c r="K102" s="3">
         <v>3100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-83900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>60100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-7600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>81200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-54200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>67500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>56500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CAE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAE_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>419000</v>
+        <v>542500</v>
       </c>
       <c r="E8" s="3">
-        <v>743800</v>
+        <v>423800</v>
       </c>
       <c r="F8" s="3">
-        <v>702900</v>
+        <v>752300</v>
       </c>
       <c r="G8" s="3">
-        <v>682500</v>
+        <v>710900</v>
       </c>
       <c r="H8" s="3">
-        <v>628400</v>
+        <v>690400</v>
       </c>
       <c r="I8" s="3">
-        <v>777800</v>
+        <v>635600</v>
       </c>
       <c r="J8" s="3">
+        <v>786800</v>
+      </c>
+      <c r="K8" s="3">
         <v>621300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>540500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>543500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>581000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>616400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>460100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>488400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>564400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>524500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>488200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>395500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>340600</v>
+      </c>
+      <c r="F9" s="3">
+        <v>512400</v>
+      </c>
+      <c r="G9" s="3">
+        <v>486500</v>
+      </c>
+      <c r="H9" s="3">
+        <v>508200</v>
+      </c>
+      <c r="I9" s="3">
+        <v>448000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>565000</v>
+      </c>
+      <c r="K9" s="3">
+        <v>443700</v>
+      </c>
+      <c r="L9" s="3">
+        <v>394100</v>
+      </c>
+      <c r="M9" s="3">
+        <v>378900</v>
+      </c>
+      <c r="N9" s="3">
+        <v>387100</v>
+      </c>
+      <c r="O9" s="3">
+        <v>426100</v>
+      </c>
+      <c r="P9" s="3">
+        <v>325000</v>
+      </c>
+      <c r="Q9" s="3">
         <v>336800</v>
       </c>
-      <c r="E9" s="3">
-        <v>506600</v>
-      </c>
-      <c r="F9" s="3">
-        <v>481000</v>
-      </c>
-      <c r="G9" s="3">
-        <v>502400</v>
-      </c>
-      <c r="H9" s="3">
-        <v>442900</v>
-      </c>
-      <c r="I9" s="3">
-        <v>558600</v>
-      </c>
-      <c r="J9" s="3">
-        <v>443700</v>
-      </c>
-      <c r="K9" s="3">
-        <v>394100</v>
-      </c>
-      <c r="L9" s="3">
-        <v>378900</v>
-      </c>
-      <c r="M9" s="3">
-        <v>387100</v>
-      </c>
-      <c r="N9" s="3">
-        <v>426100</v>
-      </c>
-      <c r="O9" s="3">
-        <v>325000</v>
-      </c>
-      <c r="P9" s="3">
-        <v>336800</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>383900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>371400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>344600</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>82200</v>
+        <v>147000</v>
       </c>
       <c r="E10" s="3">
-        <v>237200</v>
+        <v>83100</v>
       </c>
       <c r="F10" s="3">
-        <v>221900</v>
+        <v>240000</v>
       </c>
       <c r="G10" s="3">
-        <v>180200</v>
+        <v>224400</v>
       </c>
       <c r="H10" s="3">
-        <v>185500</v>
+        <v>182200</v>
       </c>
       <c r="I10" s="3">
-        <v>219200</v>
+        <v>187600</v>
       </c>
       <c r="J10" s="3">
+        <v>221700</v>
+      </c>
+      <c r="K10" s="3">
         <v>177600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>146400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>164600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>193900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>190300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>135100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>151600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>180500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>153100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>143600</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>15300</v>
+        <v>19700</v>
       </c>
       <c r="E12" s="3">
+        <v>15500</v>
+      </c>
+      <c r="F12" s="3">
+        <v>27900</v>
+      </c>
+      <c r="G12" s="3">
+        <v>25900</v>
+      </c>
+      <c r="H12" s="3">
         <v>27600</v>
       </c>
-      <c r="F12" s="3">
-        <v>25600</v>
-      </c>
-      <c r="G12" s="3">
-        <v>27200</v>
-      </c>
-      <c r="H12" s="3">
-        <v>24300</v>
-      </c>
       <c r="I12" s="3">
-        <v>7500</v>
+        <v>24600</v>
       </c>
       <c r="J12" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K12" s="3">
         <v>23700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>21100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>23600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>17000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>22200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>22300</v>
-      </c>
-      <c r="P12" s="3">
-        <v>24000</v>
       </c>
       <c r="Q12" s="3">
         <v>24000</v>
       </c>
       <c r="R12" s="3">
+        <v>24000</v>
+      </c>
+      <c r="S12" s="3">
         <v>22100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,19 +1045,22 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>75900</v>
+        <v>42300</v>
       </c>
       <c r="E14" s="3">
-        <v>28500</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
+        <v>76800</v>
+      </c>
+      <c r="F14" s="3">
+        <v>28900</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
@@ -1048,8 +1068,8 @@
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1057,32 +1077,35 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-10600</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>16200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>502900</v>
+        <v>520800</v>
       </c>
       <c r="E17" s="3">
-        <v>632300</v>
+        <v>508700</v>
       </c>
       <c r="F17" s="3">
-        <v>585000</v>
+        <v>639600</v>
       </c>
       <c r="G17" s="3">
-        <v>587600</v>
+        <v>591700</v>
       </c>
       <c r="H17" s="3">
-        <v>544000</v>
+        <v>594300</v>
       </c>
       <c r="I17" s="3">
-        <v>648100</v>
+        <v>550200</v>
       </c>
       <c r="J17" s="3">
+        <v>655600</v>
+      </c>
+      <c r="K17" s="3">
         <v>535300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>468800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>469400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>476000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>503800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>383600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>420400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>486900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>448700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>429700</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-83900</v>
+        <v>21700</v>
       </c>
       <c r="E18" s="3">
-        <v>111500</v>
+        <v>-84900</v>
       </c>
       <c r="F18" s="3">
-        <v>117900</v>
+        <v>112800</v>
       </c>
       <c r="G18" s="3">
-        <v>95000</v>
+        <v>119200</v>
       </c>
       <c r="H18" s="3">
-        <v>84400</v>
+        <v>96100</v>
       </c>
       <c r="I18" s="3">
-        <v>129700</v>
+        <v>85400</v>
       </c>
       <c r="J18" s="3">
+        <v>131200</v>
+      </c>
+      <c r="K18" s="3">
         <v>86000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>71700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>74100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>105000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>112500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>76500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>67900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>77500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>75700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>58500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,146 +1312,153 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4300</v>
       </c>
-      <c r="I20" s="3">
-        <v>-4700</v>
-      </c>
       <c r="J20" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-21300</v>
+        <v>76400</v>
       </c>
       <c r="E21" s="3">
-        <v>164200</v>
+        <v>-21600</v>
       </c>
       <c r="F21" s="3">
-        <v>173100</v>
+        <v>166100</v>
       </c>
       <c r="G21" s="3">
-        <v>148700</v>
+        <v>175100</v>
       </c>
       <c r="H21" s="3">
-        <v>136300</v>
+        <v>150400</v>
       </c>
       <c r="I21" s="3">
-        <v>173300</v>
+        <v>137900</v>
       </c>
       <c r="J21" s="3">
+        <v>175300</v>
+      </c>
+      <c r="K21" s="3">
         <v>123400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>106800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>110600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>136800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>150600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>113900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>108400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>118800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>118000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>95700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>24200</v>
+        <v>23200</v>
       </c>
       <c r="E22" s="3">
-        <v>26000</v>
+        <v>24500</v>
       </c>
       <c r="F22" s="3">
-        <v>24100</v>
+        <v>26300</v>
       </c>
       <c r="G22" s="3">
-        <v>22500</v>
+        <v>24300</v>
       </c>
       <c r="H22" s="3">
-        <v>22300</v>
+        <v>22700</v>
       </c>
       <c r="I22" s="3">
-        <v>14800</v>
+        <v>22600</v>
       </c>
       <c r="J22" s="3">
-        <v>11800</v>
+        <v>15000</v>
       </c>
       <c r="K22" s="3">
         <v>11800</v>
       </c>
       <c r="L22" s="3">
+        <v>11800</v>
+      </c>
+      <c r="M22" s="3">
         <v>11700</v>
-      </c>
-      <c r="M22" s="3">
-        <v>14100</v>
       </c>
       <c r="N22" s="3">
         <v>14100</v>
@@ -1430,122 +1470,131 @@
         <v>14100</v>
       </c>
       <c r="Q22" s="3">
+        <v>14100</v>
+      </c>
+      <c r="R22" s="3">
         <v>14400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>14000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-110700</v>
+        <v>-5400</v>
       </c>
       <c r="E23" s="3">
-        <v>82200</v>
+        <v>-111900</v>
       </c>
       <c r="F23" s="3">
-        <v>90000</v>
+        <v>83100</v>
       </c>
       <c r="G23" s="3">
-        <v>68900</v>
+        <v>91000</v>
       </c>
       <c r="H23" s="3">
-        <v>57800</v>
+        <v>69700</v>
       </c>
       <c r="I23" s="3">
-        <v>110100</v>
+        <v>58500</v>
       </c>
       <c r="J23" s="3">
+        <v>111400</v>
+      </c>
+      <c r="K23" s="3">
         <v>71300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>57300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>62100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>87100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>99700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>63400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>54400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>65000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>61500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-26900</v>
+        <v>-800</v>
       </c>
       <c r="E24" s="3">
-        <v>20500</v>
+        <v>-27300</v>
       </c>
       <c r="F24" s="3">
-        <v>14000</v>
+        <v>20700</v>
       </c>
       <c r="G24" s="3">
-        <v>11800</v>
+        <v>14200</v>
       </c>
       <c r="H24" s="3">
-        <v>9900</v>
+        <v>11900</v>
       </c>
       <c r="I24" s="3">
-        <v>14700</v>
+        <v>10000</v>
       </c>
       <c r="J24" s="3">
+        <v>14900</v>
+      </c>
+      <c r="K24" s="3">
         <v>10800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>10200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-8800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>17200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>11400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>8500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-83700</v>
+        <v>-4600</v>
       </c>
       <c r="E26" s="3">
-        <v>61700</v>
+        <v>-84700</v>
       </c>
       <c r="F26" s="3">
-        <v>76000</v>
+        <v>62400</v>
       </c>
       <c r="G26" s="3">
-        <v>57100</v>
+        <v>76800</v>
       </c>
       <c r="H26" s="3">
-        <v>47900</v>
+        <v>57700</v>
       </c>
       <c r="I26" s="3">
-        <v>95400</v>
+        <v>48500</v>
       </c>
       <c r="J26" s="3">
+        <v>96500</v>
+      </c>
+      <c r="K26" s="3">
         <v>60500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>46200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>53900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>77000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>108500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>46200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>45500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>53600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>53100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-84200</v>
+        <v>-4000</v>
       </c>
       <c r="E27" s="3">
-        <v>59700</v>
+        <v>-85100</v>
       </c>
       <c r="F27" s="3">
-        <v>74400</v>
+        <v>60400</v>
       </c>
       <c r="G27" s="3">
-        <v>56200</v>
+        <v>75200</v>
       </c>
       <c r="H27" s="3">
-        <v>46800</v>
+        <v>56800</v>
       </c>
       <c r="I27" s="3">
-        <v>93100</v>
+        <v>47300</v>
       </c>
       <c r="J27" s="3">
+        <v>94100</v>
+      </c>
+      <c r="K27" s="3">
         <v>59100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>44100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>52200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>74500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>107000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>44900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>44400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>51800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>51900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1782,14 +1843,14 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>10</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -1801,16 +1862,19 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-500</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>200</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E32" s="3">
         <v>2500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4300</v>
       </c>
-      <c r="I32" s="3">
-        <v>4700</v>
-      </c>
       <c r="J32" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K32" s="3">
         <v>2900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-84200</v>
+        <v>-4000</v>
       </c>
       <c r="E33" s="3">
-        <v>59700</v>
+        <v>-85100</v>
       </c>
       <c r="F33" s="3">
-        <v>74400</v>
+        <v>60400</v>
       </c>
       <c r="G33" s="3">
-        <v>56200</v>
+        <v>75200</v>
       </c>
       <c r="H33" s="3">
-        <v>46800</v>
+        <v>56800</v>
       </c>
       <c r="I33" s="3">
-        <v>93100</v>
+        <v>47300</v>
       </c>
       <c r="J33" s="3">
+        <v>94100</v>
+      </c>
+      <c r="K33" s="3">
         <v>59100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>44100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>52200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>74500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>107000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>44900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>44400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>51200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>52100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-84200</v>
+        <v>-4000</v>
       </c>
       <c r="E35" s="3">
-        <v>59700</v>
+        <v>-85100</v>
       </c>
       <c r="F35" s="3">
-        <v>74400</v>
+        <v>60400</v>
       </c>
       <c r="G35" s="3">
-        <v>56200</v>
+        <v>75200</v>
       </c>
       <c r="H35" s="3">
-        <v>46800</v>
+        <v>56800</v>
       </c>
       <c r="I35" s="3">
-        <v>93100</v>
+        <v>47300</v>
       </c>
       <c r="J35" s="3">
+        <v>94100</v>
+      </c>
+      <c r="K35" s="3">
         <v>59100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>44100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>52200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>74500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>107000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>44900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>44400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>51200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>52100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>276500</v>
+        <v>198600</v>
       </c>
       <c r="E41" s="3">
-        <v>720400</v>
+        <v>279700</v>
       </c>
       <c r="F41" s="3">
-        <v>212000</v>
+        <v>728600</v>
       </c>
       <c r="G41" s="3">
-        <v>169300</v>
+        <v>214400</v>
       </c>
       <c r="H41" s="3">
-        <v>245100</v>
+        <v>171300</v>
       </c>
       <c r="I41" s="3">
-        <v>339500</v>
+        <v>247900</v>
       </c>
       <c r="J41" s="3">
+        <v>343400</v>
+      </c>
+      <c r="K41" s="3">
         <v>275300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>366500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>376500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>455100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>395000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>402600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>321400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>387700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>320200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>263700</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,379 +2423,403 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>826500</v>
+        <v>830800</v>
       </c>
       <c r="E43" s="3">
-        <v>887300</v>
+        <v>835900</v>
       </c>
       <c r="F43" s="3">
-        <v>805800</v>
+        <v>897500</v>
       </c>
       <c r="G43" s="3">
-        <v>867000</v>
+        <v>815000</v>
       </c>
       <c r="H43" s="3">
-        <v>854000</v>
+        <v>877000</v>
       </c>
       <c r="I43" s="3">
-        <v>801500</v>
+        <v>863800</v>
       </c>
       <c r="J43" s="3">
+        <v>810700</v>
+      </c>
+      <c r="K43" s="3">
         <v>866500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>728100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>748300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1116900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>438900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>408600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>410000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>441000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>415400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>443000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>510500</v>
+        <v>547800</v>
       </c>
       <c r="E44" s="3">
-        <v>469000</v>
+        <v>516300</v>
       </c>
       <c r="F44" s="3">
-        <v>462300</v>
+        <v>474400</v>
       </c>
       <c r="G44" s="3">
-        <v>439500</v>
+        <v>467600</v>
       </c>
       <c r="H44" s="3">
-        <v>449200</v>
+        <v>444600</v>
       </c>
       <c r="I44" s="3">
-        <v>408700</v>
+        <v>454300</v>
       </c>
       <c r="J44" s="3">
+        <v>413400</v>
+      </c>
+      <c r="K44" s="3">
         <v>459900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>417500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>410800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>384100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>275400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>287900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>299000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>319800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>322700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>307600</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>64100</v>
+        <v>62900</v>
       </c>
       <c r="E45" s="3">
-        <v>61000</v>
+        <v>64800</v>
       </c>
       <c r="F45" s="3">
-        <v>60400</v>
+        <v>61700</v>
       </c>
       <c r="G45" s="3">
-        <v>56500</v>
+        <v>61100</v>
       </c>
       <c r="H45" s="3">
-        <v>67200</v>
+        <v>57200</v>
       </c>
       <c r="I45" s="3">
-        <v>58400</v>
+        <v>68000</v>
       </c>
       <c r="J45" s="3">
+        <v>59000</v>
+      </c>
+      <c r="K45" s="3">
         <v>54300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>50000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>51300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>346000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>338700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>322500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>359500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>326300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>307300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>307500</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1677500</v>
+        <v>1640100</v>
       </c>
       <c r="E46" s="3">
-        <v>2137600</v>
+        <v>1696800</v>
       </c>
       <c r="F46" s="3">
-        <v>1540400</v>
+        <v>2162100</v>
       </c>
       <c r="G46" s="3">
-        <v>1532500</v>
+        <v>1558100</v>
       </c>
       <c r="H46" s="3">
-        <v>1615500</v>
+        <v>1550000</v>
       </c>
       <c r="I46" s="3">
-        <v>1608100</v>
+        <v>1634000</v>
       </c>
       <c r="J46" s="3">
+        <v>1626600</v>
+      </c>
+      <c r="K46" s="3">
         <v>1656000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1562000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1586900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1580200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1448100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1421600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1390000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1474800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1365600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1321900</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>325700</v>
+        <v>320700</v>
       </c>
       <c r="E47" s="3">
-        <v>350600</v>
+        <v>329500</v>
       </c>
       <c r="F47" s="3">
-        <v>328300</v>
+        <v>354600</v>
       </c>
       <c r="G47" s="3">
-        <v>237500</v>
+        <v>332100</v>
       </c>
       <c r="H47" s="3">
-        <v>235900</v>
+        <v>240300</v>
       </c>
       <c r="I47" s="3">
-        <v>237500</v>
+        <v>238600</v>
       </c>
       <c r="J47" s="3">
+        <v>240300</v>
+      </c>
+      <c r="K47" s="3">
         <v>226700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>183600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>189900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>180600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>175500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>195000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>277500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>290700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>284600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>283200</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1809900</v>
+        <v>1785400</v>
       </c>
       <c r="E48" s="3">
-        <v>1940700</v>
+        <v>1830700</v>
       </c>
       <c r="F48" s="3">
-        <v>1811300</v>
+        <v>1963000</v>
       </c>
       <c r="G48" s="3">
-        <v>1814400</v>
+        <v>1832100</v>
       </c>
       <c r="H48" s="3">
-        <v>1804800</v>
+        <v>1835300</v>
       </c>
       <c r="I48" s="3">
-        <v>1635800</v>
+        <v>1825600</v>
       </c>
       <c r="J48" s="3">
+        <v>1654600</v>
+      </c>
+      <c r="K48" s="3">
         <v>1482300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1295500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1369200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1342500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1285000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1176900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1190700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1215800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1194800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1191200</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1503100</v>
+        <v>1501600</v>
       </c>
       <c r="E49" s="3">
-        <v>1565200</v>
+        <v>1520300</v>
       </c>
       <c r="F49" s="3">
-        <v>1533100</v>
+        <v>1583100</v>
       </c>
       <c r="G49" s="3">
-        <v>1543700</v>
+        <v>1550700</v>
       </c>
       <c r="H49" s="3">
-        <v>1543900</v>
+        <v>1561400</v>
       </c>
       <c r="I49" s="3">
-        <v>1543400</v>
+        <v>1561600</v>
       </c>
       <c r="J49" s="3">
+        <v>1561100</v>
+      </c>
+      <c r="K49" s="3">
         <v>1003100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>802500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>791000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>785600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>769100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>681600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>698900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>725200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>719900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>722900</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>475200</v>
+        <v>480800</v>
       </c>
       <c r="E52" s="3">
-        <v>462700</v>
+        <v>480700</v>
       </c>
       <c r="F52" s="3">
-        <v>452800</v>
+        <v>468100</v>
       </c>
       <c r="G52" s="3">
-        <v>443400</v>
+        <v>458000</v>
       </c>
       <c r="H52" s="3">
-        <v>441400</v>
+        <v>448500</v>
       </c>
       <c r="I52" s="3">
-        <v>428700</v>
+        <v>446400</v>
       </c>
       <c r="J52" s="3">
+        <v>433600</v>
+      </c>
+      <c r="K52" s="3">
         <v>422600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>392700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>422300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>412800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>398800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>389300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>389500</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>407200</v>
       </c>
       <c r="R52" s="3">
         <v>407200</v>
       </c>
       <c r="S52" s="3">
+        <v>407200</v>
+      </c>
+      <c r="T52" s="3">
         <v>408200</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5791500</v>
+        <v>5728700</v>
       </c>
       <c r="E54" s="3">
-        <v>6456800</v>
+        <v>5857900</v>
       </c>
       <c r="F54" s="3">
-        <v>5666000</v>
+        <v>6530800</v>
       </c>
       <c r="G54" s="3">
-        <v>5571600</v>
+        <v>5731000</v>
       </c>
       <c r="H54" s="3">
-        <v>5641400</v>
+        <v>5635500</v>
       </c>
       <c r="I54" s="3">
-        <v>5453600</v>
+        <v>5706100</v>
       </c>
       <c r="J54" s="3">
+        <v>5516100</v>
+      </c>
+      <c r="K54" s="3">
         <v>4790700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4236400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4359300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4301700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4076500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3864400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3946500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4113700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3972100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3927300</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>628300</v>
+        <v>670800</v>
       </c>
       <c r="E57" s="3">
-        <v>711200</v>
+        <v>635500</v>
       </c>
       <c r="F57" s="3">
-        <v>638900</v>
+        <v>719300</v>
       </c>
       <c r="G57" s="3">
-        <v>564300</v>
+        <v>646300</v>
       </c>
       <c r="H57" s="3">
-        <v>607100</v>
+        <v>570800</v>
       </c>
       <c r="I57" s="3">
-        <v>663800</v>
+        <v>614100</v>
       </c>
       <c r="J57" s="3">
+        <v>671400</v>
+      </c>
+      <c r="K57" s="3">
         <v>680000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>532200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>492900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>496300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>452300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>418000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>454100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>534100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>615400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>581600</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>166700</v>
+        <v>176700</v>
       </c>
       <c r="E58" s="3">
-        <v>156900</v>
+        <v>168600</v>
       </c>
       <c r="F58" s="3">
-        <v>93700</v>
+        <v>158700</v>
       </c>
       <c r="G58" s="3">
-        <v>176000</v>
+        <v>94800</v>
       </c>
       <c r="H58" s="3">
-        <v>151500</v>
+        <v>178100</v>
       </c>
       <c r="I58" s="3">
-        <v>201000</v>
+        <v>153300</v>
       </c>
       <c r="J58" s="3">
+        <v>203300</v>
+      </c>
+      <c r="K58" s="3">
         <v>175500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>94300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>89700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>38800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>41000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>35000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>37200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>39900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>39700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>643700</v>
+        <v>621900</v>
       </c>
       <c r="E59" s="3">
-        <v>701500</v>
+        <v>651000</v>
       </c>
       <c r="F59" s="3">
-        <v>587500</v>
+        <v>709500</v>
       </c>
       <c r="G59" s="3">
-        <v>556600</v>
+        <v>594200</v>
       </c>
       <c r="H59" s="3">
-        <v>588300</v>
+        <v>563000</v>
       </c>
       <c r="I59" s="3">
-        <v>573300</v>
+        <v>595100</v>
       </c>
       <c r="J59" s="3">
+        <v>579800</v>
+      </c>
+      <c r="K59" s="3">
         <v>653200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>530700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>538100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>561900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>457900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>390600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>390800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>404700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>221300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>225100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1438600</v>
+        <v>1469400</v>
       </c>
       <c r="E60" s="3">
-        <v>1569600</v>
+        <v>1455100</v>
       </c>
       <c r="F60" s="3">
-        <v>1320100</v>
+        <v>1587600</v>
       </c>
       <c r="G60" s="3">
-        <v>1297000</v>
+        <v>1335300</v>
       </c>
       <c r="H60" s="3">
-        <v>1347000</v>
+        <v>1311900</v>
       </c>
       <c r="I60" s="3">
-        <v>1438100</v>
+        <v>1362400</v>
       </c>
       <c r="J60" s="3">
+        <v>1454600</v>
+      </c>
+      <c r="K60" s="3">
         <v>1508700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1157200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1120800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1097000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>951200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>843600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>882100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>978600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>876500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>842800</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1942100</v>
+        <v>1837900</v>
       </c>
       <c r="E61" s="3">
-        <v>2363900</v>
+        <v>1964400</v>
       </c>
       <c r="F61" s="3">
-        <v>1873800</v>
+        <v>2391100</v>
       </c>
       <c r="G61" s="3">
-        <v>1852500</v>
+        <v>1895300</v>
       </c>
       <c r="H61" s="3">
-        <v>1853700</v>
+        <v>1873700</v>
       </c>
       <c r="I61" s="3">
-        <v>1571000</v>
+        <v>1875000</v>
       </c>
       <c r="J61" s="3">
+        <v>1589100</v>
+      </c>
+      <c r="K61" s="3">
         <v>850000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>849900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>897600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>899500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>883600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>866100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>882800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>924600</v>
-      </c>
-      <c r="R61" s="3">
-        <v>936400</v>
       </c>
       <c r="S61" s="3">
         <v>936400</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>936400</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>630300</v>
+        <v>613200</v>
       </c>
       <c r="E62" s="3">
-        <v>560900</v>
+        <v>637600</v>
       </c>
       <c r="F62" s="3">
-        <v>610500</v>
+        <v>567400</v>
       </c>
       <c r="G62" s="3">
-        <v>632500</v>
+        <v>617500</v>
       </c>
       <c r="H62" s="3">
-        <v>639900</v>
+        <v>639800</v>
       </c>
       <c r="I62" s="3">
-        <v>610200</v>
+        <v>647300</v>
       </c>
       <c r="J62" s="3">
+        <v>617200</v>
+      </c>
+      <c r="K62" s="3">
         <v>629100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>570500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>597800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>595300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>615100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>583200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>600000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>611800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>603200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>648900</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4077200</v>
+        <v>3986400</v>
       </c>
       <c r="E66" s="3">
-        <v>4561900</v>
+        <v>4123900</v>
       </c>
       <c r="F66" s="3">
-        <v>3868000</v>
+        <v>4614200</v>
       </c>
       <c r="G66" s="3">
-        <v>3844000</v>
+        <v>3912400</v>
       </c>
       <c r="H66" s="3">
-        <v>3900700</v>
+        <v>3888100</v>
       </c>
       <c r="I66" s="3">
-        <v>3679300</v>
+        <v>3945400</v>
       </c>
       <c r="J66" s="3">
+        <v>3721500</v>
+      </c>
+      <c r="K66" s="3">
         <v>3048400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2631900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2671100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2642800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2497600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2338500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2410000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2561300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2460700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2471400</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1057000</v>
+        <v>1073800</v>
       </c>
       <c r="E72" s="3">
-        <v>1210200</v>
+        <v>1069100</v>
       </c>
       <c r="F72" s="3">
-        <v>1160500</v>
+        <v>1224100</v>
       </c>
       <c r="G72" s="3">
-        <v>1101100</v>
+        <v>1173800</v>
       </c>
       <c r="H72" s="3">
-        <v>1089300</v>
+        <v>1113700</v>
       </c>
       <c r="I72" s="3">
-        <v>1109600</v>
+        <v>1101800</v>
       </c>
       <c r="J72" s="3">
+        <v>1122300</v>
+      </c>
+      <c r="K72" s="3">
         <v>1045900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1001500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1021400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>978100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>965700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>934500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>902100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>916000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>877400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>806200</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1714400</v>
+        <v>1742300</v>
       </c>
       <c r="E76" s="3">
-        <v>1894900</v>
+        <v>1734000</v>
       </c>
       <c r="F76" s="3">
-        <v>1798000</v>
+        <v>1916600</v>
       </c>
       <c r="G76" s="3">
-        <v>1727500</v>
+        <v>1818600</v>
       </c>
       <c r="H76" s="3">
-        <v>1740800</v>
+        <v>1747300</v>
       </c>
       <c r="I76" s="3">
-        <v>1774300</v>
+        <v>1760700</v>
       </c>
       <c r="J76" s="3">
+        <v>1794700</v>
+      </c>
+      <c r="K76" s="3">
         <v>1742300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1604500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1688200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1658900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1578800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1525900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1536500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1552400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1511400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1455900</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-84200</v>
+        <v>-4000</v>
       </c>
       <c r="E81" s="3">
-        <v>59700</v>
+        <v>-85100</v>
       </c>
       <c r="F81" s="3">
-        <v>74400</v>
+        <v>60400</v>
       </c>
       <c r="G81" s="3">
-        <v>56200</v>
+        <v>75200</v>
       </c>
       <c r="H81" s="3">
-        <v>46800</v>
+        <v>56800</v>
       </c>
       <c r="I81" s="3">
-        <v>93100</v>
+        <v>47300</v>
       </c>
       <c r="J81" s="3">
+        <v>94100</v>
+      </c>
+      <c r="K81" s="3">
         <v>59100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>44100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>52200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>74500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>107000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>44900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>44400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>51200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>52100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>65100</v>
+        <v>58700</v>
       </c>
       <c r="E83" s="3">
-        <v>55900</v>
+        <v>65900</v>
       </c>
       <c r="F83" s="3">
-        <v>59100</v>
+        <v>56600</v>
       </c>
       <c r="G83" s="3">
-        <v>57400</v>
+        <v>59800</v>
       </c>
       <c r="H83" s="3">
-        <v>56200</v>
+        <v>58000</v>
       </c>
       <c r="I83" s="3">
-        <v>48300</v>
+        <v>56800</v>
       </c>
       <c r="J83" s="3">
+        <v>48900</v>
+      </c>
+      <c r="K83" s="3">
         <v>40300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>37800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>36700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>35500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>36800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>36400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>39900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>39500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>42500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-67300</v>
+        <v>35100</v>
       </c>
       <c r="E89" s="3">
-        <v>187500</v>
+        <v>-68100</v>
       </c>
       <c r="F89" s="3">
-        <v>245100</v>
+        <v>189600</v>
       </c>
       <c r="G89" s="3">
-        <v>27900</v>
+        <v>248000</v>
       </c>
       <c r="H89" s="3">
-        <v>-45700</v>
+        <v>28300</v>
       </c>
       <c r="I89" s="3">
-        <v>126600</v>
+        <v>-46200</v>
       </c>
       <c r="J89" s="3">
+        <v>128000</v>
+      </c>
+      <c r="K89" s="3">
         <v>165600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>128700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-23000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>102600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>139600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>72300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-14300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>151700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>119900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-13700</v>
+        <v>-11700</v>
       </c>
       <c r="E91" s="3">
-        <v>-63900</v>
+        <v>-13900</v>
       </c>
       <c r="F91" s="3">
-        <v>-39300</v>
+        <v>-64700</v>
       </c>
       <c r="G91" s="3">
-        <v>-44800</v>
+        <v>-39700</v>
       </c>
       <c r="H91" s="3">
-        <v>-67700</v>
+        <v>-45300</v>
       </c>
       <c r="I91" s="3">
-        <v>-119300</v>
+        <v>-68500</v>
       </c>
       <c r="J91" s="3">
+        <v>-120600</v>
+      </c>
+      <c r="K91" s="3">
         <v>36500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-29700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-40000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-42700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-32000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-18200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-36500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-56500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-27500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-45200</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-22300</v>
+        <v>-16600</v>
       </c>
       <c r="E94" s="3">
-        <v>-88800</v>
+        <v>-22600</v>
       </c>
       <c r="F94" s="3">
-        <v>-140300</v>
+        <v>-89800</v>
       </c>
       <c r="G94" s="3">
-        <v>-58500</v>
+        <v>-141900</v>
       </c>
       <c r="H94" s="3">
-        <v>-89900</v>
+        <v>-59100</v>
       </c>
       <c r="I94" s="3">
-        <v>-693200</v>
+        <v>-90900</v>
       </c>
       <c r="J94" s="3">
+        <v>-701200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-233700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-62900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-56400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-32000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-111900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>46400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-28300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-61200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-27700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-49400</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4858,52 +5092,55 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="G96" s="3">
         <v>-21800</v>
       </c>
-      <c r="F96" s="3">
-        <v>-21500</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-21600</v>
-      </c>
       <c r="H96" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-19400</v>
       </c>
-      <c r="I96" s="3">
-        <v>-19500</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-19400</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-18700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-17400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-16700</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-17300</v>
       </c>
       <c r="O96" s="3">
         <v>-17300</v>
       </c>
       <c r="P96" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-15600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-15700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-16000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-15600</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-347100</v>
+        <v>-100800</v>
       </c>
       <c r="E100" s="3">
-        <v>394900</v>
+        <v>-351100</v>
       </c>
       <c r="F100" s="3">
-        <v>-63100</v>
+        <v>399500</v>
       </c>
       <c r="G100" s="3">
-        <v>-41000</v>
+        <v>-63800</v>
       </c>
       <c r="H100" s="3">
-        <v>46700</v>
+        <v>-41500</v>
       </c>
       <c r="I100" s="3">
-        <v>636600</v>
+        <v>47200</v>
       </c>
       <c r="J100" s="3">
+        <v>643900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-52200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-56500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-22000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-38300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-33100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-12700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-22900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-33200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-7200</v>
       </c>
-      <c r="E101" s="3">
-        <v>14800</v>
-      </c>
       <c r="F101" s="3">
+        <v>15000</v>
+      </c>
+      <c r="G101" s="3">
         <v>800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-4200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-5600</v>
       </c>
-      <c r="I101" s="3">
-        <v>-5700</v>
-      </c>
       <c r="J101" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="K101" s="3">
         <v>11700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-6300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>11500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-4300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-443900</v>
+        <v>-81100</v>
       </c>
       <c r="E102" s="3">
-        <v>508400</v>
+        <v>-449000</v>
       </c>
       <c r="F102" s="3">
-        <v>42600</v>
+        <v>514200</v>
       </c>
       <c r="G102" s="3">
-        <v>-75700</v>
+        <v>43100</v>
       </c>
       <c r="H102" s="3">
-        <v>-94500</v>
+        <v>-76600</v>
       </c>
       <c r="I102" s="3">
-        <v>64200</v>
+        <v>-95500</v>
       </c>
       <c r="J102" s="3">
+        <v>65000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-108500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-83900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>60100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-7600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>81200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-54200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>67500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>56500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CAE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAE_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>542500</v>
+        <v>660100</v>
       </c>
       <c r="E8" s="3">
-        <v>423800</v>
+        <v>558800</v>
       </c>
       <c r="F8" s="3">
-        <v>752300</v>
+        <v>436600</v>
       </c>
       <c r="G8" s="3">
-        <v>710900</v>
+        <v>775000</v>
       </c>
       <c r="H8" s="3">
-        <v>690400</v>
+        <v>732400</v>
       </c>
       <c r="I8" s="3">
-        <v>635600</v>
+        <v>711200</v>
       </c>
       <c r="J8" s="3">
+        <v>654700</v>
+      </c>
+      <c r="K8" s="3">
         <v>786800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>621300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>540500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>543500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>581000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>616400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>460100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>488400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>564400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>524500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>488200</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>395500</v>
+        <v>478600</v>
       </c>
       <c r="E9" s="3">
-        <v>340600</v>
+        <v>407400</v>
       </c>
       <c r="F9" s="3">
-        <v>512400</v>
+        <v>350900</v>
       </c>
       <c r="G9" s="3">
-        <v>486500</v>
+        <v>527800</v>
       </c>
       <c r="H9" s="3">
-        <v>508200</v>
+        <v>501200</v>
       </c>
       <c r="I9" s="3">
-        <v>448000</v>
+        <v>523500</v>
       </c>
       <c r="J9" s="3">
+        <v>461500</v>
+      </c>
+      <c r="K9" s="3">
         <v>565000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>443700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>394100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>378900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>387100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>426100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>325000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>336800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>383900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>371400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>344600</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>147000</v>
+        <v>181500</v>
       </c>
       <c r="E10" s="3">
-        <v>83100</v>
+        <v>151500</v>
       </c>
       <c r="F10" s="3">
-        <v>240000</v>
+        <v>85600</v>
       </c>
       <c r="G10" s="3">
-        <v>224400</v>
+        <v>247200</v>
       </c>
       <c r="H10" s="3">
-        <v>182200</v>
+        <v>231200</v>
       </c>
       <c r="I10" s="3">
-        <v>187600</v>
+        <v>187700</v>
       </c>
       <c r="J10" s="3">
+        <v>193300</v>
+      </c>
+      <c r="K10" s="3">
         <v>221700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>177600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>146400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>164600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>193900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>190300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>135100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>151600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>180500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>153100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>143600</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>19700</v>
+        <v>28900</v>
       </c>
       <c r="E12" s="3">
-        <v>15500</v>
+        <v>20300</v>
       </c>
       <c r="F12" s="3">
-        <v>27900</v>
+        <v>15900</v>
       </c>
       <c r="G12" s="3">
-        <v>25900</v>
+        <v>28700</v>
       </c>
       <c r="H12" s="3">
-        <v>27600</v>
+        <v>26600</v>
       </c>
       <c r="I12" s="3">
-        <v>24600</v>
+        <v>28400</v>
       </c>
       <c r="J12" s="3">
+        <v>25300</v>
+      </c>
+      <c r="K12" s="3">
         <v>7600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>23700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>21100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>23600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>17000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>22200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>22300</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>24000</v>
       </c>
       <c r="R12" s="3">
         <v>24000</v>
       </c>
       <c r="S12" s="3">
+        <v>24000</v>
+      </c>
+      <c r="T12" s="3">
         <v>22100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,22 +1064,25 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>42300</v>
+        <v>12200</v>
       </c>
       <c r="E14" s="3">
-        <v>76800</v>
+        <v>43500</v>
       </c>
       <c r="F14" s="3">
-        <v>28900</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
+        <v>79100</v>
+      </c>
+      <c r="G14" s="3">
+        <v>29700</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
@@ -1071,8 +1090,8 @@
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1080,32 +1099,35 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-10600</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>16200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>520800</v>
+        <v>594400</v>
       </c>
       <c r="E17" s="3">
-        <v>508700</v>
+        <v>536500</v>
       </c>
       <c r="F17" s="3">
-        <v>639600</v>
+        <v>524000</v>
       </c>
       <c r="G17" s="3">
-        <v>591700</v>
+        <v>658800</v>
       </c>
       <c r="H17" s="3">
-        <v>594300</v>
+        <v>609500</v>
       </c>
       <c r="I17" s="3">
-        <v>550200</v>
+        <v>612200</v>
       </c>
       <c r="J17" s="3">
+        <v>566800</v>
+      </c>
+      <c r="K17" s="3">
         <v>655600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>535300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>468800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>469400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>476000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>503800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>383600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>420400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>486900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>448700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>429700</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>21700</v>
+        <v>65700</v>
       </c>
       <c r="E18" s="3">
-        <v>-84900</v>
+        <v>22400</v>
       </c>
       <c r="F18" s="3">
-        <v>112800</v>
+        <v>-87500</v>
       </c>
       <c r="G18" s="3">
-        <v>119200</v>
+        <v>116200</v>
       </c>
       <c r="H18" s="3">
-        <v>96100</v>
+        <v>122800</v>
       </c>
       <c r="I18" s="3">
-        <v>85400</v>
+        <v>99000</v>
       </c>
       <c r="J18" s="3">
+        <v>87900</v>
+      </c>
+      <c r="K18" s="3">
         <v>131200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>86000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>71700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>74100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>105000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>112500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>76500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>67900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>77500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>75700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>58500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1345,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3900</v>
+        <v>-3200</v>
       </c>
       <c r="E20" s="3">
-        <v>-2500</v>
+        <v>-4000</v>
       </c>
       <c r="F20" s="3">
-        <v>-3300</v>
+        <v>-2600</v>
       </c>
       <c r="G20" s="3">
-        <v>-3900</v>
+        <v>-3400</v>
       </c>
       <c r="H20" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O20" s="3">
         <v>-3700</v>
       </c>
-      <c r="I20" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>76400</v>
+        <v>125400</v>
       </c>
       <c r="E21" s="3">
-        <v>-21600</v>
+        <v>78700</v>
       </c>
       <c r="F21" s="3">
-        <v>166100</v>
+        <v>-22200</v>
       </c>
       <c r="G21" s="3">
-        <v>175100</v>
+        <v>171100</v>
       </c>
       <c r="H21" s="3">
-        <v>150400</v>
+        <v>180400</v>
       </c>
       <c r="I21" s="3">
-        <v>137900</v>
+        <v>155000</v>
       </c>
       <c r="J21" s="3">
+        <v>142000</v>
+      </c>
+      <c r="K21" s="3">
         <v>175300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>123400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>106800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>110600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>136800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>150600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>113900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>108400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>118800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>118000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>95700</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1434,34 +1473,34 @@
         <v>23200</v>
       </c>
       <c r="E22" s="3">
-        <v>24500</v>
+        <v>23900</v>
       </c>
       <c r="F22" s="3">
-        <v>26300</v>
+        <v>25200</v>
       </c>
       <c r="G22" s="3">
-        <v>24300</v>
+        <v>27100</v>
       </c>
       <c r="H22" s="3">
-        <v>22700</v>
+        <v>25100</v>
       </c>
       <c r="I22" s="3">
-        <v>22600</v>
+        <v>23400</v>
       </c>
       <c r="J22" s="3">
+        <v>23200</v>
+      </c>
+      <c r="K22" s="3">
         <v>15000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>11800</v>
       </c>
       <c r="L22" s="3">
         <v>11800</v>
       </c>
       <c r="M22" s="3">
+        <v>11800</v>
+      </c>
+      <c r="N22" s="3">
         <v>11700</v>
-      </c>
-      <c r="N22" s="3">
-        <v>14100</v>
       </c>
       <c r="O22" s="3">
         <v>14100</v>
@@ -1473,128 +1512,137 @@
         <v>14100</v>
       </c>
       <c r="R22" s="3">
+        <v>14100</v>
+      </c>
+      <c r="S22" s="3">
         <v>14400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>14000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-5400</v>
+        <v>39300</v>
       </c>
       <c r="E23" s="3">
-        <v>-111900</v>
+        <v>-5600</v>
       </c>
       <c r="F23" s="3">
-        <v>83100</v>
+        <v>-115300</v>
       </c>
       <c r="G23" s="3">
-        <v>91000</v>
+        <v>85600</v>
       </c>
       <c r="H23" s="3">
-        <v>69700</v>
+        <v>93700</v>
       </c>
       <c r="I23" s="3">
-        <v>58500</v>
+        <v>71800</v>
       </c>
       <c r="J23" s="3">
+        <v>60300</v>
+      </c>
+      <c r="K23" s="3">
         <v>111400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>71300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>57300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>62100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>87100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>99700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>63400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>54400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>65000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>61500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-800</v>
       </c>
-      <c r="E24" s="3">
-        <v>-27300</v>
-      </c>
       <c r="F24" s="3">
-        <v>20700</v>
+        <v>-28100</v>
       </c>
       <c r="G24" s="3">
-        <v>14200</v>
+        <v>21300</v>
       </c>
       <c r="H24" s="3">
-        <v>11900</v>
+        <v>14600</v>
       </c>
       <c r="I24" s="3">
-        <v>10000</v>
+        <v>12300</v>
       </c>
       <c r="J24" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K24" s="3">
         <v>14900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>10800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>11000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>10200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-8800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>17200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>8900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>11400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>8500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4600</v>
+        <v>39400</v>
       </c>
       <c r="E26" s="3">
-        <v>-84700</v>
+        <v>-4800</v>
       </c>
       <c r="F26" s="3">
-        <v>62400</v>
+        <v>-87200</v>
       </c>
       <c r="G26" s="3">
-        <v>76800</v>
+        <v>64300</v>
       </c>
       <c r="H26" s="3">
-        <v>57700</v>
+        <v>79100</v>
       </c>
       <c r="I26" s="3">
-        <v>48500</v>
+        <v>59500</v>
       </c>
       <c r="J26" s="3">
+        <v>50000</v>
+      </c>
+      <c r="K26" s="3">
         <v>96500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>60500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>46200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>53900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>77000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>108500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>46200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>45500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>53600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>53100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4000</v>
+        <v>38700</v>
       </c>
       <c r="E27" s="3">
-        <v>-85100</v>
+        <v>-4100</v>
       </c>
       <c r="F27" s="3">
-        <v>60400</v>
+        <v>-87700</v>
       </c>
       <c r="G27" s="3">
-        <v>75200</v>
+        <v>62200</v>
       </c>
       <c r="H27" s="3">
-        <v>56800</v>
+        <v>77500</v>
       </c>
       <c r="I27" s="3">
-        <v>47300</v>
+        <v>58500</v>
       </c>
       <c r="J27" s="3">
+        <v>48800</v>
+      </c>
+      <c r="K27" s="3">
         <v>94100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>59100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>44100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>52200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>74500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>107000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>44900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>44400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>51800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>51900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1846,14 +1906,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>10</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -1865,16 +1925,19 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-500</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>200</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3900</v>
+        <v>3200</v>
       </c>
       <c r="E32" s="3">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="F32" s="3">
-        <v>3300</v>
+        <v>2600</v>
       </c>
       <c r="G32" s="3">
-        <v>3900</v>
+        <v>3400</v>
       </c>
       <c r="H32" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K32" s="3">
+        <v>4800</v>
+      </c>
+      <c r="L32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="M32" s="3">
+        <v>2700</v>
+      </c>
+      <c r="N32" s="3">
+        <v>300</v>
+      </c>
+      <c r="O32" s="3">
         <v>3700</v>
       </c>
-      <c r="I32" s="3">
-        <v>4300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>4800</v>
-      </c>
-      <c r="K32" s="3">
-        <v>2900</v>
-      </c>
-      <c r="L32" s="3">
-        <v>2700</v>
-      </c>
-      <c r="M32" s="3">
-        <v>300</v>
-      </c>
-      <c r="N32" s="3">
-        <v>3700</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-4000</v>
+        <v>38700</v>
       </c>
       <c r="E33" s="3">
-        <v>-85100</v>
+        <v>-4100</v>
       </c>
       <c r="F33" s="3">
-        <v>60400</v>
+        <v>-87700</v>
       </c>
       <c r="G33" s="3">
-        <v>75200</v>
+        <v>62200</v>
       </c>
       <c r="H33" s="3">
-        <v>56800</v>
+        <v>77500</v>
       </c>
       <c r="I33" s="3">
-        <v>47300</v>
+        <v>58500</v>
       </c>
       <c r="J33" s="3">
+        <v>48800</v>
+      </c>
+      <c r="K33" s="3">
         <v>94100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>59100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>44100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>52200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>74500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>107000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>44900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>44400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>51200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>52100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-4000</v>
+        <v>38700</v>
       </c>
       <c r="E35" s="3">
-        <v>-85100</v>
+        <v>-4100</v>
       </c>
       <c r="F35" s="3">
-        <v>60400</v>
+        <v>-87700</v>
       </c>
       <c r="G35" s="3">
-        <v>75200</v>
+        <v>62200</v>
       </c>
       <c r="H35" s="3">
-        <v>56800</v>
+        <v>77500</v>
       </c>
       <c r="I35" s="3">
-        <v>47300</v>
+        <v>58500</v>
       </c>
       <c r="J35" s="3">
+        <v>48800</v>
+      </c>
+      <c r="K35" s="3">
         <v>94100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>59100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>44100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>52200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>74500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>107000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>44900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>44400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>51200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>52100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>198600</v>
+        <v>491600</v>
       </c>
       <c r="E41" s="3">
-        <v>279700</v>
+        <v>204600</v>
       </c>
       <c r="F41" s="3">
-        <v>728600</v>
+        <v>288100</v>
       </c>
       <c r="G41" s="3">
-        <v>214400</v>
+        <v>750600</v>
       </c>
       <c r="H41" s="3">
-        <v>171300</v>
+        <v>220900</v>
       </c>
       <c r="I41" s="3">
-        <v>247900</v>
+        <v>176400</v>
       </c>
       <c r="J41" s="3">
+        <v>255400</v>
+      </c>
+      <c r="K41" s="3">
         <v>343400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>275300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>366500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>376500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>455100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>395000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>402600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>321400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>387700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>320200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>263700</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,400 +2515,424 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>830800</v>
+        <v>780700</v>
       </c>
       <c r="E43" s="3">
-        <v>835900</v>
+        <v>855800</v>
       </c>
       <c r="F43" s="3">
-        <v>897500</v>
+        <v>861100</v>
       </c>
       <c r="G43" s="3">
-        <v>815000</v>
+        <v>924500</v>
       </c>
       <c r="H43" s="3">
-        <v>877000</v>
+        <v>839600</v>
       </c>
       <c r="I43" s="3">
-        <v>863800</v>
+        <v>903400</v>
       </c>
       <c r="J43" s="3">
+        <v>889800</v>
+      </c>
+      <c r="K43" s="3">
         <v>810700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>866500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>728100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>748300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1116900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>438900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>408600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>410000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>441000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>415400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>443000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>547800</v>
+        <v>548100</v>
       </c>
       <c r="E44" s="3">
-        <v>516300</v>
+        <v>564300</v>
       </c>
       <c r="F44" s="3">
-        <v>474400</v>
+        <v>531900</v>
       </c>
       <c r="G44" s="3">
-        <v>467600</v>
+        <v>488700</v>
       </c>
       <c r="H44" s="3">
-        <v>444600</v>
+        <v>481700</v>
       </c>
       <c r="I44" s="3">
-        <v>454300</v>
+        <v>458000</v>
       </c>
       <c r="J44" s="3">
+        <v>468000</v>
+      </c>
+      <c r="K44" s="3">
         <v>413400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>459900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>417500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>410800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>384100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>275400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>287900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>299000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>319800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>322700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>307600</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>62900</v>
+        <v>70300</v>
       </c>
       <c r="E45" s="3">
         <v>64800</v>
       </c>
       <c r="F45" s="3">
-        <v>61700</v>
+        <v>66800</v>
       </c>
       <c r="G45" s="3">
-        <v>61100</v>
+        <v>63500</v>
       </c>
       <c r="H45" s="3">
-        <v>57200</v>
+        <v>63000</v>
       </c>
       <c r="I45" s="3">
-        <v>68000</v>
+        <v>58900</v>
       </c>
       <c r="J45" s="3">
+        <v>70000</v>
+      </c>
+      <c r="K45" s="3">
         <v>59000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>54300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>50000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>51300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>346000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>338700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>322500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>359500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>326300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>307300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>307500</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1640100</v>
+        <v>1890800</v>
       </c>
       <c r="E46" s="3">
-        <v>1696800</v>
+        <v>1689500</v>
       </c>
       <c r="F46" s="3">
-        <v>2162100</v>
+        <v>1747900</v>
       </c>
       <c r="G46" s="3">
-        <v>1558100</v>
+        <v>2227300</v>
       </c>
       <c r="H46" s="3">
-        <v>1550000</v>
+        <v>1605100</v>
       </c>
       <c r="I46" s="3">
-        <v>1634000</v>
+        <v>1596700</v>
       </c>
       <c r="J46" s="3">
+        <v>1683300</v>
+      </c>
+      <c r="K46" s="3">
         <v>1626600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1656000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1562000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1586900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1580200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1448100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1421600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1390000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1474800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1365600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1321900</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>320700</v>
+        <v>323900</v>
       </c>
       <c r="E47" s="3">
-        <v>329500</v>
+        <v>330400</v>
       </c>
       <c r="F47" s="3">
-        <v>354600</v>
+        <v>339400</v>
       </c>
       <c r="G47" s="3">
-        <v>332100</v>
+        <v>365300</v>
       </c>
       <c r="H47" s="3">
+        <v>342100</v>
+      </c>
+      <c r="I47" s="3">
+        <v>247500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>245800</v>
+      </c>
+      <c r="K47" s="3">
         <v>240300</v>
       </c>
-      <c r="I47" s="3">
-        <v>238600</v>
-      </c>
-      <c r="J47" s="3">
-        <v>240300</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>226700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>183600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>189900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>180600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>175500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>195000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>277500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>290700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>284600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>283200</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1785400</v>
+        <v>1834700</v>
       </c>
       <c r="E48" s="3">
-        <v>1830700</v>
+        <v>1839300</v>
       </c>
       <c r="F48" s="3">
-        <v>1963000</v>
+        <v>1885900</v>
       </c>
       <c r="G48" s="3">
-        <v>1832100</v>
+        <v>2022100</v>
       </c>
       <c r="H48" s="3">
-        <v>1835300</v>
+        <v>1887300</v>
       </c>
       <c r="I48" s="3">
-        <v>1825600</v>
+        <v>1890600</v>
       </c>
       <c r="J48" s="3">
+        <v>1880600</v>
+      </c>
+      <c r="K48" s="3">
         <v>1654600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1482300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1295500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1369200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1342500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1285000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1176900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1190700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1215800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1194800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1191200</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1501600</v>
+        <v>1629600</v>
       </c>
       <c r="E49" s="3">
-        <v>1520300</v>
+        <v>1546900</v>
       </c>
       <c r="F49" s="3">
-        <v>1583100</v>
+        <v>1566100</v>
       </c>
       <c r="G49" s="3">
-        <v>1550700</v>
+        <v>1630800</v>
       </c>
       <c r="H49" s="3">
-        <v>1561400</v>
+        <v>1597500</v>
       </c>
       <c r="I49" s="3">
-        <v>1561600</v>
+        <v>1608500</v>
       </c>
       <c r="J49" s="3">
+        <v>1608600</v>
+      </c>
+      <c r="K49" s="3">
         <v>1561100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1003100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>802500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>791000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>785600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>769100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>681600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>698900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>725200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>719900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>722900</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>480800</v>
+        <v>489800</v>
       </c>
       <c r="E52" s="3">
-        <v>480700</v>
+        <v>495300</v>
       </c>
       <c r="F52" s="3">
-        <v>468100</v>
+        <v>495200</v>
       </c>
       <c r="G52" s="3">
-        <v>458000</v>
+        <v>482200</v>
       </c>
       <c r="H52" s="3">
-        <v>448500</v>
+        <v>471800</v>
       </c>
       <c r="I52" s="3">
-        <v>446400</v>
+        <v>462000</v>
       </c>
       <c r="J52" s="3">
+        <v>459900</v>
+      </c>
+      <c r="K52" s="3">
         <v>433600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>422600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>392700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>422300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>412800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>398800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>389300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>389500</v>
-      </c>
-      <c r="R52" s="3">
-        <v>407200</v>
       </c>
       <c r="S52" s="3">
         <v>407200</v>
       </c>
       <c r="T52" s="3">
+        <v>407200</v>
+      </c>
+      <c r="U52" s="3">
         <v>408200</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5728700</v>
+        <v>6168800</v>
       </c>
       <c r="E54" s="3">
-        <v>5857900</v>
+        <v>5901300</v>
       </c>
       <c r="F54" s="3">
-        <v>6530800</v>
+        <v>6034500</v>
       </c>
       <c r="G54" s="3">
-        <v>5731000</v>
+        <v>6727700</v>
       </c>
       <c r="H54" s="3">
-        <v>5635500</v>
+        <v>5903700</v>
       </c>
       <c r="I54" s="3">
-        <v>5706100</v>
+        <v>5805300</v>
       </c>
       <c r="J54" s="3">
+        <v>5878100</v>
+      </c>
+      <c r="K54" s="3">
         <v>5516100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4790700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4236400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4359300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4301700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4076500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3864400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3946500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4113700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3972100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3927300</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>670800</v>
+        <v>727900</v>
       </c>
       <c r="E57" s="3">
-        <v>635500</v>
+        <v>691000</v>
       </c>
       <c r="F57" s="3">
-        <v>719300</v>
+        <v>654600</v>
       </c>
       <c r="G57" s="3">
-        <v>646300</v>
+        <v>741000</v>
       </c>
       <c r="H57" s="3">
-        <v>570800</v>
+        <v>665700</v>
       </c>
       <c r="I57" s="3">
-        <v>614100</v>
+        <v>588000</v>
       </c>
       <c r="J57" s="3">
+        <v>632600</v>
+      </c>
+      <c r="K57" s="3">
         <v>671400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>680000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>532200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>492900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>496300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>452300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>418000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>454100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>534100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>615400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>581600</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>176700</v>
+        <v>225900</v>
       </c>
       <c r="E58" s="3">
-        <v>168600</v>
+        <v>182000</v>
       </c>
       <c r="F58" s="3">
-        <v>158700</v>
+        <v>173700</v>
       </c>
       <c r="G58" s="3">
-        <v>94800</v>
+        <v>163500</v>
       </c>
       <c r="H58" s="3">
-        <v>178100</v>
+        <v>97600</v>
       </c>
       <c r="I58" s="3">
-        <v>153300</v>
+        <v>183400</v>
       </c>
       <c r="J58" s="3">
+        <v>157900</v>
+      </c>
+      <c r="K58" s="3">
         <v>203300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>175500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>94300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>89700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>38800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>41000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>35000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>37200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>39900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>39700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>621900</v>
+        <v>568300</v>
       </c>
       <c r="E59" s="3">
-        <v>651000</v>
+        <v>640700</v>
       </c>
       <c r="F59" s="3">
-        <v>709500</v>
+        <v>670700</v>
       </c>
       <c r="G59" s="3">
-        <v>594200</v>
+        <v>730900</v>
       </c>
       <c r="H59" s="3">
-        <v>563000</v>
+        <v>612100</v>
       </c>
       <c r="I59" s="3">
-        <v>595100</v>
+        <v>579900</v>
       </c>
       <c r="J59" s="3">
+        <v>613000</v>
+      </c>
+      <c r="K59" s="3">
         <v>579800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>653200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>530700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>538100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>561900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>457900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>390600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>390800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>404700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>221300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>225100</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1469400</v>
+        <v>1522000</v>
       </c>
       <c r="E60" s="3">
-        <v>1455100</v>
+        <v>1513700</v>
       </c>
       <c r="F60" s="3">
-        <v>1587600</v>
+        <v>1499000</v>
       </c>
       <c r="G60" s="3">
-        <v>1335300</v>
+        <v>1635400</v>
       </c>
       <c r="H60" s="3">
-        <v>1311900</v>
+        <v>1375500</v>
       </c>
       <c r="I60" s="3">
-        <v>1362400</v>
+        <v>1351400</v>
       </c>
       <c r="J60" s="3">
+        <v>1403500</v>
+      </c>
+      <c r="K60" s="3">
         <v>1454600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1508700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1157200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1120800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1097000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>951200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>843600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>882100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>978600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>876500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>842800</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1837900</v>
+        <v>1709000</v>
       </c>
       <c r="E61" s="3">
-        <v>1964400</v>
+        <v>1893300</v>
       </c>
       <c r="F61" s="3">
-        <v>2391100</v>
+        <v>2023600</v>
       </c>
       <c r="G61" s="3">
-        <v>1895300</v>
+        <v>2463100</v>
       </c>
       <c r="H61" s="3">
-        <v>1873700</v>
+        <v>1952400</v>
       </c>
       <c r="I61" s="3">
-        <v>1875000</v>
+        <v>1930200</v>
       </c>
       <c r="J61" s="3">
+        <v>1931500</v>
+      </c>
+      <c r="K61" s="3">
         <v>1589100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>850000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>849900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>897600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>899500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>883600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>866100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>882800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>924600</v>
-      </c>
-      <c r="S61" s="3">
-        <v>936400</v>
       </c>
       <c r="T61" s="3">
         <v>936400</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>936400</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>613200</v>
+        <v>669100</v>
       </c>
       <c r="E62" s="3">
-        <v>637600</v>
+        <v>631600</v>
       </c>
       <c r="F62" s="3">
-        <v>567400</v>
+        <v>656800</v>
       </c>
       <c r="G62" s="3">
-        <v>617500</v>
+        <v>584500</v>
       </c>
       <c r="H62" s="3">
-        <v>639800</v>
+        <v>636200</v>
       </c>
       <c r="I62" s="3">
-        <v>647300</v>
+        <v>659100</v>
       </c>
       <c r="J62" s="3">
+        <v>666800</v>
+      </c>
+      <c r="K62" s="3">
         <v>617200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>629100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>570500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>597800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>595300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>615100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>583200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>600000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>611800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>603200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>648900</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3986400</v>
+        <v>3962600</v>
       </c>
       <c r="E66" s="3">
-        <v>4123900</v>
+        <v>4106500</v>
       </c>
       <c r="F66" s="3">
-        <v>4614200</v>
+        <v>4248200</v>
       </c>
       <c r="G66" s="3">
-        <v>3912400</v>
+        <v>4753300</v>
       </c>
       <c r="H66" s="3">
-        <v>3888100</v>
+        <v>4030300</v>
       </c>
       <c r="I66" s="3">
-        <v>3945400</v>
+        <v>4005300</v>
       </c>
       <c r="J66" s="3">
+        <v>4064300</v>
+      </c>
+      <c r="K66" s="3">
         <v>3721500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3048400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2631900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2671100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2642800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2497600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2338500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2410000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2561300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2460700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2471400</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1073800</v>
+        <v>1149200</v>
       </c>
       <c r="E72" s="3">
-        <v>1069100</v>
+        <v>1106200</v>
       </c>
       <c r="F72" s="3">
-        <v>1224100</v>
+        <v>1101300</v>
       </c>
       <c r="G72" s="3">
-        <v>1173800</v>
+        <v>1261000</v>
       </c>
       <c r="H72" s="3">
-        <v>1113700</v>
+        <v>1209200</v>
       </c>
       <c r="I72" s="3">
-        <v>1101800</v>
+        <v>1147300</v>
       </c>
       <c r="J72" s="3">
+        <v>1135000</v>
+      </c>
+      <c r="K72" s="3">
         <v>1122300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1045900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1001500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1021400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>978100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>965700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>934500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>902100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>916000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>877400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>806200</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2206200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1794800</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1786300</v>
+      </c>
+      <c r="G76" s="3">
+        <v>1974400</v>
+      </c>
+      <c r="H76" s="3">
+        <v>1873400</v>
+      </c>
+      <c r="I76" s="3">
+        <v>1800000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1813800</v>
+      </c>
+      <c r="K76" s="3">
+        <v>1794700</v>
+      </c>
+      <c r="L76" s="3">
         <v>1742300</v>
       </c>
-      <c r="E76" s="3">
-        <v>1734000</v>
-      </c>
-      <c r="F76" s="3">
-        <v>1916600</v>
-      </c>
-      <c r="G76" s="3">
-        <v>1818600</v>
-      </c>
-      <c r="H76" s="3">
-        <v>1747300</v>
-      </c>
-      <c r="I76" s="3">
-        <v>1760700</v>
-      </c>
-      <c r="J76" s="3">
-        <v>1794700</v>
-      </c>
-      <c r="K76" s="3">
-        <v>1742300</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1604500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1688200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1658900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1578800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1525900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1536500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1552400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1511400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1455900</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-4000</v>
+        <v>38700</v>
       </c>
       <c r="E81" s="3">
-        <v>-85100</v>
+        <v>-4100</v>
       </c>
       <c r="F81" s="3">
-        <v>60400</v>
+        <v>-87700</v>
       </c>
       <c r="G81" s="3">
-        <v>75200</v>
+        <v>62200</v>
       </c>
       <c r="H81" s="3">
-        <v>56800</v>
+        <v>77500</v>
       </c>
       <c r="I81" s="3">
-        <v>47300</v>
+        <v>58500</v>
       </c>
       <c r="J81" s="3">
+        <v>48800</v>
+      </c>
+      <c r="K81" s="3">
         <v>94100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>59100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>44100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>52200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>74500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>107000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>44900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>44400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>51200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>52100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>58700</v>
+        <v>62800</v>
       </c>
       <c r="E83" s="3">
-        <v>65900</v>
+        <v>60400</v>
       </c>
       <c r="F83" s="3">
-        <v>56600</v>
+        <v>67900</v>
       </c>
       <c r="G83" s="3">
+        <v>58300</v>
+      </c>
+      <c r="H83" s="3">
+        <v>61600</v>
+      </c>
+      <c r="I83" s="3">
         <v>59800</v>
       </c>
-      <c r="H83" s="3">
-        <v>58000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>56800</v>
-      </c>
       <c r="J83" s="3">
+        <v>58500</v>
+      </c>
+      <c r="K83" s="3">
         <v>48900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>40300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>37800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>36700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>35500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>36800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>36400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>39900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>39500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>42500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>35100</v>
+        <v>186200</v>
       </c>
       <c r="E89" s="3">
-        <v>-68100</v>
+        <v>36200</v>
       </c>
       <c r="F89" s="3">
-        <v>189600</v>
+        <v>-70100</v>
       </c>
       <c r="G89" s="3">
-        <v>248000</v>
+        <v>195300</v>
       </c>
       <c r="H89" s="3">
-        <v>28300</v>
+        <v>255400</v>
       </c>
       <c r="I89" s="3">
-        <v>-46200</v>
+        <v>29100</v>
       </c>
       <c r="J89" s="3">
+        <v>-47600</v>
+      </c>
+      <c r="K89" s="3">
         <v>128000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>165600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>128700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-23000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>102600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>139600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>72300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-14300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>151700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>119900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-11700</v>
+        <v>-19000</v>
       </c>
       <c r="E91" s="3">
-        <v>-13900</v>
+        <v>-12100</v>
       </c>
       <c r="F91" s="3">
-        <v>-64700</v>
+        <v>-14300</v>
       </c>
       <c r="G91" s="3">
-        <v>-39700</v>
+        <v>-66600</v>
       </c>
       <c r="H91" s="3">
-        <v>-45300</v>
+        <v>-40900</v>
       </c>
       <c r="I91" s="3">
-        <v>-68500</v>
+        <v>-46600</v>
       </c>
       <c r="J91" s="3">
+        <v>-70600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-120600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>36500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-29700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-40000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-42700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-32000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-18200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-36500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-56500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-27500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-45200</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-16600</v>
+        <v>-139700</v>
       </c>
       <c r="E94" s="3">
-        <v>-22600</v>
+        <v>-17100</v>
       </c>
       <c r="F94" s="3">
-        <v>-89800</v>
+        <v>-23200</v>
       </c>
       <c r="G94" s="3">
-        <v>-141900</v>
+        <v>-92500</v>
       </c>
       <c r="H94" s="3">
-        <v>-59100</v>
+        <v>-146200</v>
       </c>
       <c r="I94" s="3">
-        <v>-90900</v>
+        <v>-60900</v>
       </c>
       <c r="J94" s="3">
+        <v>-93700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-701200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-233700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-62900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-56400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-32000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-111900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>46400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-28300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-61200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-27700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-49400</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5095,52 +5328,55 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-22100</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-21800</v>
+        <v>-22800</v>
       </c>
       <c r="H96" s="3">
-        <v>-21900</v>
+        <v>-22400</v>
       </c>
       <c r="I96" s="3">
-        <v>-19600</v>
+        <v>-22500</v>
       </c>
       <c r="J96" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-19700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-19400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-18700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-17400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-16700</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-17300</v>
       </c>
       <c r="P96" s="3">
         <v>-17300</v>
       </c>
       <c r="Q96" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="R96" s="3">
         <v>-15600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-15700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-16000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-15600</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-100800</v>
+        <v>244600</v>
       </c>
       <c r="E100" s="3">
-        <v>-351100</v>
+        <v>-103900</v>
       </c>
       <c r="F100" s="3">
-        <v>399500</v>
+        <v>-361700</v>
       </c>
       <c r="G100" s="3">
-        <v>-63800</v>
+        <v>411500</v>
       </c>
       <c r="H100" s="3">
-        <v>-41500</v>
+        <v>-65700</v>
       </c>
       <c r="I100" s="3">
-        <v>47200</v>
+        <v>-42700</v>
       </c>
       <c r="J100" s="3">
+        <v>48600</v>
+      </c>
+      <c r="K100" s="3">
         <v>643900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-52200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-56500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-22000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-38300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-33100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-12700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-22900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-33200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E101" s="3">
         <v>1300</v>
       </c>
-      <c r="E101" s="3">
-        <v>-7200</v>
-      </c>
       <c r="F101" s="3">
-        <v>15000</v>
+        <v>-7500</v>
       </c>
       <c r="G101" s="3">
-        <v>800</v>
+        <v>15500</v>
       </c>
       <c r="H101" s="3">
-        <v>-4200</v>
+        <v>900</v>
       </c>
       <c r="I101" s="3">
-        <v>-5600</v>
+        <v>-4400</v>
       </c>
       <c r="J101" s="3">
         <v>-5800</v>
       </c>
       <c r="K101" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="L101" s="3">
         <v>11700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-6300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>11500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-81100</v>
+        <v>287000</v>
       </c>
       <c r="E102" s="3">
-        <v>-449000</v>
+        <v>-83500</v>
       </c>
       <c r="F102" s="3">
-        <v>514200</v>
+        <v>-462500</v>
       </c>
       <c r="G102" s="3">
-        <v>43100</v>
+        <v>529700</v>
       </c>
       <c r="H102" s="3">
-        <v>-76600</v>
+        <v>44400</v>
       </c>
       <c r="I102" s="3">
-        <v>-95500</v>
+        <v>-78900</v>
       </c>
       <c r="J102" s="3">
+        <v>-98400</v>
+      </c>
+      <c r="K102" s="3">
         <v>65000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-108500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-83900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>60100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-7600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>81200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-54200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>67500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>56500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CAE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAE_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>660100</v>
+        <v>741400</v>
       </c>
       <c r="E8" s="3">
-        <v>558800</v>
+        <v>690100</v>
       </c>
       <c r="F8" s="3">
-        <v>436600</v>
+        <v>584200</v>
       </c>
       <c r="G8" s="3">
-        <v>775000</v>
+        <v>456400</v>
       </c>
       <c r="H8" s="3">
-        <v>732400</v>
+        <v>810200</v>
       </c>
       <c r="I8" s="3">
-        <v>711200</v>
+        <v>765600</v>
       </c>
       <c r="J8" s="3">
+        <v>743500</v>
+      </c>
+      <c r="K8" s="3">
         <v>654700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>786800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>621300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>540500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>543500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>581000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>616400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>460100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>488400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>564400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>524500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>488200</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>478600</v>
+        <v>544900</v>
       </c>
       <c r="E9" s="3">
-        <v>407400</v>
+        <v>500300</v>
       </c>
       <c r="F9" s="3">
-        <v>350900</v>
+        <v>425900</v>
       </c>
       <c r="G9" s="3">
-        <v>527800</v>
+        <v>366900</v>
       </c>
       <c r="H9" s="3">
-        <v>501200</v>
+        <v>551800</v>
       </c>
       <c r="I9" s="3">
-        <v>523500</v>
+        <v>524000</v>
       </c>
       <c r="J9" s="3">
+        <v>547300</v>
+      </c>
+      <c r="K9" s="3">
         <v>461500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>565000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>443700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>394100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>378900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>387100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>426100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>325000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>336800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>383900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>371400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>344600</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>181500</v>
+        <v>196600</v>
       </c>
       <c r="E10" s="3">
-        <v>151500</v>
+        <v>189800</v>
       </c>
       <c r="F10" s="3">
-        <v>85600</v>
+        <v>158300</v>
       </c>
       <c r="G10" s="3">
-        <v>247200</v>
+        <v>89500</v>
       </c>
       <c r="H10" s="3">
-        <v>231200</v>
+        <v>258400</v>
       </c>
       <c r="I10" s="3">
-        <v>187700</v>
+        <v>241700</v>
       </c>
       <c r="J10" s="3">
+        <v>196200</v>
+      </c>
+      <c r="K10" s="3">
         <v>193300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>221700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>177600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>146400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>164600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>193900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>190300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>135100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>151600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>180500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>153100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>143600</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>28900</v>
+        <v>18700</v>
       </c>
       <c r="E12" s="3">
-        <v>20300</v>
+        <v>30300</v>
       </c>
       <c r="F12" s="3">
-        <v>15900</v>
+        <v>21200</v>
       </c>
       <c r="G12" s="3">
-        <v>28700</v>
+        <v>16700</v>
       </c>
       <c r="H12" s="3">
-        <v>26600</v>
+        <v>30000</v>
       </c>
       <c r="I12" s="3">
-        <v>28400</v>
+        <v>27900</v>
       </c>
       <c r="J12" s="3">
+        <v>29700</v>
+      </c>
+      <c r="K12" s="3">
         <v>25300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>23700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>21100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>23600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>17000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>22200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>22300</v>
-      </c>
-      <c r="R12" s="3">
-        <v>24000</v>
       </c>
       <c r="S12" s="3">
         <v>24000</v>
       </c>
       <c r="T12" s="3">
+        <v>24000</v>
+      </c>
+      <c r="U12" s="3">
         <v>22100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,25 +1084,28 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>12200</v>
+        <v>52100</v>
       </c>
       <c r="E14" s="3">
-        <v>43500</v>
+        <v>12800</v>
       </c>
       <c r="F14" s="3">
-        <v>79100</v>
+        <v>45500</v>
       </c>
       <c r="G14" s="3">
-        <v>29700</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
+        <v>82700</v>
+      </c>
+      <c r="H14" s="3">
+        <v>31100</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
@@ -1093,8 +1113,8 @@
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1102,32 +1122,35 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-10600</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>16200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>594400</v>
+        <v>702000</v>
       </c>
       <c r="E17" s="3">
-        <v>536500</v>
+        <v>621400</v>
       </c>
       <c r="F17" s="3">
-        <v>524000</v>
+        <v>560900</v>
       </c>
       <c r="G17" s="3">
-        <v>658800</v>
+        <v>547800</v>
       </c>
       <c r="H17" s="3">
-        <v>609500</v>
+        <v>688800</v>
       </c>
       <c r="I17" s="3">
-        <v>612200</v>
+        <v>637200</v>
       </c>
       <c r="J17" s="3">
+        <v>640000</v>
+      </c>
+      <c r="K17" s="3">
         <v>566800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>655600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>535300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>468800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>469400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>476000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>503800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>383600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>420400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>486900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>448700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>429700</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>65700</v>
+        <v>39500</v>
       </c>
       <c r="E18" s="3">
-        <v>22400</v>
+        <v>68700</v>
       </c>
       <c r="F18" s="3">
-        <v>-87500</v>
+        <v>23400</v>
       </c>
       <c r="G18" s="3">
-        <v>116200</v>
+        <v>-91400</v>
       </c>
       <c r="H18" s="3">
-        <v>122800</v>
+        <v>121500</v>
       </c>
       <c r="I18" s="3">
-        <v>99000</v>
+        <v>128400</v>
       </c>
       <c r="J18" s="3">
+        <v>103500</v>
+      </c>
+      <c r="K18" s="3">
         <v>87900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>131200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>86000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>71700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>74100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>105000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>112500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>76500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>67900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>77500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>75700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>58500</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,164 +1379,171 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3200</v>
+        <v>-3700</v>
       </c>
       <c r="E20" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J20" s="3">
         <v>-4000</v>
       </c>
-      <c r="F20" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>125400</v>
+        <v>96400</v>
       </c>
       <c r="E21" s="3">
-        <v>78700</v>
+        <v>131100</v>
       </c>
       <c r="F21" s="3">
-        <v>-22200</v>
+        <v>82300</v>
       </c>
       <c r="G21" s="3">
-        <v>171100</v>
+        <v>-23200</v>
       </c>
       <c r="H21" s="3">
-        <v>180400</v>
+        <v>178800</v>
       </c>
       <c r="I21" s="3">
-        <v>155000</v>
+        <v>188600</v>
       </c>
       <c r="J21" s="3">
+        <v>162000</v>
+      </c>
+      <c r="K21" s="3">
         <v>142000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>175300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>123400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>106800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>110600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>136800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>150600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>113900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>108400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>118800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>118000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>95700</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E22" s="3">
+        <v>24300</v>
+      </c>
+      <c r="F22" s="3">
+        <v>25000</v>
+      </c>
+      <c r="G22" s="3">
+        <v>26400</v>
+      </c>
+      <c r="H22" s="3">
+        <v>28400</v>
+      </c>
+      <c r="I22" s="3">
+        <v>26200</v>
+      </c>
+      <c r="J22" s="3">
+        <v>24500</v>
+      </c>
+      <c r="K22" s="3">
         <v>23200</v>
       </c>
-      <c r="E22" s="3">
-        <v>23900</v>
-      </c>
-      <c r="F22" s="3">
-        <v>25200</v>
-      </c>
-      <c r="G22" s="3">
-        <v>27100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>25100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>23400</v>
-      </c>
-      <c r="J22" s="3">
-        <v>23200</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>15000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>11800</v>
       </c>
       <c r="M22" s="3">
         <v>11800</v>
       </c>
       <c r="N22" s="3">
+        <v>11800</v>
+      </c>
+      <c r="O22" s="3">
         <v>11700</v>
-      </c>
-      <c r="O22" s="3">
-        <v>14100</v>
       </c>
       <c r="P22" s="3">
         <v>14100</v>
@@ -1515,134 +1555,143 @@
         <v>14100</v>
       </c>
       <c r="S22" s="3">
+        <v>14100</v>
+      </c>
+      <c r="T22" s="3">
         <v>14400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>14000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>39300</v>
+        <v>12900</v>
       </c>
       <c r="E23" s="3">
-        <v>-5600</v>
+        <v>41100</v>
       </c>
       <c r="F23" s="3">
-        <v>-115300</v>
+        <v>-5800</v>
       </c>
       <c r="G23" s="3">
-        <v>85600</v>
+        <v>-120500</v>
       </c>
       <c r="H23" s="3">
-        <v>93700</v>
+        <v>89500</v>
       </c>
       <c r="I23" s="3">
-        <v>71800</v>
+        <v>98000</v>
       </c>
       <c r="J23" s="3">
+        <v>75000</v>
+      </c>
+      <c r="K23" s="3">
         <v>60300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>111400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>71300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>57300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>62100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>87100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>99700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>63400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>54400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>65000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>61500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-800</v>
       </c>
-      <c r="F24" s="3">
-        <v>-28100</v>
-      </c>
       <c r="G24" s="3">
-        <v>21300</v>
+        <v>-29300</v>
       </c>
       <c r="H24" s="3">
-        <v>14600</v>
+        <v>22300</v>
       </c>
       <c r="I24" s="3">
-        <v>12300</v>
+        <v>15300</v>
       </c>
       <c r="J24" s="3">
+        <v>12900</v>
+      </c>
+      <c r="K24" s="3">
         <v>10300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>14900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>10800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>11000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>8200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>10200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>17200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>8900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>11400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>8500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>39400</v>
+        <v>15600</v>
       </c>
       <c r="E26" s="3">
-        <v>-4800</v>
+        <v>41200</v>
       </c>
       <c r="F26" s="3">
-        <v>-87200</v>
+        <v>-5000</v>
       </c>
       <c r="G26" s="3">
-        <v>64300</v>
+        <v>-91200</v>
       </c>
       <c r="H26" s="3">
-        <v>79100</v>
+        <v>67200</v>
       </c>
       <c r="I26" s="3">
-        <v>59500</v>
+        <v>82700</v>
       </c>
       <c r="J26" s="3">
+        <v>62200</v>
+      </c>
+      <c r="K26" s="3">
         <v>50000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>96500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>60500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>46200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>53900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>77000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>108500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>46200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>45500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>53600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>53100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>38700</v>
+        <v>16400</v>
       </c>
       <c r="E27" s="3">
-        <v>-4100</v>
+        <v>40500</v>
       </c>
       <c r="F27" s="3">
-        <v>-87700</v>
+        <v>-4300</v>
       </c>
       <c r="G27" s="3">
-        <v>62200</v>
+        <v>-91700</v>
       </c>
       <c r="H27" s="3">
-        <v>77500</v>
+        <v>65000</v>
       </c>
       <c r="I27" s="3">
-        <v>58500</v>
+        <v>81000</v>
       </c>
       <c r="J27" s="3">
+        <v>61200</v>
+      </c>
+      <c r="K27" s="3">
         <v>48800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>94100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>59100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>44100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>52200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>74500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>107000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>44900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>44400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>51800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>51900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1909,14 +1970,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>10</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -1928,16 +1989,19 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-500</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>200</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3200</v>
+        <v>3700</v>
       </c>
       <c r="E32" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G32" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H32" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I32" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J32" s="3">
         <v>4000</v>
       </c>
-      <c r="F32" s="3">
-        <v>2600</v>
-      </c>
-      <c r="G32" s="3">
-        <v>3400</v>
-      </c>
-      <c r="H32" s="3">
-        <v>4000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>3800</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>38700</v>
+        <v>16400</v>
       </c>
       <c r="E33" s="3">
-        <v>-4100</v>
+        <v>40500</v>
       </c>
       <c r="F33" s="3">
-        <v>-87700</v>
+        <v>-4300</v>
       </c>
       <c r="G33" s="3">
-        <v>62200</v>
+        <v>-91700</v>
       </c>
       <c r="H33" s="3">
-        <v>77500</v>
+        <v>65000</v>
       </c>
       <c r="I33" s="3">
-        <v>58500</v>
+        <v>81000</v>
       </c>
       <c r="J33" s="3">
+        <v>61200</v>
+      </c>
+      <c r="K33" s="3">
         <v>48800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>94100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>59100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>44100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>52200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>74500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>107000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>44900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>44400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>51200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>52100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>38700</v>
+        <v>16400</v>
       </c>
       <c r="E35" s="3">
-        <v>-4100</v>
+        <v>40500</v>
       </c>
       <c r="F35" s="3">
-        <v>-87700</v>
+        <v>-4300</v>
       </c>
       <c r="G35" s="3">
-        <v>62200</v>
+        <v>-91700</v>
       </c>
       <c r="H35" s="3">
-        <v>77500</v>
+        <v>65000</v>
       </c>
       <c r="I35" s="3">
-        <v>58500</v>
+        <v>81000</v>
       </c>
       <c r="J35" s="3">
+        <v>61200</v>
+      </c>
+      <c r="K35" s="3">
         <v>48800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>94100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>59100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>44100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>52200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>74500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>107000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>44900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>44400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>51200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>52100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>491600</v>
+        <v>767800</v>
       </c>
       <c r="E41" s="3">
-        <v>204600</v>
+        <v>513900</v>
       </c>
       <c r="F41" s="3">
-        <v>288100</v>
+        <v>213900</v>
       </c>
       <c r="G41" s="3">
-        <v>750600</v>
+        <v>301200</v>
       </c>
       <c r="H41" s="3">
-        <v>220900</v>
+        <v>784700</v>
       </c>
       <c r="I41" s="3">
-        <v>176400</v>
+        <v>230900</v>
       </c>
       <c r="J41" s="3">
+        <v>184500</v>
+      </c>
+      <c r="K41" s="3">
         <v>255400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>343400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>275300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>366500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>376500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>455100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>395000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>402600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>321400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>387700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>320200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>263700</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,421 +2608,445 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>780700</v>
+        <v>845900</v>
       </c>
       <c r="E43" s="3">
-        <v>855800</v>
+        <v>816200</v>
       </c>
       <c r="F43" s="3">
-        <v>861100</v>
+        <v>894700</v>
       </c>
       <c r="G43" s="3">
-        <v>924500</v>
+        <v>900300</v>
       </c>
       <c r="H43" s="3">
-        <v>839600</v>
+        <v>966500</v>
       </c>
       <c r="I43" s="3">
-        <v>903400</v>
+        <v>877700</v>
       </c>
       <c r="J43" s="3">
+        <v>944500</v>
+      </c>
+      <c r="K43" s="3">
         <v>889800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>810700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>866500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>728100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>748300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1116900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>438900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>408600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>410000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>441000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>415400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>443000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>548100</v>
+        <v>537100</v>
       </c>
       <c r="E44" s="3">
-        <v>564300</v>
+        <v>573000</v>
       </c>
       <c r="F44" s="3">
-        <v>531900</v>
+        <v>590000</v>
       </c>
       <c r="G44" s="3">
-        <v>488700</v>
+        <v>556000</v>
       </c>
       <c r="H44" s="3">
-        <v>481700</v>
+        <v>510900</v>
       </c>
       <c r="I44" s="3">
-        <v>458000</v>
+        <v>503600</v>
       </c>
       <c r="J44" s="3">
+        <v>478800</v>
+      </c>
+      <c r="K44" s="3">
         <v>468000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>413400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>459900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>417500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>410800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>384100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>275400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>287900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>299000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>319800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>322700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>307600</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>70300</v>
+        <v>650300</v>
       </c>
       <c r="E45" s="3">
-        <v>64800</v>
+        <v>73500</v>
       </c>
       <c r="F45" s="3">
-        <v>66800</v>
+        <v>67700</v>
       </c>
       <c r="G45" s="3">
-        <v>63500</v>
+        <v>69800</v>
       </c>
       <c r="H45" s="3">
-        <v>63000</v>
+        <v>66400</v>
       </c>
       <c r="I45" s="3">
-        <v>58900</v>
+        <v>65800</v>
       </c>
       <c r="J45" s="3">
+        <v>61600</v>
+      </c>
+      <c r="K45" s="3">
         <v>70000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>59000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>54300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>50000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>51300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>346000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>338700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>322500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>359500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>326300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>307300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>307500</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1890800</v>
+        <v>2801000</v>
       </c>
       <c r="E46" s="3">
-        <v>1689500</v>
+        <v>1976700</v>
       </c>
       <c r="F46" s="3">
-        <v>1747900</v>
+        <v>1766300</v>
       </c>
       <c r="G46" s="3">
-        <v>2227300</v>
+        <v>1827300</v>
       </c>
       <c r="H46" s="3">
-        <v>1605100</v>
+        <v>2328500</v>
       </c>
       <c r="I46" s="3">
-        <v>1596700</v>
+        <v>1678000</v>
       </c>
       <c r="J46" s="3">
+        <v>1669300</v>
+      </c>
+      <c r="K46" s="3">
         <v>1683300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1626600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1656000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1562000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1586900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1580200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1448100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1421600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1390000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1474800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1365600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1321900</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>323900</v>
+        <v>350000</v>
       </c>
       <c r="E47" s="3">
-        <v>330400</v>
+        <v>338700</v>
       </c>
       <c r="F47" s="3">
-        <v>339400</v>
+        <v>345400</v>
       </c>
       <c r="G47" s="3">
-        <v>365300</v>
+        <v>354800</v>
       </c>
       <c r="H47" s="3">
-        <v>342100</v>
+        <v>381900</v>
       </c>
       <c r="I47" s="3">
-        <v>247500</v>
+        <v>357700</v>
       </c>
       <c r="J47" s="3">
+        <v>258700</v>
+      </c>
+      <c r="K47" s="3">
         <v>245800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>240300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>226700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>183600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>189900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>180600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>175500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>195000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>277500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>290700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>284600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>283200</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1834700</v>
+        <v>1888500</v>
       </c>
       <c r="E48" s="3">
-        <v>1839300</v>
+        <v>1918000</v>
       </c>
       <c r="F48" s="3">
-        <v>1885900</v>
+        <v>1922800</v>
       </c>
       <c r="G48" s="3">
-        <v>2022100</v>
+        <v>1971600</v>
       </c>
       <c r="H48" s="3">
-        <v>1887300</v>
+        <v>2114000</v>
       </c>
       <c r="I48" s="3">
-        <v>1890600</v>
+        <v>1973100</v>
       </c>
       <c r="J48" s="3">
+        <v>1976500</v>
+      </c>
+      <c r="K48" s="3">
         <v>1880600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1654600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1482300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1295500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1369200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1342500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1285000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1176900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1190700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1215800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1194800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1191200</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1629600</v>
+        <v>1704400</v>
       </c>
       <c r="E49" s="3">
-        <v>1546900</v>
+        <v>1703600</v>
       </c>
       <c r="F49" s="3">
-        <v>1566100</v>
+        <v>1617100</v>
       </c>
       <c r="G49" s="3">
-        <v>1630800</v>
+        <v>1637300</v>
       </c>
       <c r="H49" s="3">
-        <v>1597500</v>
+        <v>1704900</v>
       </c>
       <c r="I49" s="3">
-        <v>1608500</v>
+        <v>1670000</v>
       </c>
       <c r="J49" s="3">
+        <v>1681600</v>
+      </c>
+      <c r="K49" s="3">
         <v>1608600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1561100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1003100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>802500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>791000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>785600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>769100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>681600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>698900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>725200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>719900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>722900</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>489800</v>
+        <v>509000</v>
       </c>
       <c r="E52" s="3">
-        <v>495300</v>
+        <v>512100</v>
       </c>
       <c r="F52" s="3">
-        <v>495200</v>
+        <v>517800</v>
       </c>
       <c r="G52" s="3">
-        <v>482200</v>
+        <v>517700</v>
       </c>
       <c r="H52" s="3">
-        <v>471800</v>
+        <v>504100</v>
       </c>
       <c r="I52" s="3">
-        <v>462000</v>
+        <v>493200</v>
       </c>
       <c r="J52" s="3">
+        <v>483000</v>
+      </c>
+      <c r="K52" s="3">
         <v>459900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>433600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>422600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>392700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>422300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>412800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>398800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>389300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>389500</v>
-      </c>
-      <c r="S52" s="3">
-        <v>407200</v>
       </c>
       <c r="T52" s="3">
         <v>407200</v>
       </c>
       <c r="U52" s="3">
+        <v>407200</v>
+      </c>
+      <c r="V52" s="3">
         <v>408200</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6168800</v>
+        <v>7252900</v>
       </c>
       <c r="E54" s="3">
-        <v>5901300</v>
+        <v>6449100</v>
       </c>
       <c r="F54" s="3">
-        <v>6034500</v>
+        <v>6169500</v>
       </c>
       <c r="G54" s="3">
-        <v>6727700</v>
+        <v>6308700</v>
       </c>
       <c r="H54" s="3">
-        <v>5903700</v>
+        <v>7033300</v>
       </c>
       <c r="I54" s="3">
-        <v>5805300</v>
+        <v>6171900</v>
       </c>
       <c r="J54" s="3">
+        <v>6069100</v>
+      </c>
+      <c r="K54" s="3">
         <v>5878100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5516100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4790700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4236400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4359300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4301700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4076500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3864400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3946500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4113700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3972100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3927300</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>727900</v>
+        <v>783900</v>
       </c>
       <c r="E57" s="3">
-        <v>691000</v>
+        <v>761000</v>
       </c>
       <c r="F57" s="3">
-        <v>654600</v>
+        <v>722400</v>
       </c>
       <c r="G57" s="3">
-        <v>741000</v>
+        <v>684400</v>
       </c>
       <c r="H57" s="3">
-        <v>665700</v>
+        <v>774700</v>
       </c>
       <c r="I57" s="3">
-        <v>588000</v>
+        <v>696000</v>
       </c>
       <c r="J57" s="3">
+        <v>614700</v>
+      </c>
+      <c r="K57" s="3">
         <v>632600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>671400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>680000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>532200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>492900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>496300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>452300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>418000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>454100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>534100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>615400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>581600</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>225900</v>
+        <v>179300</v>
       </c>
       <c r="E58" s="3">
-        <v>182000</v>
+        <v>236100</v>
       </c>
       <c r="F58" s="3">
-        <v>173700</v>
+        <v>190300</v>
       </c>
       <c r="G58" s="3">
-        <v>163500</v>
+        <v>181600</v>
       </c>
       <c r="H58" s="3">
-        <v>97600</v>
+        <v>171000</v>
       </c>
       <c r="I58" s="3">
-        <v>183400</v>
+        <v>102100</v>
       </c>
       <c r="J58" s="3">
+        <v>191800</v>
+      </c>
+      <c r="K58" s="3">
         <v>157900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>203300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>175500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>94300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>89700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>38800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>41000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>35000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>37200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>39900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>39700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>568300</v>
+        <v>1219900</v>
       </c>
       <c r="E59" s="3">
-        <v>640700</v>
+        <v>594100</v>
       </c>
       <c r="F59" s="3">
-        <v>670700</v>
+        <v>669800</v>
       </c>
       <c r="G59" s="3">
-        <v>730900</v>
+        <v>701100</v>
       </c>
       <c r="H59" s="3">
-        <v>612100</v>
+        <v>764100</v>
       </c>
       <c r="I59" s="3">
-        <v>579900</v>
+        <v>639900</v>
       </c>
       <c r="J59" s="3">
+        <v>606300</v>
+      </c>
+      <c r="K59" s="3">
         <v>613000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>579800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>653200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>530700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>538100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>561900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>457900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>390600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>390800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>404700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>221300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>225100</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1522000</v>
+        <v>2183100</v>
       </c>
       <c r="E60" s="3">
-        <v>1513700</v>
+        <v>1591200</v>
       </c>
       <c r="F60" s="3">
-        <v>1499000</v>
+        <v>1582500</v>
       </c>
       <c r="G60" s="3">
-        <v>1635400</v>
+        <v>1567100</v>
       </c>
       <c r="H60" s="3">
-        <v>1375500</v>
+        <v>1709700</v>
       </c>
       <c r="I60" s="3">
-        <v>1351400</v>
+        <v>1438000</v>
       </c>
       <c r="J60" s="3">
+        <v>1412800</v>
+      </c>
+      <c r="K60" s="3">
         <v>1403500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1454600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1508700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1157200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1120800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1097000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>951200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>843600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>882100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>978600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>876500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>842800</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1709000</v>
+        <v>1770200</v>
       </c>
       <c r="E61" s="3">
-        <v>1893300</v>
+        <v>1786600</v>
       </c>
       <c r="F61" s="3">
-        <v>2023600</v>
+        <v>1979300</v>
       </c>
       <c r="G61" s="3">
-        <v>2463100</v>
+        <v>2115600</v>
       </c>
       <c r="H61" s="3">
-        <v>1952400</v>
+        <v>2575000</v>
       </c>
       <c r="I61" s="3">
-        <v>1930200</v>
+        <v>2041100</v>
       </c>
       <c r="J61" s="3">
+        <v>2017900</v>
+      </c>
+      <c r="K61" s="3">
         <v>1931500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1589100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>850000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>849900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>897600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>899500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>883600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>866100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>882800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>924600</v>
-      </c>
-      <c r="T61" s="3">
-        <v>936400</v>
       </c>
       <c r="U61" s="3">
         <v>936400</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>936400</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>669100</v>
+        <v>636000</v>
       </c>
       <c r="E62" s="3">
-        <v>631600</v>
+        <v>699500</v>
       </c>
       <c r="F62" s="3">
-        <v>656800</v>
+        <v>660300</v>
       </c>
       <c r="G62" s="3">
-        <v>584500</v>
+        <v>686600</v>
       </c>
       <c r="H62" s="3">
-        <v>636200</v>
+        <v>611000</v>
       </c>
       <c r="I62" s="3">
-        <v>659100</v>
+        <v>665100</v>
       </c>
       <c r="J62" s="3">
+        <v>689000</v>
+      </c>
+      <c r="K62" s="3">
         <v>666800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>617200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>629100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>570500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>597800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>595300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>615100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>583200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>600000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>611800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>603200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>648900</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3962600</v>
+        <v>4649200</v>
       </c>
       <c r="E66" s="3">
-        <v>4106500</v>
+        <v>4142700</v>
       </c>
       <c r="F66" s="3">
-        <v>4248200</v>
+        <v>4293100</v>
       </c>
       <c r="G66" s="3">
-        <v>4753300</v>
+        <v>4441200</v>
       </c>
       <c r="H66" s="3">
-        <v>4030300</v>
+        <v>4969200</v>
       </c>
       <c r="I66" s="3">
-        <v>4005300</v>
+        <v>4213400</v>
       </c>
       <c r="J66" s="3">
+        <v>4187300</v>
+      </c>
+      <c r="K66" s="3">
         <v>4064300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3721500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3048400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2631900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2671100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2642800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2497600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2338500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2410000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2561300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2460700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2471400</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1149200</v>
+        <v>1279800</v>
       </c>
       <c r="E72" s="3">
-        <v>1106200</v>
+        <v>1201400</v>
       </c>
       <c r="F72" s="3">
-        <v>1101300</v>
+        <v>1156400</v>
       </c>
       <c r="G72" s="3">
-        <v>1261000</v>
+        <v>1151400</v>
       </c>
       <c r="H72" s="3">
-        <v>1209200</v>
+        <v>1318300</v>
       </c>
       <c r="I72" s="3">
-        <v>1147300</v>
+        <v>1264100</v>
       </c>
       <c r="J72" s="3">
+        <v>1199400</v>
+      </c>
+      <c r="K72" s="3">
         <v>1135000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1122300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1045900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1001500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1021400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>978100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>965700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>934500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>902100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>916000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>877400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>806200</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2206200</v>
+        <v>2603600</v>
       </c>
       <c r="E76" s="3">
-        <v>1794800</v>
+        <v>2306400</v>
       </c>
       <c r="F76" s="3">
-        <v>1786300</v>
+        <v>1876400</v>
       </c>
       <c r="G76" s="3">
-        <v>1974400</v>
+        <v>1867400</v>
       </c>
       <c r="H76" s="3">
-        <v>1873400</v>
+        <v>2064100</v>
       </c>
       <c r="I76" s="3">
-        <v>1800000</v>
+        <v>1958500</v>
       </c>
       <c r="J76" s="3">
+        <v>1881800</v>
+      </c>
+      <c r="K76" s="3">
         <v>1813800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1794700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1742300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1604500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1688200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1658900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1578800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1525900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1536500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1552400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1511400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1455900</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>38700</v>
+        <v>16400</v>
       </c>
       <c r="E81" s="3">
-        <v>-4100</v>
+        <v>40500</v>
       </c>
       <c r="F81" s="3">
-        <v>-87700</v>
+        <v>-4300</v>
       </c>
       <c r="G81" s="3">
-        <v>62200</v>
+        <v>-91700</v>
       </c>
       <c r="H81" s="3">
-        <v>77500</v>
+        <v>65000</v>
       </c>
       <c r="I81" s="3">
-        <v>58500</v>
+        <v>81000</v>
       </c>
       <c r="J81" s="3">
+        <v>61200</v>
+      </c>
+      <c r="K81" s="3">
         <v>48800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>94100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>59100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>44100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>52200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>74500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>107000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>44900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>44400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>51200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>52100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>62800</v>
+        <v>60700</v>
       </c>
       <c r="E83" s="3">
-        <v>60400</v>
+        <v>65700</v>
       </c>
       <c r="F83" s="3">
-        <v>67900</v>
+        <v>63200</v>
       </c>
       <c r="G83" s="3">
-        <v>58300</v>
+        <v>71000</v>
       </c>
       <c r="H83" s="3">
-        <v>61600</v>
+        <v>60900</v>
       </c>
       <c r="I83" s="3">
-        <v>59800</v>
+        <v>64400</v>
       </c>
       <c r="J83" s="3">
+        <v>62500</v>
+      </c>
+      <c r="K83" s="3">
         <v>58500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>48900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>40300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>37800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>36700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>35500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>36800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>36400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>39900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>39500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>42500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>186200</v>
+        <v>144800</v>
       </c>
       <c r="E89" s="3">
-        <v>36200</v>
+        <v>194700</v>
       </c>
       <c r="F89" s="3">
-        <v>-70100</v>
+        <v>37800</v>
       </c>
       <c r="G89" s="3">
-        <v>195300</v>
+        <v>-73300</v>
       </c>
       <c r="H89" s="3">
-        <v>255400</v>
+        <v>204200</v>
       </c>
       <c r="I89" s="3">
-        <v>29100</v>
+        <v>267000</v>
       </c>
       <c r="J89" s="3">
+        <v>30400</v>
+      </c>
+      <c r="K89" s="3">
         <v>-47600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>128000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>165600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>128700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-23000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>102600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>139600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>72300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-14300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>151700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>119900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-19000</v>
+        <v>-41900</v>
       </c>
       <c r="E91" s="3">
-        <v>-12100</v>
+        <v>-19800</v>
       </c>
       <c r="F91" s="3">
-        <v>-14300</v>
+        <v>-12600</v>
       </c>
       <c r="G91" s="3">
-        <v>-66600</v>
+        <v>-14900</v>
       </c>
       <c r="H91" s="3">
-        <v>-40900</v>
+        <v>-69600</v>
       </c>
       <c r="I91" s="3">
-        <v>-46600</v>
+        <v>-42800</v>
       </c>
       <c r="J91" s="3">
+        <v>-48700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-70600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-120600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>36500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-29700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-40000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-42700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-32000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-18200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-36500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-56500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-27500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-45200</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-139700</v>
+        <v>-96400</v>
       </c>
       <c r="E94" s="3">
-        <v>-17100</v>
+        <v>-146100</v>
       </c>
       <c r="F94" s="3">
-        <v>-23200</v>
+        <v>-17900</v>
       </c>
       <c r="G94" s="3">
-        <v>-92500</v>
+        <v>-24300</v>
       </c>
       <c r="H94" s="3">
-        <v>-146200</v>
+        <v>-96800</v>
       </c>
       <c r="I94" s="3">
-        <v>-60900</v>
+        <v>-152800</v>
       </c>
       <c r="J94" s="3">
+        <v>-63700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-93700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-701200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-233700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-62900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-56400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-32000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-111900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>46400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-28300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-61200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-27700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-49400</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5331,52 +5565,55 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-22800</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-22400</v>
+        <v>-23800</v>
       </c>
       <c r="I96" s="3">
-        <v>-22500</v>
+        <v>-23500</v>
       </c>
       <c r="J96" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-20200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-19700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-19400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-18700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-17400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-16700</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-17300</v>
       </c>
       <c r="Q96" s="3">
         <v>-17300</v>
       </c>
       <c r="R96" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="S96" s="3">
         <v>-15600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-15700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-16000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-15600</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>244600</v>
+        <v>213400</v>
       </c>
       <c r="E100" s="3">
-        <v>-103900</v>
+        <v>255700</v>
       </c>
       <c r="F100" s="3">
-        <v>-361700</v>
+        <v>-108600</v>
       </c>
       <c r="G100" s="3">
-        <v>411500</v>
+        <v>-378100</v>
       </c>
       <c r="H100" s="3">
-        <v>-65700</v>
+        <v>430200</v>
       </c>
       <c r="I100" s="3">
-        <v>-42700</v>
+        <v>-68700</v>
       </c>
       <c r="J100" s="3">
+        <v>-44700</v>
+      </c>
+      <c r="K100" s="3">
         <v>48600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>643900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-52200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-56500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-22000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-38300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-33100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-12700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-22900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-33200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4000</v>
+        <v>-7900</v>
       </c>
       <c r="E101" s="3">
-        <v>1300</v>
+        <v>-4200</v>
       </c>
       <c r="F101" s="3">
-        <v>-7500</v>
+        <v>1400</v>
       </c>
       <c r="G101" s="3">
-        <v>15500</v>
+        <v>-7800</v>
       </c>
       <c r="H101" s="3">
+        <v>16200</v>
+      </c>
+      <c r="I101" s="3">
         <v>900</v>
       </c>
-      <c r="I101" s="3">
-        <v>-4400</v>
-      </c>
       <c r="J101" s="3">
-        <v>-5800</v>
+        <v>-4600</v>
       </c>
       <c r="K101" s="3">
         <v>-5800</v>
       </c>
       <c r="L101" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="M101" s="3">
         <v>11700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-6300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-4600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>11500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-4300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>287000</v>
+        <v>253900</v>
       </c>
       <c r="E102" s="3">
-        <v>-83500</v>
+        <v>300000</v>
       </c>
       <c r="F102" s="3">
-        <v>-462500</v>
+        <v>-87300</v>
       </c>
       <c r="G102" s="3">
-        <v>529700</v>
+        <v>-483500</v>
       </c>
       <c r="H102" s="3">
-        <v>44400</v>
+        <v>553800</v>
       </c>
       <c r="I102" s="3">
-        <v>-78900</v>
+        <v>46400</v>
       </c>
       <c r="J102" s="3">
+        <v>-82500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-98400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>65000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-108500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-83900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>60100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>81200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-54200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>67500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>56500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CAE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAE_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>741400</v>
+        <v>586900</v>
       </c>
       <c r="E8" s="3">
-        <v>690100</v>
+        <v>697300</v>
       </c>
       <c r="F8" s="3">
-        <v>584200</v>
+        <v>649000</v>
       </c>
       <c r="G8" s="3">
-        <v>456400</v>
+        <v>549400</v>
       </c>
       <c r="H8" s="3">
-        <v>810200</v>
+        <v>429200</v>
       </c>
       <c r="I8" s="3">
-        <v>765600</v>
+        <v>762000</v>
       </c>
       <c r="J8" s="3">
+        <v>720000</v>
+      </c>
+      <c r="K8" s="3">
         <v>743500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>654700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>786800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>621300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>540500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>543500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>581000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>616400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>460100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>488400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>564400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>524500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>488200</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>544900</v>
+        <v>420200</v>
       </c>
       <c r="E9" s="3">
-        <v>500300</v>
+        <v>512400</v>
       </c>
       <c r="F9" s="3">
-        <v>425900</v>
+        <v>470500</v>
       </c>
       <c r="G9" s="3">
-        <v>366900</v>
+        <v>400500</v>
       </c>
       <c r="H9" s="3">
-        <v>551800</v>
+        <v>345000</v>
       </c>
       <c r="I9" s="3">
-        <v>524000</v>
+        <v>518900</v>
       </c>
       <c r="J9" s="3">
+        <v>492800</v>
+      </c>
+      <c r="K9" s="3">
         <v>547300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>461500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>565000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>443700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>394100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>378900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>387100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>426100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>325000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>336800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>383900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>371400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>344600</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>196600</v>
+        <v>166700</v>
       </c>
       <c r="E10" s="3">
-        <v>189800</v>
+        <v>184900</v>
       </c>
       <c r="F10" s="3">
-        <v>158300</v>
+        <v>178500</v>
       </c>
       <c r="G10" s="3">
-        <v>89500</v>
+        <v>148900</v>
       </c>
       <c r="H10" s="3">
-        <v>258400</v>
+        <v>84200</v>
       </c>
       <c r="I10" s="3">
-        <v>241700</v>
+        <v>243000</v>
       </c>
       <c r="J10" s="3">
+        <v>227300</v>
+      </c>
+      <c r="K10" s="3">
         <v>196200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>193300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>221700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>177600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>146400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>164600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>193900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>190300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>135100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>151600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>180500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>153100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>143600</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>18700</v>
+        <v>18300</v>
       </c>
       <c r="E12" s="3">
-        <v>30300</v>
+        <v>17500</v>
       </c>
       <c r="F12" s="3">
-        <v>21200</v>
+        <v>28500</v>
       </c>
       <c r="G12" s="3">
-        <v>16700</v>
+        <v>20000</v>
       </c>
       <c r="H12" s="3">
-        <v>30000</v>
+        <v>15700</v>
       </c>
       <c r="I12" s="3">
-        <v>27900</v>
+        <v>28200</v>
       </c>
       <c r="J12" s="3">
+        <v>26200</v>
+      </c>
+      <c r="K12" s="3">
         <v>29700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>25300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>23700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>21100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>23600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>17000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>22200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>22300</v>
-      </c>
-      <c r="S12" s="3">
-        <v>24000</v>
       </c>
       <c r="T12" s="3">
         <v>24000</v>
       </c>
       <c r="U12" s="3">
+        <v>24000</v>
+      </c>
+      <c r="V12" s="3">
         <v>22100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,28 +1104,31 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>52100</v>
+        <v>6600</v>
       </c>
       <c r="E14" s="3">
-        <v>12800</v>
+        <v>49000</v>
       </c>
       <c r="F14" s="3">
-        <v>45500</v>
+        <v>12000</v>
       </c>
       <c r="G14" s="3">
-        <v>82700</v>
+        <v>42800</v>
       </c>
       <c r="H14" s="3">
-        <v>31100</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
+        <v>77700</v>
+      </c>
+      <c r="I14" s="3">
+        <v>29200</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
@@ -1116,8 +1136,8 @@
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1125,32 +1145,35 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-10600</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>16200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>702000</v>
+        <v>519700</v>
       </c>
       <c r="E17" s="3">
-        <v>621400</v>
+        <v>660100</v>
       </c>
       <c r="F17" s="3">
-        <v>560900</v>
+        <v>584400</v>
       </c>
       <c r="G17" s="3">
-        <v>547800</v>
+        <v>527400</v>
       </c>
       <c r="H17" s="3">
-        <v>688800</v>
+        <v>515200</v>
       </c>
       <c r="I17" s="3">
-        <v>637200</v>
+        <v>647700</v>
       </c>
       <c r="J17" s="3">
+        <v>599300</v>
+      </c>
+      <c r="K17" s="3">
         <v>640000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>566800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>655600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>535300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>468800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>469400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>476000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>503800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>383600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>420400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>486900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>448700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>429700</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>39500</v>
+        <v>67200</v>
       </c>
       <c r="E18" s="3">
-        <v>68700</v>
+        <v>37100</v>
       </c>
       <c r="F18" s="3">
-        <v>23400</v>
+        <v>64600</v>
       </c>
       <c r="G18" s="3">
-        <v>-91400</v>
+        <v>22000</v>
       </c>
       <c r="H18" s="3">
-        <v>121500</v>
+        <v>-86000</v>
       </c>
       <c r="I18" s="3">
-        <v>128400</v>
+        <v>114200</v>
       </c>
       <c r="J18" s="3">
+        <v>120800</v>
+      </c>
+      <c r="K18" s="3">
         <v>103500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>87900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>131200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>86000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>71700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>74100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>105000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>112500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>76500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>67900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>77500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>75700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>58500</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,173 +1413,180 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3700</v>
+        <v>-1400</v>
       </c>
       <c r="E20" s="3">
-        <v>-3300</v>
+        <v>-3500</v>
       </c>
       <c r="F20" s="3">
-        <v>-4200</v>
+        <v>-3100</v>
       </c>
       <c r="G20" s="3">
-        <v>-2700</v>
+        <v>-4000</v>
       </c>
       <c r="H20" s="3">
-        <v>-3600</v>
+        <v>-2600</v>
       </c>
       <c r="I20" s="3">
-        <v>-4200</v>
+        <v>-3400</v>
       </c>
       <c r="J20" s="3">
         <v>-4000</v>
       </c>
       <c r="K20" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="L20" s="3">
         <v>-4400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>96400</v>
+        <v>121200</v>
       </c>
       <c r="E21" s="3">
-        <v>131100</v>
+        <v>90700</v>
       </c>
       <c r="F21" s="3">
-        <v>82300</v>
+        <v>123300</v>
       </c>
       <c r="G21" s="3">
-        <v>-23200</v>
+        <v>77400</v>
       </c>
       <c r="H21" s="3">
-        <v>178800</v>
+        <v>-21800</v>
       </c>
       <c r="I21" s="3">
-        <v>188600</v>
+        <v>168200</v>
       </c>
       <c r="J21" s="3">
+        <v>177400</v>
+      </c>
+      <c r="K21" s="3">
         <v>162000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>142000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>175300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>123400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>106800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>110600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>136800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>150600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>113900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>108400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>118800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>118000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>95700</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>21400</v>
+      </c>
+      <c r="F22" s="3">
         <v>22800</v>
       </c>
-      <c r="E22" s="3">
-        <v>24300</v>
-      </c>
-      <c r="F22" s="3">
-        <v>25000</v>
-      </c>
       <c r="G22" s="3">
-        <v>26400</v>
+        <v>23500</v>
       </c>
       <c r="H22" s="3">
-        <v>28400</v>
+        <v>24800</v>
       </c>
       <c r="I22" s="3">
-        <v>26200</v>
+        <v>26700</v>
       </c>
       <c r="J22" s="3">
+        <v>24600</v>
+      </c>
+      <c r="K22" s="3">
         <v>24500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>23200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>15000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>11800</v>
       </c>
       <c r="N22" s="3">
         <v>11800</v>
       </c>
       <c r="O22" s="3">
+        <v>11800</v>
+      </c>
+      <c r="P22" s="3">
         <v>11700</v>
-      </c>
-      <c r="P22" s="3">
-        <v>14100</v>
       </c>
       <c r="Q22" s="3">
         <v>14100</v>
@@ -1558,140 +1598,149 @@
         <v>14100</v>
       </c>
       <c r="T22" s="3">
+        <v>14100</v>
+      </c>
+      <c r="U22" s="3">
         <v>14400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>14000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>12900</v>
+        <v>44900</v>
       </c>
       <c r="E23" s="3">
-        <v>41100</v>
+        <v>12200</v>
       </c>
       <c r="F23" s="3">
-        <v>-5800</v>
+        <v>38700</v>
       </c>
       <c r="G23" s="3">
-        <v>-120500</v>
+        <v>-5500</v>
       </c>
       <c r="H23" s="3">
-        <v>89500</v>
+        <v>-113400</v>
       </c>
       <c r="I23" s="3">
-        <v>98000</v>
+        <v>84200</v>
       </c>
       <c r="J23" s="3">
+        <v>92200</v>
+      </c>
+      <c r="K23" s="3">
         <v>75000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>60300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>111400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>71300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>57300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>62100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>87100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>99700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>63400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>54400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>65000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>61500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-2700</v>
+        <v>8000</v>
       </c>
       <c r="E24" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-800</v>
       </c>
-      <c r="G24" s="3">
-        <v>-29300</v>
-      </c>
       <c r="H24" s="3">
-        <v>22300</v>
+        <v>-27600</v>
       </c>
       <c r="I24" s="3">
-        <v>15300</v>
+        <v>21000</v>
       </c>
       <c r="J24" s="3">
+        <v>14300</v>
+      </c>
+      <c r="K24" s="3">
         <v>12900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>10300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>14900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>10800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>11000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>10200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-8800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>17200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>8900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>11400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>8500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>15600</v>
+        <v>36900</v>
       </c>
       <c r="E26" s="3">
-        <v>41200</v>
+        <v>14700</v>
       </c>
       <c r="F26" s="3">
-        <v>-5000</v>
+        <v>38700</v>
       </c>
       <c r="G26" s="3">
-        <v>-91200</v>
+        <v>-4700</v>
       </c>
       <c r="H26" s="3">
-        <v>67200</v>
+        <v>-85800</v>
       </c>
       <c r="I26" s="3">
-        <v>82700</v>
+        <v>63200</v>
       </c>
       <c r="J26" s="3">
+        <v>77800</v>
+      </c>
+      <c r="K26" s="3">
         <v>62200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>50000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>96500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>60500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>46200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>53900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>77000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>108500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>46200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>45500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>53600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>53100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>16400</v>
+        <v>36200</v>
       </c>
       <c r="E27" s="3">
-        <v>40500</v>
+        <v>15400</v>
       </c>
       <c r="F27" s="3">
-        <v>-4300</v>
+        <v>38000</v>
       </c>
       <c r="G27" s="3">
-        <v>-91700</v>
+        <v>-4100</v>
       </c>
       <c r="H27" s="3">
-        <v>65000</v>
+        <v>-86200</v>
       </c>
       <c r="I27" s="3">
-        <v>81000</v>
+        <v>61100</v>
       </c>
       <c r="J27" s="3">
+        <v>76200</v>
+      </c>
+      <c r="K27" s="3">
         <v>61200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>48800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>94100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>59100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>44100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>52200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>74500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>107000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>44900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>44400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>51800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>51900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1973,14 +2034,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>10</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -1992,16 +2053,19 @@
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-500</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>200</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3700</v>
+        <v>1400</v>
       </c>
       <c r="E32" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="F32" s="3">
-        <v>4200</v>
+        <v>3100</v>
       </c>
       <c r="G32" s="3">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="H32" s="3">
-        <v>3600</v>
+        <v>2600</v>
       </c>
       <c r="I32" s="3">
-        <v>4200</v>
+        <v>3400</v>
       </c>
       <c r="J32" s="3">
         <v>4000</v>
       </c>
       <c r="K32" s="3">
+        <v>4000</v>
+      </c>
+      <c r="L32" s="3">
         <v>4400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>200</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>16400</v>
+        <v>36200</v>
       </c>
       <c r="E33" s="3">
-        <v>40500</v>
+        <v>15400</v>
       </c>
       <c r="F33" s="3">
-        <v>-4300</v>
+        <v>38000</v>
       </c>
       <c r="G33" s="3">
-        <v>-91700</v>
+        <v>-4100</v>
       </c>
       <c r="H33" s="3">
-        <v>65000</v>
+        <v>-86200</v>
       </c>
       <c r="I33" s="3">
-        <v>81000</v>
+        <v>61100</v>
       </c>
       <c r="J33" s="3">
+        <v>76200</v>
+      </c>
+      <c r="K33" s="3">
         <v>61200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>48800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>94100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>59100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>44100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>52200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>74500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>107000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>44900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>44400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>51200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>52100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>16400</v>
+        <v>36200</v>
       </c>
       <c r="E35" s="3">
-        <v>40500</v>
+        <v>15400</v>
       </c>
       <c r="F35" s="3">
-        <v>-4300</v>
+        <v>38000</v>
       </c>
       <c r="G35" s="3">
-        <v>-91700</v>
+        <v>-4100</v>
       </c>
       <c r="H35" s="3">
-        <v>65000</v>
+        <v>-86200</v>
       </c>
       <c r="I35" s="3">
-        <v>81000</v>
+        <v>61100</v>
       </c>
       <c r="J35" s="3">
+        <v>76200</v>
+      </c>
+      <c r="K35" s="3">
         <v>61200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>48800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>94100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>59100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>44100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>52200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>74500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>107000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>44900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>44400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>51200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>52100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>767800</v>
+        <v>538400</v>
       </c>
       <c r="E41" s="3">
-        <v>513900</v>
+        <v>722100</v>
       </c>
       <c r="F41" s="3">
-        <v>213900</v>
+        <v>483300</v>
       </c>
       <c r="G41" s="3">
-        <v>301200</v>
+        <v>201200</v>
       </c>
       <c r="H41" s="3">
-        <v>784700</v>
+        <v>283300</v>
       </c>
       <c r="I41" s="3">
-        <v>230900</v>
+        <v>738000</v>
       </c>
       <c r="J41" s="3">
+        <v>217100</v>
+      </c>
+      <c r="K41" s="3">
         <v>184500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>255400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>343400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>275300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>366500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>376500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>455100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>395000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>402600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>321400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>387700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>320200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>263700</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,442 +2701,466 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>845900</v>
+        <v>827800</v>
       </c>
       <c r="E43" s="3">
-        <v>816200</v>
+        <v>795500</v>
       </c>
       <c r="F43" s="3">
-        <v>894700</v>
+        <v>767600</v>
       </c>
       <c r="G43" s="3">
-        <v>900300</v>
+        <v>841400</v>
       </c>
       <c r="H43" s="3">
-        <v>966500</v>
+        <v>846600</v>
       </c>
       <c r="I43" s="3">
-        <v>877700</v>
+        <v>908900</v>
       </c>
       <c r="J43" s="3">
+        <v>825400</v>
+      </c>
+      <c r="K43" s="3">
         <v>944500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>889800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>810700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>866500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>728100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>748300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1116900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>438900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>408600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>410000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>441000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>415400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>443000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>537100</v>
+        <v>435800</v>
       </c>
       <c r="E44" s="3">
-        <v>573000</v>
+        <v>505100</v>
       </c>
       <c r="F44" s="3">
-        <v>590000</v>
+        <v>538900</v>
       </c>
       <c r="G44" s="3">
-        <v>556000</v>
+        <v>554800</v>
       </c>
       <c r="H44" s="3">
-        <v>510900</v>
+        <v>522900</v>
       </c>
       <c r="I44" s="3">
-        <v>503600</v>
+        <v>480400</v>
       </c>
       <c r="J44" s="3">
+        <v>473600</v>
+      </c>
+      <c r="K44" s="3">
         <v>478800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>468000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>413400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>459900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>417500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>410800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>384100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>275400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>287900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>299000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>319800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>322700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>307600</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>650300</v>
+        <v>608100</v>
       </c>
       <c r="E45" s="3">
-        <v>73500</v>
+        <v>611600</v>
       </c>
       <c r="F45" s="3">
-        <v>67700</v>
+        <v>69200</v>
       </c>
       <c r="G45" s="3">
-        <v>69800</v>
+        <v>63700</v>
       </c>
       <c r="H45" s="3">
-        <v>66400</v>
+        <v>65600</v>
       </c>
       <c r="I45" s="3">
-        <v>65800</v>
+        <v>62500</v>
       </c>
       <c r="J45" s="3">
+        <v>61900</v>
+      </c>
+      <c r="K45" s="3">
         <v>61600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>70000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>59000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>54300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>50000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>51300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>346000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>338700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>322500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>359500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>326300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>307300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>307500</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2801000</v>
+        <v>2410000</v>
       </c>
       <c r="E46" s="3">
-        <v>1976700</v>
+        <v>2634200</v>
       </c>
       <c r="F46" s="3">
-        <v>1766300</v>
+        <v>1859000</v>
       </c>
       <c r="G46" s="3">
-        <v>1827300</v>
+        <v>1661100</v>
       </c>
       <c r="H46" s="3">
-        <v>2328500</v>
+        <v>1718500</v>
       </c>
       <c r="I46" s="3">
-        <v>1678000</v>
+        <v>2189800</v>
       </c>
       <c r="J46" s="3">
+        <v>1578100</v>
+      </c>
+      <c r="K46" s="3">
         <v>1669300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1683300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1626600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1656000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1562000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1586900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1580200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1448100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1421600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1390000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1474800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1365600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1321900</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>350000</v>
+        <v>330000</v>
       </c>
       <c r="E47" s="3">
-        <v>338700</v>
+        <v>329200</v>
       </c>
       <c r="F47" s="3">
-        <v>345400</v>
+        <v>318500</v>
       </c>
       <c r="G47" s="3">
-        <v>354800</v>
+        <v>324800</v>
       </c>
       <c r="H47" s="3">
-        <v>381900</v>
+        <v>333700</v>
       </c>
       <c r="I47" s="3">
-        <v>357700</v>
+        <v>359100</v>
       </c>
       <c r="J47" s="3">
+        <v>336300</v>
+      </c>
+      <c r="K47" s="3">
         <v>258700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>245800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>240300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>226700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>183600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>189900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>180600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>175500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>195000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>277500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>290700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>284600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>283200</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1888500</v>
+        <v>1801800</v>
       </c>
       <c r="E48" s="3">
-        <v>1918000</v>
+        <v>1776000</v>
       </c>
       <c r="F48" s="3">
-        <v>1922800</v>
+        <v>1803800</v>
       </c>
       <c r="G48" s="3">
-        <v>1971600</v>
+        <v>1808300</v>
       </c>
       <c r="H48" s="3">
-        <v>2114000</v>
+        <v>1854100</v>
       </c>
       <c r="I48" s="3">
-        <v>1973100</v>
+        <v>1988100</v>
       </c>
       <c r="J48" s="3">
+        <v>1855500</v>
+      </c>
+      <c r="K48" s="3">
         <v>1976500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1880600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1654600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1482300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1295500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1369200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1342500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1285000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1176900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1190700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1215800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1194800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1191200</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1704400</v>
+        <v>1611700</v>
       </c>
       <c r="E49" s="3">
-        <v>1703600</v>
+        <v>1602800</v>
       </c>
       <c r="F49" s="3">
-        <v>1617100</v>
+        <v>1602100</v>
       </c>
       <c r="G49" s="3">
-        <v>1637300</v>
+        <v>1520800</v>
       </c>
       <c r="H49" s="3">
-        <v>1704900</v>
+        <v>1539800</v>
       </c>
       <c r="I49" s="3">
-        <v>1670000</v>
+        <v>1603400</v>
       </c>
       <c r="J49" s="3">
+        <v>1570600</v>
+      </c>
+      <c r="K49" s="3">
         <v>1681600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1608600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1561100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1003100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>802500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>791000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>785600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>769100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>681600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>698900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>725200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>719900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>722900</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>509000</v>
+        <v>490300</v>
       </c>
       <c r="E52" s="3">
-        <v>512100</v>
+        <v>478600</v>
       </c>
       <c r="F52" s="3">
-        <v>517800</v>
+        <v>481600</v>
       </c>
       <c r="G52" s="3">
-        <v>517700</v>
+        <v>487000</v>
       </c>
       <c r="H52" s="3">
-        <v>504100</v>
+        <v>486800</v>
       </c>
       <c r="I52" s="3">
-        <v>493200</v>
+        <v>474000</v>
       </c>
       <c r="J52" s="3">
+        <v>463800</v>
+      </c>
+      <c r="K52" s="3">
         <v>483000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>459900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>433600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>422600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>392700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>422300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>412800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>398800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>389300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>389500</v>
-      </c>
-      <c r="T52" s="3">
-        <v>407200</v>
       </c>
       <c r="U52" s="3">
         <v>407200</v>
       </c>
       <c r="V52" s="3">
+        <v>407200</v>
+      </c>
+      <c r="W52" s="3">
         <v>408200</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7252900</v>
+        <v>6644000</v>
       </c>
       <c r="E54" s="3">
-        <v>6449100</v>
+        <v>6820900</v>
       </c>
       <c r="F54" s="3">
-        <v>6169500</v>
+        <v>6065000</v>
       </c>
       <c r="G54" s="3">
-        <v>6308700</v>
+        <v>5802000</v>
       </c>
       <c r="H54" s="3">
-        <v>7033300</v>
+        <v>5932900</v>
       </c>
       <c r="I54" s="3">
-        <v>6171900</v>
+        <v>6614400</v>
       </c>
       <c r="J54" s="3">
+        <v>5804300</v>
+      </c>
+      <c r="K54" s="3">
         <v>6069100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5878100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5516100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4790700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4236400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4359300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4301700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4076500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3864400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3946500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4113700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3972100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3927300</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>783900</v>
+        <v>597500</v>
       </c>
       <c r="E57" s="3">
-        <v>761000</v>
+        <v>737300</v>
       </c>
       <c r="F57" s="3">
-        <v>722400</v>
+        <v>715700</v>
       </c>
       <c r="G57" s="3">
-        <v>684400</v>
+        <v>679400</v>
       </c>
       <c r="H57" s="3">
-        <v>774700</v>
+        <v>643600</v>
       </c>
       <c r="I57" s="3">
-        <v>696000</v>
+        <v>728500</v>
       </c>
       <c r="J57" s="3">
+        <v>654500</v>
+      </c>
+      <c r="K57" s="3">
         <v>614700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>632600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>671400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>680000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>532200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>492900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>496300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>452300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>418000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>454100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>534100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>615400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>581600</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>179300</v>
+        <v>179000</v>
       </c>
       <c r="E58" s="3">
-        <v>236100</v>
+        <v>168600</v>
       </c>
       <c r="F58" s="3">
-        <v>190300</v>
+        <v>222100</v>
       </c>
       <c r="G58" s="3">
-        <v>181600</v>
+        <v>178900</v>
       </c>
       <c r="H58" s="3">
-        <v>171000</v>
+        <v>170700</v>
       </c>
       <c r="I58" s="3">
-        <v>102100</v>
+        <v>160800</v>
       </c>
       <c r="J58" s="3">
+        <v>96000</v>
+      </c>
+      <c r="K58" s="3">
         <v>191800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>157900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>203300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>175500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>94300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>89700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>38800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>41000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>35000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>37200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>39900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>39700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1219900</v>
+        <v>1077900</v>
       </c>
       <c r="E59" s="3">
-        <v>594100</v>
+        <v>1147200</v>
       </c>
       <c r="F59" s="3">
-        <v>669800</v>
+        <v>558700</v>
       </c>
       <c r="G59" s="3">
-        <v>701100</v>
+        <v>629900</v>
       </c>
       <c r="H59" s="3">
-        <v>764100</v>
+        <v>659400</v>
       </c>
       <c r="I59" s="3">
-        <v>639900</v>
+        <v>718600</v>
       </c>
       <c r="J59" s="3">
+        <v>601800</v>
+      </c>
+      <c r="K59" s="3">
         <v>606300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>613000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>579800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>653200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>530700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>538100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>561900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>457900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>390600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>390800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>404700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>221300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>225100</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2183100</v>
+        <v>1854400</v>
       </c>
       <c r="E60" s="3">
-        <v>1591200</v>
+        <v>2053100</v>
       </c>
       <c r="F60" s="3">
-        <v>1582500</v>
+        <v>1496400</v>
       </c>
       <c r="G60" s="3">
-        <v>1567100</v>
+        <v>1488200</v>
       </c>
       <c r="H60" s="3">
-        <v>1709700</v>
+        <v>1473700</v>
       </c>
       <c r="I60" s="3">
-        <v>1438000</v>
+        <v>1607900</v>
       </c>
       <c r="J60" s="3">
+        <v>1352300</v>
+      </c>
+      <c r="K60" s="3">
         <v>1412800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1403500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1454600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1508700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1157200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1120800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1097000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>951200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>843600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>882100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>978600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>876500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>842800</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1770200</v>
+        <v>1660800</v>
       </c>
       <c r="E61" s="3">
-        <v>1786600</v>
+        <v>1664800</v>
       </c>
       <c r="F61" s="3">
-        <v>1979300</v>
+        <v>1680200</v>
       </c>
       <c r="G61" s="3">
-        <v>2115600</v>
+        <v>1861400</v>
       </c>
       <c r="H61" s="3">
-        <v>2575000</v>
+        <v>1989600</v>
       </c>
       <c r="I61" s="3">
-        <v>2041100</v>
+        <v>2421700</v>
       </c>
       <c r="J61" s="3">
+        <v>1919500</v>
+      </c>
+      <c r="K61" s="3">
         <v>2017900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1931500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1589100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>850000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>849900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>897600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>899500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>883600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>866100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>882800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>924600</v>
-      </c>
-      <c r="U61" s="3">
-        <v>936400</v>
       </c>
       <c r="V61" s="3">
         <v>936400</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>936400</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>636000</v>
+        <v>596100</v>
       </c>
       <c r="E62" s="3">
-        <v>699500</v>
+        <v>598100</v>
       </c>
       <c r="F62" s="3">
-        <v>660300</v>
+        <v>657800</v>
       </c>
       <c r="G62" s="3">
-        <v>686600</v>
+        <v>621000</v>
       </c>
       <c r="H62" s="3">
-        <v>611000</v>
+        <v>645700</v>
       </c>
       <c r="I62" s="3">
-        <v>665100</v>
+        <v>574600</v>
       </c>
       <c r="J62" s="3">
+        <v>625500</v>
+      </c>
+      <c r="K62" s="3">
         <v>689000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>666800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>617200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>629100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>570500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>597800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>595300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>615100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>583200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>600000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>611800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>603200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>648900</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4649200</v>
+        <v>4166100</v>
       </c>
       <c r="E66" s="3">
-        <v>4142700</v>
+        <v>4372300</v>
       </c>
       <c r="F66" s="3">
-        <v>4293100</v>
+        <v>3895900</v>
       </c>
       <c r="G66" s="3">
-        <v>4441200</v>
+        <v>4037400</v>
       </c>
       <c r="H66" s="3">
-        <v>4969200</v>
+        <v>4176700</v>
       </c>
       <c r="I66" s="3">
-        <v>4213400</v>
+        <v>4673300</v>
       </c>
       <c r="J66" s="3">
+        <v>3962400</v>
+      </c>
+      <c r="K66" s="3">
         <v>4187300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4064300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3721500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3048400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2631900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2671100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2642800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2497600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2338500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2410000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2561300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2460700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2471400</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1279800</v>
+        <v>1241900</v>
       </c>
       <c r="E72" s="3">
-        <v>1201400</v>
+        <v>1203600</v>
       </c>
       <c r="F72" s="3">
-        <v>1156400</v>
+        <v>1129800</v>
       </c>
       <c r="G72" s="3">
-        <v>1151400</v>
+        <v>1087600</v>
       </c>
       <c r="H72" s="3">
-        <v>1318300</v>
+        <v>1082800</v>
       </c>
       <c r="I72" s="3">
-        <v>1264100</v>
+        <v>1239800</v>
       </c>
       <c r="J72" s="3">
+        <v>1188800</v>
+      </c>
+      <c r="K72" s="3">
         <v>1199400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1135000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1122300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1045900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1001500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1021400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>978100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>965700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>934500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>902100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>916000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>877400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>806200</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2603600</v>
+        <v>2477900</v>
       </c>
       <c r="E76" s="3">
-        <v>2306400</v>
+        <v>2448600</v>
       </c>
       <c r="F76" s="3">
-        <v>1876400</v>
+        <v>2169000</v>
       </c>
       <c r="G76" s="3">
-        <v>1867400</v>
+        <v>1764600</v>
       </c>
       <c r="H76" s="3">
-        <v>2064100</v>
+        <v>1756200</v>
       </c>
       <c r="I76" s="3">
-        <v>1958500</v>
+        <v>1941100</v>
       </c>
       <c r="J76" s="3">
+        <v>1841900</v>
+      </c>
+      <c r="K76" s="3">
         <v>1881800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1813800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1794700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1742300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1604500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1688200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1658900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1578800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1525900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1536500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1552400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1511400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1455900</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>16400</v>
+        <v>36200</v>
       </c>
       <c r="E81" s="3">
-        <v>40500</v>
+        <v>15400</v>
       </c>
       <c r="F81" s="3">
-        <v>-4300</v>
+        <v>38000</v>
       </c>
       <c r="G81" s="3">
-        <v>-91700</v>
+        <v>-4100</v>
       </c>
       <c r="H81" s="3">
-        <v>65000</v>
+        <v>-86200</v>
       </c>
       <c r="I81" s="3">
-        <v>81000</v>
+        <v>61100</v>
       </c>
       <c r="J81" s="3">
+        <v>76200</v>
+      </c>
+      <c r="K81" s="3">
         <v>61200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>48800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>94100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>59100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>44100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>52200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>74500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>107000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>44900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>44400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>51200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>52100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>60700</v>
+        <v>55400</v>
       </c>
       <c r="E83" s="3">
-        <v>65700</v>
+        <v>57100</v>
       </c>
       <c r="F83" s="3">
-        <v>63200</v>
+        <v>61700</v>
       </c>
       <c r="G83" s="3">
-        <v>71000</v>
+        <v>59400</v>
       </c>
       <c r="H83" s="3">
-        <v>60900</v>
+        <v>66700</v>
       </c>
       <c r="I83" s="3">
-        <v>64400</v>
+        <v>57300</v>
       </c>
       <c r="J83" s="3">
+        <v>60600</v>
+      </c>
+      <c r="K83" s="3">
         <v>62500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>58500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>48900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>40300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>37800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>36700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>35500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>36800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>36400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>39900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>39500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>42500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>144800</v>
+        <v>-100700</v>
       </c>
       <c r="E89" s="3">
-        <v>194700</v>
+        <v>136100</v>
       </c>
       <c r="F89" s="3">
-        <v>37800</v>
+        <v>183100</v>
       </c>
       <c r="G89" s="3">
-        <v>-73300</v>
+        <v>35600</v>
       </c>
       <c r="H89" s="3">
-        <v>204200</v>
+        <v>-68900</v>
       </c>
       <c r="I89" s="3">
-        <v>267000</v>
+        <v>192000</v>
       </c>
       <c r="J89" s="3">
+        <v>251100</v>
+      </c>
+      <c r="K89" s="3">
         <v>30400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-47600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>128000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>165600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>128700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-23000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>102600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>139600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>72300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-14300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>151700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>119900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-41900</v>
+        <v>-57600</v>
       </c>
       <c r="E91" s="3">
-        <v>-19800</v>
+        <v>-39400</v>
       </c>
       <c r="F91" s="3">
-        <v>-12600</v>
+        <v>-18600</v>
       </c>
       <c r="G91" s="3">
-        <v>-14900</v>
+        <v>-11900</v>
       </c>
       <c r="H91" s="3">
-        <v>-69600</v>
+        <v>-14000</v>
       </c>
       <c r="I91" s="3">
-        <v>-42800</v>
+        <v>-65500</v>
       </c>
       <c r="J91" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-48700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-70600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-120600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>36500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-29700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-40000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-42700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-32000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-18200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-36500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-56500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-27500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-45200</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-96400</v>
+        <v>-86000</v>
       </c>
       <c r="E94" s="3">
-        <v>-146100</v>
+        <v>-90700</v>
       </c>
       <c r="F94" s="3">
-        <v>-17900</v>
+        <v>-137400</v>
       </c>
       <c r="G94" s="3">
-        <v>-24300</v>
+        <v>-16800</v>
       </c>
       <c r="H94" s="3">
-        <v>-96800</v>
+        <v>-22800</v>
       </c>
       <c r="I94" s="3">
-        <v>-152800</v>
+        <v>-91000</v>
       </c>
       <c r="J94" s="3">
+        <v>-143700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-63700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-93700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-701200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-233700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-62900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-56400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-32000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-111900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>46400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-28300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-61200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-27700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-49400</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5568,52 +5802,55 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-23800</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-23500</v>
       </c>
-      <c r="J96" s="3">
-        <v>-23500</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-20200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-19700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-19400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-18700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-17400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-16700</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-17300</v>
       </c>
       <c r="R96" s="3">
         <v>-17300</v>
       </c>
       <c r="S96" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="T96" s="3">
         <v>-15600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-15700</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-16000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-15600</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>213400</v>
+        <v>5000</v>
       </c>
       <c r="E100" s="3">
-        <v>255700</v>
+        <v>200700</v>
       </c>
       <c r="F100" s="3">
-        <v>-108600</v>
+        <v>240500</v>
       </c>
       <c r="G100" s="3">
-        <v>-378100</v>
+        <v>-102100</v>
       </c>
       <c r="H100" s="3">
-        <v>430200</v>
+        <v>-355600</v>
       </c>
       <c r="I100" s="3">
-        <v>-68700</v>
+        <v>404600</v>
       </c>
       <c r="J100" s="3">
+        <v>-64600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-44700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>48600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>643900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-52200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-56500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-22000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-38300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-33100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-12700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-22900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-33200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-7900</v>
+        <v>-2000</v>
       </c>
       <c r="E101" s="3">
-        <v>-4200</v>
+        <v>-7400</v>
       </c>
       <c r="F101" s="3">
-        <v>1400</v>
+        <v>-4000</v>
       </c>
       <c r="G101" s="3">
-        <v>-7800</v>
+        <v>1300</v>
       </c>
       <c r="H101" s="3">
-        <v>16200</v>
+        <v>-7300</v>
       </c>
       <c r="I101" s="3">
+        <v>15200</v>
+      </c>
+      <c r="J101" s="3">
         <v>900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4600</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-5800</v>
       </c>
       <c r="L101" s="3">
         <v>-5800</v>
       </c>
       <c r="M101" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="N101" s="3">
         <v>11700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-6300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-4600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>11500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-4300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>253900</v>
+        <v>-183700</v>
       </c>
       <c r="E102" s="3">
-        <v>300000</v>
+        <v>238700</v>
       </c>
       <c r="F102" s="3">
-        <v>-87300</v>
+        <v>282200</v>
       </c>
       <c r="G102" s="3">
-        <v>-483500</v>
+        <v>-82100</v>
       </c>
       <c r="H102" s="3">
-        <v>553800</v>
+        <v>-454700</v>
       </c>
       <c r="I102" s="3">
-        <v>46400</v>
+        <v>520800</v>
       </c>
       <c r="J102" s="3">
+        <v>43700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-82500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-98400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>65000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-108500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-83900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>60100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-7600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>81200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-54200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>67500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>56500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CAE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAE_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>586900</v>
+        <v>639700</v>
       </c>
       <c r="E8" s="3">
-        <v>697300</v>
+        <v>590900</v>
       </c>
       <c r="F8" s="3">
-        <v>649000</v>
+        <v>702100</v>
       </c>
       <c r="G8" s="3">
-        <v>549400</v>
+        <v>653500</v>
       </c>
       <c r="H8" s="3">
-        <v>429200</v>
+        <v>553200</v>
       </c>
       <c r="I8" s="3">
-        <v>762000</v>
+        <v>432200</v>
       </c>
       <c r="J8" s="3">
+        <v>767200</v>
+      </c>
+      <c r="K8" s="3">
         <v>720000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>743500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>654700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>786800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>621300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>540500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>543500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>581000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>616400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>460100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>488400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>564400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>524500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>488200</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>420200</v>
+        <v>461100</v>
       </c>
       <c r="E9" s="3">
-        <v>512400</v>
+        <v>423100</v>
       </c>
       <c r="F9" s="3">
-        <v>470500</v>
+        <v>515900</v>
       </c>
       <c r="G9" s="3">
-        <v>400500</v>
+        <v>473800</v>
       </c>
       <c r="H9" s="3">
-        <v>345000</v>
+        <v>403300</v>
       </c>
       <c r="I9" s="3">
-        <v>518900</v>
+        <v>347400</v>
       </c>
       <c r="J9" s="3">
+        <v>522500</v>
+      </c>
+      <c r="K9" s="3">
         <v>492800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>547300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>461500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>565000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>443700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>394100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>378900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>387100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>426100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>325000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>336800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>383900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>371400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>344600</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>166700</v>
+        <v>178700</v>
       </c>
       <c r="E10" s="3">
-        <v>184900</v>
+        <v>167800</v>
       </c>
       <c r="F10" s="3">
-        <v>178500</v>
+        <v>186100</v>
       </c>
       <c r="G10" s="3">
-        <v>148900</v>
+        <v>179700</v>
       </c>
       <c r="H10" s="3">
-        <v>84200</v>
+        <v>149900</v>
       </c>
       <c r="I10" s="3">
-        <v>243000</v>
+        <v>84800</v>
       </c>
       <c r="J10" s="3">
+        <v>244700</v>
+      </c>
+      <c r="K10" s="3">
         <v>227300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>196200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>193300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>221700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>177600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>146400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>164600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>193900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>190300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>135100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>151600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>180500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>153100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>143600</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>18300</v>
+        <v>24100</v>
       </c>
       <c r="E12" s="3">
-        <v>17500</v>
+        <v>18400</v>
       </c>
       <c r="F12" s="3">
-        <v>28500</v>
+        <v>17700</v>
       </c>
       <c r="G12" s="3">
-        <v>20000</v>
+        <v>28700</v>
       </c>
       <c r="H12" s="3">
-        <v>15700</v>
+        <v>20100</v>
       </c>
       <c r="I12" s="3">
-        <v>28200</v>
+        <v>15800</v>
       </c>
       <c r="J12" s="3">
+        <v>28400</v>
+      </c>
+      <c r="K12" s="3">
         <v>26200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>29700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>25300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>23700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>21100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>23600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>17000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>22200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>22300</v>
-      </c>
-      <c r="T12" s="3">
-        <v>24000</v>
       </c>
       <c r="U12" s="3">
         <v>24000</v>
       </c>
       <c r="V12" s="3">
+        <v>24000</v>
+      </c>
+      <c r="W12" s="3">
         <v>22100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,31 +1124,34 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>6600</v>
+        <v>37400</v>
       </c>
       <c r="E14" s="3">
-        <v>49000</v>
+        <v>6700</v>
       </c>
       <c r="F14" s="3">
-        <v>12000</v>
+        <v>49400</v>
       </c>
       <c r="G14" s="3">
-        <v>42800</v>
+        <v>12100</v>
       </c>
       <c r="H14" s="3">
-        <v>77700</v>
+        <v>43100</v>
       </c>
       <c r="I14" s="3">
-        <v>29200</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
+        <v>78300</v>
+      </c>
+      <c r="J14" s="3">
+        <v>29400</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -1139,8 +1159,8 @@
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1148,32 +1168,35 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>-10600</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>16200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>519700</v>
+        <v>609000</v>
       </c>
       <c r="E17" s="3">
-        <v>660100</v>
+        <v>523200</v>
       </c>
       <c r="F17" s="3">
-        <v>584400</v>
+        <v>664700</v>
       </c>
       <c r="G17" s="3">
-        <v>527400</v>
+        <v>588400</v>
       </c>
       <c r="H17" s="3">
-        <v>515200</v>
+        <v>531100</v>
       </c>
       <c r="I17" s="3">
-        <v>647700</v>
+        <v>518800</v>
       </c>
       <c r="J17" s="3">
+        <v>652200</v>
+      </c>
+      <c r="K17" s="3">
         <v>599300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>640000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>566800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>655600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>535300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>468800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>469400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>476000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>503800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>383600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>420400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>486900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>448700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>429700</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>67200</v>
+        <v>30800</v>
       </c>
       <c r="E18" s="3">
-        <v>37100</v>
+        <v>67700</v>
       </c>
       <c r="F18" s="3">
-        <v>64600</v>
+        <v>37400</v>
       </c>
       <c r="G18" s="3">
-        <v>22000</v>
+        <v>65100</v>
       </c>
       <c r="H18" s="3">
-        <v>-86000</v>
+        <v>22100</v>
       </c>
       <c r="I18" s="3">
-        <v>114200</v>
+        <v>-86600</v>
       </c>
       <c r="J18" s="3">
+        <v>115000</v>
+      </c>
+      <c r="K18" s="3">
         <v>120800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>103500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>87900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>131200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>86000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>71700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>74100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>105000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>112500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>76500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>67900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>77500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>75700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>58500</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,182 +1447,189 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3400</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-4000</v>
       </c>
       <c r="K20" s="3">
         <v>-4000</v>
       </c>
       <c r="L20" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="M20" s="3">
         <v>-4400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-200</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>121200</v>
+        <v>88000</v>
       </c>
       <c r="E21" s="3">
-        <v>90700</v>
+        <v>122100</v>
       </c>
       <c r="F21" s="3">
-        <v>123300</v>
+        <v>91300</v>
       </c>
       <c r="G21" s="3">
-        <v>77400</v>
+        <v>124100</v>
       </c>
       <c r="H21" s="3">
-        <v>-21800</v>
+        <v>78000</v>
       </c>
       <c r="I21" s="3">
-        <v>168200</v>
+        <v>-22000</v>
       </c>
       <c r="J21" s="3">
+        <v>169300</v>
+      </c>
+      <c r="K21" s="3">
         <v>177400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>162000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>142000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>175300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>123400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>106800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>110600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>136800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>150600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>113900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>108400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>118800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>118000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>95700</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>20900</v>
+        <v>23000</v>
       </c>
       <c r="E22" s="3">
-        <v>21400</v>
+        <v>21000</v>
       </c>
       <c r="F22" s="3">
-        <v>22800</v>
+        <v>21600</v>
       </c>
       <c r="G22" s="3">
-        <v>23500</v>
+        <v>23000</v>
       </c>
       <c r="H22" s="3">
-        <v>24800</v>
+        <v>23600</v>
       </c>
       <c r="I22" s="3">
-        <v>26700</v>
+        <v>25000</v>
       </c>
       <c r="J22" s="3">
+        <v>26800</v>
+      </c>
+      <c r="K22" s="3">
         <v>24600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>24500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>23200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>15000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>11800</v>
       </c>
       <c r="O22" s="3">
         <v>11800</v>
       </c>
       <c r="P22" s="3">
+        <v>11800</v>
+      </c>
+      <c r="Q22" s="3">
         <v>11700</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>14100</v>
       </c>
       <c r="R22" s="3">
         <v>14100</v>
@@ -1601,146 +1641,155 @@
         <v>14100</v>
       </c>
       <c r="U22" s="3">
+        <v>14100</v>
+      </c>
+      <c r="V22" s="3">
         <v>14400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>14000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>44900</v>
+        <v>3300</v>
       </c>
       <c r="E23" s="3">
+        <v>45200</v>
+      </c>
+      <c r="F23" s="3">
         <v>12200</v>
       </c>
-      <c r="F23" s="3">
-        <v>38700</v>
-      </c>
       <c r="G23" s="3">
+        <v>38900</v>
+      </c>
+      <c r="H23" s="3">
         <v>-5500</v>
       </c>
-      <c r="H23" s="3">
-        <v>-113400</v>
-      </c>
       <c r="I23" s="3">
-        <v>84200</v>
+        <v>-114100</v>
       </c>
       <c r="J23" s="3">
+        <v>84800</v>
+      </c>
+      <c r="K23" s="3">
         <v>92200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>75000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>60300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>111400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>71300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>57300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>62100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>87100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>99700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>63400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>54400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>65000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>61500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>8000</v>
+        <v>-10200</v>
       </c>
       <c r="E24" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F24" s="3">
         <v>-2500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-800</v>
       </c>
-      <c r="H24" s="3">
-        <v>-27600</v>
-      </c>
       <c r="I24" s="3">
-        <v>21000</v>
+        <v>-27800</v>
       </c>
       <c r="J24" s="3">
+        <v>21100</v>
+      </c>
+      <c r="K24" s="3">
         <v>14300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>12900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>10300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>14900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>10800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>11000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>10200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-8800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>17200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>8900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>11400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>8500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>36900</v>
+        <v>13500</v>
       </c>
       <c r="E26" s="3">
-        <v>14700</v>
+        <v>37100</v>
       </c>
       <c r="F26" s="3">
-        <v>38700</v>
+        <v>14800</v>
       </c>
       <c r="G26" s="3">
+        <v>39000</v>
+      </c>
+      <c r="H26" s="3">
         <v>-4700</v>
       </c>
-      <c r="H26" s="3">
-        <v>-85800</v>
-      </c>
       <c r="I26" s="3">
-        <v>63200</v>
+        <v>-86400</v>
       </c>
       <c r="J26" s="3">
+        <v>63700</v>
+      </c>
+      <c r="K26" s="3">
         <v>77800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>62200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>50000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>96500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>60500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>46200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>53900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>77000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>108500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>46200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>45500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>53600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>53100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>36200</v>
+        <v>11000</v>
       </c>
       <c r="E27" s="3">
-        <v>15400</v>
+        <v>36400</v>
       </c>
       <c r="F27" s="3">
-        <v>38000</v>
+        <v>15500</v>
       </c>
       <c r="G27" s="3">
+        <v>38300</v>
+      </c>
+      <c r="H27" s="3">
         <v>-4100</v>
       </c>
-      <c r="H27" s="3">
-        <v>-86200</v>
-      </c>
       <c r="I27" s="3">
-        <v>61100</v>
+        <v>-86800</v>
       </c>
       <c r="J27" s="3">
+        <v>61500</v>
+      </c>
+      <c r="K27" s="3">
         <v>76200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>61200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>48800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>94100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>59100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>44100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>52200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>74500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>107000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>44900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>44400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>51800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>51900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2037,14 +2098,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>10</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -2056,16 +2117,19 @@
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-500</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>200</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E32" s="3">
         <v>1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3400</v>
-      </c>
-      <c r="J32" s="3">
-        <v>4000</v>
       </c>
       <c r="K32" s="3">
         <v>4000</v>
       </c>
       <c r="L32" s="3">
+        <v>4000</v>
+      </c>
+      <c r="M32" s="3">
         <v>4400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>200</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>36200</v>
+        <v>11000</v>
       </c>
       <c r="E33" s="3">
-        <v>15400</v>
+        <v>36400</v>
       </c>
       <c r="F33" s="3">
-        <v>38000</v>
+        <v>15500</v>
       </c>
       <c r="G33" s="3">
+        <v>38300</v>
+      </c>
+      <c r="H33" s="3">
         <v>-4100</v>
       </c>
-      <c r="H33" s="3">
-        <v>-86200</v>
-      </c>
       <c r="I33" s="3">
-        <v>61100</v>
+        <v>-86800</v>
       </c>
       <c r="J33" s="3">
+        <v>61500</v>
+      </c>
+      <c r="K33" s="3">
         <v>76200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>61200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>48800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>94100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>59100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>44100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>52200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>74500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>107000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>44900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>44400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>51200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>52100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>36200</v>
+        <v>11000</v>
       </c>
       <c r="E35" s="3">
-        <v>15400</v>
+        <v>36400</v>
       </c>
       <c r="F35" s="3">
-        <v>38000</v>
+        <v>15500</v>
       </c>
       <c r="G35" s="3">
+        <v>38300</v>
+      </c>
+      <c r="H35" s="3">
         <v>-4100</v>
       </c>
-      <c r="H35" s="3">
-        <v>-86200</v>
-      </c>
       <c r="I35" s="3">
-        <v>61100</v>
+        <v>-86800</v>
       </c>
       <c r="J35" s="3">
+        <v>61500</v>
+      </c>
+      <c r="K35" s="3">
         <v>76200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>61200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>48800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>94100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>59100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>44100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>52200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>74500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>107000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>44900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>44400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>51200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>52100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>538400</v>
+        <v>267200</v>
       </c>
       <c r="E41" s="3">
-        <v>722100</v>
+        <v>542100</v>
       </c>
       <c r="F41" s="3">
-        <v>483300</v>
+        <v>727000</v>
       </c>
       <c r="G41" s="3">
-        <v>201200</v>
+        <v>486700</v>
       </c>
       <c r="H41" s="3">
-        <v>283300</v>
+        <v>202500</v>
       </c>
       <c r="I41" s="3">
-        <v>738000</v>
+        <v>285200</v>
       </c>
       <c r="J41" s="3">
+        <v>743000</v>
+      </c>
+      <c r="K41" s="3">
         <v>217100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>184500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>255400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>343400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>275300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>366500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>376500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>455100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>395000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>402600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>321400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>387700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>320200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>263700</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,463 +2794,487 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>827800</v>
+        <v>942900</v>
       </c>
       <c r="E43" s="3">
-        <v>795500</v>
+        <v>833500</v>
       </c>
       <c r="F43" s="3">
-        <v>767600</v>
+        <v>801000</v>
       </c>
       <c r="G43" s="3">
-        <v>841400</v>
+        <v>772900</v>
       </c>
       <c r="H43" s="3">
-        <v>846600</v>
+        <v>847200</v>
       </c>
       <c r="I43" s="3">
-        <v>908900</v>
+        <v>852500</v>
       </c>
       <c r="J43" s="3">
+        <v>915200</v>
+      </c>
+      <c r="K43" s="3">
         <v>825400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>944500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>889800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>810700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>866500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>728100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>748300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1116900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>438900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>408600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>410000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>441000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>415400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>443000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>435800</v>
+        <v>422000</v>
       </c>
       <c r="E44" s="3">
-        <v>505100</v>
+        <v>438800</v>
       </c>
       <c r="F44" s="3">
-        <v>538900</v>
+        <v>508600</v>
       </c>
       <c r="G44" s="3">
-        <v>554800</v>
+        <v>542600</v>
       </c>
       <c r="H44" s="3">
-        <v>522900</v>
+        <v>558600</v>
       </c>
       <c r="I44" s="3">
-        <v>480400</v>
+        <v>526500</v>
       </c>
       <c r="J44" s="3">
+        <v>483700</v>
+      </c>
+      <c r="K44" s="3">
         <v>473600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>478800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>468000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>413400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>459900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>417500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>410800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>384100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>275400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>287900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>299000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>319800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>322700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>307600</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>608100</v>
+        <v>60800</v>
       </c>
       <c r="E45" s="3">
-        <v>611600</v>
+        <v>612300</v>
       </c>
       <c r="F45" s="3">
-        <v>69200</v>
+        <v>615800</v>
       </c>
       <c r="G45" s="3">
-        <v>63700</v>
+        <v>69600</v>
       </c>
       <c r="H45" s="3">
-        <v>65600</v>
+        <v>64100</v>
       </c>
       <c r="I45" s="3">
-        <v>62500</v>
+        <v>66100</v>
       </c>
       <c r="J45" s="3">
+        <v>62900</v>
+      </c>
+      <c r="K45" s="3">
         <v>61900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>61600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>70000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>59000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>54300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>50000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>51300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>346000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>338700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>322500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>359500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>326300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>307300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>307500</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2410000</v>
+        <v>1693000</v>
       </c>
       <c r="E46" s="3">
-        <v>2634200</v>
+        <v>2426700</v>
       </c>
       <c r="F46" s="3">
-        <v>1859000</v>
+        <v>2652400</v>
       </c>
       <c r="G46" s="3">
-        <v>1661100</v>
+        <v>1871800</v>
       </c>
       <c r="H46" s="3">
-        <v>1718500</v>
+        <v>1672500</v>
       </c>
       <c r="I46" s="3">
-        <v>2189800</v>
+        <v>1730300</v>
       </c>
       <c r="J46" s="3">
+        <v>2204900</v>
+      </c>
+      <c r="K46" s="3">
         <v>1578100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1669300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1683300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1626600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1656000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1562000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1586900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1580200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1448100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1421600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1390000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1474800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1365600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1321900</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>330000</v>
+        <v>349300</v>
       </c>
       <c r="E47" s="3">
-        <v>329200</v>
+        <v>332300</v>
       </c>
       <c r="F47" s="3">
-        <v>318500</v>
+        <v>331400</v>
       </c>
       <c r="G47" s="3">
-        <v>324800</v>
+        <v>320700</v>
       </c>
       <c r="H47" s="3">
-        <v>333700</v>
+        <v>327100</v>
       </c>
       <c r="I47" s="3">
-        <v>359100</v>
+        <v>336000</v>
       </c>
       <c r="J47" s="3">
+        <v>361600</v>
+      </c>
+      <c r="K47" s="3">
         <v>336300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>258700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>245800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>240300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>226700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>183600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>189900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>180600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>175500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>195000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>277500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>290700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>284600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>283200</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1801800</v>
+        <v>1938900</v>
       </c>
       <c r="E48" s="3">
-        <v>1776000</v>
+        <v>1814300</v>
       </c>
       <c r="F48" s="3">
-        <v>1803800</v>
+        <v>1788300</v>
       </c>
       <c r="G48" s="3">
-        <v>1808300</v>
+        <v>1816200</v>
       </c>
       <c r="H48" s="3">
-        <v>1854100</v>
+        <v>1820800</v>
       </c>
       <c r="I48" s="3">
-        <v>1988100</v>
+        <v>1866900</v>
       </c>
       <c r="J48" s="3">
+        <v>2001800</v>
+      </c>
+      <c r="K48" s="3">
         <v>1855500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1976500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1880600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1654600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1482300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1295500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1369200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1342500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1285000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1176900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1190700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1215800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1194800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1191200</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1611700</v>
+        <v>2693600</v>
       </c>
       <c r="E49" s="3">
-        <v>1602800</v>
+        <v>1622900</v>
       </c>
       <c r="F49" s="3">
-        <v>1602100</v>
+        <v>1613900</v>
       </c>
       <c r="G49" s="3">
-        <v>1520800</v>
+        <v>1613200</v>
       </c>
       <c r="H49" s="3">
-        <v>1539800</v>
+        <v>1531300</v>
       </c>
       <c r="I49" s="3">
-        <v>1603400</v>
+        <v>1550400</v>
       </c>
       <c r="J49" s="3">
+        <v>1614500</v>
+      </c>
+      <c r="K49" s="3">
         <v>1570600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1681600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1608600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1561100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1003100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>802500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>791000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>785600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>769100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>681600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>698900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>725200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>719900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>722900</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>510400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>493700</v>
+      </c>
+      <c r="F52" s="3">
+        <v>481900</v>
+      </c>
+      <c r="G52" s="3">
+        <v>484900</v>
+      </c>
+      <c r="H52" s="3">
         <v>490300</v>
       </c>
-      <c r="E52" s="3">
-        <v>478600</v>
-      </c>
-      <c r="F52" s="3">
-        <v>481600</v>
-      </c>
-      <c r="G52" s="3">
-        <v>487000</v>
-      </c>
-      <c r="H52" s="3">
-        <v>486800</v>
-      </c>
       <c r="I52" s="3">
-        <v>474000</v>
+        <v>490200</v>
       </c>
       <c r="J52" s="3">
+        <v>477300</v>
+      </c>
+      <c r="K52" s="3">
         <v>463800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>483000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>459900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>433600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>422600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>392700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>422300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>412800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>398800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>389300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>389500</v>
-      </c>
-      <c r="U52" s="3">
-        <v>407200</v>
       </c>
       <c r="V52" s="3">
         <v>407200</v>
       </c>
       <c r="W52" s="3">
+        <v>407200</v>
+      </c>
+      <c r="X52" s="3">
         <v>408200</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6644000</v>
+        <v>7185200</v>
       </c>
       <c r="E54" s="3">
-        <v>6820900</v>
+        <v>6689800</v>
       </c>
       <c r="F54" s="3">
-        <v>6065000</v>
+        <v>6867900</v>
       </c>
       <c r="G54" s="3">
-        <v>5802000</v>
+        <v>6106800</v>
       </c>
       <c r="H54" s="3">
-        <v>5932900</v>
+        <v>5842000</v>
       </c>
       <c r="I54" s="3">
-        <v>6614400</v>
+        <v>5973800</v>
       </c>
       <c r="J54" s="3">
+        <v>6660100</v>
+      </c>
+      <c r="K54" s="3">
         <v>5804300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6069100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5878100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5516100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4790700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4236400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4359300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4301700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4076500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3864400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3946500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4113700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3972100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3927300</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>597500</v>
+        <v>625000</v>
       </c>
       <c r="E57" s="3">
-        <v>737300</v>
+        <v>601600</v>
       </c>
       <c r="F57" s="3">
-        <v>715700</v>
+        <v>742300</v>
       </c>
       <c r="G57" s="3">
-        <v>679400</v>
+        <v>720600</v>
       </c>
       <c r="H57" s="3">
-        <v>643600</v>
+        <v>684100</v>
       </c>
       <c r="I57" s="3">
-        <v>728500</v>
+        <v>648100</v>
       </c>
       <c r="J57" s="3">
+        <v>733600</v>
+      </c>
+      <c r="K57" s="3">
         <v>654500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>614700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>632600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>671400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>680000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>532200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>492900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>496300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>452300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>418000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>454100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>534100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>615400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>581600</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>179000</v>
+        <v>161500</v>
       </c>
       <c r="E58" s="3">
-        <v>168600</v>
+        <v>180200</v>
       </c>
       <c r="F58" s="3">
-        <v>222100</v>
+        <v>169800</v>
       </c>
       <c r="G58" s="3">
-        <v>178900</v>
+        <v>223600</v>
       </c>
       <c r="H58" s="3">
-        <v>170700</v>
+        <v>180200</v>
       </c>
       <c r="I58" s="3">
-        <v>160800</v>
+        <v>171900</v>
       </c>
       <c r="J58" s="3">
+        <v>161900</v>
+      </c>
+      <c r="K58" s="3">
         <v>96000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>191800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>157900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>203300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>175500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>94300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>89700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>38800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>41000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>35000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>37200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>39900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>39700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1077900</v>
+        <v>550700</v>
       </c>
       <c r="E59" s="3">
-        <v>1147200</v>
+        <v>1085300</v>
       </c>
       <c r="F59" s="3">
-        <v>558700</v>
+        <v>1155100</v>
       </c>
       <c r="G59" s="3">
-        <v>629900</v>
+        <v>562600</v>
       </c>
       <c r="H59" s="3">
-        <v>659400</v>
+        <v>634200</v>
       </c>
       <c r="I59" s="3">
-        <v>718600</v>
+        <v>663900</v>
       </c>
       <c r="J59" s="3">
+        <v>723600</v>
+      </c>
+      <c r="K59" s="3">
         <v>601800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>606300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>613000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>579800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>653200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>530700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>538100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>561900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>457900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>390600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>390800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>404700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>221300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>225100</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1854400</v>
+        <v>1337200</v>
       </c>
       <c r="E60" s="3">
-        <v>2053100</v>
+        <v>1867200</v>
       </c>
       <c r="F60" s="3">
-        <v>1496400</v>
+        <v>2067300</v>
       </c>
       <c r="G60" s="3">
-        <v>1488200</v>
+        <v>1506700</v>
       </c>
       <c r="H60" s="3">
-        <v>1473700</v>
+        <v>1498500</v>
       </c>
       <c r="I60" s="3">
-        <v>1607900</v>
+        <v>1483900</v>
       </c>
       <c r="J60" s="3">
+        <v>1619000</v>
+      </c>
+      <c r="K60" s="3">
         <v>1352300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1412800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1403500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1454600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1508700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1157200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1120800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1097000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>951200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>843600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>882100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>978600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>876500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>842800</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1660800</v>
+        <v>2053800</v>
       </c>
       <c r="E61" s="3">
-        <v>1664800</v>
+        <v>1672200</v>
       </c>
       <c r="F61" s="3">
-        <v>1680200</v>
+        <v>1676200</v>
       </c>
       <c r="G61" s="3">
-        <v>1861400</v>
+        <v>1691800</v>
       </c>
       <c r="H61" s="3">
-        <v>1989600</v>
+        <v>1874200</v>
       </c>
       <c r="I61" s="3">
-        <v>2421700</v>
+        <v>2003300</v>
       </c>
       <c r="J61" s="3">
+        <v>2438400</v>
+      </c>
+      <c r="K61" s="3">
         <v>1919500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2017900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1931500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1589100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>850000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>849900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>897600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>899500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>883600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>866100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>882800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>924600</v>
-      </c>
-      <c r="V61" s="3">
-        <v>936400</v>
       </c>
       <c r="W61" s="3">
         <v>936400</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>936400</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>596100</v>
+        <v>639400</v>
       </c>
       <c r="E62" s="3">
-        <v>598100</v>
+        <v>600200</v>
       </c>
       <c r="F62" s="3">
-        <v>657800</v>
+        <v>602200</v>
       </c>
       <c r="G62" s="3">
-        <v>621000</v>
+        <v>662300</v>
       </c>
       <c r="H62" s="3">
-        <v>645700</v>
+        <v>625300</v>
       </c>
       <c r="I62" s="3">
-        <v>574600</v>
+        <v>650200</v>
       </c>
       <c r="J62" s="3">
+        <v>578600</v>
+      </c>
+      <c r="K62" s="3">
         <v>625500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>689000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>666800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>617200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>629100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>570500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>597800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>595300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>615100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>583200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>600000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>611800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>603200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>648900</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4166100</v>
+        <v>4088700</v>
       </c>
       <c r="E66" s="3">
-        <v>4372300</v>
+        <v>4194800</v>
       </c>
       <c r="F66" s="3">
-        <v>3895900</v>
+        <v>4402500</v>
       </c>
       <c r="G66" s="3">
-        <v>4037400</v>
+        <v>3922800</v>
       </c>
       <c r="H66" s="3">
-        <v>4176700</v>
+        <v>4065200</v>
       </c>
       <c r="I66" s="3">
-        <v>4673300</v>
+        <v>4205500</v>
       </c>
       <c r="J66" s="3">
+        <v>4705500</v>
+      </c>
+      <c r="K66" s="3">
         <v>3962400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4187300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4064300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3721500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3048400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2631900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2671100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2642800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2497600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2338500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2410000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2561300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2460700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2471400</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1241900</v>
+        <v>1280200</v>
       </c>
       <c r="E72" s="3">
-        <v>1203600</v>
+        <v>1250400</v>
       </c>
       <c r="F72" s="3">
-        <v>1129800</v>
+        <v>1211900</v>
       </c>
       <c r="G72" s="3">
-        <v>1087600</v>
+        <v>1137600</v>
       </c>
       <c r="H72" s="3">
-        <v>1082800</v>
+        <v>1095100</v>
       </c>
       <c r="I72" s="3">
-        <v>1239800</v>
+        <v>1090300</v>
       </c>
       <c r="J72" s="3">
+        <v>1248300</v>
+      </c>
+      <c r="K72" s="3">
         <v>1188800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1199400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1135000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1122300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1045900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1001500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1021400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>978100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>965700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>934500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>902100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>916000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>877400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>806200</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2477900</v>
+        <v>3096600</v>
       </c>
       <c r="E76" s="3">
-        <v>2448600</v>
+        <v>2495000</v>
       </c>
       <c r="F76" s="3">
-        <v>2169000</v>
+        <v>2465400</v>
       </c>
       <c r="G76" s="3">
-        <v>1764600</v>
+        <v>2184000</v>
       </c>
       <c r="H76" s="3">
-        <v>1756200</v>
+        <v>1776800</v>
       </c>
       <c r="I76" s="3">
-        <v>1941100</v>
+        <v>1768300</v>
       </c>
       <c r="J76" s="3">
+        <v>1954500</v>
+      </c>
+      <c r="K76" s="3">
         <v>1841900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1881800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1813800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1794700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1742300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1604500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1688200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1658900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1578800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1525900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1536500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1552400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1511400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1455900</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>36200</v>
+        <v>11000</v>
       </c>
       <c r="E81" s="3">
-        <v>15400</v>
+        <v>36400</v>
       </c>
       <c r="F81" s="3">
-        <v>38000</v>
+        <v>15500</v>
       </c>
       <c r="G81" s="3">
+        <v>38300</v>
+      </c>
+      <c r="H81" s="3">
         <v>-4100</v>
       </c>
-      <c r="H81" s="3">
-        <v>-86200</v>
-      </c>
       <c r="I81" s="3">
-        <v>61100</v>
+        <v>-86800</v>
       </c>
       <c r="J81" s="3">
+        <v>61500</v>
+      </c>
+      <c r="K81" s="3">
         <v>76200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>61200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>48800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>94100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>59100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>44100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>52200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>74500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>107000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>44900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>44400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>51200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>52100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>55400</v>
+        <v>61700</v>
       </c>
       <c r="E83" s="3">
-        <v>57100</v>
+        <v>55800</v>
       </c>
       <c r="F83" s="3">
-        <v>61700</v>
+        <v>57500</v>
       </c>
       <c r="G83" s="3">
-        <v>59400</v>
+        <v>62200</v>
       </c>
       <c r="H83" s="3">
-        <v>66700</v>
+        <v>59800</v>
       </c>
       <c r="I83" s="3">
-        <v>57300</v>
+        <v>67200</v>
       </c>
       <c r="J83" s="3">
+        <v>57700</v>
+      </c>
+      <c r="K83" s="3">
         <v>60600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>62500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>58500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>48900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>40300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>37800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>36700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>35500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>36800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>36400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>39900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>39500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>42500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100700</v>
+        <v>24300</v>
       </c>
       <c r="E89" s="3">
-        <v>136100</v>
+        <v>-101300</v>
       </c>
       <c r="F89" s="3">
-        <v>183100</v>
+        <v>137100</v>
       </c>
       <c r="G89" s="3">
-        <v>35600</v>
+        <v>184300</v>
       </c>
       <c r="H89" s="3">
-        <v>-68900</v>
+        <v>35800</v>
       </c>
       <c r="I89" s="3">
-        <v>192000</v>
+        <v>-69400</v>
       </c>
       <c r="J89" s="3">
+        <v>193400</v>
+      </c>
+      <c r="K89" s="3">
         <v>251100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>30400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-47600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>128000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>165600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>128700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-23000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>102600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>139600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>72300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-14300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>151700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>119900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-57600</v>
+        <v>-36700</v>
       </c>
       <c r="E91" s="3">
-        <v>-39400</v>
+        <v>-58000</v>
       </c>
       <c r="F91" s="3">
-        <v>-18600</v>
+        <v>-39600</v>
       </c>
       <c r="G91" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="H91" s="3">
         <v>-11900</v>
       </c>
-      <c r="H91" s="3">
-        <v>-14000</v>
-      </c>
       <c r="I91" s="3">
-        <v>-65500</v>
+        <v>-14100</v>
       </c>
       <c r="J91" s="3">
+        <v>-65900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-40200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-48700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-70600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-120600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>36500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-29700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-40000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-42700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-32000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-18200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-36500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-56500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-27500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-45200</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-86000</v>
+        <v>-1118100</v>
       </c>
       <c r="E94" s="3">
-        <v>-90700</v>
+        <v>-86600</v>
       </c>
       <c r="F94" s="3">
-        <v>-137400</v>
+        <v>-91300</v>
       </c>
       <c r="G94" s="3">
-        <v>-16800</v>
+        <v>-138300</v>
       </c>
       <c r="H94" s="3">
-        <v>-22800</v>
+        <v>-17000</v>
       </c>
       <c r="I94" s="3">
-        <v>-91000</v>
+        <v>-23000</v>
       </c>
       <c r="J94" s="3">
+        <v>-91600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-143700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-63700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-93700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-701200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-233700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-62900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-56400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-32000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-111900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>46400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-28300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-61200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-27700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-49400</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5805,52 +6039,55 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-22400</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-22100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-23500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-20200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-19700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-19400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-18700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-17400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-16700</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-17300</v>
       </c>
       <c r="S96" s="3">
         <v>-17300</v>
       </c>
       <c r="T96" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="U96" s="3">
         <v>-15600</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-15700</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-16000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-15600</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>820000</v>
+      </c>
+      <c r="E100" s="3">
         <v>5000</v>
       </c>
-      <c r="E100" s="3">
-        <v>200700</v>
-      </c>
       <c r="F100" s="3">
-        <v>240500</v>
+        <v>202100</v>
       </c>
       <c r="G100" s="3">
-        <v>-102100</v>
+        <v>242100</v>
       </c>
       <c r="H100" s="3">
-        <v>-355600</v>
+        <v>-102800</v>
       </c>
       <c r="I100" s="3">
-        <v>404600</v>
+        <v>-358100</v>
       </c>
       <c r="J100" s="3">
+        <v>407400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-64600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-44700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>48600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>643900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-52200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-56500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-22000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-38300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-33100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-12700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-22900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-33200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="H101" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I101" s="3">
         <v>-7400</v>
       </c>
-      <c r="F101" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="G101" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-7300</v>
-      </c>
-      <c r="I101" s="3">
-        <v>15200</v>
-      </c>
       <c r="J101" s="3">
+        <v>15300</v>
+      </c>
+      <c r="K101" s="3">
         <v>900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4600</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-5800</v>
       </c>
       <c r="M101" s="3">
         <v>-5800</v>
       </c>
       <c r="N101" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="O101" s="3">
         <v>11700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-6300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>11500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-4300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-2600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-183700</v>
+        <v>-274800</v>
       </c>
       <c r="E102" s="3">
-        <v>238700</v>
+        <v>-185000</v>
       </c>
       <c r="F102" s="3">
-        <v>282200</v>
+        <v>240400</v>
       </c>
       <c r="G102" s="3">
-        <v>-82100</v>
+        <v>284100</v>
       </c>
       <c r="H102" s="3">
-        <v>-454700</v>
+        <v>-82700</v>
       </c>
       <c r="I102" s="3">
-        <v>520800</v>
+        <v>-457800</v>
       </c>
       <c r="J102" s="3">
+        <v>524400</v>
+      </c>
+      <c r="K102" s="3">
         <v>43700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-82500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-98400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>65000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-108500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-83900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>60100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-7600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>81200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-54200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>67500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>56500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CAE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAE_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>639700</v>
+        <v>666000</v>
       </c>
       <c r="E8" s="3">
-        <v>590900</v>
+        <v>639500</v>
       </c>
       <c r="F8" s="3">
-        <v>702100</v>
+        <v>590700</v>
       </c>
       <c r="G8" s="3">
-        <v>653500</v>
+        <v>701800</v>
       </c>
       <c r="H8" s="3">
-        <v>553200</v>
+        <v>653200</v>
       </c>
       <c r="I8" s="3">
-        <v>432200</v>
+        <v>553000</v>
       </c>
       <c r="J8" s="3">
+        <v>432000</v>
+      </c>
+      <c r="K8" s="3">
         <v>767200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>720000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>743500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>654700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>786800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>621300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>540500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>543500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>581000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>616400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>460100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>488400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>564400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>524500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>488200</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>461100</v>
+        <v>475700</v>
       </c>
       <c r="E9" s="3">
-        <v>423100</v>
+        <v>460900</v>
       </c>
       <c r="F9" s="3">
-        <v>515900</v>
+        <v>422900</v>
       </c>
       <c r="G9" s="3">
-        <v>473800</v>
+        <v>515700</v>
       </c>
       <c r="H9" s="3">
-        <v>403300</v>
+        <v>473600</v>
       </c>
       <c r="I9" s="3">
-        <v>347400</v>
+        <v>403100</v>
       </c>
       <c r="J9" s="3">
+        <v>347200</v>
+      </c>
+      <c r="K9" s="3">
         <v>522500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>492800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>547300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>461500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>565000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>443700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>394100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>378900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>387100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>426100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>325000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>336800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>383900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>371400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>344600</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>178700</v>
+        <v>190300</v>
       </c>
       <c r="E10" s="3">
+        <v>178600</v>
+      </c>
+      <c r="F10" s="3">
         <v>167800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>186100</v>
       </c>
-      <c r="G10" s="3">
-        <v>179700</v>
-      </c>
       <c r="H10" s="3">
+        <v>179600</v>
+      </c>
+      <c r="I10" s="3">
         <v>149900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>84800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>244700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>227300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>196200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>193300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>221700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>177600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>146400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>164600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>193900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>190300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>135100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>151600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>180500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>153100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>143600</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1003,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E12" s="3">
         <v>24100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>18400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>17700</v>
       </c>
-      <c r="G12" s="3">
-        <v>28700</v>
-      </c>
       <c r="H12" s="3">
+        <v>28600</v>
+      </c>
+      <c r="I12" s="3">
         <v>20100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>15800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>28400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>26200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>29700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>25300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>23700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>21100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>23600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>17000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>22200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>22300</v>
-      </c>
-      <c r="U12" s="3">
-        <v>24000</v>
       </c>
       <c r="V12" s="3">
         <v>24000</v>
       </c>
       <c r="W12" s="3">
+        <v>24000</v>
+      </c>
+      <c r="X12" s="3">
         <v>22100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,34 +1143,37 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E14" s="3">
         <v>37400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>6700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>49400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>12100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>43100</v>
       </c>
-      <c r="I14" s="3">
-        <v>78300</v>
-      </c>
       <c r="J14" s="3">
+        <v>78200</v>
+      </c>
+      <c r="K14" s="3">
         <v>29400</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
@@ -1162,8 +1181,8 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1171,32 +1190,35 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>-10600</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>16200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>609000</v>
+        <v>614600</v>
       </c>
       <c r="E17" s="3">
-        <v>523200</v>
+        <v>608700</v>
       </c>
       <c r="F17" s="3">
-        <v>664700</v>
+        <v>523000</v>
       </c>
       <c r="G17" s="3">
-        <v>588400</v>
+        <v>664400</v>
       </c>
       <c r="H17" s="3">
-        <v>531100</v>
+        <v>588200</v>
       </c>
       <c r="I17" s="3">
-        <v>518800</v>
+        <v>530900</v>
       </c>
       <c r="J17" s="3">
+        <v>518600</v>
+      </c>
+      <c r="K17" s="3">
         <v>652200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>599300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>640000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>566800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>655600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>535300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>468800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>469400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>476000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>503800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>383600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>420400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>486900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>448700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>429700</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>51400</v>
+      </c>
+      <c r="E18" s="3">
         <v>30800</v>
       </c>
-      <c r="E18" s="3">
-        <v>67700</v>
-      </c>
       <c r="F18" s="3">
+        <v>67600</v>
+      </c>
+      <c r="G18" s="3">
         <v>37400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>65100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>22100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-86600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>115000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>120800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>103500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>87900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>131200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>86000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>71700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>74100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>105000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>112500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>76500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>67900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>77500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>75700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>58500</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,191 +1480,198 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3400</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-4000</v>
       </c>
       <c r="L20" s="3">
         <v>-4000</v>
       </c>
       <c r="M20" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="N20" s="3">
         <v>-4400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-200</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>109300</v>
+      </c>
+      <c r="E21" s="3">
         <v>88000</v>
       </c>
-      <c r="E21" s="3">
-        <v>122100</v>
-      </c>
       <c r="F21" s="3">
+        <v>122000</v>
+      </c>
+      <c r="G21" s="3">
         <v>91300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>124100</v>
       </c>
-      <c r="H21" s="3">
-        <v>78000</v>
-      </c>
       <c r="I21" s="3">
+        <v>77900</v>
+      </c>
+      <c r="J21" s="3">
         <v>-22000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>169300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>177400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>162000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>142000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>175300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>123400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>106800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>110600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>136800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>150600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>113900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>108400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>118800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>118000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>95700</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E22" s="3">
         <v>23000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>21000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>21600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>23000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>23600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>25000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>26800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>24600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>24500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>23200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>15000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>11800</v>
       </c>
       <c r="P22" s="3">
         <v>11800</v>
       </c>
       <c r="Q22" s="3">
+        <v>11800</v>
+      </c>
+      <c r="R22" s="3">
         <v>11700</v>
-      </c>
-      <c r="R22" s="3">
-        <v>14100</v>
       </c>
       <c r="S22" s="3">
         <v>14100</v>
@@ -1644,152 +1683,161 @@
         <v>14100</v>
       </c>
       <c r="V22" s="3">
+        <v>14100</v>
+      </c>
+      <c r="W22" s="3">
         <v>14400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>14000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E23" s="3">
         <v>3300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>45200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>12200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>38900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-114100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>84800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>92200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>75000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>60300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>111400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>71300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>57300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>62100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>87100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>99700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>63400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>54400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>65000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>61500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-10200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>8100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-27800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>21100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>14300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>12900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>10300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>14900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>10800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>11000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>8200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>10200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-8800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>17200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>8900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>11400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>8500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E26" s="3">
         <v>13500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>37100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>14800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>39000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4700</v>
       </c>
-      <c r="I26" s="3">
-        <v>-86400</v>
-      </c>
       <c r="J26" s="3">
+        <v>-86300</v>
+      </c>
+      <c r="K26" s="3">
         <v>63700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>77800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>62200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>50000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>96500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>60500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>46200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>53900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>77000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>108500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>46200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>45500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>53600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>53100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E27" s="3">
         <v>11000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>36400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>15500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>38300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-86800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>61500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>76200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>61200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>48800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>94100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>59100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>44100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>52200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>74500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>107000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>44900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>44400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>51800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>51900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2101,14 +2161,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>10</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -2120,16 +2180,19 @@
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-500</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>200</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E32" s="3">
         <v>4500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3400</v>
-      </c>
-      <c r="K32" s="3">
-        <v>4000</v>
       </c>
       <c r="L32" s="3">
         <v>4000</v>
       </c>
       <c r="M32" s="3">
+        <v>4000</v>
+      </c>
+      <c r="N32" s="3">
         <v>4400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>200</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E33" s="3">
         <v>11000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>36400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>15500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>38300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-86800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>61500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>76200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>61200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>48800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>94100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>59100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>44100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>52200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>74500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>107000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>44900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>44400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>51200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>52100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E35" s="3">
         <v>11000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>36400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>15500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>38300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-86800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>61500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>76200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>61200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>48800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>94100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>59100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>44100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>52200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>74500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>107000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>44900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>44400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>51200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>52100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>267200</v>
+        <v>363700</v>
       </c>
       <c r="E41" s="3">
-        <v>542100</v>
+        <v>267100</v>
       </c>
       <c r="F41" s="3">
-        <v>727000</v>
+        <v>541900</v>
       </c>
       <c r="G41" s="3">
-        <v>486700</v>
+        <v>726700</v>
       </c>
       <c r="H41" s="3">
+        <v>486500</v>
+      </c>
+      <c r="I41" s="3">
         <v>202500</v>
       </c>
-      <c r="I41" s="3">
-        <v>285200</v>
-      </c>
       <c r="J41" s="3">
+        <v>285100</v>
+      </c>
+      <c r="K41" s="3">
         <v>743000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>217100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>184500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>255400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>343400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>275300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>366500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>376500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>455100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>395000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>402600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>321400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>387700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>320200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>263700</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,484 +2886,508 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>942900</v>
+        <v>868800</v>
       </c>
       <c r="E43" s="3">
-        <v>833500</v>
+        <v>942600</v>
       </c>
       <c r="F43" s="3">
-        <v>801000</v>
+        <v>833200</v>
       </c>
       <c r="G43" s="3">
-        <v>772900</v>
+        <v>800700</v>
       </c>
       <c r="H43" s="3">
-        <v>847200</v>
+        <v>772600</v>
       </c>
       <c r="I43" s="3">
-        <v>852500</v>
+        <v>846900</v>
       </c>
       <c r="J43" s="3">
+        <v>852100</v>
+      </c>
+      <c r="K43" s="3">
         <v>915200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>825400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>944500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>889800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>810700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>866500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>728100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>748300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1116900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>438900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>408600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>410000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>441000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>415400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>443000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>422000</v>
+        <v>429200</v>
       </c>
       <c r="E44" s="3">
-        <v>438800</v>
+        <v>421900</v>
       </c>
       <c r="F44" s="3">
-        <v>508600</v>
+        <v>438600</v>
       </c>
       <c r="G44" s="3">
-        <v>542600</v>
+        <v>508400</v>
       </c>
       <c r="H44" s="3">
-        <v>558600</v>
+        <v>542400</v>
       </c>
       <c r="I44" s="3">
-        <v>526500</v>
+        <v>558400</v>
       </c>
       <c r="J44" s="3">
+        <v>526300</v>
+      </c>
+      <c r="K44" s="3">
         <v>483700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>473600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>478800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>468000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>413400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>459900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>417500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>410800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>384100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>275400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>287900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>299000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>319800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>322700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>307600</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>61700</v>
+      </c>
+      <c r="E45" s="3">
         <v>60800</v>
       </c>
-      <c r="E45" s="3">
-        <v>612300</v>
-      </c>
       <c r="F45" s="3">
-        <v>615800</v>
+        <v>612100</v>
       </c>
       <c r="G45" s="3">
+        <v>615600</v>
+      </c>
+      <c r="H45" s="3">
         <v>69600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>64100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>66100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>62900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>61900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>61600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>70000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>59000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>54300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>50000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>51300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>346000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>338700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>322500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>359500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>326300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>307300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>307500</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1693000</v>
+        <v>1723400</v>
       </c>
       <c r="E46" s="3">
-        <v>2426700</v>
+        <v>1692400</v>
       </c>
       <c r="F46" s="3">
-        <v>2652400</v>
+        <v>2425700</v>
       </c>
       <c r="G46" s="3">
-        <v>1871800</v>
+        <v>2651300</v>
       </c>
       <c r="H46" s="3">
-        <v>1672500</v>
+        <v>1871100</v>
       </c>
       <c r="I46" s="3">
-        <v>1730300</v>
+        <v>1671900</v>
       </c>
       <c r="J46" s="3">
+        <v>1729600</v>
+      </c>
+      <c r="K46" s="3">
         <v>2204900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1578100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1669300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1683300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1626600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1656000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1562000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1586900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1580200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1448100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1421600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1390000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1474800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1365600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1321900</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>349300</v>
+        <v>356900</v>
       </c>
       <c r="E47" s="3">
-        <v>332300</v>
+        <v>349200</v>
       </c>
       <c r="F47" s="3">
-        <v>331400</v>
+        <v>332200</v>
       </c>
       <c r="G47" s="3">
-        <v>320700</v>
+        <v>331300</v>
       </c>
       <c r="H47" s="3">
-        <v>327100</v>
+        <v>320600</v>
       </c>
       <c r="I47" s="3">
-        <v>336000</v>
+        <v>326900</v>
       </c>
       <c r="J47" s="3">
+        <v>335900</v>
+      </c>
+      <c r="K47" s="3">
         <v>361600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>336300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>258700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>245800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>240300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>226700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>183600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>189900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>180600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>175500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>195000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>277500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>290700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>284600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>283200</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1938900</v>
+        <v>1947600</v>
       </c>
       <c r="E48" s="3">
-        <v>1814300</v>
+        <v>1938200</v>
       </c>
       <c r="F48" s="3">
-        <v>1788300</v>
+        <v>1813500</v>
       </c>
       <c r="G48" s="3">
-        <v>1816200</v>
+        <v>1787600</v>
       </c>
       <c r="H48" s="3">
-        <v>1820800</v>
+        <v>1815500</v>
       </c>
       <c r="I48" s="3">
-        <v>1866900</v>
+        <v>1820000</v>
       </c>
       <c r="J48" s="3">
+        <v>1866200</v>
+      </c>
+      <c r="K48" s="3">
         <v>2001800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1855500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1976500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1880600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1654600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1482300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1295500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1369200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1342500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1285000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1176900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1190700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1215800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1194800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1191200</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2693600</v>
+        <v>2690800</v>
       </c>
       <c r="E49" s="3">
-        <v>1622900</v>
+        <v>2692500</v>
       </c>
       <c r="F49" s="3">
-        <v>1613900</v>
+        <v>1622200</v>
       </c>
       <c r="G49" s="3">
-        <v>1613200</v>
+        <v>1613300</v>
       </c>
       <c r="H49" s="3">
-        <v>1531300</v>
+        <v>1612600</v>
       </c>
       <c r="I49" s="3">
-        <v>1550400</v>
+        <v>1530700</v>
       </c>
       <c r="J49" s="3">
+        <v>1549800</v>
+      </c>
+      <c r="K49" s="3">
         <v>1614500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1570600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1681600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1608600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1561100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1003100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>802500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>791000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>785600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>769100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>681600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>698900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>725200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>719900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>722900</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>510400</v>
+        <v>512800</v>
       </c>
       <c r="E52" s="3">
-        <v>493700</v>
+        <v>510200</v>
       </c>
       <c r="F52" s="3">
-        <v>481900</v>
+        <v>493500</v>
       </c>
       <c r="G52" s="3">
-        <v>484900</v>
+        <v>481800</v>
       </c>
       <c r="H52" s="3">
-        <v>490300</v>
+        <v>484700</v>
       </c>
       <c r="I52" s="3">
-        <v>490200</v>
+        <v>490100</v>
       </c>
       <c r="J52" s="3">
+        <v>490000</v>
+      </c>
+      <c r="K52" s="3">
         <v>477300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>463800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>483000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>459900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>433600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>422600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>392700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>422300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>412800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>398800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>389300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>389500</v>
-      </c>
-      <c r="V52" s="3">
-        <v>407200</v>
       </c>
       <c r="W52" s="3">
         <v>407200</v>
       </c>
       <c r="X52" s="3">
+        <v>407200</v>
+      </c>
+      <c r="Y52" s="3">
         <v>408200</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7185200</v>
+        <v>7231500</v>
       </c>
       <c r="E54" s="3">
-        <v>6689800</v>
+        <v>7182400</v>
       </c>
       <c r="F54" s="3">
-        <v>6867900</v>
+        <v>6687200</v>
       </c>
       <c r="G54" s="3">
-        <v>6106800</v>
+        <v>6865200</v>
       </c>
       <c r="H54" s="3">
-        <v>5842000</v>
+        <v>6104400</v>
       </c>
       <c r="I54" s="3">
-        <v>5973800</v>
+        <v>5839700</v>
       </c>
       <c r="J54" s="3">
+        <v>5971500</v>
+      </c>
+      <c r="K54" s="3">
         <v>6660100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5804300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6069100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5878100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5516100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4790700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4236400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4359300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4301700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4076500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3864400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3946500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4113700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3972100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3927300</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3794,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>625000</v>
+        <v>699100</v>
       </c>
       <c r="E57" s="3">
-        <v>601600</v>
+        <v>624700</v>
       </c>
       <c r="F57" s="3">
-        <v>742300</v>
+        <v>601300</v>
       </c>
       <c r="G57" s="3">
-        <v>720600</v>
+        <v>742100</v>
       </c>
       <c r="H57" s="3">
-        <v>684100</v>
+        <v>720300</v>
       </c>
       <c r="I57" s="3">
-        <v>648100</v>
+        <v>683800</v>
       </c>
       <c r="J57" s="3">
+        <v>647800</v>
+      </c>
+      <c r="K57" s="3">
         <v>733600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>654500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>614700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>632600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>671400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>680000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>532200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>492900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>496300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>452300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>418000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>454100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>534100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>615400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>581600</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>161500</v>
+        <v>153700</v>
       </c>
       <c r="E58" s="3">
+        <v>161400</v>
+      </c>
+      <c r="F58" s="3">
         <v>180200</v>
       </c>
-      <c r="F58" s="3">
-        <v>169800</v>
-      </c>
       <c r="G58" s="3">
-        <v>223600</v>
+        <v>169700</v>
       </c>
       <c r="H58" s="3">
-        <v>180200</v>
+        <v>223500</v>
       </c>
       <c r="I58" s="3">
+        <v>180100</v>
+      </c>
+      <c r="J58" s="3">
         <v>171900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>161900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>96000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>191800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>157900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>203300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>175500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>94300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>89700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>38800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>41000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>35000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>37200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>39900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>39700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>550700</v>
+        <v>608100</v>
       </c>
       <c r="E59" s="3">
-        <v>1085300</v>
+        <v>550500</v>
       </c>
       <c r="F59" s="3">
-        <v>1155100</v>
+        <v>1084900</v>
       </c>
       <c r="G59" s="3">
-        <v>562600</v>
+        <v>1154700</v>
       </c>
       <c r="H59" s="3">
-        <v>634200</v>
+        <v>562300</v>
       </c>
       <c r="I59" s="3">
-        <v>663900</v>
+        <v>634000</v>
       </c>
       <c r="J59" s="3">
+        <v>663700</v>
+      </c>
+      <c r="K59" s="3">
         <v>723600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>601800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>606300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>613000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>579800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>653200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>530700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>538100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>561900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>457900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>390600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>390800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>404700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>221300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>225100</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1337200</v>
+        <v>1461000</v>
       </c>
       <c r="E60" s="3">
-        <v>1867200</v>
+        <v>1336600</v>
       </c>
       <c r="F60" s="3">
-        <v>2067300</v>
+        <v>1866400</v>
       </c>
       <c r="G60" s="3">
-        <v>1506700</v>
+        <v>2066500</v>
       </c>
       <c r="H60" s="3">
-        <v>1498500</v>
+        <v>1506200</v>
       </c>
       <c r="I60" s="3">
-        <v>1483900</v>
+        <v>1497900</v>
       </c>
       <c r="J60" s="3">
+        <v>1483300</v>
+      </c>
+      <c r="K60" s="3">
         <v>1619000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1352300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1412800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1403500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1454600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1508700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1157200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1120800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1097000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>951200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>843600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>882100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>978600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>876500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>842800</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2053800</v>
+        <v>2023100</v>
       </c>
       <c r="E61" s="3">
-        <v>1672200</v>
+        <v>2053000</v>
       </c>
       <c r="F61" s="3">
-        <v>1676200</v>
+        <v>1671600</v>
       </c>
       <c r="G61" s="3">
-        <v>1691800</v>
+        <v>1675600</v>
       </c>
       <c r="H61" s="3">
-        <v>1874200</v>
+        <v>1691100</v>
       </c>
       <c r="I61" s="3">
-        <v>2003300</v>
+        <v>1873500</v>
       </c>
       <c r="J61" s="3">
+        <v>2002500</v>
+      </c>
+      <c r="K61" s="3">
         <v>2438400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1919500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2017900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1931500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1589100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>850000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>849900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>897600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>899500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>883600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>866100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>882800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>924600</v>
-      </c>
-      <c r="W61" s="3">
-        <v>936400</v>
       </c>
       <c r="X61" s="3">
         <v>936400</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>936400</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>639400</v>
+        <v>597100</v>
       </c>
       <c r="E62" s="3">
-        <v>600200</v>
+        <v>639200</v>
       </c>
       <c r="F62" s="3">
-        <v>602200</v>
+        <v>600000</v>
       </c>
       <c r="G62" s="3">
-        <v>662300</v>
+        <v>602000</v>
       </c>
       <c r="H62" s="3">
-        <v>625300</v>
+        <v>662100</v>
       </c>
       <c r="I62" s="3">
-        <v>650200</v>
+        <v>625000</v>
       </c>
       <c r="J62" s="3">
+        <v>649900</v>
+      </c>
+      <c r="K62" s="3">
         <v>578600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>625500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>689000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>666800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>617200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>629100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>570500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>597800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>595300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>615100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>583200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>600000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>611800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>603200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>648900</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4088700</v>
+        <v>4140800</v>
       </c>
       <c r="E66" s="3">
-        <v>4194800</v>
+        <v>4087100</v>
       </c>
       <c r="F66" s="3">
-        <v>4402500</v>
+        <v>4193200</v>
       </c>
       <c r="G66" s="3">
-        <v>3922800</v>
+        <v>4400700</v>
       </c>
       <c r="H66" s="3">
-        <v>4065200</v>
+        <v>3921300</v>
       </c>
       <c r="I66" s="3">
-        <v>4205500</v>
+        <v>4063600</v>
       </c>
       <c r="J66" s="3">
+        <v>4203900</v>
+      </c>
+      <c r="K66" s="3">
         <v>4705500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3962400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4187300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4064300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3721500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3048400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2631900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2671100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2642800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2497600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2338500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2410000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2561300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2460700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2471400</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1280200</v>
+        <v>1288200</v>
       </c>
       <c r="E72" s="3">
-        <v>1250400</v>
+        <v>1279700</v>
       </c>
       <c r="F72" s="3">
-        <v>1211900</v>
+        <v>1249900</v>
       </c>
       <c r="G72" s="3">
-        <v>1137600</v>
+        <v>1211400</v>
       </c>
       <c r="H72" s="3">
-        <v>1095100</v>
+        <v>1137200</v>
       </c>
       <c r="I72" s="3">
-        <v>1090300</v>
+        <v>1094600</v>
       </c>
       <c r="J72" s="3">
+        <v>1089800</v>
+      </c>
+      <c r="K72" s="3">
         <v>1248300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1188800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1199400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1135000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1122300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1045900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1001500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1021400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>978100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>965700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>934500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>902100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>916000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>877400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>806200</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3096600</v>
+        <v>3090700</v>
       </c>
       <c r="E76" s="3">
-        <v>2495000</v>
+        <v>3095300</v>
       </c>
       <c r="F76" s="3">
-        <v>2465400</v>
+        <v>2494000</v>
       </c>
       <c r="G76" s="3">
-        <v>2184000</v>
+        <v>2464500</v>
       </c>
       <c r="H76" s="3">
-        <v>1776800</v>
+        <v>2183100</v>
       </c>
       <c r="I76" s="3">
-        <v>1768300</v>
+        <v>1776100</v>
       </c>
       <c r="J76" s="3">
+        <v>1767600</v>
+      </c>
+      <c r="K76" s="3">
         <v>1954500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1841900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1881800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1813800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1794700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1742300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1604500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1688200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1658900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1578800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1525900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1536500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1552400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1511400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1455900</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E81" s="3">
         <v>11000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>36400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>15500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>38300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-86800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>61500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>76200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>61200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>48800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>94100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>59100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>44100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>52200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>74500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>107000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>44900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>44400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>51200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>52100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>62700</v>
+      </c>
+      <c r="E83" s="3">
         <v>61700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>55800</v>
       </c>
-      <c r="F83" s="3">
-        <v>57500</v>
-      </c>
       <c r="G83" s="3">
+        <v>57400</v>
+      </c>
+      <c r="H83" s="3">
         <v>62200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>59800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>67200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>57700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>60600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>62500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>58500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>48900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>40300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>37800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>36700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>35500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>36800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>36400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>39900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>39500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>42500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>24300</v>
+        <v>243000</v>
       </c>
       <c r="E89" s="3">
+        <v>24200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-101300</v>
       </c>
-      <c r="F89" s="3">
-        <v>137100</v>
-      </c>
       <c r="G89" s="3">
+        <v>137000</v>
+      </c>
+      <c r="H89" s="3">
         <v>184300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>35800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-69400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>193400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>251100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>30400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-47600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>128000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>165600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>128700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-23000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>102600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>139600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>72300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-14300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>151700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>119900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-36700</v>
+        <v>-60300</v>
       </c>
       <c r="E91" s="3">
+        <v>-36600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-58000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-39600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-18800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-14100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-65900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-40200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-48700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-70600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-120600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>36500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-29700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-40000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-42700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-32000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-18200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-36500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-56500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-27500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-45200</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1118100</v>
+        <v>-86400</v>
       </c>
       <c r="E94" s="3">
+        <v>-1117600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-86600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-91300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-138300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-17000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-23000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-91600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-143700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-63700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-93700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-701200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-233700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-62900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-56400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-32000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-111900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>46400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-28300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-61200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-27700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-49400</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6042,52 +6275,55 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-22500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-22100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-23500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-20200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-19700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-19400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-18700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-17400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-16700</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-17300</v>
       </c>
       <c r="T96" s="3">
         <v>-17300</v>
       </c>
       <c r="U96" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="V96" s="3">
         <v>-15600</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-15700</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-16000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-15600</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>820000</v>
+        <v>-56800</v>
       </c>
       <c r="E100" s="3">
+        <v>819700</v>
+      </c>
+      <c r="F100" s="3">
         <v>5000</v>
       </c>
-      <c r="F100" s="3">
-        <v>202100</v>
-      </c>
       <c r="G100" s="3">
-        <v>242100</v>
+        <v>202000</v>
       </c>
       <c r="H100" s="3">
+        <v>242000</v>
+      </c>
+      <c r="I100" s="3">
         <v>-102800</v>
       </c>
-      <c r="I100" s="3">
-        <v>-358100</v>
-      </c>
       <c r="J100" s="3">
+        <v>-357900</v>
+      </c>
+      <c r="K100" s="3">
         <v>407400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-64600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-44700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>48600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>643900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-52200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-56500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-22000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-38300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-33100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-12700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-22900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-33200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-7500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-4000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-7400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>15300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4600</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-5800</v>
       </c>
       <c r="N101" s="3">
         <v>-5800</v>
       </c>
       <c r="O101" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="P101" s="3">
         <v>11700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-4600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>11500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>3000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-4300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-2600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-274800</v>
+        <v>96600</v>
       </c>
       <c r="E102" s="3">
-        <v>-185000</v>
+        <v>-274700</v>
       </c>
       <c r="F102" s="3">
-        <v>240400</v>
+        <v>-184900</v>
       </c>
       <c r="G102" s="3">
-        <v>284100</v>
+        <v>240300</v>
       </c>
       <c r="H102" s="3">
-        <v>-82700</v>
+        <v>284000</v>
       </c>
       <c r="I102" s="3">
-        <v>-457800</v>
+        <v>-82600</v>
       </c>
       <c r="J102" s="3">
+        <v>-457700</v>
+      </c>
+      <c r="K102" s="3">
         <v>524400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>43700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-82500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-98400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>65000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-108500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-83900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>60100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-7600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>81200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-54200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>67500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>56500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CAE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAE_QTR_FIN.xlsx
@@ -770,25 +770,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>666000</v>
+        <v>650600</v>
       </c>
       <c r="E8" s="3">
-        <v>639500</v>
+        <v>624700</v>
       </c>
       <c r="F8" s="3">
-        <v>590700</v>
+        <v>577000</v>
       </c>
       <c r="G8" s="3">
-        <v>701800</v>
+        <v>685600</v>
       </c>
       <c r="H8" s="3">
-        <v>653200</v>
+        <v>638200</v>
       </c>
       <c r="I8" s="3">
-        <v>553000</v>
+        <v>540300</v>
       </c>
       <c r="J8" s="3">
-        <v>432000</v>
+        <v>422000</v>
       </c>
       <c r="K8" s="3">
         <v>767200</v>
@@ -841,25 +841,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>475700</v>
+        <v>464700</v>
       </c>
       <c r="E9" s="3">
-        <v>460900</v>
+        <v>450200</v>
       </c>
       <c r="F9" s="3">
-        <v>422900</v>
+        <v>413100</v>
       </c>
       <c r="G9" s="3">
-        <v>515700</v>
+        <v>503800</v>
       </c>
       <c r="H9" s="3">
-        <v>473600</v>
+        <v>462700</v>
       </c>
       <c r="I9" s="3">
-        <v>403100</v>
+        <v>393800</v>
       </c>
       <c r="J9" s="3">
-        <v>347200</v>
+        <v>339200</v>
       </c>
       <c r="K9" s="3">
         <v>522500</v>
@@ -912,25 +912,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>190300</v>
+        <v>185900</v>
       </c>
       <c r="E10" s="3">
-        <v>178600</v>
+        <v>174500</v>
       </c>
       <c r="F10" s="3">
-        <v>167800</v>
+        <v>163900</v>
       </c>
       <c r="G10" s="3">
-        <v>186100</v>
+        <v>181800</v>
       </c>
       <c r="H10" s="3">
-        <v>179600</v>
+        <v>175500</v>
       </c>
       <c r="I10" s="3">
-        <v>149900</v>
+        <v>146400</v>
       </c>
       <c r="J10" s="3">
-        <v>84800</v>
+        <v>82800</v>
       </c>
       <c r="K10" s="3">
         <v>244700</v>
@@ -1010,25 +1010,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>24900</v>
+        <v>24300</v>
       </c>
       <c r="E12" s="3">
-        <v>24100</v>
+        <v>23500</v>
       </c>
       <c r="F12" s="3">
-        <v>18400</v>
+        <v>18000</v>
       </c>
       <c r="G12" s="3">
-        <v>17700</v>
+        <v>17200</v>
       </c>
       <c r="H12" s="3">
-        <v>28600</v>
+        <v>28000</v>
       </c>
       <c r="I12" s="3">
-        <v>20100</v>
+        <v>19600</v>
       </c>
       <c r="J12" s="3">
-        <v>15800</v>
+        <v>15400</v>
       </c>
       <c r="K12" s="3">
         <v>28400</v>
@@ -1152,25 +1152,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>33000</v>
+        <v>32300</v>
       </c>
       <c r="E14" s="3">
-        <v>37400</v>
+        <v>36600</v>
       </c>
       <c r="F14" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="G14" s="3">
-        <v>49400</v>
+        <v>48200</v>
       </c>
       <c r="H14" s="3">
-        <v>12100</v>
+        <v>11800</v>
       </c>
       <c r="I14" s="3">
-        <v>43100</v>
+        <v>42100</v>
       </c>
       <c r="J14" s="3">
-        <v>78200</v>
+        <v>76400</v>
       </c>
       <c r="K14" s="3">
         <v>29400</v>
@@ -1318,25 +1318,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>614600</v>
+        <v>600400</v>
       </c>
       <c r="E17" s="3">
-        <v>608700</v>
+        <v>594700</v>
       </c>
       <c r="F17" s="3">
-        <v>523000</v>
+        <v>511000</v>
       </c>
       <c r="G17" s="3">
-        <v>664400</v>
+        <v>649100</v>
       </c>
       <c r="H17" s="3">
-        <v>588200</v>
+        <v>574600</v>
       </c>
       <c r="I17" s="3">
-        <v>530900</v>
+        <v>518600</v>
       </c>
       <c r="J17" s="3">
-        <v>518600</v>
+        <v>506600</v>
       </c>
       <c r="K17" s="3">
         <v>652200</v>
@@ -1389,25 +1389,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>51400</v>
+        <v>50200</v>
       </c>
       <c r="E18" s="3">
-        <v>30800</v>
+        <v>30100</v>
       </c>
       <c r="F18" s="3">
-        <v>67600</v>
+        <v>66100</v>
       </c>
       <c r="G18" s="3">
-        <v>37400</v>
+        <v>36500</v>
       </c>
       <c r="H18" s="3">
-        <v>65100</v>
+        <v>63600</v>
       </c>
       <c r="I18" s="3">
-        <v>22100</v>
+        <v>21600</v>
       </c>
       <c r="J18" s="3">
-        <v>-86600</v>
+        <v>-84600</v>
       </c>
       <c r="K18" s="3">
         <v>115000</v>
@@ -1487,25 +1487,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4800</v>
+        <v>-4700</v>
       </c>
       <c r="E20" s="3">
-        <v>-4500</v>
+        <v>-4400</v>
       </c>
       <c r="F20" s="3">
         <v>-1400</v>
       </c>
       <c r="G20" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="H20" s="3">
         <v>-3100</v>
       </c>
       <c r="I20" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="J20" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="K20" s="3">
         <v>-3400</v>
@@ -1558,25 +1558,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>109300</v>
+        <v>106800</v>
       </c>
       <c r="E21" s="3">
-        <v>88000</v>
+        <v>85900</v>
       </c>
       <c r="F21" s="3">
-        <v>122000</v>
+        <v>119200</v>
       </c>
       <c r="G21" s="3">
-        <v>91300</v>
+        <v>89200</v>
       </c>
       <c r="H21" s="3">
-        <v>124100</v>
+        <v>121200</v>
       </c>
       <c r="I21" s="3">
-        <v>77900</v>
+        <v>76100</v>
       </c>
       <c r="J21" s="3">
-        <v>-22000</v>
+        <v>-21500</v>
       </c>
       <c r="K21" s="3">
         <v>169300</v>
@@ -1629,25 +1629,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>22300</v>
+        <v>21800</v>
       </c>
       <c r="E22" s="3">
-        <v>23000</v>
+        <v>22500</v>
       </c>
       <c r="F22" s="3">
-        <v>21000</v>
+        <v>20500</v>
       </c>
       <c r="G22" s="3">
-        <v>21600</v>
+        <v>21100</v>
       </c>
       <c r="H22" s="3">
-        <v>23000</v>
+        <v>22500</v>
       </c>
       <c r="I22" s="3">
-        <v>23600</v>
+        <v>23100</v>
       </c>
       <c r="J22" s="3">
-        <v>25000</v>
+        <v>24400</v>
       </c>
       <c r="K22" s="3">
         <v>26800</v>
@@ -1700,25 +1700,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>24300</v>
+        <v>23800</v>
       </c>
       <c r="E23" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="F23" s="3">
-        <v>45200</v>
+        <v>44200</v>
       </c>
       <c r="G23" s="3">
-        <v>12200</v>
+        <v>12000</v>
       </c>
       <c r="H23" s="3">
-        <v>38900</v>
+        <v>38000</v>
       </c>
       <c r="I23" s="3">
-        <v>-5500</v>
+        <v>-5400</v>
       </c>
       <c r="J23" s="3">
-        <v>-114100</v>
+        <v>-111500</v>
       </c>
       <c r="K23" s="3">
         <v>84800</v>
@@ -1774,10 +1774,10 @@
         <v>2000</v>
       </c>
       <c r="E24" s="3">
-        <v>-10200</v>
+        <v>-10000</v>
       </c>
       <c r="F24" s="3">
-        <v>8100</v>
+        <v>7900</v>
       </c>
       <c r="G24" s="3">
         <v>-2500</v>
@@ -1789,7 +1789,7 @@
         <v>-800</v>
       </c>
       <c r="J24" s="3">
-        <v>-27800</v>
+        <v>-27100</v>
       </c>
       <c r="K24" s="3">
         <v>21100</v>
@@ -1913,25 +1913,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>22300</v>
+        <v>21800</v>
       </c>
       <c r="E26" s="3">
-        <v>13500</v>
+        <v>13200</v>
       </c>
       <c r="F26" s="3">
-        <v>37100</v>
+        <v>36300</v>
       </c>
       <c r="G26" s="3">
-        <v>14800</v>
+        <v>14400</v>
       </c>
       <c r="H26" s="3">
-        <v>39000</v>
+        <v>38100</v>
       </c>
       <c r="I26" s="3">
-        <v>-4700</v>
+        <v>-4600</v>
       </c>
       <c r="J26" s="3">
-        <v>-86300</v>
+        <v>-84300</v>
       </c>
       <c r="K26" s="3">
         <v>63700</v>
@@ -1984,25 +1984,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>20600</v>
+        <v>20100</v>
       </c>
       <c r="E27" s="3">
-        <v>11000</v>
+        <v>10700</v>
       </c>
       <c r="F27" s="3">
-        <v>36400</v>
+        <v>35600</v>
       </c>
       <c r="G27" s="3">
-        <v>15500</v>
+        <v>15200</v>
       </c>
       <c r="H27" s="3">
-        <v>38300</v>
+        <v>37400</v>
       </c>
       <c r="I27" s="3">
-        <v>-4100</v>
+        <v>-4000</v>
       </c>
       <c r="J27" s="3">
-        <v>-86800</v>
+        <v>-84800</v>
       </c>
       <c r="K27" s="3">
         <v>61500</v>
@@ -2339,25 +2339,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="E32" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="F32" s="3">
         <v>1400</v>
       </c>
       <c r="G32" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="H32" s="3">
         <v>3100</v>
       </c>
       <c r="I32" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="J32" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="K32" s="3">
         <v>3400</v>
@@ -2410,25 +2410,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>20600</v>
+        <v>20100</v>
       </c>
       <c r="E33" s="3">
-        <v>11000</v>
+        <v>10700</v>
       </c>
       <c r="F33" s="3">
-        <v>36400</v>
+        <v>35600</v>
       </c>
       <c r="G33" s="3">
-        <v>15500</v>
+        <v>15200</v>
       </c>
       <c r="H33" s="3">
-        <v>38300</v>
+        <v>37400</v>
       </c>
       <c r="I33" s="3">
-        <v>-4100</v>
+        <v>-4000</v>
       </c>
       <c r="J33" s="3">
-        <v>-86800</v>
+        <v>-84800</v>
       </c>
       <c r="K33" s="3">
         <v>61500</v>
@@ -2552,25 +2552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>20600</v>
+        <v>20100</v>
       </c>
       <c r="E35" s="3">
-        <v>11000</v>
+        <v>10700</v>
       </c>
       <c r="F35" s="3">
-        <v>36400</v>
+        <v>35600</v>
       </c>
       <c r="G35" s="3">
-        <v>15500</v>
+        <v>15200</v>
       </c>
       <c r="H35" s="3">
-        <v>38300</v>
+        <v>37400</v>
       </c>
       <c r="I35" s="3">
-        <v>-4100</v>
+        <v>-4000</v>
       </c>
       <c r="J35" s="3">
-        <v>-86800</v>
+        <v>-84800</v>
       </c>
       <c r="K35" s="3">
         <v>61500</v>
@@ -2753,25 +2753,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>363700</v>
+        <v>355300</v>
       </c>
       <c r="E41" s="3">
-        <v>267100</v>
+        <v>261000</v>
       </c>
       <c r="F41" s="3">
-        <v>541900</v>
+        <v>529400</v>
       </c>
       <c r="G41" s="3">
-        <v>726700</v>
+        <v>710000</v>
       </c>
       <c r="H41" s="3">
-        <v>486500</v>
+        <v>475200</v>
       </c>
       <c r="I41" s="3">
-        <v>202500</v>
+        <v>197800</v>
       </c>
       <c r="J41" s="3">
-        <v>285100</v>
+        <v>278500</v>
       </c>
       <c r="K41" s="3">
         <v>743000</v>
@@ -2895,25 +2895,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>868800</v>
+        <v>848700</v>
       </c>
       <c r="E43" s="3">
-        <v>942600</v>
+        <v>920800</v>
       </c>
       <c r="F43" s="3">
-        <v>833200</v>
+        <v>813900</v>
       </c>
       <c r="G43" s="3">
-        <v>800700</v>
+        <v>782200</v>
       </c>
       <c r="H43" s="3">
-        <v>772600</v>
+        <v>754800</v>
       </c>
       <c r="I43" s="3">
-        <v>846900</v>
+        <v>827400</v>
       </c>
       <c r="J43" s="3">
-        <v>852100</v>
+        <v>832500</v>
       </c>
       <c r="K43" s="3">
         <v>915200</v>
@@ -2966,25 +2966,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>429200</v>
+        <v>419300</v>
       </c>
       <c r="E44" s="3">
-        <v>421900</v>
+        <v>412100</v>
       </c>
       <c r="F44" s="3">
-        <v>438600</v>
+        <v>428500</v>
       </c>
       <c r="G44" s="3">
-        <v>508400</v>
+        <v>496600</v>
       </c>
       <c r="H44" s="3">
-        <v>542400</v>
+        <v>529900</v>
       </c>
       <c r="I44" s="3">
-        <v>558400</v>
+        <v>545500</v>
       </c>
       <c r="J44" s="3">
-        <v>526300</v>
+        <v>514200</v>
       </c>
       <c r="K44" s="3">
         <v>483700</v>
@@ -3037,25 +3037,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>61700</v>
+        <v>60300</v>
       </c>
       <c r="E45" s="3">
-        <v>60800</v>
+        <v>59400</v>
       </c>
       <c r="F45" s="3">
-        <v>612100</v>
+        <v>598000</v>
       </c>
       <c r="G45" s="3">
-        <v>615600</v>
+        <v>601400</v>
       </c>
       <c r="H45" s="3">
-        <v>69600</v>
+        <v>68000</v>
       </c>
       <c r="I45" s="3">
-        <v>64100</v>
+        <v>62600</v>
       </c>
       <c r="J45" s="3">
-        <v>66100</v>
+        <v>64600</v>
       </c>
       <c r="K45" s="3">
         <v>62900</v>
@@ -3108,25 +3108,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1723400</v>
+        <v>1683600</v>
       </c>
       <c r="E46" s="3">
-        <v>1692400</v>
+        <v>1653300</v>
       </c>
       <c r="F46" s="3">
-        <v>2425700</v>
+        <v>2369800</v>
       </c>
       <c r="G46" s="3">
-        <v>2651300</v>
+        <v>2590200</v>
       </c>
       <c r="H46" s="3">
-        <v>1871100</v>
+        <v>1827900</v>
       </c>
       <c r="I46" s="3">
-        <v>1671900</v>
+        <v>1633300</v>
       </c>
       <c r="J46" s="3">
-        <v>1729600</v>
+        <v>1689800</v>
       </c>
       <c r="K46" s="3">
         <v>2204900</v>
@@ -3179,25 +3179,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>356900</v>
+        <v>348700</v>
       </c>
       <c r="E47" s="3">
-        <v>349200</v>
+        <v>341200</v>
       </c>
       <c r="F47" s="3">
-        <v>332200</v>
+        <v>324500</v>
       </c>
       <c r="G47" s="3">
-        <v>331300</v>
+        <v>323700</v>
       </c>
       <c r="H47" s="3">
-        <v>320600</v>
+        <v>313200</v>
       </c>
       <c r="I47" s="3">
-        <v>326900</v>
+        <v>319400</v>
       </c>
       <c r="J47" s="3">
-        <v>335900</v>
+        <v>328100</v>
       </c>
       <c r="K47" s="3">
         <v>361600</v>
@@ -3250,25 +3250,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1947600</v>
+        <v>1902700</v>
       </c>
       <c r="E48" s="3">
-        <v>1938200</v>
+        <v>1893400</v>
       </c>
       <c r="F48" s="3">
-        <v>1813500</v>
+        <v>1771700</v>
       </c>
       <c r="G48" s="3">
-        <v>1787600</v>
+        <v>1746300</v>
       </c>
       <c r="H48" s="3">
-        <v>1815500</v>
+        <v>1773600</v>
       </c>
       <c r="I48" s="3">
-        <v>1820000</v>
+        <v>1778100</v>
       </c>
       <c r="J48" s="3">
-        <v>1866200</v>
+        <v>1823100</v>
       </c>
       <c r="K48" s="3">
         <v>2001800</v>
@@ -3321,25 +3321,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2690800</v>
+        <v>2628700</v>
       </c>
       <c r="E49" s="3">
-        <v>2692500</v>
+        <v>2630400</v>
       </c>
       <c r="F49" s="3">
-        <v>1622200</v>
+        <v>1584800</v>
       </c>
       <c r="G49" s="3">
-        <v>1613300</v>
+        <v>1576100</v>
       </c>
       <c r="H49" s="3">
-        <v>1612600</v>
+        <v>1575400</v>
       </c>
       <c r="I49" s="3">
-        <v>1530700</v>
+        <v>1495400</v>
       </c>
       <c r="J49" s="3">
-        <v>1549800</v>
+        <v>1514000</v>
       </c>
       <c r="K49" s="3">
         <v>1614500</v>
@@ -3534,25 +3534,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>512800</v>
+        <v>501000</v>
       </c>
       <c r="E52" s="3">
-        <v>510200</v>
+        <v>498400</v>
       </c>
       <c r="F52" s="3">
-        <v>493500</v>
+        <v>482100</v>
       </c>
       <c r="G52" s="3">
-        <v>481800</v>
+        <v>470600</v>
       </c>
       <c r="H52" s="3">
-        <v>484700</v>
+        <v>473600</v>
       </c>
       <c r="I52" s="3">
-        <v>490100</v>
+        <v>478800</v>
       </c>
       <c r="J52" s="3">
-        <v>490000</v>
+        <v>478700</v>
       </c>
       <c r="K52" s="3">
         <v>477300</v>
@@ -3676,25 +3676,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7231500</v>
+        <v>7064700</v>
       </c>
       <c r="E54" s="3">
-        <v>7182400</v>
+        <v>7016700</v>
       </c>
       <c r="F54" s="3">
-        <v>6687200</v>
+        <v>6532900</v>
       </c>
       <c r="G54" s="3">
-        <v>6865200</v>
+        <v>6706900</v>
       </c>
       <c r="H54" s="3">
-        <v>6104400</v>
+        <v>5963600</v>
       </c>
       <c r="I54" s="3">
-        <v>5839700</v>
+        <v>5705000</v>
       </c>
       <c r="J54" s="3">
-        <v>5971500</v>
+        <v>5833700</v>
       </c>
       <c r="K54" s="3">
         <v>6660100</v>
@@ -3801,25 +3801,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>699100</v>
+        <v>683000</v>
       </c>
       <c r="E57" s="3">
-        <v>624700</v>
+        <v>610300</v>
       </c>
       <c r="F57" s="3">
-        <v>601300</v>
+        <v>587500</v>
       </c>
       <c r="G57" s="3">
-        <v>742100</v>
+        <v>724900</v>
       </c>
       <c r="H57" s="3">
-        <v>720300</v>
+        <v>703700</v>
       </c>
       <c r="I57" s="3">
-        <v>683800</v>
+        <v>668100</v>
       </c>
       <c r="J57" s="3">
-        <v>647800</v>
+        <v>632900</v>
       </c>
       <c r="K57" s="3">
         <v>733600</v>
@@ -3872,25 +3872,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>153700</v>
+        <v>150200</v>
       </c>
       <c r="E58" s="3">
-        <v>161400</v>
+        <v>157700</v>
       </c>
       <c r="F58" s="3">
-        <v>180200</v>
+        <v>176000</v>
       </c>
       <c r="G58" s="3">
-        <v>169700</v>
+        <v>165800</v>
       </c>
       <c r="H58" s="3">
-        <v>223500</v>
+        <v>218300</v>
       </c>
       <c r="I58" s="3">
-        <v>180100</v>
+        <v>175900</v>
       </c>
       <c r="J58" s="3">
-        <v>171900</v>
+        <v>167900</v>
       </c>
       <c r="K58" s="3">
         <v>161900</v>
@@ -3943,25 +3943,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>608100</v>
+        <v>594100</v>
       </c>
       <c r="E59" s="3">
-        <v>550500</v>
+        <v>537800</v>
       </c>
       <c r="F59" s="3">
-        <v>1084900</v>
+        <v>1059900</v>
       </c>
       <c r="G59" s="3">
-        <v>1154700</v>
+        <v>1128000</v>
       </c>
       <c r="H59" s="3">
-        <v>562300</v>
+        <v>549400</v>
       </c>
       <c r="I59" s="3">
-        <v>634000</v>
+        <v>619400</v>
       </c>
       <c r="J59" s="3">
-        <v>663700</v>
+        <v>648300</v>
       </c>
       <c r="K59" s="3">
         <v>723600</v>
@@ -4014,25 +4014,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1461000</v>
+        <v>1427300</v>
       </c>
       <c r="E60" s="3">
-        <v>1336600</v>
+        <v>1305800</v>
       </c>
       <c r="F60" s="3">
-        <v>1866400</v>
+        <v>1823400</v>
       </c>
       <c r="G60" s="3">
-        <v>2066500</v>
+        <v>2018800</v>
       </c>
       <c r="H60" s="3">
-        <v>1506200</v>
+        <v>1471400</v>
       </c>
       <c r="I60" s="3">
-        <v>1497900</v>
+        <v>1463400</v>
       </c>
       <c r="J60" s="3">
-        <v>1483300</v>
+        <v>1449100</v>
       </c>
       <c r="K60" s="3">
         <v>1619000</v>
@@ -4085,25 +4085,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2023100</v>
+        <v>1976500</v>
       </c>
       <c r="E61" s="3">
-        <v>2053000</v>
+        <v>2005700</v>
       </c>
       <c r="F61" s="3">
-        <v>1671600</v>
+        <v>1633000</v>
       </c>
       <c r="G61" s="3">
-        <v>1675600</v>
+        <v>1636900</v>
       </c>
       <c r="H61" s="3">
-        <v>1691100</v>
+        <v>1652100</v>
       </c>
       <c r="I61" s="3">
-        <v>1873500</v>
+        <v>1830300</v>
       </c>
       <c r="J61" s="3">
-        <v>2002500</v>
+        <v>1956300</v>
       </c>
       <c r="K61" s="3">
         <v>2438400</v>
@@ -4156,25 +4156,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>597100</v>
+        <v>583300</v>
       </c>
       <c r="E62" s="3">
-        <v>639200</v>
+        <v>624400</v>
       </c>
       <c r="F62" s="3">
-        <v>600000</v>
+        <v>586200</v>
       </c>
       <c r="G62" s="3">
-        <v>602000</v>
+        <v>588100</v>
       </c>
       <c r="H62" s="3">
-        <v>662100</v>
+        <v>646800</v>
       </c>
       <c r="I62" s="3">
-        <v>625000</v>
+        <v>610600</v>
       </c>
       <c r="J62" s="3">
-        <v>649900</v>
+        <v>634900</v>
       </c>
       <c r="K62" s="3">
         <v>578600</v>
@@ -4440,25 +4440,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4140800</v>
+        <v>4045300</v>
       </c>
       <c r="E66" s="3">
-        <v>4087100</v>
+        <v>3992800</v>
       </c>
       <c r="F66" s="3">
-        <v>4193200</v>
+        <v>4096500</v>
       </c>
       <c r="G66" s="3">
-        <v>4400700</v>
+        <v>4299200</v>
       </c>
       <c r="H66" s="3">
-        <v>3921300</v>
+        <v>3830800</v>
       </c>
       <c r="I66" s="3">
-        <v>4063600</v>
+        <v>3969900</v>
       </c>
       <c r="J66" s="3">
-        <v>4203900</v>
+        <v>4106900</v>
       </c>
       <c r="K66" s="3">
         <v>4705500</v>
@@ -4822,25 +4822,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1288200</v>
+        <v>1258500</v>
       </c>
       <c r="E72" s="3">
-        <v>1279700</v>
+        <v>1250200</v>
       </c>
       <c r="F72" s="3">
-        <v>1249900</v>
+        <v>1221100</v>
       </c>
       <c r="G72" s="3">
-        <v>1211400</v>
+        <v>1183500</v>
       </c>
       <c r="H72" s="3">
-        <v>1137200</v>
+        <v>1110900</v>
       </c>
       <c r="I72" s="3">
-        <v>1094600</v>
+        <v>1069400</v>
       </c>
       <c r="J72" s="3">
-        <v>1089800</v>
+        <v>1064700</v>
       </c>
       <c r="K72" s="3">
         <v>1248300</v>
@@ -5106,25 +5106,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3090700</v>
+        <v>3019400</v>
       </c>
       <c r="E76" s="3">
-        <v>3095300</v>
+        <v>3023900</v>
       </c>
       <c r="F76" s="3">
-        <v>2494000</v>
+        <v>2436500</v>
       </c>
       <c r="G76" s="3">
-        <v>2464500</v>
+        <v>2407600</v>
       </c>
       <c r="H76" s="3">
-        <v>2183100</v>
+        <v>2132800</v>
       </c>
       <c r="I76" s="3">
-        <v>1776100</v>
+        <v>1735100</v>
       </c>
       <c r="J76" s="3">
-        <v>1767600</v>
+        <v>1726900</v>
       </c>
       <c r="K76" s="3">
         <v>1954500</v>
@@ -5324,25 +5324,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>20600</v>
+        <v>20100</v>
       </c>
       <c r="E81" s="3">
-        <v>11000</v>
+        <v>10700</v>
       </c>
       <c r="F81" s="3">
-        <v>36400</v>
+        <v>35600</v>
       </c>
       <c r="G81" s="3">
-        <v>15500</v>
+        <v>15200</v>
       </c>
       <c r="H81" s="3">
-        <v>38300</v>
+        <v>37400</v>
       </c>
       <c r="I81" s="3">
-        <v>-4100</v>
+        <v>-4000</v>
       </c>
       <c r="J81" s="3">
-        <v>-86800</v>
+        <v>-84800</v>
       </c>
       <c r="K81" s="3">
         <v>61500</v>
@@ -5422,25 +5422,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>62700</v>
+        <v>61300</v>
       </c>
       <c r="E83" s="3">
-        <v>61700</v>
+        <v>60300</v>
       </c>
       <c r="F83" s="3">
-        <v>55800</v>
+        <v>54500</v>
       </c>
       <c r="G83" s="3">
-        <v>57400</v>
+        <v>56100</v>
       </c>
       <c r="H83" s="3">
-        <v>62200</v>
+        <v>60700</v>
       </c>
       <c r="I83" s="3">
-        <v>59800</v>
+        <v>58400</v>
       </c>
       <c r="J83" s="3">
-        <v>67200</v>
+        <v>65600</v>
       </c>
       <c r="K83" s="3">
         <v>57700</v>
@@ -5848,25 +5848,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>243000</v>
+        <v>237400</v>
       </c>
       <c r="E89" s="3">
-        <v>24200</v>
+        <v>23700</v>
       </c>
       <c r="F89" s="3">
-        <v>-101300</v>
+        <v>-99000</v>
       </c>
       <c r="G89" s="3">
-        <v>137000</v>
+        <v>133900</v>
       </c>
       <c r="H89" s="3">
-        <v>184300</v>
+        <v>180000</v>
       </c>
       <c r="I89" s="3">
-        <v>35800</v>
+        <v>35000</v>
       </c>
       <c r="J89" s="3">
-        <v>-69400</v>
+        <v>-67800</v>
       </c>
       <c r="K89" s="3">
         <v>193400</v>
@@ -5946,25 +5946,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-60300</v>
+        <v>-59000</v>
       </c>
       <c r="E91" s="3">
-        <v>-36600</v>
+        <v>-35800</v>
       </c>
       <c r="F91" s="3">
-        <v>-58000</v>
+        <v>-56700</v>
       </c>
       <c r="G91" s="3">
-        <v>-39600</v>
+        <v>-38700</v>
       </c>
       <c r="H91" s="3">
-        <v>-18800</v>
+        <v>-18300</v>
       </c>
       <c r="I91" s="3">
-        <v>-11900</v>
+        <v>-11700</v>
       </c>
       <c r="J91" s="3">
-        <v>-14100</v>
+        <v>-13800</v>
       </c>
       <c r="K91" s="3">
         <v>-65900</v>
@@ -6159,25 +6159,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-86400</v>
+        <v>-84400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1117600</v>
+        <v>-1091800</v>
       </c>
       <c r="F94" s="3">
-        <v>-86600</v>
+        <v>-84600</v>
       </c>
       <c r="G94" s="3">
-        <v>-91300</v>
+        <v>-89200</v>
       </c>
       <c r="H94" s="3">
-        <v>-138300</v>
+        <v>-135100</v>
       </c>
       <c r="I94" s="3">
-        <v>-17000</v>
+        <v>-16600</v>
       </c>
       <c r="J94" s="3">
-        <v>-23000</v>
+        <v>-22500</v>
       </c>
       <c r="K94" s="3">
         <v>-91600</v>
@@ -6541,25 +6541,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-56800</v>
+        <v>-55500</v>
       </c>
       <c r="E100" s="3">
-        <v>819700</v>
+        <v>800800</v>
       </c>
       <c r="F100" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="G100" s="3">
-        <v>202000</v>
+        <v>197300</v>
       </c>
       <c r="H100" s="3">
-        <v>242000</v>
+        <v>236400</v>
       </c>
       <c r="I100" s="3">
-        <v>-102800</v>
+        <v>-100400</v>
       </c>
       <c r="J100" s="3">
-        <v>-357900</v>
+        <v>-349700</v>
       </c>
       <c r="K100" s="3">
         <v>407400</v>
@@ -6621,16 +6621,16 @@
         <v>-2000</v>
       </c>
       <c r="G101" s="3">
-        <v>-7500</v>
+        <v>-7300</v>
       </c>
       <c r="H101" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="I101" s="3">
         <v>1300</v>
       </c>
       <c r="J101" s="3">
-        <v>-7400</v>
+        <v>-7200</v>
       </c>
       <c r="K101" s="3">
         <v>15300</v>
@@ -6683,25 +6683,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>96600</v>
+        <v>94400</v>
       </c>
       <c r="E102" s="3">
-        <v>-274700</v>
+        <v>-268400</v>
       </c>
       <c r="F102" s="3">
-        <v>-184900</v>
+        <v>-180600</v>
       </c>
       <c r="G102" s="3">
-        <v>240300</v>
+        <v>234700</v>
       </c>
       <c r="H102" s="3">
-        <v>284000</v>
+        <v>277400</v>
       </c>
       <c r="I102" s="3">
-        <v>-82600</v>
+        <v>-80700</v>
       </c>
       <c r="J102" s="3">
-        <v>-457700</v>
+        <v>-447100</v>
       </c>
       <c r="K102" s="3">
         <v>524400</v>

--- a/AAII_Financials/Quarterly/CAE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAE_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,346 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>650600</v>
+        <v>722100</v>
       </c>
       <c r="E8" s="3">
-        <v>624700</v>
+        <v>738900</v>
       </c>
       <c r="F8" s="3">
-        <v>577000</v>
+        <v>656700</v>
       </c>
       <c r="G8" s="3">
-        <v>685600</v>
+        <v>630500</v>
       </c>
       <c r="H8" s="3">
-        <v>638200</v>
+        <v>582400</v>
       </c>
       <c r="I8" s="3">
+        <v>692000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>644100</v>
+      </c>
+      <c r="K8" s="3">
         <v>540300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>422000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>767200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>720000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>743500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>654700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>786800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>621300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>540500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>543500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>581000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>616400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>460100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>488400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>564400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>524500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>488200</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>464700</v>
+        <v>541900</v>
       </c>
       <c r="E9" s="3">
-        <v>450200</v>
+        <v>528800</v>
       </c>
       <c r="F9" s="3">
-        <v>413100</v>
+        <v>469000</v>
       </c>
       <c r="G9" s="3">
-        <v>503800</v>
+        <v>454400</v>
       </c>
       <c r="H9" s="3">
-        <v>462700</v>
+        <v>417000</v>
       </c>
       <c r="I9" s="3">
+        <v>508500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>467000</v>
+      </c>
+      <c r="K9" s="3">
         <v>393800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>339200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>522500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>492800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>547300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>461500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>565000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>443700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>394100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>378900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>387100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>426100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>325000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>336800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>383900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>371400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>344600</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>185900</v>
+        <v>180200</v>
       </c>
       <c r="E10" s="3">
-        <v>174500</v>
+        <v>210200</v>
       </c>
       <c r="F10" s="3">
-        <v>163900</v>
+        <v>187600</v>
       </c>
       <c r="G10" s="3">
-        <v>181800</v>
+        <v>176100</v>
       </c>
       <c r="H10" s="3">
-        <v>175500</v>
+        <v>165400</v>
       </c>
       <c r="I10" s="3">
+        <v>183500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>177100</v>
+      </c>
+      <c r="K10" s="3">
         <v>146400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>82800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>244700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>227300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>196200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>193300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>221700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>177600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>146400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>164600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>193900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>190300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>135100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>151600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>180500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>153100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>143600</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,79 +1030,87 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>24300</v>
+        <v>31500</v>
       </c>
       <c r="E12" s="3">
-        <v>23500</v>
+        <v>27000</v>
       </c>
       <c r="F12" s="3">
-        <v>18000</v>
+        <v>24500</v>
       </c>
       <c r="G12" s="3">
-        <v>17200</v>
+        <v>23800</v>
       </c>
       <c r="H12" s="3">
-        <v>28000</v>
+        <v>18200</v>
       </c>
       <c r="I12" s="3">
+        <v>17400</v>
+      </c>
+      <c r="J12" s="3">
+        <v>28200</v>
+      </c>
+      <c r="K12" s="3">
         <v>19600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>15400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>28400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>26200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>29700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>25300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>7600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>23700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>21100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>23600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>17000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>22200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>22300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>24000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>24000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>22100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,79 +1180,91 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>32300</v>
+        <v>16600</v>
       </c>
       <c r="E14" s="3">
-        <v>36600</v>
+        <v>36900</v>
       </c>
       <c r="F14" s="3">
-        <v>6500</v>
+        <v>32600</v>
       </c>
       <c r="G14" s="3">
-        <v>48200</v>
+        <v>36900</v>
       </c>
       <c r="H14" s="3">
-        <v>11800</v>
+        <v>6600</v>
       </c>
       <c r="I14" s="3">
+        <v>48700</v>
+      </c>
+      <c r="J14" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K14" s="3">
         <v>42100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>76400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>29400</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>-10600</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>16200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>2200</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>600400</v>
+        <v>691700</v>
       </c>
       <c r="E17" s="3">
-        <v>594700</v>
+        <v>666700</v>
       </c>
       <c r="F17" s="3">
-        <v>511000</v>
+        <v>606000</v>
       </c>
       <c r="G17" s="3">
-        <v>649100</v>
+        <v>600200</v>
       </c>
       <c r="H17" s="3">
-        <v>574600</v>
+        <v>515700</v>
       </c>
       <c r="I17" s="3">
+        <v>655100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>579900</v>
+      </c>
+      <c r="K17" s="3">
         <v>518600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>506600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>652200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>599300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>640000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>566800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>655600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>535300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>468800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>469400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>476000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>503800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>383600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>420400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>486900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>448700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>429700</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>50200</v>
+        <v>30500</v>
       </c>
       <c r="E18" s="3">
-        <v>30100</v>
+        <v>72200</v>
       </c>
       <c r="F18" s="3">
-        <v>66100</v>
+        <v>50700</v>
       </c>
       <c r="G18" s="3">
-        <v>36500</v>
+        <v>30300</v>
       </c>
       <c r="H18" s="3">
-        <v>63600</v>
+        <v>66700</v>
       </c>
       <c r="I18" s="3">
+        <v>36800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>64100</v>
+      </c>
+      <c r="K18" s="3">
         <v>21600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-84600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>115000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>120800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>103500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>87900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>131200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>86000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>71700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>74100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>105000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>112500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>76500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>67900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>77500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>75700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>58500</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,203 +1547,217 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-4700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-4400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="M20" s="3">
         <v>-3400</v>
       </c>
-      <c r="H20" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-4000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-4000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-4400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-4800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-2700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-3700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>1300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>1000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>1800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-200</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>91500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>131800</v>
+      </c>
+      <c r="F21" s="3">
+        <v>107800</v>
+      </c>
+      <c r="G21" s="3">
+        <v>86700</v>
+      </c>
+      <c r="H21" s="3">
+        <v>120300</v>
+      </c>
+      <c r="I21" s="3">
+        <v>90000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>122300</v>
+      </c>
+      <c r="K21" s="3">
+        <v>76100</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="M21" s="3">
+        <v>169300</v>
+      </c>
+      <c r="N21" s="3">
+        <v>177400</v>
+      </c>
+      <c r="O21" s="3">
+        <v>162000</v>
+      </c>
+      <c r="P21" s="3">
+        <v>142000</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>175300</v>
+      </c>
+      <c r="R21" s="3">
+        <v>123400</v>
+      </c>
+      <c r="S21" s="3">
         <v>106800</v>
       </c>
-      <c r="E21" s="3">
-        <v>85900</v>
-      </c>
-      <c r="F21" s="3">
-        <v>119200</v>
-      </c>
-      <c r="G21" s="3">
-        <v>89200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>121200</v>
-      </c>
-      <c r="I21" s="3">
-        <v>76100</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-21500</v>
-      </c>
-      <c r="K21" s="3">
-        <v>169300</v>
-      </c>
-      <c r="L21" s="3">
-        <v>177400</v>
-      </c>
-      <c r="M21" s="3">
-        <v>162000</v>
-      </c>
-      <c r="N21" s="3">
-        <v>142000</v>
-      </c>
-      <c r="O21" s="3">
-        <v>175300</v>
-      </c>
-      <c r="P21" s="3">
-        <v>123400</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>106800</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>110600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>136800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>150600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>113900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>108400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>118800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>118000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>95700</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>21800</v>
+        <v>25100</v>
       </c>
       <c r="E22" s="3">
-        <v>22500</v>
+        <v>22100</v>
       </c>
       <c r="F22" s="3">
-        <v>20500</v>
+        <v>22000</v>
       </c>
       <c r="G22" s="3">
-        <v>21100</v>
+        <v>22700</v>
       </c>
       <c r="H22" s="3">
-        <v>22500</v>
+        <v>20700</v>
       </c>
       <c r="I22" s="3">
+        <v>21300</v>
+      </c>
+      <c r="J22" s="3">
+        <v>22700</v>
+      </c>
+      <c r="K22" s="3">
         <v>23100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>24400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>26800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>24600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>24500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>23200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>15000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>11800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>11800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>11700</v>
-      </c>
-      <c r="S22" s="3">
-        <v>14100</v>
-      </c>
-      <c r="T22" s="3">
-        <v>14100</v>
       </c>
       <c r="U22" s="3">
         <v>14100</v>
@@ -1686,158 +1766,176 @@
         <v>14100</v>
       </c>
       <c r="W22" s="3">
+        <v>14100</v>
+      </c>
+      <c r="X22" s="3">
+        <v>14100</v>
+      </c>
+      <c r="Y22" s="3">
         <v>14400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>14000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>23800</v>
+        <v>2500</v>
       </c>
       <c r="E23" s="3">
+        <v>47000</v>
+      </c>
+      <c r="F23" s="3">
+        <v>24000</v>
+      </c>
+      <c r="G23" s="3">
         <v>3200</v>
       </c>
-      <c r="F23" s="3">
-        <v>44200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>12000</v>
-      </c>
       <c r="H23" s="3">
-        <v>38000</v>
+        <v>44600</v>
       </c>
       <c r="I23" s="3">
+        <v>12100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>38400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-5400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-111500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>84800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>92200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>75000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>60300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>111400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>71300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>57300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>62100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>87100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>99700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>63400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>54400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>65000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>61500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F24" s="3">
         <v>2000</v>
       </c>
-      <c r="E24" s="3">
-        <v>-10000</v>
-      </c>
-      <c r="F24" s="3">
-        <v>7900</v>
-      </c>
       <c r="G24" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="H24" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I24" s="3">
         <v>-2500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-27100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>21100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>14300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>12900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>10300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>14900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>10800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>11000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>8200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>10200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-8800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>17200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>8900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>11400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>8500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>21800</v>
+        <v>2900</v>
       </c>
       <c r="E26" s="3">
-        <v>13200</v>
+        <v>44200</v>
       </c>
       <c r="F26" s="3">
-        <v>36300</v>
+        <v>22000</v>
       </c>
       <c r="G26" s="3">
-        <v>14400</v>
+        <v>13300</v>
       </c>
       <c r="H26" s="3">
-        <v>38100</v>
+        <v>36600</v>
       </c>
       <c r="I26" s="3">
+        <v>14500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>38500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-4600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-84300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>63700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>77800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>62200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>50000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>96500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>60500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>46200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>53900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>77000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>108500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>46200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>45500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>53600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>53100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>20100</v>
+        <v>1300</v>
       </c>
       <c r="E27" s="3">
-        <v>10700</v>
+        <v>42600</v>
       </c>
       <c r="F27" s="3">
-        <v>35600</v>
+        <v>20300</v>
       </c>
       <c r="G27" s="3">
-        <v>15200</v>
+        <v>10800</v>
       </c>
       <c r="H27" s="3">
-        <v>37400</v>
+        <v>35900</v>
       </c>
       <c r="I27" s="3">
+        <v>15300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>37800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-4000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-84800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>61500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>76200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>61200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>48800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>94100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>59100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>44100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>52200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>74500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>107000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>44900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>44400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>51800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>51900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2164,18 +2286,18 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
@@ -2183,16 +2305,22 @@
         <v>0</v>
       </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-500</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Z29" s="3">
         <v>200</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="AA29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2467,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F32" s="3">
         <v>4700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>4400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J32" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K32" s="3">
+        <v>3900</v>
+      </c>
+      <c r="L32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M32" s="3">
         <v>3400</v>
       </c>
-      <c r="H32" s="3">
-        <v>3100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>3900</v>
-      </c>
-      <c r="J32" s="3">
-        <v>2500</v>
-      </c>
-      <c r="K32" s="3">
-        <v>3400</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>4000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>4000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>4400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>4800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>2900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>2700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>3700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-1300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-1000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-1800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>200</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>20100</v>
+        <v>1300</v>
       </c>
       <c r="E33" s="3">
-        <v>10700</v>
+        <v>42600</v>
       </c>
       <c r="F33" s="3">
-        <v>35600</v>
+        <v>20300</v>
       </c>
       <c r="G33" s="3">
-        <v>15200</v>
+        <v>10800</v>
       </c>
       <c r="H33" s="3">
-        <v>37400</v>
+        <v>35900</v>
       </c>
       <c r="I33" s="3">
+        <v>15300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>37800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-4000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-84800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>61500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>76200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>61200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>48800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>94100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>59100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>44100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>52200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>74500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>107000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>44900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>44400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>51200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>52100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>20100</v>
+        <v>1300</v>
       </c>
       <c r="E35" s="3">
-        <v>10700</v>
+        <v>42600</v>
       </c>
       <c r="F35" s="3">
-        <v>35600</v>
+        <v>20300</v>
       </c>
       <c r="G35" s="3">
-        <v>15200</v>
+        <v>10800</v>
       </c>
       <c r="H35" s="3">
-        <v>37400</v>
+        <v>35900</v>
       </c>
       <c r="I35" s="3">
+        <v>15300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>37800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-4000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-84800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>61500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>76200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>61200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>48800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>94100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>59100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>44100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>52200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>74500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>107000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>44900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>44400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>51200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>52100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2919,87 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>355300</v>
+        <v>159400</v>
       </c>
       <c r="E41" s="3">
-        <v>261000</v>
+        <v>267800</v>
       </c>
       <c r="F41" s="3">
-        <v>529400</v>
+        <v>358600</v>
       </c>
       <c r="G41" s="3">
-        <v>710000</v>
+        <v>263400</v>
       </c>
       <c r="H41" s="3">
-        <v>475200</v>
+        <v>534300</v>
       </c>
       <c r="I41" s="3">
+        <v>716600</v>
+      </c>
+      <c r="J41" s="3">
+        <v>479600</v>
+      </c>
+      <c r="K41" s="3">
         <v>197800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>278500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>743000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>217100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>184500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>255400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>343400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>275300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>366500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>376500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>455100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>395000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>402600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>321400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>387700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>320200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>263700</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,505 +3069,553 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>848700</v>
+        <v>1015900</v>
       </c>
       <c r="E43" s="3">
-        <v>920800</v>
+        <v>927300</v>
       </c>
       <c r="F43" s="3">
-        <v>813900</v>
+        <v>856600</v>
       </c>
       <c r="G43" s="3">
-        <v>782200</v>
+        <v>929400</v>
       </c>
       <c r="H43" s="3">
-        <v>754800</v>
+        <v>821500</v>
       </c>
       <c r="I43" s="3">
+        <v>789500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>761800</v>
+      </c>
+      <c r="K43" s="3">
         <v>827400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>832500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>915200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>825400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>944500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>889800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>810700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>866500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>728100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>748300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1116900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>438900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>408600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>410000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>441000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>415400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>443000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>419300</v>
+        <v>425900</v>
       </c>
       <c r="E44" s="3">
-        <v>412100</v>
+        <v>402200</v>
       </c>
       <c r="F44" s="3">
-        <v>428500</v>
+        <v>423200</v>
       </c>
       <c r="G44" s="3">
-        <v>496600</v>
+        <v>416000</v>
       </c>
       <c r="H44" s="3">
-        <v>529900</v>
+        <v>432400</v>
       </c>
       <c r="I44" s="3">
+        <v>501200</v>
+      </c>
+      <c r="J44" s="3">
+        <v>534800</v>
+      </c>
+      <c r="K44" s="3">
         <v>545500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>514200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>483700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>473600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>478800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>468000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>413400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>459900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>417500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>410800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>384100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>275400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>287900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>299000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>319800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>322700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>307600</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>60300</v>
+        <v>77200</v>
       </c>
       <c r="E45" s="3">
-        <v>59400</v>
+        <v>65200</v>
       </c>
       <c r="F45" s="3">
-        <v>598000</v>
+        <v>60800</v>
       </c>
       <c r="G45" s="3">
-        <v>601400</v>
+        <v>60000</v>
       </c>
       <c r="H45" s="3">
-        <v>68000</v>
+        <v>603500</v>
       </c>
       <c r="I45" s="3">
+        <v>606900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>68600</v>
+      </c>
+      <c r="K45" s="3">
         <v>62600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>64600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>62900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>61900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>61600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>70000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>59000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>54300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>50000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>51300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>346000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>338700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>322500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>359500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>326300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>307300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>307500</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1683600</v>
+        <v>1678300</v>
       </c>
       <c r="E46" s="3">
-        <v>1653300</v>
+        <v>1662500</v>
       </c>
       <c r="F46" s="3">
-        <v>2369800</v>
+        <v>1699200</v>
       </c>
       <c r="G46" s="3">
-        <v>2590200</v>
+        <v>1668700</v>
       </c>
       <c r="H46" s="3">
-        <v>1827900</v>
+        <v>2391700</v>
       </c>
       <c r="I46" s="3">
+        <v>2614200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1844900</v>
+      </c>
+      <c r="K46" s="3">
         <v>1633300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1689800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2204900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1578100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1669300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1683300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1626600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1656000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1562000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1586900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1580200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1448100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1421600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1390000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1474800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1365600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>1321900</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>348700</v>
+        <v>358900</v>
       </c>
       <c r="E47" s="3">
-        <v>341200</v>
+        <v>351300</v>
       </c>
       <c r="F47" s="3">
-        <v>324500</v>
+        <v>351900</v>
       </c>
       <c r="G47" s="3">
-        <v>323700</v>
+        <v>344300</v>
       </c>
       <c r="H47" s="3">
-        <v>313200</v>
+        <v>327500</v>
       </c>
       <c r="I47" s="3">
+        <v>326700</v>
+      </c>
+      <c r="J47" s="3">
+        <v>316100</v>
+      </c>
+      <c r="K47" s="3">
         <v>319400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>328100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>361600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>336300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>258700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>245800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>240300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>226700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>183600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>189900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>180600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>175500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>195000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>277500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>290700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>284600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>283200</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1902700</v>
+        <v>1961200</v>
       </c>
       <c r="E48" s="3">
-        <v>1893400</v>
+        <v>1936200</v>
       </c>
       <c r="F48" s="3">
-        <v>1771700</v>
+        <v>1920400</v>
       </c>
       <c r="G48" s="3">
-        <v>1746300</v>
+        <v>1911000</v>
       </c>
       <c r="H48" s="3">
-        <v>1773600</v>
+        <v>1788100</v>
       </c>
       <c r="I48" s="3">
+        <v>1762500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1790100</v>
+      </c>
+      <c r="K48" s="3">
         <v>1778100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1823100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2001800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1855500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1976500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1880600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1654600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1482300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1295500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1369200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1342500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1285000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1176900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1190700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1215800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>1194800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>1191200</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2628700</v>
+        <v>2996300</v>
       </c>
       <c r="E49" s="3">
-        <v>2630400</v>
+        <v>2937400</v>
       </c>
       <c r="F49" s="3">
-        <v>1584800</v>
+        <v>2653100</v>
       </c>
       <c r="G49" s="3">
-        <v>1576100</v>
+        <v>2654800</v>
       </c>
       <c r="H49" s="3">
-        <v>1575400</v>
+        <v>1599500</v>
       </c>
       <c r="I49" s="3">
+        <v>1590700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1590000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1495400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1514000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1614500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1570600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1681600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1608600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1561100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1003100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>802500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>791000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>785600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>769100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>681600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>698900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>725200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>719900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>722900</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3762,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>501000</v>
+        <v>553900</v>
       </c>
       <c r="E52" s="3">
-        <v>498400</v>
+        <v>524300</v>
       </c>
       <c r="F52" s="3">
-        <v>482100</v>
+        <v>505600</v>
       </c>
       <c r="G52" s="3">
-        <v>470600</v>
+        <v>503000</v>
       </c>
       <c r="H52" s="3">
-        <v>473600</v>
+        <v>486600</v>
       </c>
       <c r="I52" s="3">
+        <v>475000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>477900</v>
+      </c>
+      <c r="K52" s="3">
         <v>478800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>478700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>477300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>463800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>483000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>459900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>433600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>422600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>392700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>422300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>412800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>398800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>389300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>389500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>407200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>407200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>408200</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7064700</v>
+        <v>7548700</v>
       </c>
       <c r="E54" s="3">
-        <v>7016700</v>
+        <v>7411600</v>
       </c>
       <c r="F54" s="3">
-        <v>6532900</v>
+        <v>7130300</v>
       </c>
       <c r="G54" s="3">
-        <v>6706900</v>
+        <v>7081800</v>
       </c>
       <c r="H54" s="3">
-        <v>5963600</v>
+        <v>6593500</v>
       </c>
       <c r="I54" s="3">
+        <v>6769100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>6018900</v>
+      </c>
+      <c r="K54" s="3">
         <v>5705000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5833700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>6660100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>5804300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>6069100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5878100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>5516100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>4790700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>4236400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>4359300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>4301700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>4076500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>3864400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>3946500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>4113700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>3972100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>3927300</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,434 +4055,472 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>683000</v>
+        <v>692500</v>
       </c>
       <c r="E57" s="3">
-        <v>610300</v>
+        <v>754500</v>
       </c>
       <c r="F57" s="3">
-        <v>587500</v>
+        <v>689300</v>
       </c>
       <c r="G57" s="3">
-        <v>724900</v>
+        <v>616000</v>
       </c>
       <c r="H57" s="3">
-        <v>703700</v>
+        <v>592900</v>
       </c>
       <c r="I57" s="3">
+        <v>731700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>710200</v>
+      </c>
+      <c r="K57" s="3">
         <v>668100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>632900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>733600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>654500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>614700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>632600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>671400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>680000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>532200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>492900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>496300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>452300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>418000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>454100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>534100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>615400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>581600</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>150200</v>
+        <v>177000</v>
       </c>
       <c r="E58" s="3">
-        <v>157700</v>
+        <v>187100</v>
       </c>
       <c r="F58" s="3">
-        <v>176000</v>
+        <v>151600</v>
       </c>
       <c r="G58" s="3">
-        <v>165800</v>
+        <v>159200</v>
       </c>
       <c r="H58" s="3">
-        <v>218300</v>
+        <v>177700</v>
       </c>
       <c r="I58" s="3">
+        <v>167400</v>
+      </c>
+      <c r="J58" s="3">
+        <v>220400</v>
+      </c>
+      <c r="K58" s="3">
         <v>175900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>167900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>161900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>96000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>191800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>157900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>203300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>175500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>94300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>89700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>38800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>41000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>35000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>37200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>39900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>39700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>594100</v>
+        <v>717400</v>
       </c>
       <c r="E59" s="3">
-        <v>537800</v>
+        <v>676500</v>
       </c>
       <c r="F59" s="3">
-        <v>1059900</v>
+        <v>599600</v>
       </c>
       <c r="G59" s="3">
-        <v>1128000</v>
+        <v>542800</v>
       </c>
       <c r="H59" s="3">
-        <v>549400</v>
+        <v>1069700</v>
       </c>
       <c r="I59" s="3">
+        <v>1138500</v>
+      </c>
+      <c r="J59" s="3">
+        <v>554500</v>
+      </c>
+      <c r="K59" s="3">
         <v>619400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>648300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>723600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>601800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>606300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>613000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>579800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>653200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>530700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>538100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>561900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>457900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>390600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>390800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>404700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>221300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>225100</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1427300</v>
+        <v>1587000</v>
       </c>
       <c r="E60" s="3">
-        <v>1305800</v>
+        <v>1618100</v>
       </c>
       <c r="F60" s="3">
-        <v>1823400</v>
+        <v>1440500</v>
       </c>
       <c r="G60" s="3">
-        <v>2018800</v>
+        <v>1317900</v>
       </c>
       <c r="H60" s="3">
-        <v>1471400</v>
+        <v>1840300</v>
       </c>
       <c r="I60" s="3">
+        <v>2037500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1485100</v>
+      </c>
+      <c r="K60" s="3">
         <v>1463400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1449100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1619000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1352300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1412800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1403500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1454600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1508700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1157200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1120800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1097000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>951200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>843600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>882100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>978600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>876500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>842800</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1976500</v>
+        <v>2323600</v>
       </c>
       <c r="E61" s="3">
-        <v>2005700</v>
+        <v>2169900</v>
       </c>
       <c r="F61" s="3">
-        <v>1633000</v>
+        <v>1994800</v>
       </c>
       <c r="G61" s="3">
-        <v>1636900</v>
+        <v>2024300</v>
       </c>
       <c r="H61" s="3">
+        <v>1648200</v>
+      </c>
+      <c r="I61" s="3">
         <v>1652100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
+        <v>1667400</v>
+      </c>
+      <c r="K61" s="3">
         <v>1830300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1956300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2438400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1919500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2017900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1931500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1589100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>850000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>849900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>897600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>899500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>883600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>866100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>882800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>924600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>936400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>936400</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>583300</v>
+        <v>423900</v>
       </c>
       <c r="E62" s="3">
-        <v>624400</v>
+        <v>461600</v>
       </c>
       <c r="F62" s="3">
-        <v>586200</v>
+        <v>588700</v>
       </c>
       <c r="G62" s="3">
-        <v>588100</v>
+        <v>630200</v>
       </c>
       <c r="H62" s="3">
-        <v>646800</v>
+        <v>591600</v>
       </c>
       <c r="I62" s="3">
+        <v>593500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>652800</v>
+      </c>
+      <c r="K62" s="3">
         <v>610600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>634900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>578600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>625500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>689000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>666800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>617200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>629100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>570500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>597800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>595300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>615100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>583200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>600000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>611800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>603200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>648900</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4045300</v>
+        <v>4392300</v>
       </c>
       <c r="E66" s="3">
-        <v>3992800</v>
+        <v>4309100</v>
       </c>
       <c r="F66" s="3">
-        <v>4096500</v>
+        <v>4082800</v>
       </c>
       <c r="G66" s="3">
-        <v>4299200</v>
+        <v>4029800</v>
       </c>
       <c r="H66" s="3">
-        <v>3830800</v>
+        <v>4134500</v>
       </c>
       <c r="I66" s="3">
+        <v>4339100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>3866400</v>
+      </c>
+      <c r="K66" s="3">
         <v>3969900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4106900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4705500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3962400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>4187300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4064300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3721500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3048400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2631900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2671100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2642800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>2497600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>2338500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>2410000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>2561300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>2460700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>2471400</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1258500</v>
+        <v>1412000</v>
       </c>
       <c r="E72" s="3">
-        <v>1250200</v>
+        <v>1375400</v>
       </c>
       <c r="F72" s="3">
-        <v>1221100</v>
+        <v>1270200</v>
       </c>
       <c r="G72" s="3">
-        <v>1183500</v>
+        <v>1261800</v>
       </c>
       <c r="H72" s="3">
-        <v>1110900</v>
+        <v>1232400</v>
       </c>
       <c r="I72" s="3">
+        <v>1194400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1121200</v>
+      </c>
+      <c r="K72" s="3">
         <v>1069400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1064700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1248300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1188800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1199400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1135000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1122300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1045900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1001500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1021400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>978100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>965700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>934500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>902100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>916000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>877400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>806200</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3019400</v>
+        <v>3156400</v>
       </c>
       <c r="E76" s="3">
-        <v>3023900</v>
+        <v>3102500</v>
       </c>
       <c r="F76" s="3">
-        <v>2436500</v>
+        <v>3047400</v>
       </c>
       <c r="G76" s="3">
-        <v>2407600</v>
+        <v>3052000</v>
       </c>
       <c r="H76" s="3">
-        <v>2132800</v>
+        <v>2459100</v>
       </c>
       <c r="I76" s="3">
+        <v>2430000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2152600</v>
+      </c>
+      <c r="K76" s="3">
         <v>1735100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1726900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1954500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1841900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1881800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1813800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1794700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1742300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1604500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1688200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1658900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1578800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1525900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>1536500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>1552400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>1511400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>1455900</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>20100</v>
+        <v>1300</v>
       </c>
       <c r="E81" s="3">
-        <v>10700</v>
+        <v>42600</v>
       </c>
       <c r="F81" s="3">
-        <v>35600</v>
+        <v>20300</v>
       </c>
       <c r="G81" s="3">
-        <v>15200</v>
+        <v>10800</v>
       </c>
       <c r="H81" s="3">
-        <v>37400</v>
+        <v>35900</v>
       </c>
       <c r="I81" s="3">
+        <v>15300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>37800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-4000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-84800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>61500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>76200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>61200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>48800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>94100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>59100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>44100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>52200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>74500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>107000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>44900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>44400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>51200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>52100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5812,87 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>63900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>62600</v>
+      </c>
+      <c r="F83" s="3">
+        <v>61800</v>
+      </c>
+      <c r="G83" s="3">
+        <v>60800</v>
+      </c>
+      <c r="H83" s="3">
+        <v>55000</v>
+      </c>
+      <c r="I83" s="3">
+        <v>56600</v>
+      </c>
+      <c r="J83" s="3">
         <v>61300</v>
       </c>
-      <c r="E83" s="3">
-        <v>60300</v>
-      </c>
-      <c r="F83" s="3">
-        <v>54500</v>
-      </c>
-      <c r="G83" s="3">
-        <v>56100</v>
-      </c>
-      <c r="H83" s="3">
-        <v>60700</v>
-      </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>58400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>65600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>57700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>60600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>62500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>58500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>48900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>40300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>37800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>36700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>35500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>36800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>36400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>39900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>39500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>42500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>237400</v>
+        <v>-125800</v>
       </c>
       <c r="E89" s="3">
-        <v>23700</v>
+        <v>160000</v>
       </c>
       <c r="F89" s="3">
-        <v>-99000</v>
+        <v>239600</v>
       </c>
       <c r="G89" s="3">
-        <v>133900</v>
+        <v>23900</v>
       </c>
       <c r="H89" s="3">
-        <v>180000</v>
+        <v>-99900</v>
       </c>
       <c r="I89" s="3">
+        <v>135100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>181700</v>
+      </c>
+      <c r="K89" s="3">
         <v>35000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-67800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>193400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>251100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>30400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-47600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>128000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>165600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>128700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-23000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>102600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>139600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>72300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-14300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>151700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>119900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6380,87 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-59000</v>
+        <v>-57200</v>
       </c>
       <c r="E91" s="3">
-        <v>-35800</v>
+        <v>-57800</v>
       </c>
       <c r="F91" s="3">
-        <v>-56700</v>
+        <v>-59500</v>
       </c>
       <c r="G91" s="3">
-        <v>-38700</v>
+        <v>-36100</v>
       </c>
       <c r="H91" s="3">
-        <v>-18300</v>
+        <v>-57200</v>
       </c>
       <c r="I91" s="3">
+        <v>-39100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-11700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-13800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-65900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-40200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-48700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-70600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-120600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>36500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-29700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-40000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-42700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-32000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-18200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-36500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-56500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-27500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-45200</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6607,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-84400</v>
+        <v>-71800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1091800</v>
+        <v>-458400</v>
       </c>
       <c r="F94" s="3">
-        <v>-84600</v>
+        <v>-85200</v>
       </c>
       <c r="G94" s="3">
-        <v>-89200</v>
+        <v>-1102000</v>
       </c>
       <c r="H94" s="3">
-        <v>-135100</v>
+        <v>-85300</v>
       </c>
       <c r="I94" s="3">
+        <v>-90000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-136300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-16600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-22500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-91600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-143700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-63700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-93700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-701200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-233700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-62900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-56400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-32000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-111900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>46400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-28300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-61200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-27700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-49400</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6278,52 +6746,58 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-22500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-22100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-23500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-20200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-19700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-19400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-18700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-17400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-16700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-17300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-17300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-15600</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-15700</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-16000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-15600</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +7021,241 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-55500</v>
+        <v>91100</v>
       </c>
       <c r="E100" s="3">
-        <v>800800</v>
+        <v>214400</v>
       </c>
       <c r="F100" s="3">
-        <v>4900</v>
+        <v>-56000</v>
       </c>
       <c r="G100" s="3">
-        <v>197300</v>
+        <v>808200</v>
       </c>
       <c r="H100" s="3">
-        <v>236400</v>
+        <v>5000</v>
       </c>
       <c r="I100" s="3">
+        <v>199200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>238600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-100400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-349700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>407400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-64600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-44700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>48600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>643900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-52200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-56500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-22000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-38300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-33100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-12700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-22900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-33200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F101" s="3">
         <v>-3100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-2000</v>
       </c>
-      <c r="G101" s="3">
-        <v>-7300</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="J101" s="3">
         <v>-3900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>1300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-7200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>15300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-4600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-5800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-5800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>11700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-6300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-4600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>11500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>3000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-4300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>1000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>94400</v>
+        <v>-108400</v>
       </c>
       <c r="E102" s="3">
-        <v>-268400</v>
+        <v>-90800</v>
       </c>
       <c r="F102" s="3">
-        <v>-180600</v>
+        <v>95200</v>
       </c>
       <c r="G102" s="3">
-        <v>234700</v>
+        <v>-270900</v>
       </c>
       <c r="H102" s="3">
-        <v>277400</v>
+        <v>-182300</v>
       </c>
       <c r="I102" s="3">
+        <v>236900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>280000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-80700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-447100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>524400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>43700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-82500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-98400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>65000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-108500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>3100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-83900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>60100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-7600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>81200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-54200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>67500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>56500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CAE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAE_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>722100</v>
+        <v>745800</v>
       </c>
       <c r="E8" s="3">
-        <v>738900</v>
+        <v>700800</v>
       </c>
       <c r="F8" s="3">
-        <v>656700</v>
+        <v>717100</v>
       </c>
       <c r="G8" s="3">
-        <v>630500</v>
+        <v>637300</v>
       </c>
       <c r="H8" s="3">
-        <v>582400</v>
+        <v>611900</v>
       </c>
       <c r="I8" s="3">
-        <v>692000</v>
+        <v>565200</v>
       </c>
       <c r="J8" s="3">
+        <v>671500</v>
+      </c>
+      <c r="K8" s="3">
         <v>644100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>540300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>422000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>767200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>720000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>743500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>654700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>786800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>621300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>540500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>543500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>581000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>616400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>460100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>488400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>564400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>524500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>488200</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>541900</v>
+        <v>540300</v>
       </c>
       <c r="E9" s="3">
-        <v>528800</v>
+        <v>525900</v>
       </c>
       <c r="F9" s="3">
-        <v>469000</v>
+        <v>513100</v>
       </c>
       <c r="G9" s="3">
-        <v>454400</v>
+        <v>455200</v>
       </c>
       <c r="H9" s="3">
-        <v>417000</v>
+        <v>441000</v>
       </c>
       <c r="I9" s="3">
-        <v>508500</v>
+        <v>404600</v>
       </c>
       <c r="J9" s="3">
+        <v>493500</v>
+      </c>
+      <c r="K9" s="3">
         <v>467000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>393800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>339200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>522500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>492800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>547300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>461500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>565000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>443700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>394100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>378900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>387100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>426100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>325000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>336800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>383900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>371400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>344600</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>180200</v>
+        <v>205400</v>
       </c>
       <c r="E10" s="3">
-        <v>210200</v>
+        <v>174900</v>
       </c>
       <c r="F10" s="3">
-        <v>187600</v>
+        <v>203900</v>
       </c>
       <c r="G10" s="3">
-        <v>176100</v>
+        <v>182100</v>
       </c>
       <c r="H10" s="3">
-        <v>165400</v>
+        <v>170900</v>
       </c>
       <c r="I10" s="3">
-        <v>183500</v>
+        <v>160500</v>
       </c>
       <c r="J10" s="3">
+        <v>178000</v>
+      </c>
+      <c r="K10" s="3">
         <v>177100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>146400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>82800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>244700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>227300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>196200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>193300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>221700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>177600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>146400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>164600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>193900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>190300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>135100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>151600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>180500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>153100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>143600</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,85 +1045,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>31500</v>
+        <v>24200</v>
       </c>
       <c r="E12" s="3">
-        <v>27000</v>
+        <v>30600</v>
       </c>
       <c r="F12" s="3">
-        <v>24500</v>
+        <v>26200</v>
       </c>
       <c r="G12" s="3">
         <v>23800</v>
       </c>
       <c r="H12" s="3">
-        <v>18200</v>
+        <v>23100</v>
       </c>
       <c r="I12" s="3">
-        <v>17400</v>
+        <v>17600</v>
       </c>
       <c r="J12" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K12" s="3">
         <v>28200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>19600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>15400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>28400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>26200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>29700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>25300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>7600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>23700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>21100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>23600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>17000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>22200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>22300</v>
-      </c>
-      <c r="X12" s="3">
-        <v>24000</v>
       </c>
       <c r="Y12" s="3">
         <v>24000</v>
       </c>
       <c r="Z12" s="3">
+        <v>24000</v>
+      </c>
+      <c r="AA12" s="3">
         <v>22100</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,43 +1203,46 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>16600</v>
+        <v>17000</v>
       </c>
       <c r="E14" s="3">
-        <v>36900</v>
+        <v>16100</v>
       </c>
       <c r="F14" s="3">
-        <v>32600</v>
+        <v>35800</v>
       </c>
       <c r="G14" s="3">
-        <v>36900</v>
+        <v>31600</v>
       </c>
       <c r="H14" s="3">
-        <v>6600</v>
+        <v>35800</v>
       </c>
       <c r="I14" s="3">
-        <v>48700</v>
+        <v>6400</v>
       </c>
       <c r="J14" s="3">
+        <v>47200</v>
+      </c>
+      <c r="K14" s="3">
         <v>11900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>42100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>76400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>29400</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
@@ -1230,8 +1250,8 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1239,32 +1259,35 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>-10600</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>16200</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>2200</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>691700</v>
+        <v>669100</v>
       </c>
       <c r="E17" s="3">
-        <v>666700</v>
+        <v>671200</v>
       </c>
       <c r="F17" s="3">
-        <v>606000</v>
+        <v>647000</v>
       </c>
       <c r="G17" s="3">
-        <v>600200</v>
+        <v>588100</v>
       </c>
       <c r="H17" s="3">
-        <v>515700</v>
+        <v>582400</v>
       </c>
       <c r="I17" s="3">
-        <v>655100</v>
+        <v>500400</v>
       </c>
       <c r="J17" s="3">
+        <v>635800</v>
+      </c>
+      <c r="K17" s="3">
         <v>579900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>518600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>506600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>652200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>599300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>640000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>566800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>655600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>535300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>468800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>469400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>476000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>503800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>383600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>420400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>486900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>448700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>429700</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>30500</v>
+        <v>76700</v>
       </c>
       <c r="E18" s="3">
-        <v>72200</v>
+        <v>29600</v>
       </c>
       <c r="F18" s="3">
-        <v>50700</v>
+        <v>70100</v>
       </c>
       <c r="G18" s="3">
-        <v>30300</v>
+        <v>49200</v>
       </c>
       <c r="H18" s="3">
-        <v>66700</v>
+        <v>29400</v>
       </c>
       <c r="I18" s="3">
-        <v>36800</v>
+        <v>64700</v>
       </c>
       <c r="J18" s="3">
+        <v>35700</v>
+      </c>
+      <c r="K18" s="3">
         <v>64100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>21600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-84600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>115000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>120800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>103500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>87900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>131200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>86000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>71700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>74100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>105000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>112500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>76500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>67900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>77500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>75700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>58500</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,218 +1582,225 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2900</v>
       </c>
-      <c r="E20" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-4700</v>
-      </c>
       <c r="G20" s="3">
-        <v>-4400</v>
+        <v>-4600</v>
       </c>
       <c r="H20" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1400</v>
       </c>
-      <c r="I20" s="3">
-        <v>-3500</v>
-      </c>
       <c r="J20" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3400</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-4000</v>
       </c>
       <c r="O20" s="3">
         <v>-4000</v>
       </c>
       <c r="P20" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-3700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-200</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>91500</v>
+        <v>132300</v>
       </c>
       <c r="E21" s="3">
-        <v>131800</v>
+        <v>88800</v>
       </c>
       <c r="F21" s="3">
-        <v>107800</v>
+        <v>127900</v>
       </c>
       <c r="G21" s="3">
-        <v>86700</v>
+        <v>104600</v>
       </c>
       <c r="H21" s="3">
-        <v>120300</v>
+        <v>84200</v>
       </c>
       <c r="I21" s="3">
-        <v>90000</v>
+        <v>116800</v>
       </c>
       <c r="J21" s="3">
+        <v>87300</v>
+      </c>
+      <c r="K21" s="3">
         <v>122300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>76100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-21500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>169300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>177400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>162000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>142000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>175300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>123400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>106800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>110600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>136800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>150600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>113900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>108400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>118800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>118000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>95700</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>25100</v>
+        <v>25200</v>
       </c>
       <c r="E22" s="3">
-        <v>22100</v>
+        <v>24400</v>
       </c>
       <c r="F22" s="3">
+        <v>21500</v>
+      </c>
+      <c r="G22" s="3">
+        <v>21300</v>
+      </c>
+      <c r="H22" s="3">
         <v>22000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
+        <v>20100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>20600</v>
+      </c>
+      <c r="K22" s="3">
         <v>22700</v>
       </c>
-      <c r="H22" s="3">
-        <v>20700</v>
-      </c>
-      <c r="I22" s="3">
-        <v>21300</v>
-      </c>
-      <c r="J22" s="3">
-        <v>22700</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>23100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>24400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>26800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>24600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>24500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>23200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>15000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>11800</v>
       </c>
       <c r="S22" s="3">
         <v>11800</v>
       </c>
       <c r="T22" s="3">
+        <v>11800</v>
+      </c>
+      <c r="U22" s="3">
         <v>11700</v>
-      </c>
-      <c r="U22" s="3">
-        <v>14100</v>
       </c>
       <c r="V22" s="3">
         <v>14100</v>
@@ -1772,170 +1812,179 @@
         <v>14100</v>
       </c>
       <c r="Y22" s="3">
+        <v>14100</v>
+      </c>
+      <c r="Z22" s="3">
         <v>14400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>14000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2500</v>
+        <v>45700</v>
       </c>
       <c r="E23" s="3">
-        <v>47000</v>
+        <v>2400</v>
       </c>
       <c r="F23" s="3">
-        <v>24000</v>
+        <v>45700</v>
       </c>
       <c r="G23" s="3">
+        <v>23300</v>
+      </c>
+      <c r="H23" s="3">
         <v>3200</v>
       </c>
-      <c r="H23" s="3">
-        <v>44600</v>
-      </c>
       <c r="I23" s="3">
-        <v>12100</v>
+        <v>43200</v>
       </c>
       <c r="J23" s="3">
+        <v>11700</v>
+      </c>
+      <c r="K23" s="3">
         <v>38400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-111500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>84800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>92200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>75000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>60300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>111400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>71300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>57300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>62100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>87100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>99700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>63400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>54400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>65000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>61500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-400</v>
       </c>
-      <c r="E24" s="3">
-        <v>2900</v>
-      </c>
       <c r="F24" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G24" s="3">
         <v>2000</v>
       </c>
-      <c r="G24" s="3">
-        <v>-10100</v>
-      </c>
       <c r="H24" s="3">
-        <v>8000</v>
+        <v>-9800</v>
       </c>
       <c r="I24" s="3">
-        <v>-2500</v>
+        <v>7700</v>
       </c>
       <c r="J24" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-27100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>21100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>14300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>12900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>10300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>14900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>10800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>11000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>8200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>10200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-8800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>17200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>8900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>11400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>8500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2900</v>
+        <v>34800</v>
       </c>
       <c r="E26" s="3">
-        <v>44200</v>
+        <v>2800</v>
       </c>
       <c r="F26" s="3">
-        <v>22000</v>
+        <v>42900</v>
       </c>
       <c r="G26" s="3">
-        <v>13300</v>
+        <v>21300</v>
       </c>
       <c r="H26" s="3">
-        <v>36600</v>
+        <v>12900</v>
       </c>
       <c r="I26" s="3">
-        <v>14500</v>
+        <v>35500</v>
       </c>
       <c r="J26" s="3">
+        <v>14100</v>
+      </c>
+      <c r="K26" s="3">
         <v>38500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-84300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>63700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>77800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>62200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>50000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>96500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>60500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>46200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>53900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>77000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>108500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>46200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>45500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>53600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>53100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E27" s="3">
         <v>1300</v>
       </c>
-      <c r="E27" s="3">
-        <v>42600</v>
-      </c>
       <c r="F27" s="3">
-        <v>20300</v>
+        <v>41400</v>
       </c>
       <c r="G27" s="3">
-        <v>10800</v>
+        <v>19700</v>
       </c>
       <c r="H27" s="3">
-        <v>35900</v>
+        <v>10500</v>
       </c>
       <c r="I27" s="3">
-        <v>15300</v>
+        <v>34800</v>
       </c>
       <c r="J27" s="3">
+        <v>14900</v>
+      </c>
+      <c r="K27" s="3">
         <v>37800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-84800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>61500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>76200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>61200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>48800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>94100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>59100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>44100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>52200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>74500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>107000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>44900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>44400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>51800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>51900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2292,14 +2353,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>10</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="U29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V29" s="3">
         <v>0</v>
@@ -2311,16 +2372,19 @@
         <v>0</v>
       </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-500</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>200</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F32" s="3">
         <v>2900</v>
       </c>
-      <c r="E32" s="3">
-        <v>3000</v>
-      </c>
-      <c r="F32" s="3">
-        <v>4700</v>
-      </c>
       <c r="G32" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="H32" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I32" s="3">
         <v>1400</v>
       </c>
-      <c r="I32" s="3">
-        <v>3500</v>
-      </c>
       <c r="J32" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K32" s="3">
         <v>3100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3400</v>
-      </c>
-      <c r="N32" s="3">
-        <v>4000</v>
       </c>
       <c r="O32" s="3">
         <v>4000</v>
       </c>
       <c r="P32" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Q32" s="3">
         <v>4400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>3700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>200</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E33" s="3">
         <v>1300</v>
       </c>
-      <c r="E33" s="3">
-        <v>42600</v>
-      </c>
       <c r="F33" s="3">
-        <v>20300</v>
+        <v>41400</v>
       </c>
       <c r="G33" s="3">
-        <v>10800</v>
+        <v>19700</v>
       </c>
       <c r="H33" s="3">
-        <v>35900</v>
+        <v>10500</v>
       </c>
       <c r="I33" s="3">
-        <v>15300</v>
+        <v>34800</v>
       </c>
       <c r="J33" s="3">
+        <v>14900</v>
+      </c>
+      <c r="K33" s="3">
         <v>37800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-84800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>61500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>76200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>61200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>48800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>94100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>59100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>44100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>52200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>74500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>107000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>44900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>44400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>51200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>52100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E35" s="3">
         <v>1300</v>
       </c>
-      <c r="E35" s="3">
-        <v>42600</v>
-      </c>
       <c r="F35" s="3">
-        <v>20300</v>
+        <v>41400</v>
       </c>
       <c r="G35" s="3">
-        <v>10800</v>
+        <v>19700</v>
       </c>
       <c r="H35" s="3">
-        <v>35900</v>
+        <v>10500</v>
       </c>
       <c r="I35" s="3">
-        <v>15300</v>
+        <v>34800</v>
       </c>
       <c r="J35" s="3">
+        <v>14900</v>
+      </c>
+      <c r="K35" s="3">
         <v>37800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-84800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>61500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>76200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>61200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>48800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>94100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>59100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>44100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>52200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>74500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>107000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>44900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>44400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>51200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>52100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>159400</v>
+        <v>152600</v>
       </c>
       <c r="E41" s="3">
-        <v>267800</v>
+        <v>154700</v>
       </c>
       <c r="F41" s="3">
-        <v>358600</v>
+        <v>259900</v>
       </c>
       <c r="G41" s="3">
-        <v>263400</v>
+        <v>348000</v>
       </c>
       <c r="H41" s="3">
-        <v>534300</v>
+        <v>255600</v>
       </c>
       <c r="I41" s="3">
-        <v>716600</v>
+        <v>518500</v>
       </c>
       <c r="J41" s="3">
+        <v>695400</v>
+      </c>
+      <c r="K41" s="3">
         <v>479600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>197800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>278500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>743000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>217100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>184500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>255400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>343400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>275300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>366500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>376500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>455100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>395000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>402600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>321400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>387700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>320200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>263700</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,547 +3165,571 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1015900</v>
+        <v>973500</v>
       </c>
       <c r="E43" s="3">
-        <v>927300</v>
+        <v>985800</v>
       </c>
       <c r="F43" s="3">
-        <v>856600</v>
+        <v>899800</v>
       </c>
       <c r="G43" s="3">
-        <v>929400</v>
+        <v>831300</v>
       </c>
       <c r="H43" s="3">
-        <v>821500</v>
+        <v>901900</v>
       </c>
       <c r="I43" s="3">
-        <v>789500</v>
+        <v>797200</v>
       </c>
       <c r="J43" s="3">
+        <v>766100</v>
+      </c>
+      <c r="K43" s="3">
         <v>761800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>827400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>832500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>915200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>825400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>944500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>889800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>810700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>866500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>728100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>748300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1116900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>438900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>408600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>410000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>441000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>415400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>443000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>425900</v>
+        <v>425200</v>
       </c>
       <c r="E44" s="3">
-        <v>402200</v>
+        <v>413300</v>
       </c>
       <c r="F44" s="3">
-        <v>423200</v>
+        <v>390300</v>
       </c>
       <c r="G44" s="3">
-        <v>416000</v>
+        <v>410600</v>
       </c>
       <c r="H44" s="3">
-        <v>432400</v>
+        <v>403700</v>
       </c>
       <c r="I44" s="3">
-        <v>501200</v>
+        <v>419700</v>
       </c>
       <c r="J44" s="3">
+        <v>486400</v>
+      </c>
+      <c r="K44" s="3">
         <v>534800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>545500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>514200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>483700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>473600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>478800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>468000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>413400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>459900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>417500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>410800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>384100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>275400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>287900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>299000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>319800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>322700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>307600</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>77200</v>
+        <v>78100</v>
       </c>
       <c r="E45" s="3">
-        <v>65200</v>
+        <v>74900</v>
       </c>
       <c r="F45" s="3">
-        <v>60800</v>
+        <v>63300</v>
       </c>
       <c r="G45" s="3">
-        <v>60000</v>
+        <v>59000</v>
       </c>
       <c r="H45" s="3">
-        <v>603500</v>
+        <v>58200</v>
       </c>
       <c r="I45" s="3">
-        <v>606900</v>
+        <v>585700</v>
       </c>
       <c r="J45" s="3">
+        <v>589000</v>
+      </c>
+      <c r="K45" s="3">
         <v>68600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>62600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>64600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>62900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>61900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>61600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>70000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>59000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>54300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>50000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>51300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>346000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>338700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>322500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>359500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>326300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>307300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>307500</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1678300</v>
+        <v>1629400</v>
       </c>
       <c r="E46" s="3">
-        <v>1662500</v>
+        <v>1628700</v>
       </c>
       <c r="F46" s="3">
-        <v>1699200</v>
+        <v>1613300</v>
       </c>
       <c r="G46" s="3">
-        <v>1668700</v>
+        <v>1649000</v>
       </c>
       <c r="H46" s="3">
-        <v>2391700</v>
+        <v>1619300</v>
       </c>
       <c r="I46" s="3">
-        <v>2614200</v>
+        <v>2321000</v>
       </c>
       <c r="J46" s="3">
+        <v>2536900</v>
+      </c>
+      <c r="K46" s="3">
         <v>1844900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1633300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1689800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2204900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1578100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1669300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1683300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1626600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1656000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1562000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1586900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1580200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1448100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1421600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1390000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1474800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1365600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1321900</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>358900</v>
+        <v>382000</v>
       </c>
       <c r="E47" s="3">
-        <v>351300</v>
+        <v>348300</v>
       </c>
       <c r="F47" s="3">
-        <v>351900</v>
+        <v>340900</v>
       </c>
       <c r="G47" s="3">
-        <v>344300</v>
+        <v>341500</v>
       </c>
       <c r="H47" s="3">
-        <v>327500</v>
+        <v>334100</v>
       </c>
       <c r="I47" s="3">
-        <v>326700</v>
+        <v>317800</v>
       </c>
       <c r="J47" s="3">
+        <v>317000</v>
+      </c>
+      <c r="K47" s="3">
         <v>316100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>319400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>328100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>361600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>336300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>258700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>245800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>240300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>226700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>183600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>189900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>180600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>175500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>195000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>277500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>290700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>284600</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>283200</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1961200</v>
+        <v>1985500</v>
       </c>
       <c r="E48" s="3">
-        <v>1936200</v>
+        <v>1903200</v>
       </c>
       <c r="F48" s="3">
-        <v>1920400</v>
+        <v>1878900</v>
       </c>
       <c r="G48" s="3">
-        <v>1911000</v>
+        <v>1863600</v>
       </c>
       <c r="H48" s="3">
-        <v>1788100</v>
+        <v>1854500</v>
       </c>
       <c r="I48" s="3">
-        <v>1762500</v>
+        <v>1735200</v>
       </c>
       <c r="J48" s="3">
+        <v>1710400</v>
+      </c>
+      <c r="K48" s="3">
         <v>1790100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1778100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1823100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2001800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1855500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1976500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1880600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1654600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1482300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1295500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1369200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1342500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1285000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1176900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1190700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1215800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1194800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1191200</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2996300</v>
+        <v>3046800</v>
       </c>
       <c r="E49" s="3">
-        <v>2937400</v>
+        <v>2907700</v>
       </c>
       <c r="F49" s="3">
-        <v>2653100</v>
+        <v>2850500</v>
       </c>
       <c r="G49" s="3">
-        <v>2654800</v>
+        <v>2574600</v>
       </c>
       <c r="H49" s="3">
-        <v>1599500</v>
+        <v>2576300</v>
       </c>
       <c r="I49" s="3">
-        <v>1590700</v>
+        <v>1552200</v>
       </c>
       <c r="J49" s="3">
+        <v>1543600</v>
+      </c>
+      <c r="K49" s="3">
         <v>1590000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1495400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1514000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1614500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1570600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1681600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1608600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1561100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1003100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>802500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>791000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>785600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>769100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>681600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>698900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>725200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>719900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>722900</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>553900</v>
+        <v>540900</v>
       </c>
       <c r="E52" s="3">
-        <v>524300</v>
+        <v>537500</v>
       </c>
       <c r="F52" s="3">
-        <v>505600</v>
+        <v>508800</v>
       </c>
       <c r="G52" s="3">
-        <v>503000</v>
+        <v>490700</v>
       </c>
       <c r="H52" s="3">
-        <v>486600</v>
+        <v>488100</v>
       </c>
       <c r="I52" s="3">
-        <v>475000</v>
+        <v>472200</v>
       </c>
       <c r="J52" s="3">
+        <v>461000</v>
+      </c>
+      <c r="K52" s="3">
         <v>477900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>478800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>478700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>477300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>463800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>483000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>459900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>433600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>422600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>392700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>422300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>412800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>398800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>389300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>389500</v>
-      </c>
-      <c r="Y52" s="3">
-        <v>407200</v>
       </c>
       <c r="Z52" s="3">
         <v>407200</v>
       </c>
       <c r="AA52" s="3">
+        <v>407200</v>
+      </c>
+      <c r="AB52" s="3">
         <v>408200</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7548700</v>
+        <v>7584700</v>
       </c>
       <c r="E54" s="3">
-        <v>7411600</v>
+        <v>7325400</v>
       </c>
       <c r="F54" s="3">
-        <v>7130300</v>
+        <v>7192300</v>
       </c>
       <c r="G54" s="3">
-        <v>7081800</v>
+        <v>6919300</v>
       </c>
       <c r="H54" s="3">
-        <v>6593500</v>
+        <v>6872300</v>
       </c>
       <c r="I54" s="3">
-        <v>6769100</v>
+        <v>6398500</v>
       </c>
       <c r="J54" s="3">
+        <v>6568800</v>
+      </c>
+      <c r="K54" s="3">
         <v>6018900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5705000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5833700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6660100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5804300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6069100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5878100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5516100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4790700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4236400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4359300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4301700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4076500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3864400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3946500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4113700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3972100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>3927300</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4187,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>692500</v>
+        <v>668600</v>
       </c>
       <c r="E57" s="3">
-        <v>754500</v>
+        <v>672000</v>
       </c>
       <c r="F57" s="3">
-        <v>689300</v>
+        <v>732200</v>
       </c>
       <c r="G57" s="3">
-        <v>616000</v>
+        <v>668900</v>
       </c>
       <c r="H57" s="3">
-        <v>592900</v>
+        <v>597800</v>
       </c>
       <c r="I57" s="3">
-        <v>731700</v>
+        <v>575400</v>
       </c>
       <c r="J57" s="3">
+        <v>710000</v>
+      </c>
+      <c r="K57" s="3">
         <v>710200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>668100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>632900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>733600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>654500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>614700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>632600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>671400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>680000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>532200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>492900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>496300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>452300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>418000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>454100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>534100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>615400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>581600</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>177000</v>
+        <v>182600</v>
       </c>
       <c r="E58" s="3">
-        <v>187100</v>
+        <v>171800</v>
       </c>
       <c r="F58" s="3">
-        <v>151600</v>
+        <v>181600</v>
       </c>
       <c r="G58" s="3">
-        <v>159200</v>
+        <v>147100</v>
       </c>
       <c r="H58" s="3">
-        <v>177700</v>
+        <v>154500</v>
       </c>
       <c r="I58" s="3">
-        <v>167400</v>
+        <v>172400</v>
       </c>
       <c r="J58" s="3">
+        <v>162400</v>
+      </c>
+      <c r="K58" s="3">
         <v>220400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>175900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>167900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>161900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>96000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>191800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>157900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>203300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>175500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>94300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>89700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>38800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>41000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>35000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>37200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>39900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>39700</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>717400</v>
+        <v>734700</v>
       </c>
       <c r="E59" s="3">
-        <v>676500</v>
+        <v>696200</v>
       </c>
       <c r="F59" s="3">
-        <v>599600</v>
+        <v>656500</v>
       </c>
       <c r="G59" s="3">
-        <v>542800</v>
+        <v>581800</v>
       </c>
       <c r="H59" s="3">
-        <v>1069700</v>
+        <v>526700</v>
       </c>
       <c r="I59" s="3">
-        <v>1138500</v>
+        <v>1038100</v>
       </c>
       <c r="J59" s="3">
+        <v>1104800</v>
+      </c>
+      <c r="K59" s="3">
         <v>554500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>619400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>648300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>723600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>601800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>606300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>613000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>579800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>653200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>530700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>538100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>561900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>457900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>390600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>390800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>404700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>221300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>225100</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1587000</v>
+        <v>1586000</v>
       </c>
       <c r="E60" s="3">
-        <v>1618100</v>
+        <v>1540000</v>
       </c>
       <c r="F60" s="3">
-        <v>1440500</v>
+        <v>1570200</v>
       </c>
       <c r="G60" s="3">
-        <v>1317900</v>
+        <v>1397900</v>
       </c>
       <c r="H60" s="3">
-        <v>1840300</v>
+        <v>1278900</v>
       </c>
       <c r="I60" s="3">
-        <v>2037500</v>
+        <v>1785800</v>
       </c>
       <c r="J60" s="3">
+        <v>1977200</v>
+      </c>
+      <c r="K60" s="3">
         <v>1485100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1463400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1449100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1619000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1352300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1412800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1403500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1454600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1508700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1157200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1120800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1097000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>951200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>843600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>882100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>978600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>876500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>842800</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2323600</v>
+        <v>2368700</v>
       </c>
       <c r="E61" s="3">
-        <v>2169900</v>
+        <v>2254900</v>
       </c>
       <c r="F61" s="3">
-        <v>1994800</v>
+        <v>2105700</v>
       </c>
       <c r="G61" s="3">
-        <v>2024300</v>
+        <v>1935800</v>
       </c>
       <c r="H61" s="3">
-        <v>1648200</v>
+        <v>1964400</v>
       </c>
       <c r="I61" s="3">
-        <v>1652100</v>
+        <v>1599400</v>
       </c>
       <c r="J61" s="3">
+        <v>1603200</v>
+      </c>
+      <c r="K61" s="3">
         <v>1667400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1830300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1956300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2438400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1919500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2017900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1931500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1589100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>850000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>849900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>897600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>899500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>883600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>866100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>882800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>924600</v>
-      </c>
-      <c r="Z61" s="3">
-        <v>936400</v>
       </c>
       <c r="AA61" s="3">
         <v>936400</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>936400</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>423900</v>
+        <v>388200</v>
       </c>
       <c r="E62" s="3">
-        <v>461600</v>
+        <v>411300</v>
       </c>
       <c r="F62" s="3">
-        <v>588700</v>
+        <v>448000</v>
       </c>
       <c r="G62" s="3">
-        <v>630200</v>
+        <v>571300</v>
       </c>
       <c r="H62" s="3">
-        <v>591600</v>
+        <v>611600</v>
       </c>
       <c r="I62" s="3">
-        <v>593500</v>
+        <v>574100</v>
       </c>
       <c r="J62" s="3">
+        <v>576000</v>
+      </c>
+      <c r="K62" s="3">
         <v>652800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>610600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>634900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>578600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>625500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>689000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>666800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>617200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>629100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>570500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>597800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>595300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>615100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>583200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>600000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>611800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>603200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>648900</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4392300</v>
+        <v>4402300</v>
       </c>
       <c r="E66" s="3">
-        <v>4309100</v>
+        <v>4262300</v>
       </c>
       <c r="F66" s="3">
-        <v>4082800</v>
+        <v>4181600</v>
       </c>
       <c r="G66" s="3">
-        <v>4029800</v>
+        <v>3962100</v>
       </c>
       <c r="H66" s="3">
-        <v>4134500</v>
+        <v>3910600</v>
       </c>
       <c r="I66" s="3">
-        <v>4339100</v>
+        <v>4012100</v>
       </c>
       <c r="J66" s="3">
+        <v>4210700</v>
+      </c>
+      <c r="K66" s="3">
         <v>3866400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3969900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4106900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4705500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3962400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4187300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4064300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3721500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3048400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2631900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2671100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2642800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2497600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2338500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2410000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2561300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2460700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2471400</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1412000</v>
+        <v>1395200</v>
       </c>
       <c r="E72" s="3">
-        <v>1375400</v>
+        <v>1370200</v>
       </c>
       <c r="F72" s="3">
-        <v>1270200</v>
+        <v>1334700</v>
       </c>
       <c r="G72" s="3">
-        <v>1261800</v>
+        <v>1232600</v>
       </c>
       <c r="H72" s="3">
-        <v>1232400</v>
+        <v>1224400</v>
       </c>
       <c r="I72" s="3">
-        <v>1194400</v>
+        <v>1196000</v>
       </c>
       <c r="J72" s="3">
+        <v>1159100</v>
+      </c>
+      <c r="K72" s="3">
         <v>1121200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1069400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1064700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1248300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1188800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1199400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1135000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1122300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1045900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1001500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1021400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>978100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>965700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>934500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>902100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>916000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>877400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>806200</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3156400</v>
+        <v>3182400</v>
       </c>
       <c r="E76" s="3">
-        <v>3102500</v>
+        <v>3063100</v>
       </c>
       <c r="F76" s="3">
-        <v>3047400</v>
+        <v>3010700</v>
       </c>
       <c r="G76" s="3">
-        <v>3052000</v>
+        <v>2957300</v>
       </c>
       <c r="H76" s="3">
-        <v>2459100</v>
+        <v>2961700</v>
       </c>
       <c r="I76" s="3">
-        <v>2430000</v>
+        <v>2386300</v>
       </c>
       <c r="J76" s="3">
+        <v>2358100</v>
+      </c>
+      <c r="K76" s="3">
         <v>2152600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1735100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1726900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1954500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1841900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1881800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1813800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1794700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1742300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1604500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1688200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1658900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1578800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1525900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1536500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1552400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1511400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1455900</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E81" s="3">
         <v>1300</v>
       </c>
-      <c r="E81" s="3">
-        <v>42600</v>
-      </c>
       <c r="F81" s="3">
-        <v>20300</v>
+        <v>41400</v>
       </c>
       <c r="G81" s="3">
-        <v>10800</v>
+        <v>19700</v>
       </c>
       <c r="H81" s="3">
-        <v>35900</v>
+        <v>10500</v>
       </c>
       <c r="I81" s="3">
-        <v>15300</v>
+        <v>34800</v>
       </c>
       <c r="J81" s="3">
+        <v>14900</v>
+      </c>
+      <c r="K81" s="3">
         <v>37800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-84800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>61500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>76200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>61200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>48800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>94100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>59100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>44100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>52200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>74500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>107000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>44900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>44400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>51200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>52100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>63900</v>
+        <v>61500</v>
       </c>
       <c r="E83" s="3">
-        <v>62600</v>
+        <v>62000</v>
       </c>
       <c r="F83" s="3">
-        <v>61800</v>
+        <v>60700</v>
       </c>
       <c r="G83" s="3">
-        <v>60800</v>
+        <v>60000</v>
       </c>
       <c r="H83" s="3">
+        <v>59000</v>
+      </c>
+      <c r="I83" s="3">
+        <v>53400</v>
+      </c>
+      <c r="J83" s="3">
         <v>55000</v>
       </c>
-      <c r="I83" s="3">
-        <v>56600</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>61300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>58400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>65600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>57700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>60600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>62500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>58500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>48900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>40300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>37800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>36700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>35500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>36800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>36400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>39900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>39500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>42500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-125800</v>
+        <v>103600</v>
       </c>
       <c r="E89" s="3">
-        <v>160000</v>
+        <v>-122100</v>
       </c>
       <c r="F89" s="3">
-        <v>239600</v>
+        <v>155300</v>
       </c>
       <c r="G89" s="3">
-        <v>23900</v>
+        <v>232500</v>
       </c>
       <c r="H89" s="3">
-        <v>-99900</v>
+        <v>23200</v>
       </c>
       <c r="I89" s="3">
-        <v>135100</v>
+        <v>-96900</v>
       </c>
       <c r="J89" s="3">
+        <v>131100</v>
+      </c>
+      <c r="K89" s="3">
         <v>181700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>35000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-67800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>193400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>251100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>30400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-47600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>128000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>165600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>128700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-23000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>102600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>139600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>72300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-14300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>151700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>119900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-57200</v>
+        <v>-51500</v>
       </c>
       <c r="E91" s="3">
-        <v>-57800</v>
+        <v>-55500</v>
       </c>
       <c r="F91" s="3">
-        <v>-59500</v>
+        <v>-56100</v>
       </c>
       <c r="G91" s="3">
-        <v>-36100</v>
+        <v>-57700</v>
       </c>
       <c r="H91" s="3">
-        <v>-57200</v>
+        <v>-35100</v>
       </c>
       <c r="I91" s="3">
-        <v>-39100</v>
+        <v>-55500</v>
       </c>
       <c r="J91" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-18500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-13800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-65900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-40200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-48700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-70600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-120600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>36500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-29700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-40000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-42700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-32000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-18200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-36500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-56500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-27500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-45200</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-71800</v>
+        <v>-89400</v>
       </c>
       <c r="E94" s="3">
-        <v>-458400</v>
+        <v>-69700</v>
       </c>
       <c r="F94" s="3">
-        <v>-85200</v>
+        <v>-444900</v>
       </c>
       <c r="G94" s="3">
-        <v>-1102000</v>
+        <v>-82700</v>
       </c>
       <c r="H94" s="3">
-        <v>-85300</v>
+        <v>-1069400</v>
       </c>
       <c r="I94" s="3">
-        <v>-90000</v>
+        <v>-82800</v>
       </c>
       <c r="J94" s="3">
+        <v>-87300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-136300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-16600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-22500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-91600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-143700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-63700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-93700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-701200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-233700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-62900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-56400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-32000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-111900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>46400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-28300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-61200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-27700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-49400</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6752,52 +6986,55 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-22500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-22100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-23500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-20200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-19700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-19400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-18700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-17400</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-16700</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-17300</v>
       </c>
       <c r="W96" s="3">
         <v>-17300</v>
       </c>
       <c r="X96" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-15600</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-15700</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-16000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-15600</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>91100</v>
+        <v>-21800</v>
       </c>
       <c r="E100" s="3">
-        <v>214400</v>
+        <v>88500</v>
       </c>
       <c r="F100" s="3">
-        <v>-56000</v>
+        <v>208100</v>
       </c>
       <c r="G100" s="3">
-        <v>808200</v>
+        <v>-54400</v>
       </c>
       <c r="H100" s="3">
-        <v>5000</v>
+        <v>784300</v>
       </c>
       <c r="I100" s="3">
-        <v>199200</v>
+        <v>4800</v>
       </c>
       <c r="J100" s="3">
+        <v>193300</v>
+      </c>
+      <c r="K100" s="3">
         <v>238600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-349700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>407400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-64600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-44700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>48600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>643900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-52200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-56500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-22000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-38300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-33100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-12700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-22900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-33200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1900</v>
       </c>
-      <c r="E101" s="3">
-        <v>-6800</v>
-      </c>
       <c r="F101" s="3">
-        <v>-3100</v>
+        <v>-6600</v>
       </c>
       <c r="G101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="H101" s="3">
         <v>-1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2000</v>
       </c>
-      <c r="I101" s="3">
-        <v>-7400</v>
-      </c>
       <c r="J101" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-3900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-7200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>15300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-4600</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-5800</v>
       </c>
       <c r="Q101" s="3">
         <v>-5800</v>
       </c>
       <c r="R101" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="S101" s="3">
         <v>11700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-6300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-4600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>11500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>3000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-4300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-108400</v>
+        <v>-2100</v>
       </c>
       <c r="E102" s="3">
-        <v>-90800</v>
+        <v>-105200</v>
       </c>
       <c r="F102" s="3">
-        <v>95200</v>
+        <v>-88200</v>
       </c>
       <c r="G102" s="3">
-        <v>-270900</v>
+        <v>92400</v>
       </c>
       <c r="H102" s="3">
-        <v>-182300</v>
+        <v>-262900</v>
       </c>
       <c r="I102" s="3">
-        <v>236900</v>
+        <v>-176900</v>
       </c>
       <c r="J102" s="3">
+        <v>229900</v>
+      </c>
+      <c r="K102" s="3">
         <v>280000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-80700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-447100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>524400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>43700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-82500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-98400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>65000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-108500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-83900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>60100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-7600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>81200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-54200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>67500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>56500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CAE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAE_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,371 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>745800</v>
+        <v>737900</v>
       </c>
       <c r="E8" s="3">
-        <v>700800</v>
+        <v>718300</v>
       </c>
       <c r="F8" s="3">
-        <v>717100</v>
+        <v>675000</v>
       </c>
       <c r="G8" s="3">
-        <v>637300</v>
+        <v>690700</v>
       </c>
       <c r="H8" s="3">
-        <v>611900</v>
+        <v>613800</v>
       </c>
       <c r="I8" s="3">
-        <v>565200</v>
+        <v>589400</v>
       </c>
       <c r="J8" s="3">
+        <v>544400</v>
+      </c>
+      <c r="K8" s="3">
         <v>671500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>644100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>540300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>422000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>767200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>720000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>743500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>654700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>786800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>621300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>540500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>543500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>581000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>616400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>460100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>488400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>564400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>524500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>488200</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>540300</v>
+        <v>522400</v>
       </c>
       <c r="E9" s="3">
-        <v>525900</v>
+        <v>520400</v>
       </c>
       <c r="F9" s="3">
-        <v>513100</v>
+        <v>506500</v>
       </c>
       <c r="G9" s="3">
-        <v>455200</v>
+        <v>494200</v>
       </c>
       <c r="H9" s="3">
-        <v>441000</v>
+        <v>438400</v>
       </c>
       <c r="I9" s="3">
-        <v>404600</v>
+        <v>424700</v>
       </c>
       <c r="J9" s="3">
+        <v>389700</v>
+      </c>
+      <c r="K9" s="3">
         <v>493500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>467000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>393800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>339200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>522500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>492800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>547300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>461500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>565000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>443700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>394100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>378900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>387100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>426100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>325000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>336800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>383900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>371400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>344600</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>205400</v>
+        <v>215500</v>
       </c>
       <c r="E10" s="3">
-        <v>174900</v>
+        <v>197900</v>
       </c>
       <c r="F10" s="3">
-        <v>203900</v>
+        <v>168400</v>
       </c>
       <c r="G10" s="3">
-        <v>182100</v>
+        <v>196400</v>
       </c>
       <c r="H10" s="3">
-        <v>170900</v>
+        <v>175400</v>
       </c>
       <c r="I10" s="3">
-        <v>160500</v>
+        <v>164600</v>
       </c>
       <c r="J10" s="3">
+        <v>154600</v>
+      </c>
+      <c r="K10" s="3">
         <v>178000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>177100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>146400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>82800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>244700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>227300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>196200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>193300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>221700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>177600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>146400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>164600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>193900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>190300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>135100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>151600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>180500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>153100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>143600</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,88 +1058,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>24200</v>
+        <v>21800</v>
       </c>
       <c r="E12" s="3">
-        <v>30600</v>
+        <v>23300</v>
       </c>
       <c r="F12" s="3">
+        <v>29400</v>
+      </c>
+      <c r="G12" s="3">
+        <v>25200</v>
+      </c>
+      <c r="H12" s="3">
+        <v>22900</v>
+      </c>
+      <c r="I12" s="3">
+        <v>22200</v>
+      </c>
+      <c r="J12" s="3">
+        <v>17000</v>
+      </c>
+      <c r="K12" s="3">
+        <v>16900</v>
+      </c>
+      <c r="L12" s="3">
+        <v>28200</v>
+      </c>
+      <c r="M12" s="3">
+        <v>19600</v>
+      </c>
+      <c r="N12" s="3">
+        <v>15400</v>
+      </c>
+      <c r="O12" s="3">
+        <v>28400</v>
+      </c>
+      <c r="P12" s="3">
         <v>26200</v>
       </c>
-      <c r="G12" s="3">
-        <v>23800</v>
-      </c>
-      <c r="H12" s="3">
-        <v>23100</v>
-      </c>
-      <c r="I12" s="3">
-        <v>17600</v>
-      </c>
-      <c r="J12" s="3">
-        <v>16900</v>
-      </c>
-      <c r="K12" s="3">
-        <v>28200</v>
-      </c>
-      <c r="L12" s="3">
-        <v>19600</v>
-      </c>
-      <c r="M12" s="3">
-        <v>15400</v>
-      </c>
-      <c r="N12" s="3">
-        <v>28400</v>
-      </c>
-      <c r="O12" s="3">
-        <v>26200</v>
-      </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>29700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>25300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>7600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>23700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>21100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>23600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>17000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>22200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>22300</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>24000</v>
       </c>
       <c r="Z12" s="3">
         <v>24000</v>
       </c>
       <c r="AA12" s="3">
+        <v>24000</v>
+      </c>
+      <c r="AB12" s="3">
         <v>22100</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1206,46 +1222,49 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>17000</v>
+        <v>2200</v>
       </c>
       <c r="E14" s="3">
-        <v>16100</v>
+        <v>16300</v>
       </c>
       <c r="F14" s="3">
-        <v>35800</v>
+        <v>15500</v>
       </c>
       <c r="G14" s="3">
-        <v>31600</v>
+        <v>34500</v>
       </c>
       <c r="H14" s="3">
-        <v>35800</v>
+        <v>30400</v>
       </c>
       <c r="I14" s="3">
-        <v>6400</v>
+        <v>34500</v>
       </c>
       <c r="J14" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K14" s="3">
         <v>47200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>11900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>42100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>76400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>29400</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1253,8 +1272,8 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1262,32 +1281,35 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>-10600</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>16200</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>2200</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>669100</v>
+        <v>632400</v>
       </c>
       <c r="E17" s="3">
-        <v>671200</v>
+        <v>644500</v>
       </c>
       <c r="F17" s="3">
-        <v>647000</v>
+        <v>646500</v>
       </c>
       <c r="G17" s="3">
-        <v>588100</v>
+        <v>623200</v>
       </c>
       <c r="H17" s="3">
-        <v>582400</v>
+        <v>566400</v>
       </c>
       <c r="I17" s="3">
-        <v>500400</v>
+        <v>561000</v>
       </c>
       <c r="J17" s="3">
+        <v>482000</v>
+      </c>
+      <c r="K17" s="3">
         <v>635800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>579900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>518600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>506600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>652200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>599300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>640000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>566800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>655600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>535300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>468800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>469400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>476000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>503800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>383600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>420400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>486900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>448700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>429700</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>76700</v>
+        <v>105500</v>
       </c>
       <c r="E18" s="3">
-        <v>29600</v>
+        <v>73800</v>
       </c>
       <c r="F18" s="3">
-        <v>70100</v>
+        <v>28500</v>
       </c>
       <c r="G18" s="3">
-        <v>49200</v>
+        <v>67500</v>
       </c>
       <c r="H18" s="3">
-        <v>29400</v>
+        <v>47400</v>
       </c>
       <c r="I18" s="3">
-        <v>64700</v>
+        <v>28400</v>
       </c>
       <c r="J18" s="3">
+        <v>62300</v>
+      </c>
+      <c r="K18" s="3">
         <v>35700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>64100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>21600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-84600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>115000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>120800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>103500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>87900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>131200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>86000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>71700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>74100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>105000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>112500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>76500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>67900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>77500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>75700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>58500</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,227 +1615,234 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-5900</v>
+        <v>-3800</v>
       </c>
       <c r="E20" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G20" s="3">
         <v>-2800</v>
       </c>
-      <c r="F20" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-4600</v>
-      </c>
       <c r="H20" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="I20" s="3">
-        <v>-1400</v>
+        <v>-4100</v>
       </c>
       <c r="J20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3400</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-4000</v>
       </c>
       <c r="P20" s="3">
         <v>-4000</v>
       </c>
       <c r="Q20" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="R20" s="3">
         <v>-4400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-3700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>1800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-200</v>
       </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>132300</v>
+        <v>165600</v>
       </c>
       <c r="E21" s="3">
-        <v>88800</v>
+        <v>127400</v>
       </c>
       <c r="F21" s="3">
-        <v>127900</v>
+        <v>85600</v>
       </c>
       <c r="G21" s="3">
-        <v>104600</v>
+        <v>123200</v>
       </c>
       <c r="H21" s="3">
-        <v>84200</v>
+        <v>100700</v>
       </c>
       <c r="I21" s="3">
-        <v>116800</v>
+        <v>81100</v>
       </c>
       <c r="J21" s="3">
+        <v>112500</v>
+      </c>
+      <c r="K21" s="3">
         <v>87300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>122300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>76100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-21500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>169300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>177400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>162000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>142000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>175300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>123400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>106800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>110600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>136800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>150600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>113900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>108400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>118800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>118000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>95700</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>25200</v>
+        <v>31500</v>
       </c>
       <c r="E22" s="3">
+        <v>24200</v>
+      </c>
+      <c r="F22" s="3">
+        <v>23500</v>
+      </c>
+      <c r="G22" s="3">
+        <v>20700</v>
+      </c>
+      <c r="H22" s="3">
+        <v>20500</v>
+      </c>
+      <c r="I22" s="3">
+        <v>21200</v>
+      </c>
+      <c r="J22" s="3">
+        <v>19400</v>
+      </c>
+      <c r="K22" s="3">
+        <v>20600</v>
+      </c>
+      <c r="L22" s="3">
+        <v>22700</v>
+      </c>
+      <c r="M22" s="3">
+        <v>23100</v>
+      </c>
+      <c r="N22" s="3">
         <v>24400</v>
       </c>
-      <c r="F22" s="3">
-        <v>21500</v>
-      </c>
-      <c r="G22" s="3">
-        <v>21300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>22000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>20100</v>
-      </c>
-      <c r="J22" s="3">
-        <v>20600</v>
-      </c>
-      <c r="K22" s="3">
-        <v>22700</v>
-      </c>
-      <c r="L22" s="3">
-        <v>23100</v>
-      </c>
-      <c r="M22" s="3">
-        <v>24400</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>26800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>24600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>24500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>23200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>15000</v>
-      </c>
-      <c r="S22" s="3">
-        <v>11800</v>
       </c>
       <c r="T22" s="3">
         <v>11800</v>
       </c>
       <c r="U22" s="3">
+        <v>11800</v>
+      </c>
+      <c r="V22" s="3">
         <v>11700</v>
-      </c>
-      <c r="V22" s="3">
-        <v>14100</v>
       </c>
       <c r="W22" s="3">
         <v>14100</v>
@@ -1815,176 +1854,185 @@
         <v>14100</v>
       </c>
       <c r="Z22" s="3">
+        <v>14100</v>
+      </c>
+      <c r="AA22" s="3">
         <v>14400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>14000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>45700</v>
+        <v>70200</v>
       </c>
       <c r="E23" s="3">
-        <v>2400</v>
+        <v>44000</v>
       </c>
       <c r="F23" s="3">
-        <v>45700</v>
+        <v>2300</v>
       </c>
       <c r="G23" s="3">
-        <v>23300</v>
+        <v>44000</v>
       </c>
       <c r="H23" s="3">
-        <v>3200</v>
+        <v>22400</v>
       </c>
       <c r="I23" s="3">
-        <v>43200</v>
+        <v>3000</v>
       </c>
       <c r="J23" s="3">
+        <v>41700</v>
+      </c>
+      <c r="K23" s="3">
         <v>11700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>38400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-111500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>84800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>92200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>75000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>60300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>111400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>71300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>57300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>62100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>87100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>99700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>63400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>54400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>65000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>61500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>10900</v>
+        <v>12400</v>
       </c>
       <c r="E24" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="F24" s="3">
-        <v>2800</v>
-      </c>
       <c r="G24" s="3">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="H24" s="3">
-        <v>-9800</v>
+        <v>1900</v>
       </c>
       <c r="I24" s="3">
-        <v>7700</v>
+        <v>-9400</v>
       </c>
       <c r="J24" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K24" s="3">
         <v>-2400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-27100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>21100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>14300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>12900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>10300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>14900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>10800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>11000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>8200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>10200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-8800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>17200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>8900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>11400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>8500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>34800</v>
+        <v>57900</v>
       </c>
       <c r="E26" s="3">
-        <v>2800</v>
+        <v>33500</v>
       </c>
       <c r="F26" s="3">
-        <v>42900</v>
+        <v>2700</v>
       </c>
       <c r="G26" s="3">
-        <v>21300</v>
+        <v>41300</v>
       </c>
       <c r="H26" s="3">
-        <v>12900</v>
+        <v>20500</v>
       </c>
       <c r="I26" s="3">
-        <v>35500</v>
+        <v>12400</v>
       </c>
       <c r="J26" s="3">
+        <v>34200</v>
+      </c>
+      <c r="K26" s="3">
         <v>14100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>38500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-84300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>63700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>77800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>62200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>50000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>96500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>60500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>46200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>53900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>77000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>108500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>46200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>45500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>53600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>53100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>33400</v>
+        <v>56500</v>
       </c>
       <c r="E27" s="3">
-        <v>1300</v>
+        <v>32200</v>
       </c>
       <c r="F27" s="3">
-        <v>41400</v>
+        <v>1200</v>
       </c>
       <c r="G27" s="3">
-        <v>19700</v>
+        <v>39800</v>
       </c>
       <c r="H27" s="3">
-        <v>10500</v>
+        <v>18900</v>
       </c>
       <c r="I27" s="3">
-        <v>34800</v>
+        <v>10100</v>
       </c>
       <c r="J27" s="3">
+        <v>33600</v>
+      </c>
+      <c r="K27" s="3">
         <v>14900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>37800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-84800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>61500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>76200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>61200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>48800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>94100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>59100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>44100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>52200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>74500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>107000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>44900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>44400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>51800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>51900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2356,14 +2416,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>10</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
+      <c r="V29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W29" s="3">
         <v>0</v>
@@ -2375,16 +2435,19 @@
         <v>0</v>
       </c>
       <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-500</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>200</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2609,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5900</v>
+        <v>3800</v>
       </c>
       <c r="E32" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G32" s="3">
         <v>2800</v>
       </c>
-      <c r="F32" s="3">
-        <v>2900</v>
-      </c>
-      <c r="G32" s="3">
-        <v>4600</v>
-      </c>
       <c r="H32" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="I32" s="3">
-        <v>1400</v>
+        <v>4100</v>
       </c>
       <c r="J32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K32" s="3">
         <v>3400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3400</v>
-      </c>
-      <c r="O32" s="3">
-        <v>4000</v>
       </c>
       <c r="P32" s="3">
         <v>4000</v>
       </c>
       <c r="Q32" s="3">
+        <v>4000</v>
+      </c>
+      <c r="R32" s="3">
         <v>4400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>4800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>3700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-1800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>200</v>
       </c>
-      <c r="AB32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>33400</v>
+        <v>56500</v>
       </c>
       <c r="E33" s="3">
-        <v>1300</v>
+        <v>32200</v>
       </c>
       <c r="F33" s="3">
-        <v>41400</v>
+        <v>1200</v>
       </c>
       <c r="G33" s="3">
-        <v>19700</v>
+        <v>39800</v>
       </c>
       <c r="H33" s="3">
-        <v>10500</v>
+        <v>18900</v>
       </c>
       <c r="I33" s="3">
-        <v>34800</v>
+        <v>10100</v>
       </c>
       <c r="J33" s="3">
+        <v>33600</v>
+      </c>
+      <c r="K33" s="3">
         <v>14900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>37800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-84800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>61500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>76200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>61200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>48800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>94100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>59100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>44100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>52200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>74500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>107000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>44900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>44400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>51200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>52100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>33400</v>
+        <v>56500</v>
       </c>
       <c r="E35" s="3">
-        <v>1300</v>
+        <v>32200</v>
       </c>
       <c r="F35" s="3">
-        <v>41400</v>
+        <v>1200</v>
       </c>
       <c r="G35" s="3">
-        <v>19700</v>
+        <v>39800</v>
       </c>
       <c r="H35" s="3">
-        <v>10500</v>
+        <v>18900</v>
       </c>
       <c r="I35" s="3">
-        <v>34800</v>
+        <v>10100</v>
       </c>
       <c r="J35" s="3">
+        <v>33600</v>
+      </c>
+      <c r="K35" s="3">
         <v>14900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>37800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-84800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>61500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>76200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>61200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>48800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>94100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>59100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>44100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>52200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>74500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>107000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>44900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>44400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>51200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>52100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3093,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>152600</v>
+        <v>138600</v>
       </c>
       <c r="E41" s="3">
-        <v>154700</v>
+        <v>147000</v>
       </c>
       <c r="F41" s="3">
-        <v>259900</v>
+        <v>149000</v>
       </c>
       <c r="G41" s="3">
-        <v>348000</v>
+        <v>250300</v>
       </c>
       <c r="H41" s="3">
-        <v>255600</v>
+        <v>335200</v>
       </c>
       <c r="I41" s="3">
-        <v>518500</v>
+        <v>246200</v>
       </c>
       <c r="J41" s="3">
+        <v>499400</v>
+      </c>
+      <c r="K41" s="3">
         <v>695400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>479600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>197800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>278500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>743000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>217100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>184500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>255400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>343400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>275300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>366500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>376500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>455100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>395000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>402600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>321400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>387700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>320200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>263700</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,568 +3257,592 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>973500</v>
+        <v>942200</v>
       </c>
       <c r="E43" s="3">
-        <v>985800</v>
+        <v>937700</v>
       </c>
       <c r="F43" s="3">
-        <v>899800</v>
+        <v>949500</v>
       </c>
       <c r="G43" s="3">
-        <v>831300</v>
+        <v>866700</v>
       </c>
       <c r="H43" s="3">
-        <v>901900</v>
+        <v>800700</v>
       </c>
       <c r="I43" s="3">
-        <v>797200</v>
+        <v>868700</v>
       </c>
       <c r="J43" s="3">
+        <v>767800</v>
+      </c>
+      <c r="K43" s="3">
         <v>766100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>761800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>827400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>832500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>915200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>825400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>944500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>889800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>810700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>866500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>728100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>748300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1116900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>438900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>408600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>410000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>441000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>415400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>443000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>425200</v>
+        <v>433100</v>
       </c>
       <c r="E44" s="3">
-        <v>413300</v>
+        <v>409600</v>
       </c>
       <c r="F44" s="3">
-        <v>390300</v>
+        <v>398100</v>
       </c>
       <c r="G44" s="3">
-        <v>410600</v>
+        <v>375900</v>
       </c>
       <c r="H44" s="3">
-        <v>403700</v>
+        <v>395500</v>
       </c>
       <c r="I44" s="3">
-        <v>419700</v>
+        <v>388800</v>
       </c>
       <c r="J44" s="3">
+        <v>404200</v>
+      </c>
+      <c r="K44" s="3">
         <v>486400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>534800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>545500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>514200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>483700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>473600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>478800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>468000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>413400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>459900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>417500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>410800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>384100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>275400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>287900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>299000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>319800</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>322700</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>307600</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>78100</v>
+        <v>61900</v>
       </c>
       <c r="E45" s="3">
-        <v>74900</v>
+        <v>75200</v>
       </c>
       <c r="F45" s="3">
-        <v>63300</v>
+        <v>72200</v>
       </c>
       <c r="G45" s="3">
+        <v>61000</v>
+      </c>
+      <c r="H45" s="3">
+        <v>56800</v>
+      </c>
+      <c r="I45" s="3">
+        <v>56000</v>
+      </c>
+      <c r="J45" s="3">
+        <v>564100</v>
+      </c>
+      <c r="K45" s="3">
+        <v>589000</v>
+      </c>
+      <c r="L45" s="3">
+        <v>68600</v>
+      </c>
+      <c r="M45" s="3">
+        <v>62600</v>
+      </c>
+      <c r="N45" s="3">
+        <v>64600</v>
+      </c>
+      <c r="O45" s="3">
+        <v>62900</v>
+      </c>
+      <c r="P45" s="3">
+        <v>61900</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>61600</v>
+      </c>
+      <c r="R45" s="3">
+        <v>70000</v>
+      </c>
+      <c r="S45" s="3">
         <v>59000</v>
       </c>
-      <c r="H45" s="3">
-        <v>58200</v>
-      </c>
-      <c r="I45" s="3">
-        <v>585700</v>
-      </c>
-      <c r="J45" s="3">
-        <v>589000</v>
-      </c>
-      <c r="K45" s="3">
-        <v>68600</v>
-      </c>
-      <c r="L45" s="3">
-        <v>62600</v>
-      </c>
-      <c r="M45" s="3">
-        <v>64600</v>
-      </c>
-      <c r="N45" s="3">
-        <v>62900</v>
-      </c>
-      <c r="O45" s="3">
-        <v>61900</v>
-      </c>
-      <c r="P45" s="3">
-        <v>61600</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>70000</v>
-      </c>
-      <c r="R45" s="3">
-        <v>59000</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>54300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>50000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>51300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>346000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>338700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>322500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>359500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>326300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>307300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>307500</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1629400</v>
+        <v>1575800</v>
       </c>
       <c r="E46" s="3">
-        <v>1628700</v>
+        <v>1569400</v>
       </c>
       <c r="F46" s="3">
-        <v>1613300</v>
+        <v>1568700</v>
       </c>
       <c r="G46" s="3">
-        <v>1649000</v>
+        <v>1553900</v>
       </c>
       <c r="H46" s="3">
-        <v>1619300</v>
+        <v>1588300</v>
       </c>
       <c r="I46" s="3">
-        <v>2321000</v>
+        <v>1559700</v>
       </c>
       <c r="J46" s="3">
+        <v>2235500</v>
+      </c>
+      <c r="K46" s="3">
         <v>2536900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1844900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1633300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1689800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2204900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1578100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1669300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1683300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1626600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1656000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1562000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1586900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1580200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1448100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1421600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1390000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1474800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1365600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1321900</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>382000</v>
+        <v>372600</v>
       </c>
       <c r="E47" s="3">
-        <v>348300</v>
+        <v>368000</v>
       </c>
       <c r="F47" s="3">
-        <v>340900</v>
+        <v>335500</v>
       </c>
       <c r="G47" s="3">
-        <v>341500</v>
+        <v>328300</v>
       </c>
       <c r="H47" s="3">
-        <v>334100</v>
+        <v>328900</v>
       </c>
       <c r="I47" s="3">
-        <v>317800</v>
+        <v>321800</v>
       </c>
       <c r="J47" s="3">
+        <v>306100</v>
+      </c>
+      <c r="K47" s="3">
         <v>317000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>316100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>319400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>328100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>361600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>336300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>258700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>245800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>240300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>226700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>183600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>189900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>180600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>175500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>195000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>277500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>290700</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>284600</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>283200</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1985500</v>
+        <v>1986300</v>
       </c>
       <c r="E48" s="3">
-        <v>1903200</v>
+        <v>1912400</v>
       </c>
       <c r="F48" s="3">
-        <v>1878900</v>
+        <v>1833100</v>
       </c>
       <c r="G48" s="3">
-        <v>1863600</v>
+        <v>1809700</v>
       </c>
       <c r="H48" s="3">
-        <v>1854500</v>
+        <v>1795000</v>
       </c>
       <c r="I48" s="3">
-        <v>1735200</v>
+        <v>1786200</v>
       </c>
       <c r="J48" s="3">
+        <v>1671400</v>
+      </c>
+      <c r="K48" s="3">
         <v>1710400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1790100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1778100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1823100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2001800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1855500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1976500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1880600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1654600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1482300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1295500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1369200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1342500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1285000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1176900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1190700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1215800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1194800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1191200</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3046800</v>
+        <v>2921900</v>
       </c>
       <c r="E49" s="3">
-        <v>2907700</v>
+        <v>2934700</v>
       </c>
       <c r="F49" s="3">
-        <v>2850500</v>
+        <v>2800700</v>
       </c>
       <c r="G49" s="3">
-        <v>2574600</v>
+        <v>2745600</v>
       </c>
       <c r="H49" s="3">
-        <v>2576300</v>
+        <v>2479800</v>
       </c>
       <c r="I49" s="3">
-        <v>1552200</v>
+        <v>2481400</v>
       </c>
       <c r="J49" s="3">
+        <v>1495000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1543600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1590000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1495400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1514000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1614500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1570600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1681600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1608600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1561100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1003100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>802500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>791000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>785600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>769100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>681600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>698900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>725200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>719900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>722900</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4004,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>540900</v>
+        <v>572700</v>
       </c>
       <c r="E52" s="3">
-        <v>537500</v>
+        <v>521000</v>
       </c>
       <c r="F52" s="3">
-        <v>508800</v>
+        <v>517700</v>
       </c>
       <c r="G52" s="3">
-        <v>490700</v>
+        <v>490100</v>
       </c>
       <c r="H52" s="3">
-        <v>488100</v>
+        <v>472600</v>
       </c>
       <c r="I52" s="3">
-        <v>472200</v>
+        <v>470200</v>
       </c>
       <c r="J52" s="3">
+        <v>454800</v>
+      </c>
+      <c r="K52" s="3">
         <v>461000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>477900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>478800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>478700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>477300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>463800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>483000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>459900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>433600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>422600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>392700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>422300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>412800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>398800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>389300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>389500</v>
-      </c>
-      <c r="Z52" s="3">
-        <v>407200</v>
       </c>
       <c r="AA52" s="3">
         <v>407200</v>
       </c>
       <c r="AB52" s="3">
+        <v>407200</v>
+      </c>
+      <c r="AC52" s="3">
         <v>408200</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7584700</v>
+        <v>7429200</v>
       </c>
       <c r="E54" s="3">
-        <v>7325400</v>
+        <v>7305500</v>
       </c>
       <c r="F54" s="3">
-        <v>7192300</v>
+        <v>7055700</v>
       </c>
       <c r="G54" s="3">
-        <v>6919300</v>
+        <v>6927600</v>
       </c>
       <c r="H54" s="3">
-        <v>6872300</v>
+        <v>6664600</v>
       </c>
       <c r="I54" s="3">
-        <v>6398500</v>
+        <v>6619300</v>
       </c>
       <c r="J54" s="3">
+        <v>6162900</v>
+      </c>
+      <c r="K54" s="3">
         <v>6568800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6018900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5705000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5833700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6660100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5804300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6069100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5878100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5516100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4790700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4236400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4359300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4301700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4076500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3864400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3946500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4113700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>3972100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>3927300</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,488 +4317,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>668600</v>
+        <v>663400</v>
       </c>
       <c r="E57" s="3">
-        <v>672000</v>
+        <v>644000</v>
       </c>
       <c r="F57" s="3">
-        <v>732200</v>
+        <v>647300</v>
       </c>
       <c r="G57" s="3">
-        <v>668900</v>
+        <v>705200</v>
       </c>
       <c r="H57" s="3">
-        <v>597800</v>
+        <v>644300</v>
       </c>
       <c r="I57" s="3">
-        <v>575400</v>
+        <v>575800</v>
       </c>
       <c r="J57" s="3">
+        <v>554200</v>
+      </c>
+      <c r="K57" s="3">
         <v>710000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>710200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>668100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>632900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>733600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>654500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>614700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>632600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>671400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>680000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>532200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>492900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>496300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>452300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>418000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>454100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>534100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>615400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>581600</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>182600</v>
+        <v>159800</v>
       </c>
       <c r="E58" s="3">
-        <v>171800</v>
+        <v>175900</v>
       </c>
       <c r="F58" s="3">
-        <v>181600</v>
+        <v>165500</v>
       </c>
       <c r="G58" s="3">
-        <v>147100</v>
+        <v>174900</v>
       </c>
       <c r="H58" s="3">
-        <v>154500</v>
+        <v>141700</v>
       </c>
       <c r="I58" s="3">
-        <v>172400</v>
+        <v>148800</v>
       </c>
       <c r="J58" s="3">
+        <v>166100</v>
+      </c>
+      <c r="K58" s="3">
         <v>162400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>220400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>175900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>167900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>161900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>96000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>191800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>157900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>203300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>175500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>94300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>89700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>38800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>41000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>35000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>37200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>39900</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>39700</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>734700</v>
+        <v>797100</v>
       </c>
       <c r="E59" s="3">
-        <v>696200</v>
+        <v>707700</v>
       </c>
       <c r="F59" s="3">
-        <v>656500</v>
+        <v>670600</v>
       </c>
       <c r="G59" s="3">
-        <v>581800</v>
+        <v>632300</v>
       </c>
       <c r="H59" s="3">
-        <v>526700</v>
+        <v>560400</v>
       </c>
       <c r="I59" s="3">
-        <v>1038100</v>
+        <v>507300</v>
       </c>
       <c r="J59" s="3">
+        <v>999900</v>
+      </c>
+      <c r="K59" s="3">
         <v>1104800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>554500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>619400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>648300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>723600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>601800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>606300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>613000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>579800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>653200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>530700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>538100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>561900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>457900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>390600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>390800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>404700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>221300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>225100</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1586000</v>
+        <v>1620300</v>
       </c>
       <c r="E60" s="3">
-        <v>1540000</v>
+        <v>1527600</v>
       </c>
       <c r="F60" s="3">
-        <v>1570200</v>
+        <v>1483300</v>
       </c>
       <c r="G60" s="3">
-        <v>1397900</v>
+        <v>1512400</v>
       </c>
       <c r="H60" s="3">
-        <v>1278900</v>
+        <v>1346400</v>
       </c>
       <c r="I60" s="3">
-        <v>1785800</v>
+        <v>1231900</v>
       </c>
       <c r="J60" s="3">
+        <v>1720100</v>
+      </c>
+      <c r="K60" s="3">
         <v>1977200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1485100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1463400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1449100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1619000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1352300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1412800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1403500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1454600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1508700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1157200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1120800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1097000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>951200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>843600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>882100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>978600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>876500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>842800</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2368700</v>
+        <v>2201300</v>
       </c>
       <c r="E61" s="3">
-        <v>2254900</v>
+        <v>2281500</v>
       </c>
       <c r="F61" s="3">
-        <v>2105700</v>
+        <v>2171900</v>
       </c>
       <c r="G61" s="3">
-        <v>1935800</v>
+        <v>2028200</v>
       </c>
       <c r="H61" s="3">
-        <v>1964400</v>
+        <v>1864500</v>
       </c>
       <c r="I61" s="3">
-        <v>1599400</v>
+        <v>1892100</v>
       </c>
       <c r="J61" s="3">
+        <v>1540500</v>
+      </c>
+      <c r="K61" s="3">
         <v>1603200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1667400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1830300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1956300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2438400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1919500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2017900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1931500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1589100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>850000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>849900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>897600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>899500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>883600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>866100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>882800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>924600</v>
-      </c>
-      <c r="AA61" s="3">
-        <v>936400</v>
       </c>
       <c r="AB61" s="3">
         <v>936400</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>936400</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>388200</v>
+        <v>385800</v>
       </c>
       <c r="E62" s="3">
-        <v>411300</v>
+        <v>373900</v>
       </c>
       <c r="F62" s="3">
-        <v>448000</v>
+        <v>396200</v>
       </c>
       <c r="G62" s="3">
-        <v>571300</v>
+        <v>431500</v>
       </c>
       <c r="H62" s="3">
-        <v>611600</v>
+        <v>550300</v>
       </c>
       <c r="I62" s="3">
-        <v>574100</v>
+        <v>589100</v>
       </c>
       <c r="J62" s="3">
+        <v>553000</v>
+      </c>
+      <c r="K62" s="3">
         <v>576000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>652800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>610600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>634900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>578600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>625500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>689000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>666800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>617200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>629100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>570500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>597800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>595300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>615100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>583200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>600000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>611800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>603200</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>648900</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4402300</v>
+        <v>4266300</v>
       </c>
       <c r="E66" s="3">
-        <v>4262300</v>
+        <v>4240200</v>
       </c>
       <c r="F66" s="3">
-        <v>4181600</v>
+        <v>4105400</v>
       </c>
       <c r="G66" s="3">
-        <v>3962100</v>
+        <v>4027700</v>
       </c>
       <c r="H66" s="3">
-        <v>3910600</v>
+        <v>3816200</v>
       </c>
       <c r="I66" s="3">
-        <v>4012100</v>
+        <v>3766700</v>
       </c>
       <c r="J66" s="3">
+        <v>3864500</v>
+      </c>
+      <c r="K66" s="3">
         <v>4210700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3866400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3969900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4106900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4705500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3962400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4187300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4064300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3721500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3048400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2631900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2671100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2642800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2497600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2338500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2410000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2561300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2460700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>2471400</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1395200</v>
+        <v>1405000</v>
       </c>
       <c r="E72" s="3">
-        <v>1370200</v>
+        <v>1343900</v>
       </c>
       <c r="F72" s="3">
-        <v>1334700</v>
+        <v>1319800</v>
       </c>
       <c r="G72" s="3">
-        <v>1232600</v>
+        <v>1285600</v>
       </c>
       <c r="H72" s="3">
-        <v>1224400</v>
+        <v>1187200</v>
       </c>
       <c r="I72" s="3">
-        <v>1196000</v>
+        <v>1179400</v>
       </c>
       <c r="J72" s="3">
+        <v>1151900</v>
+      </c>
+      <c r="K72" s="3">
         <v>1159100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1121200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1069400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1064700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1248300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1188800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1199400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1135000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1122300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1045900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1001500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1021400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>978100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>965700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>934500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>902100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>916000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>877400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>806200</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3182400</v>
+        <v>3162900</v>
       </c>
       <c r="E76" s="3">
-        <v>3063100</v>
+        <v>3065200</v>
       </c>
       <c r="F76" s="3">
-        <v>3010700</v>
+        <v>2950300</v>
       </c>
       <c r="G76" s="3">
-        <v>2957300</v>
+        <v>2899900</v>
       </c>
       <c r="H76" s="3">
-        <v>2961700</v>
+        <v>2848400</v>
       </c>
       <c r="I76" s="3">
-        <v>2386300</v>
+        <v>2852700</v>
       </c>
       <c r="J76" s="3">
+        <v>2298500</v>
+      </c>
+      <c r="K76" s="3">
         <v>2358100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2152600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1735100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1726900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1954500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1841900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1881800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1813800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1794700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1742300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1604500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1688200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1658900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1578800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1525900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1536500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1552400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1511400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1455900</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>33400</v>
+        <v>56500</v>
       </c>
       <c r="E81" s="3">
-        <v>1300</v>
+        <v>32200</v>
       </c>
       <c r="F81" s="3">
-        <v>41400</v>
+        <v>1200</v>
       </c>
       <c r="G81" s="3">
-        <v>19700</v>
+        <v>39800</v>
       </c>
       <c r="H81" s="3">
-        <v>10500</v>
+        <v>18900</v>
       </c>
       <c r="I81" s="3">
-        <v>34800</v>
+        <v>10100</v>
       </c>
       <c r="J81" s="3">
+        <v>33600</v>
+      </c>
+      <c r="K81" s="3">
         <v>14900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>37800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-84800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>61500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>76200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>61200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>48800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>94100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>59100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>44100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>52200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>74500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>107000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>44900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>44400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>51200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>52100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6210,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>61500</v>
+        <v>63900</v>
       </c>
       <c r="E83" s="3">
-        <v>62000</v>
+        <v>59200</v>
       </c>
       <c r="F83" s="3">
-        <v>60700</v>
+        <v>59700</v>
       </c>
       <c r="G83" s="3">
-        <v>60000</v>
+        <v>58500</v>
       </c>
       <c r="H83" s="3">
-        <v>59000</v>
+        <v>57800</v>
       </c>
       <c r="I83" s="3">
-        <v>53400</v>
+        <v>56800</v>
       </c>
       <c r="J83" s="3">
+        <v>51400</v>
+      </c>
+      <c r="K83" s="3">
         <v>55000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>61300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>58400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>65600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>57700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>60600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>62500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>58500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>48900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>40300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>37800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>36700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>35500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>36800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>36400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>39900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>39500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>42500</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>103600</v>
+        <v>182500</v>
       </c>
       <c r="E89" s="3">
-        <v>-122100</v>
+        <v>99800</v>
       </c>
       <c r="F89" s="3">
-        <v>155300</v>
+        <v>-117600</v>
       </c>
       <c r="G89" s="3">
-        <v>232500</v>
+        <v>149600</v>
       </c>
       <c r="H89" s="3">
-        <v>23200</v>
+        <v>223900</v>
       </c>
       <c r="I89" s="3">
-        <v>-96900</v>
+        <v>22300</v>
       </c>
       <c r="J89" s="3">
+        <v>-93400</v>
+      </c>
+      <c r="K89" s="3">
         <v>131100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>181700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>35000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-67800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>193400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>251100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>30400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-47600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>128000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>165600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>128700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-23000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>102600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>139600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>72300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-14300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>151700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>119900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6822,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-51500</v>
+        <v>81300</v>
       </c>
       <c r="E91" s="3">
-        <v>-55500</v>
+        <v>-49600</v>
       </c>
       <c r="F91" s="3">
-        <v>-56100</v>
+        <v>-53400</v>
       </c>
       <c r="G91" s="3">
-        <v>-57700</v>
+        <v>-54000</v>
       </c>
       <c r="H91" s="3">
-        <v>-35100</v>
+        <v>-55600</v>
       </c>
       <c r="I91" s="3">
-        <v>-55500</v>
+        <v>-33800</v>
       </c>
       <c r="J91" s="3">
+        <v>-53400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-37900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-18500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-13800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-65900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-40200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-48700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-70600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-120600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>36500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-29700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-40000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-42700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-32000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-18200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-36500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-56500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-27500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-45200</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7069,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-89400</v>
+        <v>-80200</v>
       </c>
       <c r="E94" s="3">
-        <v>-69700</v>
+        <v>-86100</v>
       </c>
       <c r="F94" s="3">
-        <v>-444900</v>
+        <v>-67100</v>
       </c>
       <c r="G94" s="3">
-        <v>-82700</v>
+        <v>-428500</v>
       </c>
       <c r="H94" s="3">
-        <v>-1069400</v>
+        <v>-79600</v>
       </c>
       <c r="I94" s="3">
-        <v>-82800</v>
+        <v>-1030000</v>
       </c>
       <c r="J94" s="3">
+        <v>-79800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-87300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-136300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-16600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-22500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-91600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-143700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-63700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-93700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-701200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-233700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-62900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-56400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-32000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-111900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>46400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-28300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-61200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-27700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-49400</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6989,52 +7222,55 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-22500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-22100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-23500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-20200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-19700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-19400</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-18700</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-17400</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-16700</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-17300</v>
       </c>
       <c r="X96" s="3">
         <v>-17300</v>
       </c>
       <c r="Y96" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-15600</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-15700</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-16000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-15600</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7515,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-21800</v>
+        <v>-117300</v>
       </c>
       <c r="E100" s="3">
-        <v>88500</v>
+        <v>-21000</v>
       </c>
       <c r="F100" s="3">
-        <v>208100</v>
+        <v>85200</v>
       </c>
       <c r="G100" s="3">
-        <v>-54400</v>
+        <v>200400</v>
       </c>
       <c r="H100" s="3">
-        <v>784300</v>
+        <v>-52400</v>
       </c>
       <c r="I100" s="3">
-        <v>4800</v>
+        <v>755400</v>
       </c>
       <c r="J100" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K100" s="3">
         <v>193300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>238600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-349700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>407400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-64600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-44700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>48600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>643900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-52200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-56500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-22000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-38300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-33100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-12700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-22900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-33200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5400</v>
+        <v>6600</v>
       </c>
       <c r="E101" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J101" s="3">
         <v>-1900</v>
       </c>
-      <c r="F101" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-7100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-7200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>15300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-4600</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>-5800</v>
       </c>
       <c r="R101" s="3">
         <v>-5800</v>
       </c>
       <c r="S101" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="T101" s="3">
         <v>11700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-6300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-4600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>11500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>3000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-4300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-2600</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2100</v>
+        <v>-8400</v>
       </c>
       <c r="E102" s="3">
-        <v>-105200</v>
+        <v>-2000</v>
       </c>
       <c r="F102" s="3">
-        <v>-88200</v>
+        <v>-101300</v>
       </c>
       <c r="G102" s="3">
-        <v>92400</v>
+        <v>-84900</v>
       </c>
       <c r="H102" s="3">
-        <v>-262900</v>
+        <v>89000</v>
       </c>
       <c r="I102" s="3">
-        <v>-176900</v>
+        <v>-253200</v>
       </c>
       <c r="J102" s="3">
+        <v>-170400</v>
+      </c>
+      <c r="K102" s="3">
         <v>229900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>280000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-80700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-447100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>524400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>43700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-82500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-98400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>65000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-108500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-83900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>60100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-7600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>81200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-54200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>67500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>56500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CAE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAE_QTR_FIN.xlsx
@@ -785,25 +785,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>737900</v>
+        <v>755800</v>
       </c>
       <c r="E8" s="3">
-        <v>718300</v>
+        <v>735700</v>
       </c>
       <c r="F8" s="3">
-        <v>675000</v>
+        <v>691300</v>
       </c>
       <c r="G8" s="3">
-        <v>690700</v>
+        <v>707400</v>
       </c>
       <c r="H8" s="3">
-        <v>613800</v>
+        <v>628700</v>
       </c>
       <c r="I8" s="3">
-        <v>589400</v>
+        <v>603600</v>
       </c>
       <c r="J8" s="3">
-        <v>544400</v>
+        <v>557600</v>
       </c>
       <c r="K8" s="3">
         <v>671500</v>
@@ -868,25 +868,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>522400</v>
+        <v>535000</v>
       </c>
       <c r="E9" s="3">
-        <v>520400</v>
+        <v>533000</v>
       </c>
       <c r="F9" s="3">
-        <v>506500</v>
+        <v>518800</v>
       </c>
       <c r="G9" s="3">
-        <v>494200</v>
+        <v>506200</v>
       </c>
       <c r="H9" s="3">
-        <v>438400</v>
+        <v>449000</v>
       </c>
       <c r="I9" s="3">
-        <v>424700</v>
+        <v>435000</v>
       </c>
       <c r="J9" s="3">
-        <v>389700</v>
+        <v>399200</v>
       </c>
       <c r="K9" s="3">
         <v>493500</v>
@@ -951,25 +951,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>215500</v>
+        <v>220700</v>
       </c>
       <c r="E10" s="3">
-        <v>197900</v>
+        <v>202700</v>
       </c>
       <c r="F10" s="3">
-        <v>168400</v>
+        <v>172500</v>
       </c>
       <c r="G10" s="3">
-        <v>196400</v>
+        <v>201200</v>
       </c>
       <c r="H10" s="3">
-        <v>175400</v>
+        <v>179600</v>
       </c>
       <c r="I10" s="3">
-        <v>164600</v>
+        <v>168600</v>
       </c>
       <c r="J10" s="3">
-        <v>154600</v>
+        <v>158400</v>
       </c>
       <c r="K10" s="3">
         <v>178000</v>
@@ -1065,25 +1065,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>21800</v>
+        <v>22400</v>
       </c>
       <c r="E12" s="3">
-        <v>23300</v>
+        <v>23900</v>
       </c>
       <c r="F12" s="3">
-        <v>29400</v>
+        <v>30100</v>
       </c>
       <c r="G12" s="3">
-        <v>25200</v>
+        <v>25900</v>
       </c>
       <c r="H12" s="3">
-        <v>22900</v>
+        <v>23500</v>
       </c>
       <c r="I12" s="3">
-        <v>22200</v>
+        <v>22700</v>
       </c>
       <c r="J12" s="3">
-        <v>17000</v>
+        <v>17400</v>
       </c>
       <c r="K12" s="3">
         <v>16900</v>
@@ -1231,25 +1231,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>2200</v>
+        <v>3600</v>
       </c>
       <c r="E14" s="3">
-        <v>16300</v>
+        <v>16700</v>
       </c>
       <c r="F14" s="3">
-        <v>15500</v>
+        <v>15900</v>
       </c>
       <c r="G14" s="3">
-        <v>34500</v>
+        <v>35300</v>
       </c>
       <c r="H14" s="3">
-        <v>30400</v>
+        <v>31200</v>
       </c>
       <c r="I14" s="3">
-        <v>34500</v>
+        <v>35300</v>
       </c>
       <c r="J14" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="K14" s="3">
         <v>47200</v>
@@ -1425,25 +1425,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>632400</v>
+        <v>647700</v>
       </c>
       <c r="E17" s="3">
-        <v>644500</v>
+        <v>660100</v>
       </c>
       <c r="F17" s="3">
-        <v>646500</v>
+        <v>662100</v>
       </c>
       <c r="G17" s="3">
-        <v>623200</v>
+        <v>638300</v>
       </c>
       <c r="H17" s="3">
-        <v>566400</v>
+        <v>580100</v>
       </c>
       <c r="I17" s="3">
-        <v>561000</v>
+        <v>574600</v>
       </c>
       <c r="J17" s="3">
-        <v>482000</v>
+        <v>493700</v>
       </c>
       <c r="K17" s="3">
         <v>635800</v>
@@ -1508,25 +1508,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>105500</v>
+        <v>108100</v>
       </c>
       <c r="E18" s="3">
-        <v>73800</v>
+        <v>75600</v>
       </c>
       <c r="F18" s="3">
-        <v>28500</v>
+        <v>29200</v>
       </c>
       <c r="G18" s="3">
-        <v>67500</v>
+        <v>69100</v>
       </c>
       <c r="H18" s="3">
-        <v>47400</v>
+        <v>48500</v>
       </c>
       <c r="I18" s="3">
-        <v>28400</v>
+        <v>29000</v>
       </c>
       <c r="J18" s="3">
-        <v>62300</v>
+        <v>63900</v>
       </c>
       <c r="K18" s="3">
         <v>35700</v>
@@ -1622,22 +1622,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="E20" s="3">
-        <v>-5600</v>
+        <v>-5800</v>
       </c>
       <c r="F20" s="3">
         <v>-2700</v>
       </c>
       <c r="G20" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="H20" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="I20" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="J20" s="3">
         <v>-1300</v>
@@ -1705,25 +1705,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>165600</v>
+        <v>169600</v>
       </c>
       <c r="E21" s="3">
-        <v>127400</v>
+        <v>130500</v>
       </c>
       <c r="F21" s="3">
-        <v>85600</v>
+        <v>87600</v>
       </c>
       <c r="G21" s="3">
-        <v>123200</v>
+        <v>126100</v>
       </c>
       <c r="H21" s="3">
-        <v>100700</v>
+        <v>103200</v>
       </c>
       <c r="I21" s="3">
-        <v>81100</v>
+        <v>83000</v>
       </c>
       <c r="J21" s="3">
-        <v>112500</v>
+        <v>115200</v>
       </c>
       <c r="K21" s="3">
         <v>87300</v>
@@ -1788,25 +1788,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>31500</v>
+        <v>32300</v>
       </c>
       <c r="E22" s="3">
-        <v>24200</v>
+        <v>24800</v>
       </c>
       <c r="F22" s="3">
-        <v>23500</v>
+        <v>24100</v>
       </c>
       <c r="G22" s="3">
-        <v>20700</v>
+        <v>21200</v>
       </c>
       <c r="H22" s="3">
-        <v>20500</v>
+        <v>21000</v>
       </c>
       <c r="I22" s="3">
-        <v>21200</v>
+        <v>21700</v>
       </c>
       <c r="J22" s="3">
-        <v>19400</v>
+        <v>19900</v>
       </c>
       <c r="K22" s="3">
         <v>20600</v>
@@ -1871,25 +1871,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>70200</v>
+        <v>71900</v>
       </c>
       <c r="E23" s="3">
-        <v>44000</v>
+        <v>45000</v>
       </c>
       <c r="F23" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="G23" s="3">
-        <v>44000</v>
+        <v>45000</v>
       </c>
       <c r="H23" s="3">
-        <v>22400</v>
+        <v>23000</v>
       </c>
       <c r="I23" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="J23" s="3">
-        <v>41700</v>
+        <v>42700</v>
       </c>
       <c r="K23" s="3">
         <v>11700</v>
@@ -1954,10 +1954,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>12400</v>
+        <v>12700</v>
       </c>
       <c r="E24" s="3">
-        <v>10500</v>
+        <v>10700</v>
       </c>
       <c r="F24" s="3">
         <v>-400</v>
@@ -1969,10 +1969,10 @@
         <v>1900</v>
       </c>
       <c r="I24" s="3">
-        <v>-9400</v>
+        <v>-9600</v>
       </c>
       <c r="J24" s="3">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="K24" s="3">
         <v>-2400</v>
@@ -2120,25 +2120,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>57900</v>
+        <v>59300</v>
       </c>
       <c r="E26" s="3">
-        <v>33500</v>
+        <v>34300</v>
       </c>
       <c r="F26" s="3">
         <v>2700</v>
       </c>
       <c r="G26" s="3">
-        <v>41300</v>
+        <v>42300</v>
       </c>
       <c r="H26" s="3">
-        <v>20500</v>
+        <v>21000</v>
       </c>
       <c r="I26" s="3">
-        <v>12400</v>
+        <v>12700</v>
       </c>
       <c r="J26" s="3">
-        <v>34200</v>
+        <v>35000</v>
       </c>
       <c r="K26" s="3">
         <v>14100</v>
@@ -2203,25 +2203,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>56500</v>
+        <v>57900</v>
       </c>
       <c r="E27" s="3">
-        <v>32200</v>
+        <v>33000</v>
       </c>
       <c r="F27" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G27" s="3">
-        <v>39800</v>
+        <v>40800</v>
       </c>
       <c r="H27" s="3">
-        <v>18900</v>
+        <v>19400</v>
       </c>
       <c r="I27" s="3">
-        <v>10100</v>
+        <v>10400</v>
       </c>
       <c r="J27" s="3">
-        <v>33600</v>
+        <v>34400</v>
       </c>
       <c r="K27" s="3">
         <v>14900</v>
@@ -2618,22 +2618,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="E32" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="F32" s="3">
         <v>2700</v>
       </c>
       <c r="G32" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="H32" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="I32" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="J32" s="3">
         <v>1300</v>
@@ -2701,25 +2701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>56500</v>
+        <v>57900</v>
       </c>
       <c r="E33" s="3">
-        <v>32200</v>
+        <v>33000</v>
       </c>
       <c r="F33" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G33" s="3">
-        <v>39800</v>
+        <v>40800</v>
       </c>
       <c r="H33" s="3">
-        <v>18900</v>
+        <v>19400</v>
       </c>
       <c r="I33" s="3">
-        <v>10100</v>
+        <v>10400</v>
       </c>
       <c r="J33" s="3">
-        <v>33600</v>
+        <v>34400</v>
       </c>
       <c r="K33" s="3">
         <v>14900</v>
@@ -2867,25 +2867,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>56500</v>
+        <v>57900</v>
       </c>
       <c r="E35" s="3">
-        <v>32200</v>
+        <v>33000</v>
       </c>
       <c r="F35" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G35" s="3">
-        <v>39800</v>
+        <v>40800</v>
       </c>
       <c r="H35" s="3">
-        <v>18900</v>
+        <v>19400</v>
       </c>
       <c r="I35" s="3">
-        <v>10100</v>
+        <v>10400</v>
       </c>
       <c r="J35" s="3">
-        <v>33600</v>
+        <v>34400</v>
       </c>
       <c r="K35" s="3">
         <v>14900</v>
@@ -3100,25 +3100,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>138600</v>
+        <v>141900</v>
       </c>
       <c r="E41" s="3">
-        <v>147000</v>
+        <v>150500</v>
       </c>
       <c r="F41" s="3">
-        <v>149000</v>
+        <v>152600</v>
       </c>
       <c r="G41" s="3">
-        <v>250300</v>
+        <v>256400</v>
       </c>
       <c r="H41" s="3">
-        <v>335200</v>
+        <v>343300</v>
       </c>
       <c r="I41" s="3">
-        <v>246200</v>
+        <v>252100</v>
       </c>
       <c r="J41" s="3">
-        <v>499400</v>
+        <v>511500</v>
       </c>
       <c r="K41" s="3">
         <v>695400</v>
@@ -3266,25 +3266,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>942200</v>
+        <v>965000</v>
       </c>
       <c r="E43" s="3">
-        <v>937700</v>
+        <v>960400</v>
       </c>
       <c r="F43" s="3">
-        <v>949500</v>
+        <v>972500</v>
       </c>
       <c r="G43" s="3">
-        <v>866700</v>
+        <v>887700</v>
       </c>
       <c r="H43" s="3">
-        <v>800700</v>
+        <v>820100</v>
       </c>
       <c r="I43" s="3">
-        <v>868700</v>
+        <v>889700</v>
       </c>
       <c r="J43" s="3">
-        <v>767800</v>
+        <v>786400</v>
       </c>
       <c r="K43" s="3">
         <v>766100</v>
@@ -3349,25 +3349,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>433100</v>
+        <v>443600</v>
       </c>
       <c r="E44" s="3">
-        <v>409600</v>
+        <v>419500</v>
       </c>
       <c r="F44" s="3">
-        <v>398100</v>
+        <v>407700</v>
       </c>
       <c r="G44" s="3">
-        <v>375900</v>
+        <v>385000</v>
       </c>
       <c r="H44" s="3">
-        <v>395500</v>
+        <v>405100</v>
       </c>
       <c r="I44" s="3">
-        <v>388800</v>
+        <v>398200</v>
       </c>
       <c r="J44" s="3">
-        <v>404200</v>
+        <v>414000</v>
       </c>
       <c r="K44" s="3">
         <v>486400</v>
@@ -3432,25 +3432,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>61900</v>
+        <v>63400</v>
       </c>
       <c r="E45" s="3">
-        <v>75200</v>
+        <v>77000</v>
       </c>
       <c r="F45" s="3">
-        <v>72200</v>
+        <v>73900</v>
       </c>
       <c r="G45" s="3">
-        <v>61000</v>
+        <v>62400</v>
       </c>
       <c r="H45" s="3">
-        <v>56800</v>
+        <v>58200</v>
       </c>
       <c r="I45" s="3">
-        <v>56000</v>
+        <v>57400</v>
       </c>
       <c r="J45" s="3">
-        <v>564100</v>
+        <v>577800</v>
       </c>
       <c r="K45" s="3">
         <v>589000</v>
@@ -3515,25 +3515,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1575800</v>
+        <v>1613900</v>
       </c>
       <c r="E46" s="3">
-        <v>1569400</v>
+        <v>1607400</v>
       </c>
       <c r="F46" s="3">
-        <v>1568700</v>
+        <v>1606700</v>
       </c>
       <c r="G46" s="3">
-        <v>1553900</v>
+        <v>1591600</v>
       </c>
       <c r="H46" s="3">
-        <v>1588300</v>
+        <v>1626700</v>
       </c>
       <c r="I46" s="3">
-        <v>1559700</v>
+        <v>1597500</v>
       </c>
       <c r="J46" s="3">
-        <v>2235500</v>
+        <v>2289700</v>
       </c>
       <c r="K46" s="3">
         <v>2536900</v>
@@ -3598,25 +3598,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>372600</v>
+        <v>381600</v>
       </c>
       <c r="E47" s="3">
-        <v>368000</v>
+        <v>376900</v>
       </c>
       <c r="F47" s="3">
-        <v>335500</v>
+        <v>343600</v>
       </c>
       <c r="G47" s="3">
-        <v>328300</v>
+        <v>336300</v>
       </c>
       <c r="H47" s="3">
-        <v>328900</v>
+        <v>336900</v>
       </c>
       <c r="I47" s="3">
-        <v>321800</v>
+        <v>329600</v>
       </c>
       <c r="J47" s="3">
-        <v>306100</v>
+        <v>313600</v>
       </c>
       <c r="K47" s="3">
         <v>317000</v>
@@ -3681,25 +3681,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1986300</v>
+        <v>2034400</v>
       </c>
       <c r="E48" s="3">
-        <v>1912400</v>
+        <v>1958700</v>
       </c>
       <c r="F48" s="3">
-        <v>1833100</v>
+        <v>1877600</v>
       </c>
       <c r="G48" s="3">
-        <v>1809700</v>
+        <v>1853600</v>
       </c>
       <c r="H48" s="3">
-        <v>1795000</v>
+        <v>1838400</v>
       </c>
       <c r="I48" s="3">
-        <v>1786200</v>
+        <v>1829500</v>
       </c>
       <c r="J48" s="3">
-        <v>1671400</v>
+        <v>1711900</v>
       </c>
       <c r="K48" s="3">
         <v>1710400</v>
@@ -3764,25 +3764,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2921900</v>
+        <v>2992700</v>
       </c>
       <c r="E49" s="3">
-        <v>2934700</v>
+        <v>3005800</v>
       </c>
       <c r="F49" s="3">
-        <v>2800700</v>
+        <v>2868500</v>
       </c>
       <c r="G49" s="3">
-        <v>2745600</v>
+        <v>2812100</v>
       </c>
       <c r="H49" s="3">
-        <v>2479800</v>
+        <v>2539900</v>
       </c>
       <c r="I49" s="3">
-        <v>2481400</v>
+        <v>2541600</v>
       </c>
       <c r="J49" s="3">
-        <v>1495000</v>
+        <v>1531300</v>
       </c>
       <c r="K49" s="3">
         <v>1543600</v>
@@ -4013,25 +4013,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>572700</v>
+        <v>586600</v>
       </c>
       <c r="E52" s="3">
-        <v>521000</v>
+        <v>533600</v>
       </c>
       <c r="F52" s="3">
-        <v>517700</v>
+        <v>530200</v>
       </c>
       <c r="G52" s="3">
-        <v>490100</v>
+        <v>501900</v>
       </c>
       <c r="H52" s="3">
-        <v>472600</v>
+        <v>484100</v>
       </c>
       <c r="I52" s="3">
-        <v>470200</v>
+        <v>481600</v>
       </c>
       <c r="J52" s="3">
-        <v>454800</v>
+        <v>465900</v>
       </c>
       <c r="K52" s="3">
         <v>461000</v>
@@ -4179,25 +4179,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7429200</v>
+        <v>7609200</v>
       </c>
       <c r="E54" s="3">
-        <v>7305500</v>
+        <v>7482400</v>
       </c>
       <c r="F54" s="3">
-        <v>7055700</v>
+        <v>7226700</v>
       </c>
       <c r="G54" s="3">
-        <v>6927600</v>
+        <v>7095400</v>
       </c>
       <c r="H54" s="3">
-        <v>6664600</v>
+        <v>6826100</v>
       </c>
       <c r="I54" s="3">
-        <v>6619300</v>
+        <v>6779700</v>
       </c>
       <c r="J54" s="3">
-        <v>6162900</v>
+        <v>6312200</v>
       </c>
       <c r="K54" s="3">
         <v>6568800</v>
@@ -4324,25 +4324,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>663400</v>
+        <v>679500</v>
       </c>
       <c r="E57" s="3">
-        <v>644000</v>
+        <v>659600</v>
       </c>
       <c r="F57" s="3">
-        <v>647300</v>
+        <v>663000</v>
       </c>
       <c r="G57" s="3">
-        <v>705200</v>
+        <v>722300</v>
       </c>
       <c r="H57" s="3">
-        <v>644300</v>
+        <v>659900</v>
       </c>
       <c r="I57" s="3">
-        <v>575800</v>
+        <v>589700</v>
       </c>
       <c r="J57" s="3">
-        <v>554200</v>
+        <v>567600</v>
       </c>
       <c r="K57" s="3">
         <v>710000</v>
@@ -4407,25 +4407,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>159800</v>
+        <v>163600</v>
       </c>
       <c r="E58" s="3">
-        <v>175900</v>
+        <v>180100</v>
       </c>
       <c r="F58" s="3">
-        <v>165500</v>
+        <v>169500</v>
       </c>
       <c r="G58" s="3">
-        <v>174900</v>
+        <v>179100</v>
       </c>
       <c r="H58" s="3">
-        <v>141700</v>
+        <v>145100</v>
       </c>
       <c r="I58" s="3">
-        <v>148800</v>
+        <v>152400</v>
       </c>
       <c r="J58" s="3">
-        <v>166100</v>
+        <v>170100</v>
       </c>
       <c r="K58" s="3">
         <v>162400</v>
@@ -4490,25 +4490,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>797100</v>
+        <v>816400</v>
       </c>
       <c r="E59" s="3">
-        <v>707700</v>
+        <v>724800</v>
       </c>
       <c r="F59" s="3">
-        <v>670600</v>
+        <v>686800</v>
       </c>
       <c r="G59" s="3">
-        <v>632300</v>
+        <v>647600</v>
       </c>
       <c r="H59" s="3">
-        <v>560400</v>
+        <v>574000</v>
       </c>
       <c r="I59" s="3">
-        <v>507300</v>
+        <v>519600</v>
       </c>
       <c r="J59" s="3">
-        <v>999900</v>
+        <v>1024100</v>
       </c>
       <c r="K59" s="3">
         <v>1104800</v>
@@ -4573,25 +4573,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1620300</v>
+        <v>1659600</v>
       </c>
       <c r="E60" s="3">
-        <v>1527600</v>
+        <v>1564600</v>
       </c>
       <c r="F60" s="3">
-        <v>1483300</v>
+        <v>1519300</v>
       </c>
       <c r="G60" s="3">
-        <v>1512400</v>
+        <v>1549000</v>
       </c>
       <c r="H60" s="3">
-        <v>1346400</v>
+        <v>1379000</v>
       </c>
       <c r="I60" s="3">
-        <v>1231900</v>
+        <v>1261700</v>
       </c>
       <c r="J60" s="3">
-        <v>1720100</v>
+        <v>1761800</v>
       </c>
       <c r="K60" s="3">
         <v>1977200</v>
@@ -4656,25 +4656,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2201300</v>
+        <v>2254600</v>
       </c>
       <c r="E61" s="3">
-        <v>2281500</v>
+        <v>2336700</v>
       </c>
       <c r="F61" s="3">
-        <v>2171900</v>
+        <v>2224500</v>
       </c>
       <c r="G61" s="3">
-        <v>2028200</v>
+        <v>2077300</v>
       </c>
       <c r="H61" s="3">
-        <v>1864500</v>
+        <v>1909700</v>
       </c>
       <c r="I61" s="3">
-        <v>1892100</v>
+        <v>1937900</v>
       </c>
       <c r="J61" s="3">
-        <v>1540500</v>
+        <v>1577900</v>
       </c>
       <c r="K61" s="3">
         <v>1603200</v>
@@ -4739,25 +4739,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>385800</v>
+        <v>395200</v>
       </c>
       <c r="E62" s="3">
-        <v>373900</v>
+        <v>383000</v>
       </c>
       <c r="F62" s="3">
-        <v>396200</v>
+        <v>405800</v>
       </c>
       <c r="G62" s="3">
-        <v>431500</v>
+        <v>441900</v>
       </c>
       <c r="H62" s="3">
-        <v>550300</v>
+        <v>563600</v>
       </c>
       <c r="I62" s="3">
-        <v>589100</v>
+        <v>603300</v>
       </c>
       <c r="J62" s="3">
-        <v>553000</v>
+        <v>566400</v>
       </c>
       <c r="K62" s="3">
         <v>576000</v>
@@ -5071,25 +5071,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4266300</v>
+        <v>4369600</v>
       </c>
       <c r="E66" s="3">
-        <v>4240200</v>
+        <v>4343000</v>
       </c>
       <c r="F66" s="3">
-        <v>4105400</v>
+        <v>4204900</v>
       </c>
       <c r="G66" s="3">
-        <v>4027700</v>
+        <v>4125300</v>
       </c>
       <c r="H66" s="3">
-        <v>3816200</v>
+        <v>3908700</v>
       </c>
       <c r="I66" s="3">
-        <v>3766700</v>
+        <v>3857900</v>
       </c>
       <c r="J66" s="3">
-        <v>3864500</v>
+        <v>3958100</v>
       </c>
       <c r="K66" s="3">
         <v>4210700</v>
@@ -5517,25 +5517,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1405000</v>
+        <v>1439000</v>
       </c>
       <c r="E72" s="3">
-        <v>1343900</v>
+        <v>1376400</v>
       </c>
       <c r="F72" s="3">
-        <v>1319800</v>
+        <v>1351800</v>
       </c>
       <c r="G72" s="3">
-        <v>1285600</v>
+        <v>1316700</v>
       </c>
       <c r="H72" s="3">
-        <v>1187200</v>
+        <v>1216000</v>
       </c>
       <c r="I72" s="3">
-        <v>1179400</v>
+        <v>1207900</v>
       </c>
       <c r="J72" s="3">
-        <v>1151900</v>
+        <v>1179900</v>
       </c>
       <c r="K72" s="3">
         <v>1159100</v>
@@ -5849,25 +5849,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3162900</v>
+        <v>3239600</v>
       </c>
       <c r="E76" s="3">
-        <v>3065200</v>
+        <v>3139500</v>
       </c>
       <c r="F76" s="3">
-        <v>2950300</v>
+        <v>3021800</v>
       </c>
       <c r="G76" s="3">
-        <v>2899900</v>
+        <v>2970100</v>
       </c>
       <c r="H76" s="3">
-        <v>2848400</v>
+        <v>2917400</v>
       </c>
       <c r="I76" s="3">
-        <v>2852700</v>
+        <v>2921800</v>
       </c>
       <c r="J76" s="3">
-        <v>2298500</v>
+        <v>2354100</v>
       </c>
       <c r="K76" s="3">
         <v>2358100</v>
@@ -6103,25 +6103,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>56500</v>
+        <v>57900</v>
       </c>
       <c r="E81" s="3">
-        <v>32200</v>
+        <v>33000</v>
       </c>
       <c r="F81" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G81" s="3">
-        <v>39800</v>
+        <v>40800</v>
       </c>
       <c r="H81" s="3">
-        <v>18900</v>
+        <v>19400</v>
       </c>
       <c r="I81" s="3">
-        <v>10100</v>
+        <v>10400</v>
       </c>
       <c r="J81" s="3">
-        <v>33600</v>
+        <v>34400</v>
       </c>
       <c r="K81" s="3">
         <v>14900</v>
@@ -6217,25 +6217,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>63900</v>
+        <v>65400</v>
       </c>
       <c r="E83" s="3">
+        <v>60700</v>
+      </c>
+      <c r="F83" s="3">
+        <v>61200</v>
+      </c>
+      <c r="G83" s="3">
+        <v>59900</v>
+      </c>
+      <c r="H83" s="3">
         <v>59200</v>
       </c>
-      <c r="F83" s="3">
-        <v>59700</v>
-      </c>
-      <c r="G83" s="3">
-        <v>58500</v>
-      </c>
-      <c r="H83" s="3">
-        <v>57800</v>
-      </c>
       <c r="I83" s="3">
-        <v>56800</v>
+        <v>58200</v>
       </c>
       <c r="J83" s="3">
-        <v>51400</v>
+        <v>52700</v>
       </c>
       <c r="K83" s="3">
         <v>55000</v>
@@ -6715,25 +6715,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>182500</v>
+        <v>187000</v>
       </c>
       <c r="E89" s="3">
-        <v>99800</v>
+        <v>102200</v>
       </c>
       <c r="F89" s="3">
-        <v>-117600</v>
+        <v>-120400</v>
       </c>
       <c r="G89" s="3">
-        <v>149600</v>
+        <v>153200</v>
       </c>
       <c r="H89" s="3">
-        <v>223900</v>
+        <v>229300</v>
       </c>
       <c r="I89" s="3">
-        <v>22300</v>
+        <v>22900</v>
       </c>
       <c r="J89" s="3">
-        <v>-93400</v>
+        <v>-95600</v>
       </c>
       <c r="K89" s="3">
         <v>131100</v>
@@ -6829,25 +6829,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>81300</v>
+        <v>-123100</v>
       </c>
       <c r="E91" s="3">
-        <v>-49600</v>
+        <v>-103500</v>
       </c>
       <c r="F91" s="3">
-        <v>-53400</v>
+        <v>-99300</v>
       </c>
       <c r="G91" s="3">
-        <v>-54000</v>
+        <v>-100900</v>
       </c>
       <c r="H91" s="3">
-        <v>-55600</v>
+        <v>-102400</v>
       </c>
       <c r="I91" s="3">
-        <v>-33800</v>
+        <v>-66300</v>
       </c>
       <c r="J91" s="3">
-        <v>-53400</v>
+        <v>-93200</v>
       </c>
       <c r="K91" s="3">
         <v>-37900</v>
@@ -7078,25 +7078,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-80200</v>
+        <v>-82100</v>
       </c>
       <c r="E94" s="3">
-        <v>-86100</v>
+        <v>-88100</v>
       </c>
       <c r="F94" s="3">
-        <v>-67100</v>
+        <v>-68700</v>
       </c>
       <c r="G94" s="3">
-        <v>-428500</v>
+        <v>-438900</v>
       </c>
       <c r="H94" s="3">
-        <v>-79600</v>
+        <v>-81600</v>
       </c>
       <c r="I94" s="3">
-        <v>-1030000</v>
+        <v>-1055000</v>
       </c>
       <c r="J94" s="3">
-        <v>-79800</v>
+        <v>-81700</v>
       </c>
       <c r="K94" s="3">
         <v>-87300</v>
@@ -7524,25 +7524,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-117300</v>
+        <v>-120100</v>
       </c>
       <c r="E100" s="3">
-        <v>-21000</v>
+        <v>-21500</v>
       </c>
       <c r="F100" s="3">
-        <v>85200</v>
+        <v>87300</v>
       </c>
       <c r="G100" s="3">
-        <v>200400</v>
+        <v>205300</v>
       </c>
       <c r="H100" s="3">
-        <v>-52400</v>
+        <v>-53600</v>
       </c>
       <c r="I100" s="3">
-        <v>755400</v>
+        <v>773700</v>
       </c>
       <c r="J100" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="K100" s="3">
         <v>193300</v>
@@ -7607,22 +7607,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="E101" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="F101" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="G101" s="3">
-        <v>-6400</v>
+        <v>-6500</v>
       </c>
       <c r="H101" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="I101" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="J101" s="3">
         <v>-1900</v>
@@ -7690,25 +7690,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-8400</v>
+        <v>-8600</v>
       </c>
       <c r="E102" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="F102" s="3">
-        <v>-101300</v>
+        <v>-103800</v>
       </c>
       <c r="G102" s="3">
-        <v>-84900</v>
+        <v>-87000</v>
       </c>
       <c r="H102" s="3">
-        <v>89000</v>
+        <v>91200</v>
       </c>
       <c r="I102" s="3">
-        <v>-253200</v>
+        <v>-259300</v>
       </c>
       <c r="J102" s="3">
-        <v>-170400</v>
+        <v>-174500</v>
       </c>
       <c r="K102" s="3">
         <v>229900</v>

--- a/AAII_Financials/Quarterly/CAE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAE_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,397 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>755800</v>
+        <v>780600</v>
       </c>
       <c r="E8" s="3">
-        <v>735700</v>
+        <v>930300</v>
       </c>
       <c r="F8" s="3">
-        <v>691300</v>
+        <v>755400</v>
       </c>
       <c r="G8" s="3">
-        <v>707400</v>
+        <v>735300</v>
       </c>
       <c r="H8" s="3">
-        <v>628700</v>
+        <v>691000</v>
       </c>
       <c r="I8" s="3">
+        <v>707000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>628300</v>
+      </c>
+      <c r="K8" s="3">
         <v>603600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>557600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>671500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>644100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>540300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>422000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>767200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>720000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>743500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>654700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>786800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>621300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>540500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>543500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>581000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>616400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>460100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>488400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>564400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>524500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>488200</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>535000</v>
+        <v>554200</v>
       </c>
       <c r="E9" s="3">
-        <v>533000</v>
+        <v>662400</v>
       </c>
       <c r="F9" s="3">
-        <v>518800</v>
+        <v>534800</v>
       </c>
       <c r="G9" s="3">
-        <v>506200</v>
+        <v>532800</v>
       </c>
       <c r="H9" s="3">
-        <v>449000</v>
+        <v>518500</v>
       </c>
       <c r="I9" s="3">
+        <v>506000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>448800</v>
+      </c>
+      <c r="K9" s="3">
         <v>435000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>399200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>493500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>467000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>393800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>339200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>522500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>492800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>547300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>461500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>565000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>443700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>394100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>378900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>387100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>426100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>325000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>336800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>383900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>371400</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <v>344600</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>220700</v>
+        <v>226500</v>
       </c>
       <c r="E10" s="3">
-        <v>202700</v>
+        <v>267900</v>
       </c>
       <c r="F10" s="3">
-        <v>172500</v>
+        <v>220600</v>
       </c>
       <c r="G10" s="3">
-        <v>201200</v>
+        <v>202600</v>
       </c>
       <c r="H10" s="3">
-        <v>179600</v>
+        <v>172400</v>
       </c>
       <c r="I10" s="3">
+        <v>201100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>179500</v>
+      </c>
+      <c r="K10" s="3">
         <v>168600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>158400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>178000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>177100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>146400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>82800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>244700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>227300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>196200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>193300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>221700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>177600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>146400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>164600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>193900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>190300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>135100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>151600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>180500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>153100</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>143600</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,91 +1085,99 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>28900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>29600</v>
+      </c>
+      <c r="F12" s="3">
         <v>22400</v>
       </c>
-      <c r="E12" s="3">
-        <v>23900</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
+        <v>23800</v>
+      </c>
+      <c r="H12" s="3">
         <v>30100</v>
       </c>
-      <c r="G12" s="3">
-        <v>25900</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
+        <v>25800</v>
+      </c>
+      <c r="J12" s="3">
         <v>23500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>22700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>17400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>16900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>28200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>19600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>15400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>28400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>26200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>29700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>25300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>7600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>23700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>21100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>23600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>17000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>22200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>22300</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>24000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>24000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AD12" s="3">
         <v>22100</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AE12" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1225,91 +1259,103 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F14" s="3">
         <v>3600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>16700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>15900</v>
-      </c>
-      <c r="G14" s="3">
-        <v>35300</v>
-      </c>
-      <c r="H14" s="3">
-        <v>31200</v>
       </c>
       <c r="I14" s="3">
         <v>35300</v>
       </c>
       <c r="J14" s="3">
+        <v>31200</v>
+      </c>
+      <c r="K14" s="3">
+        <v>35300</v>
+      </c>
+      <c r="L14" s="3">
         <v>6300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>47200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>11900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>42100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>76400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>29400</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>-10600</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>16200</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AD14" s="3">
         <v>2200</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AE14" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1391,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1471,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>647700</v>
+        <v>684300</v>
       </c>
       <c r="E17" s="3">
-        <v>660100</v>
+        <v>792100</v>
       </c>
       <c r="F17" s="3">
-        <v>662100</v>
+        <v>647400</v>
       </c>
       <c r="G17" s="3">
-        <v>638300</v>
+        <v>659700</v>
       </c>
       <c r="H17" s="3">
-        <v>580100</v>
+        <v>661800</v>
       </c>
       <c r="I17" s="3">
+        <v>638000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>579800</v>
+      </c>
+      <c r="K17" s="3">
         <v>574600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>493700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>635800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>579900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>518600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>506600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>652200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>599300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>640000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>566800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>655600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>535300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>468800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>469400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>476000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>503800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>383600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>420400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>486900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>448700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>429700</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>108100</v>
+        <v>96300</v>
       </c>
       <c r="E18" s="3">
+        <v>138200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>108000</v>
+      </c>
+      <c r="G18" s="3">
         <v>75600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>29200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>69100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>48500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>29000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>63900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>35700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>64100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>21600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-84600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>115000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>120800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>103500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>87900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>131200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>86000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>71700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>74100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>105000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>112500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>76500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>67900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>77500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>75700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>58500</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,239 +1682,253 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="O20" s="3">
         <v>-3900</v>
       </c>
-      <c r="E20" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="P20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="R20" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="S20" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="T20" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="U20" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="V20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="W20" s="3">
         <v>-2700</v>
       </c>
-      <c r="G20" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-3700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>1300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>1000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>1800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>-200</v>
       </c>
-      <c r="AC20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>169600</v>
+        <v>157100</v>
       </c>
       <c r="E21" s="3">
+        <v>197700</v>
+      </c>
+      <c r="F21" s="3">
+        <v>169500</v>
+      </c>
+      <c r="G21" s="3">
         <v>130500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>87600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>126100</v>
       </c>
-      <c r="H21" s="3">
-        <v>103200</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
+        <v>103100</v>
+      </c>
+      <c r="K21" s="3">
         <v>83000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>115200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>87300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>122300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>76100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-21500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>169300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>177400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>162000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>142000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>175300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>123400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>106800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>110600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>136800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>150600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>113900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>108400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>118800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>118000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>95700</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E22" s="3">
+        <v>31400</v>
+      </c>
+      <c r="F22" s="3">
         <v>32300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>24800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>24100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>21200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>21000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>21700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>19900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>20600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>22700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>23100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>24400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>26800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>24600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>24500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>23200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>15000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>11800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>11800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>11700</v>
-      </c>
-      <c r="W22" s="3">
-        <v>14100</v>
-      </c>
-      <c r="X22" s="3">
-        <v>14100</v>
       </c>
       <c r="Y22" s="3">
         <v>14100</v>
@@ -1857,182 +1937,200 @@
         <v>14100</v>
       </c>
       <c r="AA22" s="3">
+        <v>14100</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>14100</v>
+      </c>
+      <c r="AC22" s="3">
         <v>14400</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>14000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AE22" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>56300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>100100</v>
+      </c>
+      <c r="F23" s="3">
         <v>71900</v>
-      </c>
-      <c r="E23" s="3">
-        <v>45000</v>
-      </c>
-      <c r="F23" s="3">
-        <v>2400</v>
       </c>
       <c r="G23" s="3">
         <v>45000</v>
       </c>
       <c r="H23" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I23" s="3">
+        <v>45000</v>
+      </c>
+      <c r="J23" s="3">
         <v>23000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>3100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>42700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>11700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>38400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-5400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-111500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>84800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>92200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>75000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>60300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>111400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>71300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>57300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>62100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>87100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>99700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>63400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>54400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>65000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>61500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>24700</v>
+      </c>
+      <c r="F24" s="3">
         <v>12700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>10700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>2700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>1900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-9600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>7600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-2400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-27100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>21100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>14300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>12900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>10300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>14900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>10800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>11000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>8200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>10200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>-8800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>17200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>8900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>11400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>8500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AE24" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2212,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>59300</v>
+        <v>50200</v>
       </c>
       <c r="E26" s="3">
+        <v>75400</v>
+      </c>
+      <c r="F26" s="3">
+        <v>59200</v>
+      </c>
+      <c r="G26" s="3">
         <v>34300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>2700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>42300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>21000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>12700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>35000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>14100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>38500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-4600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-84300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>63700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>77800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>62200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>50000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>96500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>60500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>46200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>53900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>77000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>108500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>46200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>45500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>53600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>53100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>57900</v>
+        <v>48300</v>
       </c>
       <c r="E27" s="3">
-        <v>33000</v>
+        <v>72900</v>
       </c>
       <c r="F27" s="3">
+        <v>57800</v>
+      </c>
+      <c r="G27" s="3">
+        <v>32900</v>
+      </c>
+      <c r="H27" s="3">
         <v>1300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>40800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>19400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>10400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>34400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>14900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>37800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-4000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-84800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>61500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>76200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>61200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>48800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>94100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>59100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>44100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>52200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>74500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>107000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>44900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>44400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>51800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>51900</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2419,18 +2541,18 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-      <c r="U29" s="3" t="s">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V29" s="3" t="s">
+      <c r="X29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
       <c r="Y29" s="3">
         <v>0</v>
       </c>
@@ -2438,16 +2560,22 @@
         <v>0</v>
       </c>
       <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
         <v>-500</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AD29" s="3">
         <v>200</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AE29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2746,192 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F32" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G32" s="3">
+        <v>5800</v>
+      </c>
+      <c r="H32" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J32" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K32" s="3">
+        <v>4200</v>
+      </c>
+      <c r="L32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M32" s="3">
+        <v>3400</v>
+      </c>
+      <c r="N32" s="3">
+        <v>3100</v>
+      </c>
+      <c r="O32" s="3">
         <v>3900</v>
       </c>
-      <c r="E32" s="3">
-        <v>5800</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="P32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>3400</v>
+      </c>
+      <c r="R32" s="3">
+        <v>4000</v>
+      </c>
+      <c r="S32" s="3">
+        <v>4000</v>
+      </c>
+      <c r="T32" s="3">
+        <v>4400</v>
+      </c>
+      <c r="U32" s="3">
+        <v>4800</v>
+      </c>
+      <c r="V32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="W32" s="3">
         <v>2700</v>
       </c>
-      <c r="G32" s="3">
-        <v>2900</v>
-      </c>
-      <c r="H32" s="3">
-        <v>4500</v>
-      </c>
-      <c r="I32" s="3">
-        <v>4200</v>
-      </c>
-      <c r="J32" s="3">
-        <v>1300</v>
-      </c>
-      <c r="K32" s="3">
-        <v>3400</v>
-      </c>
-      <c r="L32" s="3">
-        <v>3100</v>
-      </c>
-      <c r="M32" s="3">
-        <v>3900</v>
-      </c>
-      <c r="N32" s="3">
-        <v>2500</v>
-      </c>
-      <c r="O32" s="3">
-        <v>3400</v>
-      </c>
-      <c r="P32" s="3">
-        <v>4000</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>4000</v>
-      </c>
-      <c r="R32" s="3">
-        <v>4400</v>
-      </c>
-      <c r="S32" s="3">
-        <v>4800</v>
-      </c>
-      <c r="T32" s="3">
-        <v>2900</v>
-      </c>
-      <c r="U32" s="3">
-        <v>2700</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>3700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-1800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>200</v>
       </c>
-      <c r="AC32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>57900</v>
+        <v>48300</v>
       </c>
       <c r="E33" s="3">
-        <v>33000</v>
+        <v>72900</v>
       </c>
       <c r="F33" s="3">
+        <v>57800</v>
+      </c>
+      <c r="G33" s="3">
+        <v>32900</v>
+      </c>
+      <c r="H33" s="3">
         <v>1300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>40800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>19400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>10400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>34400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>14900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>37800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-4000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-84800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>61500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>76200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>61200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>48800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>94100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>59100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>44100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>52200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>74500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>107000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>44900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>44400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>51200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>52100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +3013,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>57900</v>
+        <v>48300</v>
       </c>
       <c r="E35" s="3">
-        <v>33000</v>
+        <v>72900</v>
       </c>
       <c r="F35" s="3">
+        <v>57800</v>
+      </c>
+      <c r="G35" s="3">
+        <v>32900</v>
+      </c>
+      <c r="H35" s="3">
         <v>1300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>40800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>19400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>10400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>34400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>14900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>37800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-4000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-84800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>61500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>76200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>61200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>48800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>94100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>59100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>44100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>52200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>74500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>107000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>44900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>44400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>51200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>52100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,91 +3266,99 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>113100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>161100</v>
+      </c>
+      <c r="F41" s="3">
         <v>141900</v>
       </c>
-      <c r="E41" s="3">
-        <v>150500</v>
-      </c>
-      <c r="F41" s="3">
-        <v>152600</v>
-      </c>
       <c r="G41" s="3">
-        <v>256400</v>
+        <v>150400</v>
       </c>
       <c r="H41" s="3">
-        <v>343300</v>
+        <v>152500</v>
       </c>
       <c r="I41" s="3">
+        <v>256200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>343200</v>
+      </c>
+      <c r="K41" s="3">
         <v>252100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>511500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>695400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>479600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>197800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>278500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>743000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>217100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>184500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>255400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>343400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>275300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>366500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>376500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>455100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>395000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>402600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>321400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>387700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>320200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>263700</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3260,589 +3440,637 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>965000</v>
+        <v>972000</v>
       </c>
       <c r="E43" s="3">
-        <v>960400</v>
+        <v>1005300</v>
       </c>
       <c r="F43" s="3">
-        <v>972500</v>
+        <v>964500</v>
       </c>
       <c r="G43" s="3">
-        <v>887700</v>
+        <v>959900</v>
       </c>
       <c r="H43" s="3">
-        <v>820100</v>
+        <v>972000</v>
       </c>
       <c r="I43" s="3">
+        <v>887200</v>
+      </c>
+      <c r="J43" s="3">
+        <v>819700</v>
+      </c>
+      <c r="K43" s="3">
         <v>889700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>786400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>766100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>761800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>827400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>832500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>915200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>825400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>944500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>889800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>810700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>866500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>728100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>748300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>1116900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>438900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>408600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>410000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>441000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>415400</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <v>443000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>443600</v>
+        <v>482300</v>
       </c>
       <c r="E44" s="3">
-        <v>419500</v>
+        <v>431900</v>
       </c>
       <c r="F44" s="3">
-        <v>407700</v>
+        <v>443300</v>
       </c>
       <c r="G44" s="3">
-        <v>385000</v>
+        <v>419300</v>
       </c>
       <c r="H44" s="3">
-        <v>405100</v>
+        <v>407500</v>
       </c>
       <c r="I44" s="3">
+        <v>384800</v>
+      </c>
+      <c r="J44" s="3">
+        <v>404900</v>
+      </c>
+      <c r="K44" s="3">
         <v>398200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>414000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>486400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>534800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>545500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>514200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>483700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>473600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>478800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>468000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>413400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>459900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>417500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>410800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>384100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>275400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>287900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>299000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>319800</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>322700</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AE44" s="3">
         <v>307600</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>69800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>56400</v>
+      </c>
+      <c r="F45" s="3">
         <v>63400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>77000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>73900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>62400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>58200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>57400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>577800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>589000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>68600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>62600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>64600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>62900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>61900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>61600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>70000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>59000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>54300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>50000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>51300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>346000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>338700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>322500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>359500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>326300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>307300</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>307500</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1613900</v>
+        <v>1637300</v>
       </c>
       <c r="E46" s="3">
-        <v>1607400</v>
+        <v>1654700</v>
       </c>
       <c r="F46" s="3">
-        <v>1606700</v>
+        <v>1613100</v>
       </c>
       <c r="G46" s="3">
-        <v>1591600</v>
+        <v>1606600</v>
       </c>
       <c r="H46" s="3">
-        <v>1626700</v>
+        <v>1605900</v>
       </c>
       <c r="I46" s="3">
+        <v>1590700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1625900</v>
+      </c>
+      <c r="K46" s="3">
         <v>1597500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2289700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2536900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1844900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1633300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1689800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2204900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1578100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1669300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1683300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1626600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1656000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1562000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1586900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1580200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1448100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>1421600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>1390000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>1474800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>1365600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>1321900</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>381600</v>
+        <v>396300</v>
       </c>
       <c r="E47" s="3">
-        <v>376900</v>
+        <v>392900</v>
       </c>
       <c r="F47" s="3">
-        <v>343600</v>
+        <v>381400</v>
       </c>
       <c r="G47" s="3">
+        <v>376700</v>
+      </c>
+      <c r="H47" s="3">
+        <v>343500</v>
+      </c>
+      <c r="I47" s="3">
+        <v>336100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>336700</v>
+      </c>
+      <c r="K47" s="3">
+        <v>329600</v>
+      </c>
+      <c r="L47" s="3">
+        <v>313600</v>
+      </c>
+      <c r="M47" s="3">
+        <v>317000</v>
+      </c>
+      <c r="N47" s="3">
+        <v>316100</v>
+      </c>
+      <c r="O47" s="3">
+        <v>319400</v>
+      </c>
+      <c r="P47" s="3">
+        <v>328100</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>361600</v>
+      </c>
+      <c r="R47" s="3">
         <v>336300</v>
       </c>
-      <c r="H47" s="3">
-        <v>336900</v>
-      </c>
-      <c r="I47" s="3">
-        <v>329600</v>
-      </c>
-      <c r="J47" s="3">
-        <v>313600</v>
-      </c>
-      <c r="K47" s="3">
-        <v>317000</v>
-      </c>
-      <c r="L47" s="3">
-        <v>316100</v>
-      </c>
-      <c r="M47" s="3">
-        <v>319400</v>
-      </c>
-      <c r="N47" s="3">
-        <v>328100</v>
-      </c>
-      <c r="O47" s="3">
-        <v>361600</v>
-      </c>
-      <c r="P47" s="3">
-        <v>336300</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>258700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>245800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>240300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>226700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>183600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>189900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>180600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>175500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>195000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>277500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>290700</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>284600</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AE47" s="3">
         <v>283200</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2034400</v>
+        <v>2075800</v>
       </c>
       <c r="E48" s="3">
-        <v>1958700</v>
+        <v>2083400</v>
       </c>
       <c r="F48" s="3">
-        <v>1877600</v>
+        <v>2033300</v>
       </c>
       <c r="G48" s="3">
-        <v>1853600</v>
+        <v>1957700</v>
       </c>
       <c r="H48" s="3">
-        <v>1838400</v>
+        <v>1876600</v>
       </c>
       <c r="I48" s="3">
+        <v>1852600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1837500</v>
+      </c>
+      <c r="K48" s="3">
         <v>1829500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1711900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1710400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1790100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1778100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1823100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2001800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1855500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1976500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1880600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1654600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1482300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1295500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1369200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1342500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>1285000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>1176900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>1190700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>1215800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>1194800</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>1191200</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2992700</v>
+        <v>2951200</v>
       </c>
       <c r="E49" s="3">
-        <v>3005800</v>
+        <v>2999100</v>
       </c>
       <c r="F49" s="3">
-        <v>2868500</v>
+        <v>2991100</v>
       </c>
       <c r="G49" s="3">
-        <v>2812100</v>
+        <v>3004200</v>
       </c>
       <c r="H49" s="3">
-        <v>2539900</v>
+        <v>2867000</v>
       </c>
       <c r="I49" s="3">
+        <v>2810600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>2538600</v>
+      </c>
+      <c r="K49" s="3">
         <v>2541600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1531300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1543600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1590000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1495400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1514000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1614500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1570600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1681600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1608600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1561100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>1003100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>802500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>791000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>785600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>769100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>681600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>698900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>725200</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>719900</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AE49" s="3">
         <v>722900</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4241,103 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>586600</v>
+        <v>579900</v>
       </c>
       <c r="E52" s="3">
-        <v>533600</v>
+        <v>596700</v>
       </c>
       <c r="F52" s="3">
-        <v>530200</v>
+        <v>586300</v>
       </c>
       <c r="G52" s="3">
-        <v>501900</v>
+        <v>533400</v>
       </c>
       <c r="H52" s="3">
-        <v>484100</v>
+        <v>529900</v>
       </c>
       <c r="I52" s="3">
+        <v>501700</v>
+      </c>
+      <c r="J52" s="3">
+        <v>483800</v>
+      </c>
+      <c r="K52" s="3">
         <v>481600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>465900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>461000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>477900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>478800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>478700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>477300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>463800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>483000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>459900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>433600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>422600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>392700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>422300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>412800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>398800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>389300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>389500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>407200</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>407200</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AE52" s="3">
         <v>408200</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7609200</v>
+        <v>7640600</v>
       </c>
       <c r="E54" s="3">
-        <v>7482400</v>
+        <v>7726800</v>
       </c>
       <c r="F54" s="3">
-        <v>7226700</v>
+        <v>7605300</v>
       </c>
       <c r="G54" s="3">
-        <v>7095400</v>
+        <v>7478600</v>
       </c>
       <c r="H54" s="3">
-        <v>6826100</v>
+        <v>7223000</v>
       </c>
       <c r="I54" s="3">
+        <v>7091800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>6822600</v>
+      </c>
+      <c r="K54" s="3">
         <v>6779700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>6312200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>6568800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>6018900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>5705000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5833700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>6660100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>5804300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>6069100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>5878100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>5516100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>4790700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>4236400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>4359300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>4301700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>4076500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>3864400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>3946500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>4113700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>3972100</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>3927300</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,506 +4578,544 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>679500</v>
+        <v>690700</v>
       </c>
       <c r="E57" s="3">
+        <v>767500</v>
+      </c>
+      <c r="F57" s="3">
+        <v>679100</v>
+      </c>
+      <c r="G57" s="3">
+        <v>659300</v>
+      </c>
+      <c r="H57" s="3">
+        <v>662600</v>
+      </c>
+      <c r="I57" s="3">
+        <v>721900</v>
+      </c>
+      <c r="J57" s="3">
         <v>659600</v>
       </c>
-      <c r="F57" s="3">
-        <v>663000</v>
-      </c>
-      <c r="G57" s="3">
-        <v>722300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>659900</v>
-      </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>589700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>567600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>710000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>710200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>668100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>632900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>733600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>654500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>614700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>632600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>671400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>680000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>532200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>492900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>496300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>452300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>418000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>454100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>534100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>615400</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>581600</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>163600</v>
+        <v>154000</v>
       </c>
       <c r="E58" s="3">
+        <v>158900</v>
+      </c>
+      <c r="F58" s="3">
+        <v>163500</v>
+      </c>
+      <c r="G58" s="3">
         <v>180100</v>
       </c>
-      <c r="F58" s="3">
-        <v>169500</v>
-      </c>
-      <c r="G58" s="3">
-        <v>179100</v>
-      </c>
       <c r="H58" s="3">
-        <v>145100</v>
+        <v>169400</v>
       </c>
       <c r="I58" s="3">
+        <v>179000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>145000</v>
+      </c>
+      <c r="K58" s="3">
         <v>152400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>170100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>162400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>220400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>175900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>167900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>161900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>96000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>191800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>157900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>203300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>175500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>94300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>89700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>38800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>41000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>35000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>37200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>39900</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>39700</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AE58" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>816400</v>
+        <v>742100</v>
       </c>
       <c r="E59" s="3">
-        <v>724800</v>
+        <v>737000</v>
       </c>
       <c r="F59" s="3">
-        <v>686800</v>
+        <v>816000</v>
       </c>
       <c r="G59" s="3">
-        <v>647600</v>
+        <v>724400</v>
       </c>
       <c r="H59" s="3">
-        <v>574000</v>
+        <v>686500</v>
       </c>
       <c r="I59" s="3">
+        <v>647300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>573700</v>
+      </c>
+      <c r="K59" s="3">
         <v>519600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1024100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1104800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>554500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>619400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>648300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>723600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>601800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>606300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>613000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>579800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>653200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>530700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>538100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>561900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>457900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>390600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>390800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>404700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>221300</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>225100</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1659600</v>
+        <v>1586800</v>
       </c>
       <c r="E60" s="3">
-        <v>1564600</v>
+        <v>1663400</v>
       </c>
       <c r="F60" s="3">
-        <v>1519300</v>
+        <v>1658700</v>
       </c>
       <c r="G60" s="3">
-        <v>1549000</v>
+        <v>1563800</v>
       </c>
       <c r="H60" s="3">
-        <v>1379000</v>
+        <v>1518500</v>
       </c>
       <c r="I60" s="3">
+        <v>1548200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1378300</v>
+      </c>
+      <c r="K60" s="3">
         <v>1261700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1761800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1977200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1485100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1463400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1449100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1619000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1352300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1412800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1403500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1454600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1508700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1157200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1120800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1097000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>951200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>843600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>882100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>978600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>876500</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>842800</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2254600</v>
+        <v>2303400</v>
       </c>
       <c r="E61" s="3">
-        <v>2336700</v>
+        <v>2247400</v>
       </c>
       <c r="F61" s="3">
-        <v>2224500</v>
+        <v>2253400</v>
       </c>
       <c r="G61" s="3">
-        <v>2077300</v>
+        <v>2335500</v>
       </c>
       <c r="H61" s="3">
-        <v>1909700</v>
+        <v>2223400</v>
       </c>
       <c r="I61" s="3">
+        <v>2076300</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1908700</v>
+      </c>
+      <c r="K61" s="3">
         <v>1937900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1577900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1603200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1667400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1830300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1956300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2438400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1919500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>2017900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1931500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>1589100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>850000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>849900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>897600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>899500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>883600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>866100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>882800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>924600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>936400</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AE61" s="3">
         <v>936400</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>395200</v>
+        <v>358300</v>
       </c>
       <c r="E62" s="3">
-        <v>383000</v>
+        <v>418600</v>
       </c>
       <c r="F62" s="3">
-        <v>405800</v>
+        <v>395000</v>
       </c>
       <c r="G62" s="3">
-        <v>441900</v>
+        <v>382800</v>
       </c>
       <c r="H62" s="3">
-        <v>563600</v>
+        <v>405600</v>
       </c>
       <c r="I62" s="3">
+        <v>441700</v>
+      </c>
+      <c r="J62" s="3">
+        <v>563300</v>
+      </c>
+      <c r="K62" s="3">
         <v>603300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>566400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>576000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>652800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>610600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>634900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>578600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>625500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>689000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>666800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>617200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>629100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>570500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>597800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>595300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>615100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>583200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>600000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>611800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>603200</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AE62" s="3">
         <v>648900</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4369600</v>
+        <v>4309600</v>
       </c>
       <c r="E66" s="3">
-        <v>4343000</v>
+        <v>4389400</v>
       </c>
       <c r="F66" s="3">
-        <v>4204900</v>
+        <v>4367400</v>
       </c>
       <c r="G66" s="3">
-        <v>4125300</v>
+        <v>4340700</v>
       </c>
       <c r="H66" s="3">
-        <v>3908700</v>
+        <v>4202700</v>
       </c>
       <c r="I66" s="3">
+        <v>4123100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>3906700</v>
+      </c>
+      <c r="K66" s="3">
         <v>3857900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3958100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4210700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3866400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3969900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4106900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>4705500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3962400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>4187300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>4064300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>3721500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>3048400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>2631900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>2671100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>2642800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>2497600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>2338500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>2410000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>2561300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>2460700</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>2471400</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1439000</v>
+        <v>1558000</v>
       </c>
       <c r="E72" s="3">
-        <v>1376400</v>
+        <v>1521300</v>
       </c>
       <c r="F72" s="3">
-        <v>1351800</v>
+        <v>1438300</v>
       </c>
       <c r="G72" s="3">
-        <v>1316700</v>
+        <v>1375700</v>
       </c>
       <c r="H72" s="3">
-        <v>1216000</v>
+        <v>1351100</v>
       </c>
       <c r="I72" s="3">
+        <v>1316100</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1215400</v>
+      </c>
+      <c r="K72" s="3">
         <v>1207900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1179900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1159100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1121200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1069400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1064700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1248300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1188800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1199400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1135000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1122300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>1045900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>1001500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>1021400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>978100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>965700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>934500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>902100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>916000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>877400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>806200</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3239600</v>
+        <v>3331000</v>
       </c>
       <c r="E76" s="3">
-        <v>3139500</v>
+        <v>3337300</v>
       </c>
       <c r="F76" s="3">
-        <v>3021800</v>
+        <v>3237900</v>
       </c>
       <c r="G76" s="3">
-        <v>2970100</v>
+        <v>3137900</v>
       </c>
       <c r="H76" s="3">
-        <v>2917400</v>
+        <v>3020200</v>
       </c>
       <c r="I76" s="3">
+        <v>2968600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2915900</v>
+      </c>
+      <c r="K76" s="3">
         <v>2921800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2354100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2358100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2152600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1735100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1726900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1954500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1841900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1881800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1813800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1794700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1742300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1604500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>1688200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>1658900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>1578800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>1525900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>1536500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>1552400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>1511400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>1455900</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6387,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>57900</v>
+        <v>48300</v>
       </c>
       <c r="E81" s="3">
-        <v>33000</v>
+        <v>72900</v>
       </c>
       <c r="F81" s="3">
+        <v>57800</v>
+      </c>
+      <c r="G81" s="3">
+        <v>32900</v>
+      </c>
+      <c r="H81" s="3">
         <v>1300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>40800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>19400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>10400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>34400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>14900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>37800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-4000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-84800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>61500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>76200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>61200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>48800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>94100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>59100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>44100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>52200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>74500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>107000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>44900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>44400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>51200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>52100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,91 +6607,99 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>68300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>66200</v>
+      </c>
+      <c r="F83" s="3">
         <v>65400</v>
       </c>
-      <c r="E83" s="3">
-        <v>60700</v>
-      </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
+        <v>60600</v>
+      </c>
+      <c r="H83" s="3">
         <v>61200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>59900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>59200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>58200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>52700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>55000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>61300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>58400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>65600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>57700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>60600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>62500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>58500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>48900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>40300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>37800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>36700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>35500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>36800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>36400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>39900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>39500</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>42500</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AE83" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +7137,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>187000</v>
+        <v>-36500</v>
       </c>
       <c r="E89" s="3">
+        <v>133700</v>
+      </c>
+      <c r="F89" s="3">
+        <v>186900</v>
+      </c>
+      <c r="G89" s="3">
         <v>102200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-120400</v>
       </c>
-      <c r="G89" s="3">
-        <v>153200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>229300</v>
-      </c>
       <c r="I89" s="3">
+        <v>153100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>229200</v>
+      </c>
+      <c r="K89" s="3">
         <v>22900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-95600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>131100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>181700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>35000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-67800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>193400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>251100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>30400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-47600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>128000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>165600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>128700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-23000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>102600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>139600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>72300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-14300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>151700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>119900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7263,99 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-130400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-99400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-123100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-103500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-99300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-100900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-102400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-66300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-93200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-37900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-18500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-11700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-13800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-65900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-40200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-48700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-70600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-120600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>36500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-29700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-40000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-42700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-32000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-18200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-36500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-56500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-27500</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AE91" s="3">
         <v>-45200</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7526,103 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-98500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-57700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-82100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-88100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-68700</v>
       </c>
-      <c r="G94" s="3">
-        <v>-438900</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-81600</v>
-      </c>
       <c r="I94" s="3">
+        <v>-438700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-81500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1055000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-81700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-87300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-136300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-16600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-22500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-91600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-143700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-63700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-93700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-701200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-233700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-62900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-56400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-32000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-111900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>46400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-28300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-61200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-27700</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>-49400</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7225,52 +7693,58 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-22500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-22100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-23500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-20200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-19700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-19400</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-18700</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-17400</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-16700</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-17300</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-17300</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AB96" s="3">
         <v>-15600</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AC96" s="3">
         <v>-15700</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AD96" s="3">
         <v>-16000</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AE96" s="3">
         <v>-15600</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,253 +8004,277 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>89900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-58600</v>
+      </c>
+      <c r="F100" s="3">
         <v>-120100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-21500</v>
       </c>
-      <c r="F100" s="3">
-        <v>87300</v>
-      </c>
-      <c r="G100" s="3">
-        <v>205300</v>
-      </c>
       <c r="H100" s="3">
+        <v>87200</v>
+      </c>
+      <c r="I100" s="3">
+        <v>205200</v>
+      </c>
+      <c r="J100" s="3">
         <v>-53600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>773700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>4700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>193300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>238600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-100400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-349700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>407400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-64600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-44700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>48600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>643900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-52200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-56500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-22000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-38300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-33100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-12700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-22900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-33200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E101" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F101" s="3">
         <v>6700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>5300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-1900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-6500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-3000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-1900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-7100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-3900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>1300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-7200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>15300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-4600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-5800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-5800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>11700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-6300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-4600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>11500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>3000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-4300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>1000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>-100</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>-2600</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AE101" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-48000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>19200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-8600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-2100</v>
       </c>
-      <c r="F102" s="3">
-        <v>-103800</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-87000</v>
-      </c>
       <c r="H102" s="3">
-        <v>91200</v>
+        <v>-103700</v>
       </c>
       <c r="I102" s="3">
+        <v>-86900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>91100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-259300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-174500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>229900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>280000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-80700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-447100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>524400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>43700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-82500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-98400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>65000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-108500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>3100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-83900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>60100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-7600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>81200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-54200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>67500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>56500</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>-1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CAE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAE_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,410 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>780600</v>
+        <v>791400</v>
       </c>
       <c r="E8" s="3">
-        <v>930300</v>
+        <v>766600</v>
       </c>
       <c r="F8" s="3">
-        <v>755400</v>
+        <v>913500</v>
       </c>
       <c r="G8" s="3">
-        <v>735300</v>
+        <v>741800</v>
       </c>
       <c r="H8" s="3">
-        <v>691000</v>
+        <v>722100</v>
       </c>
       <c r="I8" s="3">
-        <v>707000</v>
+        <v>678500</v>
       </c>
       <c r="J8" s="3">
+        <v>694300</v>
+      </c>
+      <c r="K8" s="3">
         <v>628300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>603600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>557600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>671500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>644100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>540300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>422000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>767200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>720000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>743500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>654700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>786800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>621300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>540500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>543500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>581000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>616400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>460100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>488400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>564400</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>524500</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>488200</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>554200</v>
+        <v>571000</v>
       </c>
       <c r="E9" s="3">
-        <v>662400</v>
+        <v>544200</v>
       </c>
       <c r="F9" s="3">
-        <v>534800</v>
+        <v>650500</v>
       </c>
       <c r="G9" s="3">
-        <v>532800</v>
+        <v>525100</v>
       </c>
       <c r="H9" s="3">
-        <v>518500</v>
+        <v>523200</v>
       </c>
       <c r="I9" s="3">
-        <v>506000</v>
+        <v>509200</v>
       </c>
       <c r="J9" s="3">
+        <v>496800</v>
+      </c>
+      <c r="K9" s="3">
         <v>448800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>435000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>399200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>493500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>467000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>393800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>339200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>522500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>492800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>547300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>461500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>565000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>443700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>394100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>378900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>387100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>426100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>325000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>336800</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>383900</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>371400</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>344600</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>226500</v>
+        <v>220400</v>
       </c>
       <c r="E10" s="3">
-        <v>267900</v>
+        <v>222400</v>
       </c>
       <c r="F10" s="3">
-        <v>220600</v>
+        <v>263000</v>
       </c>
       <c r="G10" s="3">
-        <v>202600</v>
+        <v>216600</v>
       </c>
       <c r="H10" s="3">
-        <v>172400</v>
+        <v>198900</v>
       </c>
       <c r="I10" s="3">
-        <v>201100</v>
+        <v>169300</v>
       </c>
       <c r="J10" s="3">
+        <v>197500</v>
+      </c>
+      <c r="K10" s="3">
         <v>179500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>168600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>158400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>178000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>177100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>146400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>82800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>244700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>227300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>196200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>193300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>221700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>177600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>146400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>164600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>193900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>190300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>135100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>151600</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>180500</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>153100</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>143600</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,97 +1100,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>28900</v>
+        <v>25200</v>
       </c>
       <c r="E12" s="3">
+        <v>28400</v>
+      </c>
+      <c r="F12" s="3">
+        <v>29100</v>
+      </c>
+      <c r="G12" s="3">
+        <v>22000</v>
+      </c>
+      <c r="H12" s="3">
+        <v>23400</v>
+      </c>
+      <c r="I12" s="3">
         <v>29600</v>
       </c>
-      <c r="F12" s="3">
-        <v>22400</v>
-      </c>
-      <c r="G12" s="3">
-        <v>23800</v>
-      </c>
-      <c r="H12" s="3">
-        <v>30100</v>
-      </c>
-      <c r="I12" s="3">
-        <v>25800</v>
-      </c>
       <c r="J12" s="3">
+        <v>25400</v>
+      </c>
+      <c r="K12" s="3">
         <v>23500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>22700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>17400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>16900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>28200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>19600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>15400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>28400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>26200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>29700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>25300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>7600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>23700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>21100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>23600</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>17000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>22200</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>22300</v>
-      </c>
-      <c r="AB12" s="3">
-        <v>24000</v>
       </c>
       <c r="AC12" s="3">
         <v>24000</v>
       </c>
       <c r="AD12" s="3">
+        <v>24000</v>
+      </c>
+      <c r="AE12" s="3">
         <v>22100</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1265,55 +1282,58 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>7100</v>
+        <v>27600</v>
       </c>
       <c r="E14" s="3">
-        <v>11300</v>
+        <v>7000</v>
       </c>
       <c r="F14" s="3">
+        <v>11100</v>
+      </c>
+      <c r="G14" s="3">
         <v>3600</v>
       </c>
-      <c r="G14" s="3">
-        <v>16700</v>
-      </c>
       <c r="H14" s="3">
-        <v>15900</v>
+        <v>16400</v>
       </c>
       <c r="I14" s="3">
+        <v>15600</v>
+      </c>
+      <c r="J14" s="3">
+        <v>34700</v>
+      </c>
+      <c r="K14" s="3">
+        <v>31200</v>
+      </c>
+      <c r="L14" s="3">
         <v>35300</v>
       </c>
-      <c r="J14" s="3">
-        <v>31200</v>
-      </c>
-      <c r="K14" s="3">
-        <v>35300</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>6300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>47200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>11900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>42100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>76400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>29400</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
@@ -1321,8 +1341,8 @@
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1330,32 +1350,35 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
         <v>0</v>
       </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>-10600</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
       <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
         <v>16200</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>2200</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>684300</v>
+        <v>718200</v>
       </c>
       <c r="E17" s="3">
-        <v>792100</v>
+        <v>672000</v>
       </c>
       <c r="F17" s="3">
-        <v>647400</v>
+        <v>777800</v>
       </c>
       <c r="G17" s="3">
-        <v>659700</v>
+        <v>635700</v>
       </c>
       <c r="H17" s="3">
-        <v>661800</v>
+        <v>647800</v>
       </c>
       <c r="I17" s="3">
-        <v>638000</v>
+        <v>649900</v>
       </c>
       <c r="J17" s="3">
+        <v>626500</v>
+      </c>
+      <c r="K17" s="3">
         <v>579800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>574600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>493700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>635800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>579900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>518600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>506600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>652200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>599300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>640000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>566800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>655600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>535300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>468800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>469400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>476000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>503800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>383600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>420400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>486900</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>448700</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>429700</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>96300</v>
+        <v>73100</v>
       </c>
       <c r="E18" s="3">
-        <v>138200</v>
+        <v>94600</v>
       </c>
       <c r="F18" s="3">
-        <v>108000</v>
+        <v>135700</v>
       </c>
       <c r="G18" s="3">
-        <v>75600</v>
+        <v>106100</v>
       </c>
       <c r="H18" s="3">
-        <v>29200</v>
+        <v>74200</v>
       </c>
       <c r="I18" s="3">
-        <v>69100</v>
+        <v>28600</v>
       </c>
       <c r="J18" s="3">
+        <v>67800</v>
+      </c>
+      <c r="K18" s="3">
         <v>48500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>29000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>63900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>35700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>64100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>21600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-84600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>115000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>120800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>103500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>87900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>131200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>86000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>71700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>74100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>105000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>112500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>76500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>67900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>77500</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>75700</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>58500</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,254 +1717,261 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-7500</v>
+        <v>-1900</v>
       </c>
       <c r="E20" s="3">
-        <v>-6700</v>
+        <v>-7300</v>
       </c>
       <c r="F20" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="G20" s="3">
         <v>-3800</v>
       </c>
-      <c r="G20" s="3">
-        <v>-5800</v>
-      </c>
       <c r="H20" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="I20" s="3">
         <v>-2700</v>
       </c>
-      <c r="I20" s="3">
-        <v>-2900</v>
-      </c>
       <c r="J20" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-4500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3400</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-4000</v>
       </c>
       <c r="S20" s="3">
         <v>-4000</v>
       </c>
       <c r="T20" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="U20" s="3">
         <v>-4400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-4800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-3700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>1300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>1000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>500</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>1800</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-200</v>
       </c>
-      <c r="AE20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>157100</v>
+        <v>137600</v>
       </c>
       <c r="E21" s="3">
-        <v>197700</v>
+        <v>154300</v>
       </c>
       <c r="F21" s="3">
-        <v>169500</v>
+        <v>194100</v>
       </c>
       <c r="G21" s="3">
-        <v>130500</v>
+        <v>166500</v>
       </c>
       <c r="H21" s="3">
-        <v>87600</v>
+        <v>128100</v>
       </c>
       <c r="I21" s="3">
-        <v>126100</v>
+        <v>86000</v>
       </c>
       <c r="J21" s="3">
+        <v>123800</v>
+      </c>
+      <c r="K21" s="3">
         <v>103100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>83000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>115200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>87300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>122300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>76100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-21500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>169300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>177400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>162000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>142000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>175300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>123400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>106800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>110600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>136800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>150600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>113900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>108400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>118800</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>118000</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>95700</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>32600</v>
+        <v>33000</v>
       </c>
       <c r="E22" s="3">
-        <v>31400</v>
+        <v>32000</v>
       </c>
       <c r="F22" s="3">
-        <v>32300</v>
+        <v>30800</v>
       </c>
       <c r="G22" s="3">
-        <v>24800</v>
+        <v>31700</v>
       </c>
       <c r="H22" s="3">
-        <v>24100</v>
+        <v>24400</v>
       </c>
       <c r="I22" s="3">
-        <v>21200</v>
+        <v>23600</v>
       </c>
       <c r="J22" s="3">
+        <v>20800</v>
+      </c>
+      <c r="K22" s="3">
         <v>21000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>21700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>19900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>20600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>22700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>23100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>24400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>26800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>24600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>24500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>23200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>15000</v>
-      </c>
-      <c r="V22" s="3">
-        <v>11800</v>
       </c>
       <c r="W22" s="3">
         <v>11800</v>
       </c>
       <c r="X22" s="3">
+        <v>11800</v>
+      </c>
+      <c r="Y22" s="3">
         <v>11700</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>14100</v>
       </c>
       <c r="Z22" s="3">
         <v>14100</v>
@@ -1943,194 +1983,203 @@
         <v>14100</v>
       </c>
       <c r="AC22" s="3">
+        <v>14100</v>
+      </c>
+      <c r="AD22" s="3">
         <v>14400</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>14000</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>56300</v>
+        <v>38200</v>
       </c>
       <c r="E23" s="3">
-        <v>100100</v>
+        <v>55300</v>
       </c>
       <c r="F23" s="3">
-        <v>71900</v>
+        <v>98300</v>
       </c>
       <c r="G23" s="3">
-        <v>45000</v>
+        <v>70600</v>
       </c>
       <c r="H23" s="3">
-        <v>2400</v>
+        <v>44200</v>
       </c>
       <c r="I23" s="3">
-        <v>45000</v>
+        <v>2300</v>
       </c>
       <c r="J23" s="3">
+        <v>44200</v>
+      </c>
+      <c r="K23" s="3">
         <v>23000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>42700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>11700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>38400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-111500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>84800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>92200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>75000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>60300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>111400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>71300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>57300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>62100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>87100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>99700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>63400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>54400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>65000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>61500</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6100</v>
+        <v>-6200</v>
       </c>
       <c r="E24" s="3">
-        <v>24700</v>
+        <v>6000</v>
       </c>
       <c r="F24" s="3">
-        <v>12700</v>
+        <v>24200</v>
       </c>
       <c r="G24" s="3">
-        <v>10700</v>
+        <v>12400</v>
       </c>
       <c r="H24" s="3">
+        <v>10500</v>
+      </c>
+      <c r="I24" s="3">
         <v>-400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-9600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-27100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>21100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>14300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>12900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>10300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>14900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>10800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>11000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>8200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>10200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-8800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>17200</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>8900</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>11400</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>8500</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>50200</v>
+        <v>44400</v>
       </c>
       <c r="E26" s="3">
-        <v>75400</v>
+        <v>49300</v>
       </c>
       <c r="F26" s="3">
-        <v>59200</v>
+        <v>74100</v>
       </c>
       <c r="G26" s="3">
-        <v>34300</v>
+        <v>58200</v>
       </c>
       <c r="H26" s="3">
+        <v>33700</v>
+      </c>
+      <c r="I26" s="3">
         <v>2700</v>
       </c>
-      <c r="I26" s="3">
-        <v>42300</v>
-      </c>
       <c r="J26" s="3">
+        <v>41500</v>
+      </c>
+      <c r="K26" s="3">
         <v>21000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>12700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>35000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>14100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>38500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-84300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>63700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>77800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>62200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>50000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>96500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>60500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>46200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>53900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>77000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>108500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>46200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>45500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>53600</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>53100</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>48300</v>
+        <v>42500</v>
       </c>
       <c r="E27" s="3">
-        <v>72900</v>
+        <v>47500</v>
       </c>
       <c r="F27" s="3">
-        <v>57800</v>
+        <v>71500</v>
       </c>
       <c r="G27" s="3">
-        <v>32900</v>
+        <v>56800</v>
       </c>
       <c r="H27" s="3">
-        <v>1300</v>
+        <v>32400</v>
       </c>
       <c r="I27" s="3">
-        <v>40800</v>
+        <v>1200</v>
       </c>
       <c r="J27" s="3">
+        <v>40100</v>
+      </c>
+      <c r="K27" s="3">
         <v>19400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>10400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>34400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>14900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>37800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-84800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>61500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>76200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>61200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>48800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>94100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>59100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>44100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>52200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>74500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>107000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>44900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>44400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>51800</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>51900</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2547,14 +2608,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>10</v>
+      <c r="W29" s="3">
+        <v>0</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
+      <c r="Y29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Z29" s="3">
         <v>0</v>
@@ -2566,16 +2627,19 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
         <v>-500</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>200</v>
       </c>
-      <c r="AE29" s="3">
+      <c r="AF29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,186 +2819,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>7500</v>
+        <v>1900</v>
       </c>
       <c r="E32" s="3">
-        <v>6700</v>
+        <v>7300</v>
       </c>
       <c r="F32" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G32" s="3">
         <v>3800</v>
       </c>
-      <c r="G32" s="3">
-        <v>5800</v>
-      </c>
       <c r="H32" s="3">
+        <v>5700</v>
+      </c>
+      <c r="I32" s="3">
         <v>2700</v>
       </c>
-      <c r="I32" s="3">
-        <v>2900</v>
-      </c>
       <c r="J32" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K32" s="3">
         <v>4500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3400</v>
-      </c>
-      <c r="R32" s="3">
-        <v>4000</v>
       </c>
       <c r="S32" s="3">
         <v>4000</v>
       </c>
       <c r="T32" s="3">
+        <v>4000</v>
+      </c>
+      <c r="U32" s="3">
         <v>4400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>4800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>3700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-500</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-1800</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>200</v>
       </c>
-      <c r="AE32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>48300</v>
+        <v>42500</v>
       </c>
       <c r="E33" s="3">
-        <v>72900</v>
+        <v>47500</v>
       </c>
       <c r="F33" s="3">
-        <v>57800</v>
+        <v>71500</v>
       </c>
       <c r="G33" s="3">
-        <v>32900</v>
+        <v>56800</v>
       </c>
       <c r="H33" s="3">
-        <v>1300</v>
+        <v>32400</v>
       </c>
       <c r="I33" s="3">
-        <v>40800</v>
+        <v>1200</v>
       </c>
       <c r="J33" s="3">
+        <v>40100</v>
+      </c>
+      <c r="K33" s="3">
         <v>19400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>10400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>34400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>14900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>37800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-84800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>61500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>76200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>61200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>48800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>94100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>59100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>44100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>52200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>74500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>107000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>44900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>44400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>51200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>52100</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>48300</v>
+        <v>42500</v>
       </c>
       <c r="E35" s="3">
-        <v>72900</v>
+        <v>47500</v>
       </c>
       <c r="F35" s="3">
-        <v>57800</v>
+        <v>71500</v>
       </c>
       <c r="G35" s="3">
-        <v>32900</v>
+        <v>56800</v>
       </c>
       <c r="H35" s="3">
-        <v>1300</v>
+        <v>32400</v>
       </c>
       <c r="I35" s="3">
-        <v>40800</v>
+        <v>1200</v>
       </c>
       <c r="J35" s="3">
+        <v>40100</v>
+      </c>
+      <c r="K35" s="3">
         <v>19400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>10400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>34400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>14900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>37800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-84800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>61500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>76200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>61200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>48800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>94100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>59100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>44100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>52200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>74500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>107000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>44900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>44400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>51200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>52100</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,97 +3354,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>113100</v>
+        <v>132000</v>
       </c>
       <c r="E41" s="3">
-        <v>161100</v>
+        <v>111100</v>
       </c>
       <c r="F41" s="3">
-        <v>141900</v>
+        <v>158200</v>
       </c>
       <c r="G41" s="3">
-        <v>150400</v>
+        <v>139300</v>
       </c>
       <c r="H41" s="3">
-        <v>152500</v>
+        <v>147700</v>
       </c>
       <c r="I41" s="3">
-        <v>256200</v>
+        <v>149800</v>
       </c>
       <c r="J41" s="3">
+        <v>251600</v>
+      </c>
+      <c r="K41" s="3">
         <v>343200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>252100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>511500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>695400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>479600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>197800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>278500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>743000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>217100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>184500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>255400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>343400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>275300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>366500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>376500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>455100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>395000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>402600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>321400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>387700</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>320200</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>263700</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,631 +3536,655 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>972000</v>
+        <v>984200</v>
       </c>
       <c r="E43" s="3">
-        <v>1005300</v>
+        <v>954500</v>
       </c>
       <c r="F43" s="3">
-        <v>964500</v>
+        <v>987100</v>
       </c>
       <c r="G43" s="3">
-        <v>959900</v>
+        <v>947100</v>
       </c>
       <c r="H43" s="3">
-        <v>972000</v>
+        <v>942600</v>
       </c>
       <c r="I43" s="3">
-        <v>887200</v>
+        <v>954500</v>
       </c>
       <c r="J43" s="3">
+        <v>871200</v>
+      </c>
+      <c r="K43" s="3">
         <v>819700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>889700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>786400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>766100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>761800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>827400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>832500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>915200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>825400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>944500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>889800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>810700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>866500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>728100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>748300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1116900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>438900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>408600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>410000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>441000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>415400</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>443000</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>482300</v>
+        <v>476800</v>
       </c>
       <c r="E44" s="3">
-        <v>431900</v>
+        <v>473600</v>
       </c>
       <c r="F44" s="3">
-        <v>443300</v>
+        <v>424100</v>
       </c>
       <c r="G44" s="3">
-        <v>419300</v>
+        <v>435300</v>
       </c>
       <c r="H44" s="3">
-        <v>407500</v>
+        <v>411700</v>
       </c>
       <c r="I44" s="3">
-        <v>384800</v>
+        <v>400100</v>
       </c>
       <c r="J44" s="3">
+        <v>377900</v>
+      </c>
+      <c r="K44" s="3">
         <v>404900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>398200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>414000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>486400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>534800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>545500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>514200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>483700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>473600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>478800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>468000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>413400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>459900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>417500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>410800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>384100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>275400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>287900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>299000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>319800</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>322700</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>307600</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>69800</v>
+        <v>65300</v>
       </c>
       <c r="E45" s="3">
-        <v>56400</v>
+        <v>68600</v>
       </c>
       <c r="F45" s="3">
-        <v>63400</v>
+        <v>55400</v>
       </c>
       <c r="G45" s="3">
-        <v>77000</v>
+        <v>62200</v>
       </c>
       <c r="H45" s="3">
-        <v>73900</v>
+        <v>75600</v>
       </c>
       <c r="I45" s="3">
-        <v>62400</v>
+        <v>72600</v>
       </c>
       <c r="J45" s="3">
+        <v>61300</v>
+      </c>
+      <c r="K45" s="3">
         <v>58200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>57400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>577800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>589000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>68600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>62600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>64600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>62900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>61900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>61600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>70000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>59000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>54300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>50000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>51300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>346000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>338700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>322500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>359500</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>326300</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>307300</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>307500</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1637300</v>
+        <v>1658200</v>
       </c>
       <c r="E46" s="3">
-        <v>1654700</v>
+        <v>1607800</v>
       </c>
       <c r="F46" s="3">
-        <v>1613100</v>
+        <v>1624900</v>
       </c>
       <c r="G46" s="3">
-        <v>1606600</v>
+        <v>1584000</v>
       </c>
       <c r="H46" s="3">
-        <v>1605900</v>
+        <v>1577600</v>
       </c>
       <c r="I46" s="3">
-        <v>1590700</v>
+        <v>1577000</v>
       </c>
       <c r="J46" s="3">
+        <v>1562100</v>
+      </c>
+      <c r="K46" s="3">
         <v>1625900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1597500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2289700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2536900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1844900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1633300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1689800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2204900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1578100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1669300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1683300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1626600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1656000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1562000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1586900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1580200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1448100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1421600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1390000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1474800</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1365600</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>1321900</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>396300</v>
+        <v>403300</v>
       </c>
       <c r="E47" s="3">
-        <v>392900</v>
+        <v>389200</v>
       </c>
       <c r="F47" s="3">
-        <v>381400</v>
+        <v>385800</v>
       </c>
       <c r="G47" s="3">
-        <v>376700</v>
+        <v>374600</v>
       </c>
       <c r="H47" s="3">
-        <v>343500</v>
+        <v>369900</v>
       </c>
       <c r="I47" s="3">
-        <v>336100</v>
+        <v>337300</v>
       </c>
       <c r="J47" s="3">
+        <v>330100</v>
+      </c>
+      <c r="K47" s="3">
         <v>336700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>329600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>313600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>317000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>316100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>319400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>328100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>361600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>336300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>258700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>245800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>240300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>226700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>183600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>189900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>180600</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>175500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>195000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>277500</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>290700</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>284600</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>283200</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2075800</v>
+        <v>2100000</v>
       </c>
       <c r="E48" s="3">
-        <v>2083400</v>
+        <v>2038400</v>
       </c>
       <c r="F48" s="3">
-        <v>2033300</v>
+        <v>2045800</v>
       </c>
       <c r="G48" s="3">
-        <v>1957700</v>
+        <v>1996700</v>
       </c>
       <c r="H48" s="3">
-        <v>1876600</v>
+        <v>1922400</v>
       </c>
       <c r="I48" s="3">
-        <v>1852600</v>
+        <v>1842800</v>
       </c>
       <c r="J48" s="3">
+        <v>1819200</v>
+      </c>
+      <c r="K48" s="3">
         <v>1837500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1829500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1711900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1710400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1790100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1778100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1823100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2001800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1855500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1976500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1880600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1654600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1482300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1295500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1369200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1342500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1285000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1176900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1190700</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1215800</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>1194800</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>1191200</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2951200</v>
+        <v>2942000</v>
       </c>
       <c r="E49" s="3">
-        <v>2999100</v>
+        <v>2898000</v>
       </c>
       <c r="F49" s="3">
-        <v>2991100</v>
+        <v>2945000</v>
       </c>
       <c r="G49" s="3">
-        <v>3004200</v>
+        <v>2937200</v>
       </c>
       <c r="H49" s="3">
-        <v>2867000</v>
+        <v>2950100</v>
       </c>
       <c r="I49" s="3">
-        <v>2810600</v>
+        <v>2815300</v>
       </c>
       <c r="J49" s="3">
+        <v>2759900</v>
+      </c>
+      <c r="K49" s="3">
         <v>2538600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2541600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1531300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1543600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1590000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1495400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1514000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1614500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1570600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1681600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1608600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1561100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1003100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>802500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>791000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>785600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>769100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>681600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>698900</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>725200</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>719900</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>722900</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,97 +4364,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>579900</v>
+        <v>577500</v>
       </c>
       <c r="E52" s="3">
-        <v>596700</v>
+        <v>569500</v>
       </c>
       <c r="F52" s="3">
-        <v>586300</v>
+        <v>586000</v>
       </c>
       <c r="G52" s="3">
-        <v>533400</v>
+        <v>575700</v>
       </c>
       <c r="H52" s="3">
-        <v>529900</v>
+        <v>523700</v>
       </c>
       <c r="I52" s="3">
-        <v>501700</v>
+        <v>520400</v>
       </c>
       <c r="J52" s="3">
+        <v>492600</v>
+      </c>
+      <c r="K52" s="3">
         <v>483800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>481600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>465900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>461000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>477900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>478800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>478700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>477300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>463800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>483000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>459900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>433600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>422600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>392700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>422300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>412800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>398800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>389300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>389500</v>
-      </c>
-      <c r="AC52" s="3">
-        <v>407200</v>
       </c>
       <c r="AD52" s="3">
         <v>407200</v>
       </c>
       <c r="AE52" s="3">
+        <v>407200</v>
+      </c>
+      <c r="AF52" s="3">
         <v>408200</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7640600</v>
+        <v>7681100</v>
       </c>
       <c r="E54" s="3">
-        <v>7726800</v>
+        <v>7502800</v>
       </c>
       <c r="F54" s="3">
-        <v>7605300</v>
+        <v>7587400</v>
       </c>
       <c r="G54" s="3">
-        <v>7478600</v>
+        <v>7468100</v>
       </c>
       <c r="H54" s="3">
-        <v>7223000</v>
+        <v>7343700</v>
       </c>
       <c r="I54" s="3">
-        <v>7091800</v>
+        <v>7092700</v>
       </c>
       <c r="J54" s="3">
+        <v>6963900</v>
+      </c>
+      <c r="K54" s="3">
         <v>6822600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6779700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6312200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6568800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6018900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5705000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5833700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6660100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5804300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6069100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5878100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5516100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4790700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4236400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4359300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4301700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4076500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>3864400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>3946500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>4113700</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>3972100</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>3927300</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,542 +4710,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>690700</v>
+        <v>725200</v>
       </c>
       <c r="E57" s="3">
-        <v>767500</v>
+        <v>678200</v>
       </c>
       <c r="F57" s="3">
-        <v>679100</v>
+        <v>753700</v>
       </c>
       <c r="G57" s="3">
-        <v>659300</v>
+        <v>666900</v>
       </c>
       <c r="H57" s="3">
-        <v>662600</v>
+        <v>647400</v>
       </c>
       <c r="I57" s="3">
-        <v>721900</v>
+        <v>650700</v>
       </c>
       <c r="J57" s="3">
+        <v>708900</v>
+      </c>
+      <c r="K57" s="3">
         <v>659600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>589700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>567600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>710000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>710200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>668100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>632900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>733600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>654500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>614700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>632600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>671400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>680000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>532200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>492900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>496300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>452300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>418000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>454100</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>534100</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>615400</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>581600</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>154000</v>
+        <v>308800</v>
       </c>
       <c r="E58" s="3">
-        <v>158900</v>
+        <v>151200</v>
       </c>
       <c r="F58" s="3">
-        <v>163500</v>
+        <v>156000</v>
       </c>
       <c r="G58" s="3">
-        <v>180100</v>
+        <v>160600</v>
       </c>
       <c r="H58" s="3">
-        <v>169400</v>
+        <v>176800</v>
       </c>
       <c r="I58" s="3">
-        <v>179000</v>
+        <v>166300</v>
       </c>
       <c r="J58" s="3">
+        <v>175800</v>
+      </c>
+      <c r="K58" s="3">
         <v>145000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>152400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>170100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>162400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>220400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>175900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>167900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>161900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>96000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>191800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>157900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>203300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>175500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>94300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>89700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>38800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>41000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>35000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>37200</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>39900</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>39700</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>742100</v>
+        <v>728500</v>
       </c>
       <c r="E59" s="3">
-        <v>737000</v>
+        <v>728800</v>
       </c>
       <c r="F59" s="3">
-        <v>816000</v>
+        <v>723700</v>
       </c>
       <c r="G59" s="3">
-        <v>724400</v>
+        <v>801300</v>
       </c>
       <c r="H59" s="3">
-        <v>686500</v>
+        <v>711400</v>
       </c>
       <c r="I59" s="3">
-        <v>647300</v>
+        <v>674100</v>
       </c>
       <c r="J59" s="3">
+        <v>635600</v>
+      </c>
+      <c r="K59" s="3">
         <v>573700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>519600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1024100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1104800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>554500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>619400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>648300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>723600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>601800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>606300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>613000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>579800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>653200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>530700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>538100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>561900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>457900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>390600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>390800</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>404700</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>221300</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>225100</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1586800</v>
+        <v>1762500</v>
       </c>
       <c r="E60" s="3">
-        <v>1663400</v>
+        <v>1558200</v>
       </c>
       <c r="F60" s="3">
-        <v>1658700</v>
+        <v>1633400</v>
       </c>
       <c r="G60" s="3">
-        <v>1563800</v>
+        <v>1628800</v>
       </c>
       <c r="H60" s="3">
-        <v>1518500</v>
+        <v>1535600</v>
       </c>
       <c r="I60" s="3">
-        <v>1548200</v>
+        <v>1491100</v>
       </c>
       <c r="J60" s="3">
+        <v>1520300</v>
+      </c>
+      <c r="K60" s="3">
         <v>1378300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1261700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1761800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1977200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1485100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1463400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1449100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1619000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1352300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1412800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1403500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1454600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1508700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1157200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1120800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1097000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>951200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>843600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>882100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>978600</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>876500</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>842800</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2303400</v>
+        <v>2138400</v>
       </c>
       <c r="E61" s="3">
-        <v>2247400</v>
+        <v>2261900</v>
       </c>
       <c r="F61" s="3">
-        <v>2253400</v>
+        <v>2206800</v>
       </c>
       <c r="G61" s="3">
-        <v>2335500</v>
+        <v>2212800</v>
       </c>
       <c r="H61" s="3">
-        <v>2223400</v>
+        <v>2293400</v>
       </c>
       <c r="I61" s="3">
-        <v>2076300</v>
+        <v>2183300</v>
       </c>
       <c r="J61" s="3">
+        <v>2038800</v>
+      </c>
+      <c r="K61" s="3">
         <v>1908700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1937900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1577900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1603200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1667400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1830300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1956300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2438400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1919500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2017900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1931500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1589100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>850000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>849900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>897600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>899500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>883600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>866100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>882800</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>924600</v>
-      </c>
-      <c r="AD61" s="3">
-        <v>936400</v>
       </c>
       <c r="AE61" s="3">
         <v>936400</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>936400</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>358300</v>
+        <v>351700</v>
       </c>
       <c r="E62" s="3">
-        <v>418600</v>
+        <v>351900</v>
       </c>
       <c r="F62" s="3">
-        <v>395000</v>
+        <v>411100</v>
       </c>
       <c r="G62" s="3">
-        <v>382800</v>
+        <v>387900</v>
       </c>
       <c r="H62" s="3">
-        <v>405600</v>
+        <v>375900</v>
       </c>
       <c r="I62" s="3">
-        <v>441700</v>
+        <v>398300</v>
       </c>
       <c r="J62" s="3">
+        <v>433700</v>
+      </c>
+      <c r="K62" s="3">
         <v>563300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>603300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>566400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>576000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>652800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>610600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>634900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>578600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>625500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>689000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>666800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>617200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>629100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>570500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>597800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>595300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>615100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>583200</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>600000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>611800</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>603200</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>648900</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4309600</v>
+        <v>4312900</v>
       </c>
       <c r="E66" s="3">
-        <v>4389400</v>
+        <v>4231900</v>
       </c>
       <c r="F66" s="3">
-        <v>4367400</v>
+        <v>4310300</v>
       </c>
       <c r="G66" s="3">
-        <v>4340700</v>
+        <v>4288600</v>
       </c>
       <c r="H66" s="3">
-        <v>4202700</v>
+        <v>4262500</v>
       </c>
       <c r="I66" s="3">
-        <v>4123100</v>
+        <v>4126900</v>
       </c>
       <c r="J66" s="3">
+        <v>4048800</v>
+      </c>
+      <c r="K66" s="3">
         <v>3906700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3857900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3958100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4210700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3866400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3969900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4106900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4705500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3962400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4187300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4064300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3721500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3048400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2631900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2671100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2642800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2497600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2338500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>2410000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>2561300</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>2460700</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>2471400</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1558000</v>
+        <v>1590200</v>
       </c>
       <c r="E72" s="3">
-        <v>1521300</v>
+        <v>1529900</v>
       </c>
       <c r="F72" s="3">
-        <v>1438300</v>
+        <v>1493900</v>
       </c>
       <c r="G72" s="3">
-        <v>1375700</v>
+        <v>1412400</v>
       </c>
       <c r="H72" s="3">
-        <v>1351100</v>
+        <v>1350900</v>
       </c>
       <c r="I72" s="3">
-        <v>1316100</v>
+        <v>1326700</v>
       </c>
       <c r="J72" s="3">
+        <v>1292300</v>
+      </c>
+      <c r="K72" s="3">
         <v>1215400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1207900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1179900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1159100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1121200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1069400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1064700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1248300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1188800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1199400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1135000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1122300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1045900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1001500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1021400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>978100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>965700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>934500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>902100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>916000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>877400</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>806200</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3331000</v>
+        <v>3368200</v>
       </c>
       <c r="E76" s="3">
-        <v>3337300</v>
+        <v>3271000</v>
       </c>
       <c r="F76" s="3">
-        <v>3237900</v>
+        <v>3277100</v>
       </c>
       <c r="G76" s="3">
-        <v>3137900</v>
+        <v>3179500</v>
       </c>
       <c r="H76" s="3">
-        <v>3020200</v>
+        <v>3081300</v>
       </c>
       <c r="I76" s="3">
-        <v>2968600</v>
+        <v>2965800</v>
       </c>
       <c r="J76" s="3">
+        <v>2915100</v>
+      </c>
+      <c r="K76" s="3">
         <v>2915900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2921800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2354100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2358100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2152600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1735100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1726900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1954500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1841900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1881800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1813800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1794700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1742300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1604500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1688200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1658900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1578800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1525900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1536500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1552400</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>1511400</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>1455900</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>48300</v>
+        <v>42500</v>
       </c>
       <c r="E81" s="3">
-        <v>72900</v>
+        <v>47500</v>
       </c>
       <c r="F81" s="3">
-        <v>57800</v>
+        <v>71500</v>
       </c>
       <c r="G81" s="3">
-        <v>32900</v>
+        <v>56800</v>
       </c>
       <c r="H81" s="3">
-        <v>1300</v>
+        <v>32400</v>
       </c>
       <c r="I81" s="3">
-        <v>40800</v>
+        <v>1200</v>
       </c>
       <c r="J81" s="3">
+        <v>40100</v>
+      </c>
+      <c r="K81" s="3">
         <v>19400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>10400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>34400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>14900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>37800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-84800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>61500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>76200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>61200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>48800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>94100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>59100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>44100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>52200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>74500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>107000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>44900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>44400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>51200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>52100</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,97 +6807,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>68300</v>
+        <v>66300</v>
       </c>
       <c r="E83" s="3">
-        <v>66200</v>
+        <v>67000</v>
       </c>
       <c r="F83" s="3">
-        <v>65400</v>
+        <v>65000</v>
       </c>
       <c r="G83" s="3">
+        <v>64200</v>
+      </c>
+      <c r="H83" s="3">
+        <v>59500</v>
+      </c>
+      <c r="I83" s="3">
+        <v>60100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>58800</v>
+      </c>
+      <c r="K83" s="3">
+        <v>59200</v>
+      </c>
+      <c r="L83" s="3">
+        <v>58200</v>
+      </c>
+      <c r="M83" s="3">
+        <v>52700</v>
+      </c>
+      <c r="N83" s="3">
+        <v>55000</v>
+      </c>
+      <c r="O83" s="3">
+        <v>61300</v>
+      </c>
+      <c r="P83" s="3">
+        <v>58400</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>65600</v>
+      </c>
+      <c r="R83" s="3">
+        <v>57700</v>
+      </c>
+      <c r="S83" s="3">
         <v>60600</v>
       </c>
-      <c r="H83" s="3">
-        <v>61200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>59900</v>
-      </c>
-      <c r="J83" s="3">
-        <v>59200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>58200</v>
-      </c>
-      <c r="L83" s="3">
-        <v>52700</v>
-      </c>
-      <c r="M83" s="3">
-        <v>55000</v>
-      </c>
-      <c r="N83" s="3">
-        <v>61300</v>
-      </c>
-      <c r="O83" s="3">
-        <v>58400</v>
-      </c>
-      <c r="P83" s="3">
-        <v>65600</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>57700</v>
-      </c>
-      <c r="R83" s="3">
-        <v>60600</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>62500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>58500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>48900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>40300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>37800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>36700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>35500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>36800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>36400</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>39900</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>39500</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>42500</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-36500</v>
+        <v>131000</v>
       </c>
       <c r="E89" s="3">
-        <v>133700</v>
+        <v>-35800</v>
       </c>
       <c r="F89" s="3">
-        <v>186900</v>
+        <v>131300</v>
       </c>
       <c r="G89" s="3">
-        <v>102200</v>
+        <v>183500</v>
       </c>
       <c r="H89" s="3">
-        <v>-120400</v>
+        <v>100300</v>
       </c>
       <c r="I89" s="3">
-        <v>153100</v>
+        <v>-118200</v>
       </c>
       <c r="J89" s="3">
+        <v>150300</v>
+      </c>
+      <c r="K89" s="3">
         <v>229200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>22900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-95600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>131100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>181700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>35000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-67800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>193400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>251100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>30400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-47600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>128000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>165600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>128700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-23000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>102600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>139600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>72300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-14300</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>151700</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>119900</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,97 +7485,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-94400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-130400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-99400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-123100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-103500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-99300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-102400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-66300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-93200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-37900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-18500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-11700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-13800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-65900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-40200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-48700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-70600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-120600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>36500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-29700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-40000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-42700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-32000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-18200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-36500</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-56500</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-27500</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-45200</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-98500</v>
+        <v>-71200</v>
       </c>
       <c r="E94" s="3">
-        <v>-57700</v>
+        <v>-96800</v>
       </c>
       <c r="F94" s="3">
-        <v>-82100</v>
+        <v>-56700</v>
       </c>
       <c r="G94" s="3">
-        <v>-88100</v>
+        <v>-80600</v>
       </c>
       <c r="H94" s="3">
-        <v>-68700</v>
+        <v>-86500</v>
       </c>
       <c r="I94" s="3">
-        <v>-438700</v>
+        <v>-67500</v>
       </c>
       <c r="J94" s="3">
+        <v>-430800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-81500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1055000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-81700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-87300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-136300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-16600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-22500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-91600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-143700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-63700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-93700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-701200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-233700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-62900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-56400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-32000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-111900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>46400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-28300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-61200</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-27700</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-49400</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7699,52 +7933,55 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-22500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-22100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-23500</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-20200</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-19700</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-19400</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-18700</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-17400</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-16700</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>-17300</v>
       </c>
       <c r="AA96" s="3">
         <v>-17300</v>
       </c>
       <c r="AB96" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-15600</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-15700</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-16000</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>-15600</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,271 +8253,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>89900</v>
+        <v>-39800</v>
       </c>
       <c r="E100" s="3">
-        <v>-58600</v>
+        <v>88300</v>
       </c>
       <c r="F100" s="3">
-        <v>-120100</v>
+        <v>-57600</v>
       </c>
       <c r="G100" s="3">
-        <v>-21500</v>
+        <v>-117900</v>
       </c>
       <c r="H100" s="3">
-        <v>87200</v>
+        <v>-21100</v>
       </c>
       <c r="I100" s="3">
-        <v>205200</v>
+        <v>85600</v>
       </c>
       <c r="J100" s="3">
+        <v>201500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-53600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>773700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>193300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>238600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-100400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-349700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>407400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-64600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-44700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>48600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>643900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-52200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-56500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-22000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-38300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-33100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-12700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-22900</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-33200</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1900</v>
       </c>
-      <c r="F101" s="3">
-        <v>6700</v>
-      </c>
       <c r="G101" s="3">
-        <v>5300</v>
+        <v>6600</v>
       </c>
       <c r="H101" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M101" s="3">
         <v>-1900</v>
       </c>
-      <c r="I101" s="3">
-        <v>-6500</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-7100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>15300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-4600</v>
-      </c>
-      <c r="T101" s="3">
-        <v>-5800</v>
       </c>
       <c r="U101" s="3">
         <v>-5800</v>
       </c>
       <c r="V101" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="W101" s="3">
         <v>11700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-6300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-4600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>11500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>3000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-4300</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>1000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-100</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-2600</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-48000</v>
+        <v>20900</v>
       </c>
       <c r="E102" s="3">
-        <v>19200</v>
+        <v>-47100</v>
       </c>
       <c r="F102" s="3">
-        <v>-8600</v>
+        <v>18900</v>
       </c>
       <c r="G102" s="3">
-        <v>-2100</v>
+        <v>-8400</v>
       </c>
       <c r="H102" s="3">
-        <v>-103700</v>
+        <v>-2000</v>
       </c>
       <c r="I102" s="3">
-        <v>-86900</v>
+        <v>-101900</v>
       </c>
       <c r="J102" s="3">
+        <v>-85400</v>
+      </c>
+      <c r="K102" s="3">
         <v>91100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-259300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-174500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>229900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>280000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-80700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-447100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>524400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>43700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-82500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-98400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>65000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-108500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>3100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-83900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>60100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-7600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>81200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-54200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>67500</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>56500</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-1300</v>
       </c>
     </row>
